--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tazuke-r\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{50D6E361-E8D1-4C40-9800-C83C5FFDE5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="3870" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="23" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$V$897</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="981">
   <si>
     <t>v</t>
     <phoneticPr fontId="2"/>
@@ -3281,7 +3282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3450,8 +3451,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -3764,38 +3765,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E202" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C718" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F205" sqref="F205"/>
+      <selection pane="bottomRight" activeCell="M461" sqref="M461"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.16796875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="9.140625" style="12"/>
-    <col min="3" max="6" width="7.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="9.140625" style="13"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="9.140625" style="13"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="9.140625" style="13"/>
-    <col min="20" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="4"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.16796875" style="4"/>
+    <col min="2" max="2" width="9.16796875" style="12"/>
+    <col min="3" max="6" width="7.14453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.16796875" style="13"/>
+    <col min="8" max="9" width="9.16796875" style="1"/>
+    <col min="10" max="10" width="9.16796875" style="4"/>
+    <col min="11" max="11" width="9.16796875" style="13"/>
+    <col min="12" max="13" width="9.16796875" style="1"/>
+    <col min="14" max="14" width="9.16796875" style="4"/>
+    <col min="15" max="15" width="9.16796875" style="13"/>
+    <col min="16" max="17" width="9.16796875" style="1"/>
+    <col min="18" max="18" width="9.16796875" style="4"/>
+    <col min="19" max="19" width="9.16796875" style="13"/>
+    <col min="20" max="21" width="9.16796875" style="1"/>
+    <col min="22" max="22" width="9.16796875" style="4"/>
+    <col min="23" max="16384" width="9.16796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>971</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>972</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>972</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>972</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>972</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>972</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>972</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>972</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>972</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>972</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>972</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>972</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>972</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>972</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>972</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>972</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>972</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>972</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>972</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>972</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>972</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>972</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>972</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>972</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>972</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>972</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>972</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>972</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>972</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>972</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>972</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>972</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>972</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>972</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>972</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>972</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>972</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>972</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>972</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>972</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>972</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>972</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>972</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>972</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>972</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>972</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>972</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>972</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>972</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>972</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>972</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>972</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>972</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>972</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>972</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>972</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>972</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>972</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>972</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>972</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>972</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>972</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>972</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>972</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>972</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>972</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>972</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>972</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>972</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>972</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>972</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>972</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>972</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>972</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>972</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>972</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>972</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>972</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>972</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>972</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>972</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>972</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>972</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>972</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>972</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>972</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>972</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>972</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>972</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>972</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>972</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>972</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>972</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>972</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>972</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>972</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>972</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>972</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>972</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>972</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>972</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>972</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>972</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>972</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>972</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>972</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>972</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>972</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>972</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>972</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>972</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>972</v>
       </c>
@@ -7637,7 +7638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>972</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>972</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>972</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>972</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>972</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>972</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>972</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>972</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>972</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>972</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>972</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>972</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>972</v>
       </c>
@@ -8051,7 +8052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>972</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>972</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>972</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>972</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>972</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>972</v>
       </c>
@@ -8240,7 +8241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>972</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>972</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>972</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>972</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>972</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>972</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>972</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>972</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>972</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>972</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>972</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>972</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>972</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>972</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>972</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>972</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>972</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>972</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>972</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>972</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>972</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>972</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>972</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>972</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>972</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>972</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>972</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>972</v>
       </c>
@@ -9158,7 +9159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>972</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>972</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>972</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>972</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>972</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>972</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>972</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>972</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>972</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>972</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>972</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>972</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>972</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>972</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>972</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>972</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>972</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>972</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>972</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>972</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>972</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>972</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>972</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>972</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>972</v>
       </c>
@@ -9974,7 +9975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>972</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>972</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>972</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>972</v>
       </c>
@@ -10079,7 +10080,7 @@
       </c>
       <c r="C188" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>we</v>
+        <v>wo</v>
       </c>
       <c r="D188" s="12" t="str">
         <f t="shared" si="9"/>
@@ -10097,10 +10098,10 @@
         <v>38</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>972</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>972</v>
       </c>
@@ -10170,7 +10171,7 @@
       </c>
       <c r="K190" s="14"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>972</v>
       </c>
@@ -10204,7 +10205,7 @@
       </c>
       <c r="K191" s="14"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>972</v>
       </c>
@@ -10238,7 +10239,7 @@
       </c>
       <c r="K192" s="14"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>972</v>
       </c>
@@ -10272,7 +10273,7 @@
       </c>
       <c r="K193" s="14"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>972</v>
       </c>
@@ -10306,7 +10307,7 @@
       </c>
       <c r="K194" s="14"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>972</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>972</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>972</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>972</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>972</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>972</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>972</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>972</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>972</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>972</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>972</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>972</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>972</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>979</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>973</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>973</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>973</v>
       </c>
@@ -10870,7 +10871,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>973</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>973</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>973</v>
       </c>
@@ -10981,7 +10982,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>973</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>973</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>973</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>973</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>973</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>973</v>
       </c>
@@ -11185,7 +11186,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>973</v>
       </c>
@@ -11218,7 +11219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>973</v>
       </c>
@@ -11251,7 +11252,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>973</v>
       </c>
@@ -11284,7 +11285,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>973</v>
       </c>
@@ -11329,7 +11330,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>973</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>973</v>
       </c>
@@ -11419,7 +11420,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>973</v>
       </c>
@@ -11464,7 +11465,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>973</v>
       </c>
@@ -11509,7 +11510,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>973</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>973</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>973</v>
       </c>
@@ -11617,7 +11618,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>973</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>973</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>973</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>973</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>973</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>973</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>973</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>973</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>973</v>
       </c>
@@ -11926,7 +11927,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>973</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>973</v>
       </c>
@@ -11998,7 +11999,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>973</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>973</v>
       </c>
@@ -12070,7 +12071,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>973</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>973</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>973</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>973</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>973</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>973</v>
       </c>
@@ -12301,7 +12302,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>973</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>973</v>
       </c>
@@ -12367,7 +12368,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>973</v>
       </c>
@@ -12400,7 +12401,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>973</v>
       </c>
@@ -12457,7 +12458,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>973</v>
       </c>
@@ -12493,7 +12494,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>973</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>973</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>973</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>973</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>973</v>
       </c>
@@ -12736,7 +12737,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>973</v>
       </c>
@@ -12772,7 +12773,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>973</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>973</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>973</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>973</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>973</v>
       </c>
@@ -12952,7 +12953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>973</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>973</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>973</v>
       </c>
@@ -13063,7 +13064,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>973</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>973</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>973</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>973</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>973</v>
       </c>
@@ -13267,7 +13268,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>973</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>973</v>
       </c>
@@ -13345,7 +13346,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>973</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>973</v>
       </c>
@@ -13411,7 +13412,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>973</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>973</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>973</v>
       </c>
@@ -13543,7 +13544,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>973</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>973</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>973</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>973</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>973</v>
       </c>
@@ -13747,7 +13748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>973</v>
       </c>
@@ -13783,7 +13784,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>973</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>973</v>
       </c>
@@ -13855,7 +13856,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>973</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>973</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>973</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>973</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>973</v>
       </c>
@@ -14053,7 +14054,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>973</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>973</v>
       </c>
@@ -14134,7 +14135,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>973</v>
       </c>
@@ -14170,7 +14171,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>973</v>
       </c>
@@ -14206,7 +14207,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>973</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>973</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>973</v>
       </c>
@@ -14305,7 +14306,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>973</v>
       </c>
@@ -14338,7 +14339,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>973</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>973</v>
       </c>
@@ -14407,7 +14408,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>973</v>
       </c>
@@ -14443,7 +14444,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>973</v>
       </c>
@@ -14479,7 +14480,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>973</v>
       </c>
@@ -14515,7 +14516,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>973</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>973</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>973</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>973</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>973</v>
       </c>
@@ -14695,7 +14696,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>973</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>973</v>
       </c>
@@ -14767,7 +14768,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>973</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>973</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>973</v>
       </c>
@@ -14893,7 +14894,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>973</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>973</v>
       </c>
@@ -14965,7 +14966,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>973</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>973</v>
       </c>
@@ -15046,7 +15047,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>973</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>973</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>973</v>
       </c>
@@ -15151,7 +15152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>973</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>973</v>
       </c>
@@ -15217,7 +15218,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>973</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>973</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>973</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>973</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>973</v>
       </c>
@@ -15391,7 +15392,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>973</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>973</v>
       </c>
@@ -15463,7 +15464,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>973</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>973</v>
       </c>
@@ -15529,7 +15530,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>973</v>
       </c>
@@ -15571,7 +15572,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>973</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>973</v>
       </c>
@@ -15637,7 +15638,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>973</v>
       </c>
@@ -15673,7 +15674,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>973</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>973</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>973</v>
       </c>
@@ -15781,7 +15782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>973</v>
       </c>
@@ -15817,7 +15818,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>973</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>973</v>
       </c>
@@ -15907,7 +15908,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>973</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>973</v>
       </c>
@@ -15988,7 +15989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>973</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>973</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>973</v>
       </c>
@@ -16099,7 +16100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>973</v>
       </c>
@@ -16132,7 +16133,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>973</v>
       </c>
@@ -16165,7 +16166,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>973</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>973</v>
       </c>
@@ -16234,7 +16235,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>973</v>
       </c>
@@ -16270,7 +16271,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>973</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>973</v>
       </c>
@@ -16342,7 +16343,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>973</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>973</v>
       </c>
@@ -16411,7 +16412,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>973</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>973</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>973</v>
       </c>
@@ -16510,7 +16511,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>973</v>
       </c>
@@ -16543,7 +16544,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>973</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>973</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>973</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>973</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>973</v>
       </c>
@@ -16723,7 +16724,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>973</v>
       </c>
@@ -16756,7 +16757,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>973</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>973</v>
       </c>
@@ -16822,7 +16823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>973</v>
       </c>
@@ -16855,7 +16856,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>973</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>973</v>
       </c>
@@ -16924,7 +16925,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>973</v>
       </c>
@@ -16960,7 +16961,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>973</v>
       </c>
@@ -16996,7 +16997,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>973</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>973</v>
       </c>
@@ -17068,7 +17069,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>973</v>
       </c>
@@ -17101,7 +17102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>973</v>
       </c>
@@ -17134,7 +17135,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>973</v>
       </c>
@@ -17167,7 +17168,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>973</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>973</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>973</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>973</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>973</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>973</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>973</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>973</v>
       </c>
@@ -17467,7 +17468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>973</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>973</v>
       </c>
@@ -17557,7 +17558,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>973</v>
       </c>
@@ -17590,7 +17591,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>973</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>973</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>973</v>
       </c>
@@ -17698,7 +17699,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>973</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>973</v>
       </c>
@@ -17770,7 +17771,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>979</v>
       </c>
@@ -17791,7 +17792,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
         <v>974</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>974</v>
       </c>
@@ -17851,7 +17852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>974</v>
       </c>
@@ -17881,7 +17882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>974</v>
       </c>
@@ -17911,7 +17912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>974</v>
       </c>
@@ -17941,7 +17942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>974</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>974</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>974</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>974</v>
       </c>
@@ -18061,7 +18062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>974</v>
       </c>
@@ -18091,7 +18092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>974</v>
       </c>
@@ -18121,7 +18122,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>974</v>
       </c>
@@ -18151,7 +18152,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>974</v>
       </c>
@@ -18181,7 +18182,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>974</v>
       </c>
@@ -18211,7 +18212,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>974</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>974</v>
       </c>
@@ -18271,7 +18272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>979</v>
       </c>
@@ -18292,7 +18293,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="s">
         <v>975</v>
       </c>
@@ -18328,7 +18329,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
         <v>975</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
         <v>975</v>
       </c>
@@ -18412,7 +18413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
         <v>975</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
         <v>975</v>
       </c>
@@ -18484,7 +18485,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
         <v>975</v>
       </c>
@@ -18514,7 +18515,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
         <v>975</v>
       </c>
@@ -18547,7 +18548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
         <v>975</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
         <v>975</v>
       </c>
@@ -18607,7 +18608,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
         <v>975</v>
       </c>
@@ -18640,7 +18641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
         <v>975</v>
       </c>
@@ -18670,7 +18671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
         <v>975</v>
       </c>
@@ -18706,7 +18707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="s">
         <v>975</v>
       </c>
@@ -18736,7 +18737,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="s">
         <v>975</v>
       </c>
@@ -18766,7 +18767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
         <v>975</v>
       </c>
@@ -18796,7 +18797,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="s">
         <v>975</v>
       </c>
@@ -18835,7 +18836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
         <v>975</v>
       </c>
@@ -18874,7 +18875,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
         <v>975</v>
       </c>
@@ -18913,7 +18914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
         <v>975</v>
       </c>
@@ -18952,7 +18953,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="s">
         <v>975</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="s">
         <v>975</v>
       </c>
@@ -19018,7 +19019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="s">
         <v>975</v>
       </c>
@@ -19051,7 +19052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
         <v>975</v>
       </c>
@@ -19084,7 +19085,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="s">
         <v>975</v>
       </c>
@@ -19114,7 +19115,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
         <v>975</v>
       </c>
@@ -19144,7 +19145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="s">
         <v>975</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
         <v>975</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="s">
         <v>975</v>
       </c>
@@ -19234,7 +19235,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
         <v>975</v>
       </c>
@@ -19267,7 +19268,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="8" t="s">
         <v>975</v>
       </c>
@@ -19300,7 +19301,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="s">
         <v>975</v>
       </c>
@@ -19333,7 +19334,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="8" t="s">
         <v>975</v>
       </c>
@@ -19366,7 +19367,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="8" t="s">
         <v>975</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A449" s="8" t="s">
         <v>975</v>
       </c>
@@ -19432,7 +19433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
         <v>975</v>
       </c>
@@ -19465,7 +19466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A451" s="8" t="s">
         <v>975</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A452" s="8" t="s">
         <v>975</v>
       </c>
@@ -19528,7 +19529,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A453" s="8" t="s">
         <v>975</v>
       </c>
@@ -19541,7 +19542,7 @@
       </c>
       <c r="D453" s="12" t="str">
         <f t="shared" si="25"/>
-        <v>shig</v>
+        <v>shg</v>
       </c>
       <c r="E453" s="12" t="str">
         <f t="shared" si="26"/>
@@ -19564,10 +19565,7 @@
         <v>45</v>
       </c>
       <c r="M453" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N453" s="4" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="O453" s="13" t="s">
         <v>5</v>
@@ -19576,7 +19574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A454" s="8" t="s">
         <v>975</v>
       </c>
@@ -19606,7 +19604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A455" s="8" t="s">
         <v>975</v>
       </c>
@@ -19636,7 +19634,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="s">
         <v>975</v>
       </c>
@@ -19666,7 +19664,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A457" s="8" t="s">
         <v>975</v>
       </c>
@@ -19679,7 +19677,7 @@
       </c>
       <c r="D457" s="12" t="str">
         <f t="shared" si="33"/>
-        <v>shan</v>
+        <v>shn</v>
       </c>
       <c r="E457" s="12" t="str">
         <f t="shared" si="34"/>
@@ -19705,10 +19703,7 @@
         <v>45</v>
       </c>
       <c r="M457" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N457" s="4" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="O457" s="13" t="s">
         <v>5</v>
@@ -19717,7 +19712,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="s">
         <v>975</v>
       </c>
@@ -19730,7 +19725,7 @@
       </c>
       <c r="D458" s="12" t="str">
         <f t="shared" si="33"/>
-        <v>shub</v>
+        <v>shb</v>
       </c>
       <c r="E458" s="12" t="str">
         <f t="shared" si="34"/>
@@ -19756,10 +19751,7 @@
         <v>45</v>
       </c>
       <c r="M458" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N458" s="4" t="s">
-        <v>182</v>
+        <v>773</v>
       </c>
       <c r="O458" s="13" t="s">
         <v>5</v>
@@ -19768,7 +19760,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A459" s="8" t="s">
         <v>975</v>
       </c>
@@ -19781,7 +19773,7 @@
       </c>
       <c r="D459" s="12" t="str">
         <f t="shared" si="33"/>
-        <v>shed</v>
+        <v>shd</v>
       </c>
       <c r="E459" s="12" t="str">
         <f t="shared" si="34"/>
@@ -19807,10 +19799,7 @@
         <v>45</v>
       </c>
       <c r="M459" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N459" s="4" t="s">
-        <v>130</v>
+        <v>762</v>
       </c>
       <c r="O459" s="13" t="s">
         <v>5</v>
@@ -19819,7 +19808,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="s">
         <v>975</v>
       </c>
@@ -19832,7 +19821,7 @@
       </c>
       <c r="D460" s="12" t="str">
         <f t="shared" si="33"/>
-        <v>shom</v>
+        <v>shm</v>
       </c>
       <c r="E460" s="12" t="str">
         <f t="shared" si="34"/>
@@ -19858,10 +19847,7 @@
         <v>45</v>
       </c>
       <c r="M460" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N460" s="4" t="s">
-        <v>204</v>
+        <v>781</v>
       </c>
       <c r="O460" s="13" t="s">
         <v>5</v>
@@ -19870,7 +19856,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
         <v>975</v>
       </c>
@@ -19903,7 +19889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="s">
         <v>975</v>
       </c>
@@ -19936,7 +19922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A463" s="8" t="s">
         <v>975</v>
       </c>
@@ -19969,7 +19955,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="s">
         <v>975</v>
       </c>
@@ -20002,7 +19988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="8" t="s">
         <v>975</v>
       </c>
@@ -20032,7 +20018,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="s">
         <v>975</v>
       </c>
@@ -20068,7 +20054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="8" t="s">
         <v>975</v>
       </c>
@@ -20098,7 +20084,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="s">
         <v>975</v>
       </c>
@@ -20128,7 +20114,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
         <v>975</v>
       </c>
@@ -20158,7 +20144,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="s">
         <v>975</v>
       </c>
@@ -20197,7 +20183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="8" t="s">
         <v>975</v>
       </c>
@@ -20236,7 +20222,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="s">
         <v>975</v>
       </c>
@@ -20275,7 +20261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="8" t="s">
         <v>975</v>
       </c>
@@ -20314,7 +20300,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="s">
         <v>975</v>
       </c>
@@ -20344,7 +20330,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="8" t="s">
         <v>975</v>
       </c>
@@ -20383,7 +20369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="s">
         <v>975</v>
       </c>
@@ -20413,7 +20399,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="8" t="s">
         <v>975</v>
       </c>
@@ -20443,7 +20429,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="s">
         <v>975</v>
       </c>
@@ -20473,7 +20459,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="8" t="s">
         <v>975</v>
       </c>
@@ -20515,7 +20501,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="s">
         <v>975</v>
       </c>
@@ -20557,7 +20543,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" s="8" t="s">
         <v>975</v>
       </c>
@@ -20599,7 +20585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="s">
         <v>975</v>
       </c>
@@ -20641,7 +20627,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="8" t="s">
         <v>975</v>
       </c>
@@ -20674,7 +20660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="s">
         <v>975</v>
       </c>
@@ -20707,7 +20693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="8" t="s">
         <v>975</v>
       </c>
@@ -20737,7 +20723,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="s">
         <v>975</v>
       </c>
@@ -20767,7 +20753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="8" t="s">
         <v>975</v>
       </c>
@@ -20797,7 +20783,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="8" t="s">
         <v>975</v>
       </c>
@@ -20827,7 +20813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="8" t="s">
         <v>975</v>
       </c>
@@ -20857,7 +20843,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="8" t="s">
         <v>975</v>
       </c>
@@ -20890,7 +20876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" s="8" t="s">
         <v>975</v>
       </c>
@@ -20923,7 +20909,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" s="8" t="s">
         <v>975</v>
       </c>
@@ -20953,7 +20939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" s="8" t="s">
         <v>975</v>
       </c>
@@ -20983,7 +20969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" s="8" t="s">
         <v>975</v>
       </c>
@@ -21013,7 +20999,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="s">
         <v>975</v>
       </c>
@@ -21043,7 +21029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="8" t="s">
         <v>975</v>
       </c>
@@ -21073,7 +21059,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="s">
         <v>975</v>
       </c>
@@ -21106,7 +21092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="s">
         <v>975</v>
       </c>
@@ -21139,7 +21125,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="s">
         <v>975</v>
       </c>
@@ -21172,7 +21158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="s">
         <v>975</v>
       </c>
@@ -21205,7 +21191,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
         <v>975</v>
       </c>
@@ -21235,7 +21221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="8" t="s">
         <v>975</v>
       </c>
@@ -21265,7 +21251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" s="8" t="s">
         <v>975</v>
       </c>
@@ -21301,7 +21287,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" s="8" t="s">
         <v>975</v>
       </c>
@@ -21331,7 +21317,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505" s="8" t="s">
         <v>975</v>
       </c>
@@ -21361,7 +21347,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="8" t="s">
         <v>975</v>
       </c>
@@ -21394,7 +21380,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
         <v>975</v>
       </c>
@@ -21427,7 +21413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
         <v>975</v>
       </c>
@@ -21460,7 +21446,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
         <v>975</v>
       </c>
@@ -21493,7 +21479,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" s="8" t="s">
         <v>975</v>
       </c>
@@ -21532,7 +21518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" s="8" t="s">
         <v>975</v>
       </c>
@@ -21571,7 +21557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" s="8" t="s">
         <v>975</v>
       </c>
@@ -21610,7 +21596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="8" t="s">
         <v>975</v>
       </c>
@@ -21649,7 +21635,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="8" t="s">
         <v>975</v>
       </c>
@@ -21679,7 +21665,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="8" t="s">
         <v>975</v>
       </c>
@@ -21709,7 +21695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="8" t="s">
         <v>975</v>
       </c>
@@ -21739,7 +21725,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="8" t="s">
         <v>975</v>
       </c>
@@ -21769,7 +21755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="8" t="s">
         <v>975</v>
       </c>
@@ -21799,7 +21785,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="8" t="s">
         <v>975</v>
       </c>
@@ -21832,7 +21818,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="8" t="s">
         <v>975</v>
       </c>
@@ -21865,7 +21851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="8" t="s">
         <v>975</v>
       </c>
@@ -21898,7 +21884,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="8" t="s">
         <v>975</v>
       </c>
@@ -21931,7 +21917,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="8" t="s">
         <v>975</v>
       </c>
@@ -21961,7 +21947,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="8" t="s">
         <v>975</v>
       </c>
@@ -21991,7 +21977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="8" t="s">
         <v>975</v>
       </c>
@@ -22021,7 +22007,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="8" t="s">
         <v>975</v>
       </c>
@@ -22051,7 +22037,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="8" t="s">
         <v>975</v>
       </c>
@@ -22081,7 +22067,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="8" t="s">
         <v>975</v>
       </c>
@@ -22114,7 +22100,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="8" t="s">
         <v>975</v>
       </c>
@@ -22147,7 +22133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="8" t="s">
         <v>975</v>
       </c>
@@ -22180,7 +22166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="8" t="s">
         <v>975</v>
       </c>
@@ -22213,7 +22199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="8" t="s">
         <v>975</v>
       </c>
@@ -22243,7 +22229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="8" t="s">
         <v>975</v>
       </c>
@@ -22273,7 +22259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="8" t="s">
         <v>975</v>
       </c>
@@ -22303,7 +22289,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>975</v>
       </c>
@@ -22333,7 +22319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
         <v>975</v>
       </c>
@@ -22363,7 +22349,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
         <v>975</v>
       </c>
@@ -22396,7 +22382,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
         <v>975</v>
       </c>
@@ -22429,7 +22415,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
         <v>975</v>
       </c>
@@ -22462,7 +22448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
         <v>975</v>
       </c>
@@ -22495,7 +22481,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
         <v>975</v>
       </c>
@@ -22525,7 +22511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
         <v>975</v>
       </c>
@@ -22555,7 +22541,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
         <v>975</v>
       </c>
@@ -22585,7 +22571,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="8" t="s">
         <v>975</v>
       </c>
@@ -22615,7 +22601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
         <v>975</v>
       </c>
@@ -22651,7 +22637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A546" s="8" t="s">
         <v>975</v>
       </c>
@@ -22681,7 +22667,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
         <v>975</v>
       </c>
@@ -22711,7 +22697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A548" s="8" t="s">
         <v>975</v>
       </c>
@@ -22741,7 +22727,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="8" t="s">
         <v>975</v>
       </c>
@@ -22780,7 +22766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A550" s="8" t="s">
         <v>975</v>
       </c>
@@ -22819,7 +22805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="8" t="s">
         <v>975</v>
       </c>
@@ -22858,7 +22844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
         <v>975</v>
       </c>
@@ -22897,7 +22883,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="8" t="s">
         <v>975</v>
       </c>
@@ -22927,7 +22913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
         <v>975</v>
       </c>
@@ -22960,7 +22946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="8" t="s">
         <v>975</v>
       </c>
@@ -22993,7 +22979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
         <v>975</v>
       </c>
@@ -23026,7 +23012,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="8" t="s">
         <v>975</v>
       </c>
@@ -23059,7 +23045,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
         <v>975</v>
       </c>
@@ -23092,7 +23078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
         <v>979</v>
       </c>
@@ -23113,7 +23099,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9" t="s">
         <v>976</v>
       </c>
@@ -23150,7 +23136,7 @@
       <c r="S560" s="15"/>
       <c r="V560" s="16"/>
     </row>
-    <row r="561" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
         <v>976</v>
       </c>
@@ -23195,7 +23181,7 @@
       <c r="S561" s="15"/>
       <c r="V561" s="16"/>
     </row>
-    <row r="562" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9" t="s">
         <v>976</v>
       </c>
@@ -23232,7 +23218,7 @@
       <c r="S562" s="15"/>
       <c r="V562" s="16"/>
     </row>
-    <row r="563" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
         <v>976</v>
       </c>
@@ -23269,7 +23255,7 @@
       <c r="S563" s="15"/>
       <c r="V563" s="16"/>
     </row>
-    <row r="564" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
         <v>976</v>
       </c>
@@ -23306,7 +23292,7 @@
       <c r="S564" s="15"/>
       <c r="V564" s="16"/>
     </row>
-    <row r="565" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
         <v>976</v>
       </c>
@@ -23351,7 +23337,7 @@
       <c r="S565" s="15"/>
       <c r="V565" s="16"/>
     </row>
-    <row r="566" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
         <v>976</v>
       </c>
@@ -23396,7 +23382,7 @@
       <c r="S566" s="15"/>
       <c r="V566" s="16"/>
     </row>
-    <row r="567" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
         <v>976</v>
       </c>
@@ -23441,7 +23427,7 @@
       <c r="S567" s="15"/>
       <c r="V567" s="16"/>
     </row>
-    <row r="568" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9" t="s">
         <v>976</v>
       </c>
@@ -23481,7 +23467,7 @@
       <c r="S568" s="15"/>
       <c r="V568" s="16"/>
     </row>
-    <row r="569" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
         <v>976</v>
       </c>
@@ -23521,7 +23507,7 @@
       <c r="S569" s="15"/>
       <c r="V569" s="16"/>
     </row>
-    <row r="570" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
         <v>976</v>
       </c>
@@ -23558,7 +23544,7 @@
       <c r="S570" s="15"/>
       <c r="V570" s="16"/>
     </row>
-    <row r="571" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
         <v>976</v>
       </c>
@@ -23598,7 +23584,7 @@
       <c r="S571" s="15"/>
       <c r="V571" s="16"/>
     </row>
-    <row r="572" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9" t="s">
         <v>976</v>
       </c>
@@ -23635,7 +23621,7 @@
       <c r="S572" s="15"/>
       <c r="V572" s="16"/>
     </row>
-    <row r="573" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
         <v>976</v>
       </c>
@@ -23672,7 +23658,7 @@
       <c r="S573" s="15"/>
       <c r="V573" s="16"/>
     </row>
-    <row r="574" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
         <v>976</v>
       </c>
@@ -23709,7 +23695,7 @@
       <c r="S574" s="15"/>
       <c r="V574" s="16"/>
     </row>
-    <row r="575" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
         <v>976</v>
       </c>
@@ -23749,7 +23735,7 @@
       <c r="S575" s="15"/>
       <c r="V575" s="16"/>
     </row>
-    <row r="576" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576" s="9" t="s">
         <v>976</v>
       </c>
@@ -23789,7 +23775,7 @@
       <c r="S576" s="15"/>
       <c r="V576" s="16"/>
     </row>
-    <row r="577" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="9" t="s">
         <v>976</v>
       </c>
@@ -23798,7 +23784,7 @@
       </c>
       <c r="C577" s="12" t="str">
         <f t="shared" si="36"/>
-        <v>gwa</v>
+        <v>gwf</v>
       </c>
       <c r="D577" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23819,7 +23805,7 @@
         <v>38</v>
       </c>
       <c r="I577" s="2" t="s">
-        <v>32</v>
+        <v>768</v>
       </c>
       <c r="J577" s="16"/>
       <c r="K577" s="15"/>
@@ -23829,7 +23815,7 @@
       <c r="S577" s="15"/>
       <c r="V577" s="16"/>
     </row>
-    <row r="578" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578" s="9" t="s">
         <v>976</v>
       </c>
@@ -23838,7 +23824,7 @@
       </c>
       <c r="C578" s="12" t="str">
         <f t="shared" si="36"/>
-        <v>gwe</v>
+        <v>gwl</v>
       </c>
       <c r="D578" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23859,7 +23845,7 @@
         <v>38</v>
       </c>
       <c r="I578" s="2" t="s">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="J578" s="16"/>
       <c r="K578" s="15"/>
@@ -23869,7 +23855,7 @@
       <c r="S578" s="15"/>
       <c r="V578" s="16"/>
     </row>
-    <row r="579" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
         <v>976</v>
       </c>
@@ -23906,7 +23892,7 @@
       <c r="S579" s="15"/>
       <c r="V579" s="16"/>
     </row>
-    <row r="580" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A580" s="9" t="s">
         <v>976</v>
       </c>
@@ -23951,7 +23937,7 @@
       <c r="S580" s="15"/>
       <c r="V580" s="16"/>
     </row>
-    <row r="581" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
         <v>976</v>
       </c>
@@ -23988,7 +23974,7 @@
       <c r="S581" s="15"/>
       <c r="V581" s="16"/>
     </row>
-    <row r="582" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A582" s="9" t="s">
         <v>976</v>
       </c>
@@ -24025,7 +24011,7 @@
       <c r="S582" s="15"/>
       <c r="V582" s="16"/>
     </row>
-    <row r="583" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
         <v>976</v>
       </c>
@@ -24062,7 +24048,7 @@
       <c r="S583" s="15"/>
       <c r="V583" s="16"/>
     </row>
-    <row r="584" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="9" t="s">
         <v>976</v>
       </c>
@@ -24107,7 +24093,7 @@
       <c r="S584" s="15"/>
       <c r="V584" s="16"/>
     </row>
-    <row r="585" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="9" t="s">
         <v>976</v>
       </c>
@@ -24152,7 +24138,7 @@
       <c r="S585" s="15"/>
       <c r="V585" s="16"/>
     </row>
-    <row r="586" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="9" t="s">
         <v>976</v>
       </c>
@@ -24197,7 +24183,7 @@
       <c r="S586" s="15"/>
       <c r="V586" s="16"/>
     </row>
-    <row r="587" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="9" t="s">
         <v>976</v>
       </c>
@@ -24242,7 +24228,7 @@
       <c r="S587" s="15"/>
       <c r="V587" s="16"/>
     </row>
-    <row r="588" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A588" s="9" t="s">
         <v>976</v>
       </c>
@@ -24279,7 +24265,7 @@
       <c r="S588" s="15"/>
       <c r="V588" s="16"/>
     </row>
-    <row r="589" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="9" t="s">
         <v>976</v>
       </c>
@@ -24324,7 +24310,7 @@
       <c r="S589" s="15"/>
       <c r="V589" s="16"/>
     </row>
-    <row r="590" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
         <v>976</v>
       </c>
@@ -24361,7 +24347,7 @@
       <c r="S590" s="15"/>
       <c r="V590" s="16"/>
     </row>
-    <row r="591" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
         <v>976</v>
       </c>
@@ -24398,7 +24384,7 @@
       <c r="S591" s="15"/>
       <c r="V591" s="16"/>
     </row>
-    <row r="592" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
         <v>976</v>
       </c>
@@ -24435,7 +24421,7 @@
       <c r="S592" s="15"/>
       <c r="V592" s="16"/>
     </row>
-    <row r="593" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
         <v>976</v>
       </c>
@@ -24480,7 +24466,7 @@
       <c r="S593" s="15"/>
       <c r="V593" s="16"/>
     </row>
-    <row r="594" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
         <v>976</v>
       </c>
@@ -24525,7 +24511,7 @@
       <c r="S594" s="15"/>
       <c r="V594" s="16"/>
     </row>
-    <row r="595" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="9" t="s">
         <v>976</v>
       </c>
@@ -24570,7 +24556,7 @@
       <c r="S595" s="15"/>
       <c r="V595" s="16"/>
     </row>
-    <row r="596" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
         <v>976</v>
       </c>
@@ -24615,7 +24601,7 @@
       <c r="S596" s="15"/>
       <c r="V596" s="16"/>
     </row>
-    <row r="597" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
         <v>976</v>
       </c>
@@ -24652,7 +24638,7 @@
       <c r="S597" s="15"/>
       <c r="V597" s="16"/>
     </row>
-    <row r="598" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
         <v>976</v>
       </c>
@@ -24697,7 +24683,7 @@
       <c r="S598" s="15"/>
       <c r="V598" s="16"/>
     </row>
-    <row r="599" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="9" t="s">
         <v>976</v>
       </c>
@@ -24734,7 +24720,7 @@
       <c r="S599" s="15"/>
       <c r="V599" s="16"/>
     </row>
-    <row r="600" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
         <v>976</v>
       </c>
@@ -24771,7 +24757,7 @@
       <c r="S600" s="15"/>
       <c r="V600" s="16"/>
     </row>
-    <row r="601" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="9" t="s">
         <v>976</v>
       </c>
@@ -24808,7 +24794,7 @@
       <c r="S601" s="15"/>
       <c r="V601" s="16"/>
     </row>
-    <row r="602" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
         <v>976</v>
       </c>
@@ -24853,7 +24839,7 @@
       <c r="S602" s="15"/>
       <c r="V602" s="16"/>
     </row>
-    <row r="603" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="9" t="s">
         <v>976</v>
       </c>
@@ -24898,7 +24884,7 @@
       <c r="S603" s="15"/>
       <c r="V603" s="16"/>
     </row>
-    <row r="604" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
         <v>976</v>
       </c>
@@ -24943,7 +24929,7 @@
       <c r="S604" s="15"/>
       <c r="V604" s="16"/>
     </row>
-    <row r="605" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="9" t="s">
         <v>976</v>
       </c>
@@ -24988,7 +24974,7 @@
       <c r="S605" s="15"/>
       <c r="V605" s="16"/>
     </row>
-    <row r="606" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="9" t="s">
         <v>976</v>
       </c>
@@ -25025,7 +25011,7 @@
       <c r="S606" s="15"/>
       <c r="V606" s="16"/>
     </row>
-    <row r="607" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A607" s="9" t="s">
         <v>976</v>
       </c>
@@ -25062,7 +25048,7 @@
       <c r="S607" s="15"/>
       <c r="V607" s="16"/>
     </row>
-    <row r="608" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="9" t="s">
         <v>976</v>
       </c>
@@ -25099,7 +25085,7 @@
       <c r="S608" s="15"/>
       <c r="V608" s="16"/>
     </row>
-    <row r="609" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="9" t="s">
         <v>976</v>
       </c>
@@ -25136,7 +25122,7 @@
       <c r="S609" s="15"/>
       <c r="V609" s="16"/>
     </row>
-    <row r="610" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="9" t="s">
         <v>976</v>
       </c>
@@ -25173,7 +25159,7 @@
       <c r="S610" s="15"/>
       <c r="V610" s="16"/>
     </row>
-    <row r="611" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A611" s="9" t="s">
         <v>976</v>
       </c>
@@ -25213,7 +25199,7 @@
       <c r="S611" s="15"/>
       <c r="V611" s="16"/>
     </row>
-    <row r="612" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="9" t="s">
         <v>976</v>
       </c>
@@ -25250,7 +25236,7 @@
       <c r="S612" s="15"/>
       <c r="V612" s="16"/>
     </row>
-    <row r="613" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A613" s="9" t="s">
         <v>976</v>
       </c>
@@ -25287,7 +25273,7 @@
       <c r="S613" s="15"/>
       <c r="V613" s="16"/>
     </row>
-    <row r="614" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="9" t="s">
         <v>976</v>
       </c>
@@ -25324,7 +25310,7 @@
       <c r="S614" s="15"/>
       <c r="V614" s="16"/>
     </row>
-    <row r="615" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A615" s="9" t="s">
         <v>976</v>
       </c>
@@ -25364,7 +25350,7 @@
       <c r="S615" s="15"/>
       <c r="V615" s="16"/>
     </row>
-    <row r="616" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="9" t="s">
         <v>976</v>
       </c>
@@ -25404,7 +25390,7 @@
       <c r="S616" s="15"/>
       <c r="V616" s="16"/>
     </row>
-    <row r="617" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A617" s="9" t="s">
         <v>976</v>
       </c>
@@ -25441,7 +25427,7 @@
       <c r="S617" s="15"/>
       <c r="V617" s="16"/>
     </row>
-    <row r="618" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="9" t="s">
         <v>976</v>
       </c>
@@ -25481,7 +25467,7 @@
       <c r="S618" s="15"/>
       <c r="V618" s="16"/>
     </row>
-    <row r="619" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A619" s="9" t="s">
         <v>976</v>
       </c>
@@ -25523,7 +25509,7 @@
       <c r="S619" s="15"/>
       <c r="V619" s="16"/>
     </row>
-    <row r="620" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="9" t="s">
         <v>976</v>
       </c>
@@ -25560,7 +25546,7 @@
       <c r="S620" s="15"/>
       <c r="V620" s="16"/>
     </row>
-    <row r="621" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A621" s="9" t="s">
         <v>976</v>
       </c>
@@ -25597,7 +25583,7 @@
       <c r="S621" s="15"/>
       <c r="V621" s="16"/>
     </row>
-    <row r="622" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="9" t="s">
         <v>976</v>
       </c>
@@ -25637,7 +25623,7 @@
       <c r="S622" s="15"/>
       <c r="V622" s="16"/>
     </row>
-    <row r="623" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A623" s="9" t="s">
         <v>976</v>
       </c>
@@ -25677,7 +25663,7 @@
       <c r="S623" s="15"/>
       <c r="V623" s="16"/>
     </row>
-    <row r="624" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="9" t="s">
         <v>976</v>
       </c>
@@ -25717,7 +25703,7 @@
       <c r="S624" s="15"/>
       <c r="V624" s="16"/>
     </row>
-    <row r="625" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A625" s="9" t="s">
         <v>976</v>
       </c>
@@ -25757,7 +25743,7 @@
       <c r="S625" s="15"/>
       <c r="V625" s="16"/>
     </row>
-    <row r="626" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="9" t="s">
         <v>976</v>
       </c>
@@ -25766,7 +25752,7 @@
       </c>
       <c r="C626" s="12" t="str">
         <f t="shared" si="40"/>
-        <v>hwa</v>
+        <v>hwf</v>
       </c>
       <c r="D626" s="12" t="str">
         <f t="shared" si="41"/>
@@ -25787,7 +25773,7 @@
         <v>38</v>
       </c>
       <c r="I626" s="2" t="s">
-        <v>32</v>
+        <v>768</v>
       </c>
       <c r="J626" s="16"/>
       <c r="K626" s="15" t="s">
@@ -25802,7 +25788,7 @@
       <c r="S626" s="15"/>
       <c r="V626" s="16"/>
     </row>
-    <row r="627" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A627" s="9" t="s">
         <v>976</v>
       </c>
@@ -25811,7 +25797,7 @@
       </c>
       <c r="C627" s="12" t="str">
         <f t="shared" si="40"/>
-        <v>hwe</v>
+        <v>hwl</v>
       </c>
       <c r="D627" s="12" t="str">
         <f t="shared" si="41"/>
@@ -25832,7 +25818,7 @@
         <v>38</v>
       </c>
       <c r="I627" s="2" t="s">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="J627" s="16"/>
       <c r="K627" s="15" t="s">
@@ -25847,7 +25833,7 @@
       <c r="S627" s="15"/>
       <c r="V627" s="16"/>
     </row>
-    <row r="628" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="9" t="s">
         <v>976</v>
       </c>
@@ -25856,7 +25842,7 @@
       </c>
       <c r="C628" s="12" t="str">
         <f t="shared" si="40"/>
-        <v>hwo</v>
+        <v>hwx</v>
       </c>
       <c r="D628" s="12" t="str">
         <f t="shared" si="41"/>
@@ -25877,7 +25863,7 @@
         <v>38</v>
       </c>
       <c r="I628" s="2" t="s">
-        <v>42</v>
+        <v>742</v>
       </c>
       <c r="J628" s="16"/>
       <c r="K628" s="15" t="s">
@@ -25892,7 +25878,7 @@
       <c r="S628" s="15"/>
       <c r="V628" s="16"/>
     </row>
-    <row r="629" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A629" s="9" t="s">
         <v>976</v>
       </c>
@@ -25929,7 +25915,7 @@
       <c r="S629" s="15"/>
       <c r="V629" s="16"/>
     </row>
-    <row r="630" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="9" t="s">
         <v>976</v>
       </c>
@@ -25969,7 +25955,7 @@
       <c r="S630" s="15"/>
       <c r="V630" s="16"/>
     </row>
-    <row r="631" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A631" s="9" t="s">
         <v>976</v>
       </c>
@@ -26006,7 +25992,7 @@
       <c r="S631" s="15"/>
       <c r="V631" s="16"/>
     </row>
-    <row r="632" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A632" s="9" t="s">
         <v>976</v>
       </c>
@@ -26043,7 +26029,7 @@
       <c r="S632" s="15"/>
       <c r="V632" s="16"/>
     </row>
-    <row r="633" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A633" s="9" t="s">
         <v>976</v>
       </c>
@@ -26080,7 +26066,7 @@
       <c r="S633" s="15"/>
       <c r="V633" s="16"/>
     </row>
-    <row r="634" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A634" s="9" t="s">
         <v>976</v>
       </c>
@@ -26120,7 +26106,7 @@
       <c r="S634" s="15"/>
       <c r="V634" s="16"/>
     </row>
-    <row r="635" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A635" s="9" t="s">
         <v>976</v>
       </c>
@@ -26160,7 +26146,7 @@
       <c r="S635" s="15"/>
       <c r="V635" s="16"/>
     </row>
-    <row r="636" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A636" s="9" t="s">
         <v>976</v>
       </c>
@@ -26197,7 +26183,7 @@
       <c r="S636" s="15"/>
       <c r="V636" s="16"/>
     </row>
-    <row r="637" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A637" s="9" t="s">
         <v>976</v>
       </c>
@@ -26237,7 +26223,7 @@
       <c r="S637" s="15"/>
       <c r="V637" s="16"/>
     </row>
-    <row r="638" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A638" s="9" t="s">
         <v>976</v>
       </c>
@@ -26274,7 +26260,7 @@
       <c r="S638" s="15"/>
       <c r="V638" s="16"/>
     </row>
-    <row r="639" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="9" t="s">
         <v>976</v>
       </c>
@@ -26311,7 +26297,7 @@
       <c r="S639" s="15"/>
       <c r="V639" s="16"/>
     </row>
-    <row r="640" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A640" s="9" t="s">
         <v>976</v>
       </c>
@@ -26348,7 +26334,7 @@
       <c r="S640" s="15"/>
       <c r="V640" s="16"/>
     </row>
-    <row r="641" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A641" s="9" t="s">
         <v>976</v>
       </c>
@@ -26388,7 +26374,7 @@
       <c r="S641" s="15"/>
       <c r="V641" s="16"/>
     </row>
-    <row r="642" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A642" s="9" t="s">
         <v>976</v>
       </c>
@@ -26428,7 +26414,7 @@
       <c r="S642" s="15"/>
       <c r="V642" s="16"/>
     </row>
-    <row r="643" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A643" s="9" t="s">
         <v>976</v>
       </c>
@@ -26465,7 +26451,7 @@
       <c r="S643" s="15"/>
       <c r="V643" s="16"/>
     </row>
-    <row r="644" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9" t="s">
         <v>976</v>
       </c>
@@ -26505,7 +26491,7 @@
       <c r="S644" s="15"/>
       <c r="V644" s="16"/>
     </row>
-    <row r="645" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A645" s="9" t="s">
         <v>976</v>
       </c>
@@ -26542,7 +26528,7 @@
       <c r="S645" s="15"/>
       <c r="V645" s="16"/>
     </row>
-    <row r="646" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A646" s="9" t="s">
         <v>976</v>
       </c>
@@ -26579,7 +26565,7 @@
       <c r="S646" s="15"/>
       <c r="V646" s="16"/>
     </row>
-    <row r="647" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A647" s="9" t="s">
         <v>976</v>
       </c>
@@ -26616,7 +26602,7 @@
       <c r="S647" s="15"/>
       <c r="V647" s="16"/>
     </row>
-    <row r="648" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A648" s="9" t="s">
         <v>976</v>
       </c>
@@ -26656,7 +26642,7 @@
       <c r="S648" s="15"/>
       <c r="V648" s="16"/>
     </row>
-    <row r="649" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="9" t="s">
         <v>976</v>
       </c>
@@ -26696,7 +26682,7 @@
       <c r="S649" s="15"/>
       <c r="V649" s="16"/>
     </row>
-    <row r="650" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A650" s="9" t="s">
         <v>976</v>
       </c>
@@ -26733,7 +26719,7 @@
       <c r="S650" s="15"/>
       <c r="V650" s="16"/>
     </row>
-    <row r="651" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A651" s="9" t="s">
         <v>976</v>
       </c>
@@ -26770,7 +26756,7 @@
       <c r="S651" s="15"/>
       <c r="V651" s="16"/>
     </row>
-    <row r="652" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A652" s="9" t="s">
         <v>976</v>
       </c>
@@ -26807,7 +26793,7 @@
       <c r="S652" s="15"/>
       <c r="V652" s="16"/>
     </row>
-    <row r="653" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="9" t="s">
         <v>976</v>
       </c>
@@ -26844,7 +26830,7 @@
       <c r="S653" s="15"/>
       <c r="V653" s="16"/>
     </row>
-    <row r="654" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A654" s="9" t="s">
         <v>976</v>
       </c>
@@ -26889,7 +26875,7 @@
       <c r="S654" s="15"/>
       <c r="V654" s="16"/>
     </row>
-    <row r="655" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A655" s="9" t="s">
         <v>976</v>
       </c>
@@ -26926,7 +26912,7 @@
       <c r="S655" s="15"/>
       <c r="V655" s="16"/>
     </row>
-    <row r="656" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A656" s="9" t="s">
         <v>976</v>
       </c>
@@ -26963,7 +26949,7 @@
       <c r="S656" s="15"/>
       <c r="V656" s="16"/>
     </row>
-    <row r="657" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A657" s="9" t="s">
         <v>976</v>
       </c>
@@ -27000,7 +26986,7 @@
       <c r="S657" s="15"/>
       <c r="V657" s="16"/>
     </row>
-    <row r="658" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A658" s="9" t="s">
         <v>976</v>
       </c>
@@ -27045,7 +27031,7 @@
       <c r="S658" s="15"/>
       <c r="V658" s="16"/>
     </row>
-    <row r="659" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A659" s="9" t="s">
         <v>976</v>
       </c>
@@ -27090,7 +27076,7 @@
       <c r="S659" s="15"/>
       <c r="V659" s="16"/>
     </row>
-    <row r="660" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A660" s="9" t="s">
         <v>976</v>
       </c>
@@ -27135,7 +27121,7 @@
       <c r="S660" s="15"/>
       <c r="V660" s="16"/>
     </row>
-    <row r="661" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A661" s="9" t="s">
         <v>976</v>
       </c>
@@ -27172,7 +27158,7 @@
       <c r="S661" s="15"/>
       <c r="V661" s="16"/>
     </row>
-    <row r="662" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A662" s="9" t="s">
         <v>976</v>
       </c>
@@ -27181,7 +27167,7 @@
       </c>
       <c r="C662" s="12" t="str">
         <f t="shared" si="44"/>
-        <v>vha</v>
+        <v>vhf</v>
       </c>
       <c r="D662" s="12" t="str">
         <f t="shared" si="45"/>
@@ -27202,7 +27188,7 @@
         <v>45</v>
       </c>
       <c r="I662" s="2" t="s">
-        <v>32</v>
+        <v>768</v>
       </c>
       <c r="J662" s="16"/>
       <c r="K662" s="17"/>
@@ -27212,7 +27198,7 @@
       <c r="S662" s="15"/>
       <c r="V662" s="16"/>
     </row>
-    <row r="663" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A663" s="9" t="s">
         <v>976</v>
       </c>
@@ -27221,7 +27207,7 @@
       </c>
       <c r="C663" s="12" t="str">
         <f t="shared" si="44"/>
-        <v>vhe</v>
+        <v>vhl</v>
       </c>
       <c r="D663" s="12" t="str">
         <f t="shared" si="45"/>
@@ -27242,7 +27228,7 @@
         <v>45</v>
       </c>
       <c r="I663" s="2" t="s">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="J663" s="16"/>
       <c r="K663" s="17"/>
@@ -27252,7 +27238,7 @@
       <c r="S663" s="15"/>
       <c r="V663" s="16"/>
     </row>
-    <row r="664" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A664" s="9" t="s">
         <v>976</v>
       </c>
@@ -27261,7 +27247,7 @@
       </c>
       <c r="C664" s="12" t="str">
         <f t="shared" si="44"/>
-        <v>vho</v>
+        <v>vhx</v>
       </c>
       <c r="D664" s="12" t="str">
         <f t="shared" si="45"/>
@@ -27282,7 +27268,7 @@
         <v>45</v>
       </c>
       <c r="I664" s="2" t="s">
-        <v>42</v>
+        <v>742</v>
       </c>
       <c r="J664" s="16"/>
       <c r="K664" s="17"/>
@@ -27292,7 +27278,7 @@
       <c r="S664" s="15"/>
       <c r="V664" s="16"/>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="4" t="s">
         <v>979</v>
       </c>
@@ -27313,7 +27299,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A666" s="10" t="s">
         <v>977</v>
       </c>
@@ -27343,7 +27329,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A667" s="10" t="s">
         <v>977</v>
       </c>
@@ -27373,7 +27359,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="10" t="s">
         <v>977</v>
       </c>
@@ -27403,7 +27389,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A669" s="10" t="s">
         <v>977</v>
       </c>
@@ -27433,7 +27419,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A670" s="10" t="s">
         <v>977</v>
       </c>
@@ -27463,7 +27449,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="10" t="s">
         <v>977</v>
       </c>
@@ -27493,7 +27479,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A672" s="10" t="s">
         <v>977</v>
       </c>
@@ -27526,7 +27512,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="10" t="s">
         <v>977</v>
       </c>
@@ -27556,7 +27542,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="10" t="s">
         <v>977</v>
       </c>
@@ -27586,7 +27572,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="10" t="s">
         <v>977</v>
       </c>
@@ -27616,7 +27602,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="10" t="s">
         <v>977</v>
       </c>
@@ -27649,7 +27635,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="10" t="s">
         <v>977</v>
       </c>
@@ -27682,7 +27668,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="10" t="s">
         <v>977</v>
       </c>
@@ -27712,7 +27698,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="10" t="s">
         <v>977</v>
       </c>
@@ -27742,7 +27728,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="10" t="s">
         <v>977</v>
       </c>
@@ -27772,7 +27758,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="10" t="s">
         <v>977</v>
       </c>
@@ -27802,7 +27788,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="10" t="s">
         <v>977</v>
       </c>
@@ -27832,7 +27818,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="10" t="s">
         <v>977</v>
       </c>
@@ -27862,7 +27848,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="10" t="s">
         <v>977</v>
       </c>
@@ -27895,7 +27881,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="10" t="s">
         <v>977</v>
       </c>
@@ -27925,7 +27911,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="10" t="s">
         <v>977</v>
       </c>
@@ -27955,7 +27941,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="10" t="s">
         <v>977</v>
       </c>
@@ -27985,7 +27971,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="10" t="s">
         <v>977</v>
       </c>
@@ -28015,7 +28001,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="10" t="s">
         <v>977</v>
       </c>
@@ -28045,7 +28031,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="10" t="s">
         <v>977</v>
       </c>
@@ -28078,7 +28064,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="10" t="s">
         <v>977</v>
       </c>
@@ -28108,7 +28094,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="10" t="s">
         <v>977</v>
       </c>
@@ -28138,7 +28124,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="10" t="s">
         <v>977</v>
       </c>
@@ -28168,7 +28154,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="10" t="s">
         <v>977</v>
       </c>
@@ -28198,7 +28184,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="10" t="s">
         <v>977</v>
       </c>
@@ -28228,7 +28214,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="10" t="s">
         <v>977</v>
       </c>
@@ -28261,7 +28247,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="10" t="s">
         <v>977</v>
       </c>
@@ -28291,7 +28277,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="10" t="s">
         <v>977</v>
       </c>
@@ -28321,7 +28307,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="10" t="s">
         <v>977</v>
       </c>
@@ -28351,7 +28337,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" s="10" t="s">
         <v>977</v>
       </c>
@@ -28381,7 +28367,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" s="10" t="s">
         <v>977</v>
       </c>
@@ -28414,7 +28400,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" s="10" t="s">
         <v>977</v>
       </c>
@@ -28444,7 +28430,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" s="10" t="s">
         <v>977</v>
       </c>
@@ -28474,7 +28460,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" s="10" t="s">
         <v>977</v>
       </c>
@@ -28504,7 +28490,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" s="10" t="s">
         <v>977</v>
       </c>
@@ -28537,7 +28523,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="10" t="s">
         <v>977</v>
       </c>
@@ -28567,7 +28553,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="10" t="s">
         <v>977</v>
       </c>
@@ -28597,7 +28583,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="10" t="s">
         <v>977</v>
       </c>
@@ -28627,7 +28613,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="10" t="s">
         <v>977</v>
       </c>
@@ -28660,7 +28646,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="10" t="s">
         <v>977</v>
       </c>
@@ -28690,7 +28676,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="10" t="s">
         <v>977</v>
       </c>
@@ -28720,7 +28706,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="10" t="s">
         <v>977</v>
       </c>
@@ -28750,7 +28736,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="10" t="s">
         <v>977</v>
       </c>
@@ -28780,7 +28766,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" s="10" t="s">
         <v>977</v>
       </c>
@@ -28810,7 +28796,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" s="10" t="s">
         <v>977</v>
       </c>
@@ -28840,7 +28826,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" s="10" t="s">
         <v>977</v>
       </c>
@@ -28870,7 +28856,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717" s="10" t="s">
         <v>977</v>
       </c>
@@ -28900,7 +28886,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718" s="10" t="s">
         <v>977</v>
       </c>
@@ -28930,7 +28916,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719" s="10" t="s">
         <v>977</v>
       </c>
@@ -28960,7 +28946,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720" s="10" t="s">
         <v>977</v>
       </c>
@@ -28990,7 +28976,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A721" s="10" t="s">
         <v>977</v>
       </c>
@@ -29020,7 +29006,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A722" s="10" t="s">
         <v>977</v>
       </c>
@@ -29053,7 +29039,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A723" s="10" t="s">
         <v>977</v>
       </c>
@@ -29083,7 +29069,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A724" s="10" t="s">
         <v>977</v>
       </c>
@@ -29113,7 +29099,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" s="10" t="s">
         <v>977</v>
       </c>
@@ -29143,7 +29129,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A726" s="10" t="s">
         <v>977</v>
       </c>
@@ -29173,7 +29159,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727" s="10" t="s">
         <v>977</v>
       </c>
@@ -29203,7 +29189,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728" s="10" t="s">
         <v>977</v>
       </c>
@@ -29233,7 +29219,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729" s="10" t="s">
         <v>977</v>
       </c>
@@ -29263,7 +29249,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730" s="10" t="s">
         <v>977</v>
       </c>
@@ -29293,7 +29279,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731" s="10" t="s">
         <v>977</v>
       </c>
@@ -29323,7 +29309,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732" s="10" t="s">
         <v>977</v>
       </c>
@@ -29353,7 +29339,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733" s="10" t="s">
         <v>977</v>
       </c>
@@ -29383,7 +29369,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A734" s="10" t="s">
         <v>977</v>
       </c>
@@ -29413,7 +29399,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A735" s="10" t="s">
         <v>977</v>
       </c>
@@ -29443,7 +29429,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736" s="10" t="s">
         <v>977</v>
       </c>
@@ -29476,7 +29462,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A737" s="10" t="s">
         <v>977</v>
       </c>
@@ -29506,7 +29492,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A738" s="10" t="s">
         <v>977</v>
       </c>
@@ -29536,7 +29522,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A739" s="10" t="s">
         <v>977</v>
       </c>
@@ -29569,7 +29555,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A740" s="10" t="s">
         <v>977</v>
       </c>
@@ -29599,7 +29585,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A741" s="10" t="s">
         <v>977</v>
       </c>
@@ -29629,7 +29615,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" s="10" t="s">
         <v>977</v>
       </c>
@@ -29662,7 +29648,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" s="10" t="s">
         <v>977</v>
       </c>
@@ -29692,7 +29678,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" s="10" t="s">
         <v>977</v>
       </c>
@@ -29725,7 +29711,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" s="10" t="s">
         <v>977</v>
       </c>
@@ -29755,7 +29741,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" s="10" t="s">
         <v>977</v>
       </c>
@@ -29785,7 +29771,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A747" s="10" t="s">
         <v>977</v>
       </c>
@@ -29818,7 +29804,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A748" s="10" t="s">
         <v>977</v>
       </c>
@@ -29848,7 +29834,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A749" s="10" t="s">
         <v>977</v>
       </c>
@@ -29881,7 +29867,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A750" s="10" t="s">
         <v>977</v>
       </c>
@@ -29911,7 +29897,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A751" s="10" t="s">
         <v>977</v>
       </c>
@@ -29944,7 +29930,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A752" s="10" t="s">
         <v>977</v>
       </c>
@@ -29974,7 +29960,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A753" s="10" t="s">
         <v>977</v>
       </c>
@@ -30007,7 +29993,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A754" s="10" t="s">
         <v>977</v>
       </c>
@@ -30037,7 +30023,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A755" s="10" t="s">
         <v>977</v>
       </c>
@@ -30067,7 +30053,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A756" s="10" t="s">
         <v>977</v>
       </c>
@@ -30097,7 +30083,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A757" s="10" t="s">
         <v>977</v>
       </c>
@@ -30127,7 +30113,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A758" s="10" t="s">
         <v>977</v>
       </c>
@@ -30160,7 +30146,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A759" s="10" t="s">
         <v>977</v>
       </c>
@@ -30190,7 +30176,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A760" s="10" t="s">
         <v>977</v>
       </c>
@@ -30223,7 +30209,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A761" s="10" t="s">
         <v>977</v>
       </c>
@@ -30256,7 +30242,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A762" s="10" t="s">
         <v>977</v>
       </c>
@@ -30286,7 +30272,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A763" s="10" t="s">
         <v>977</v>
       </c>
@@ -30316,7 +30302,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A764" s="10" t="s">
         <v>977</v>
       </c>
@@ -30349,7 +30335,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A765" s="10" t="s">
         <v>977</v>
       </c>
@@ -30382,7 +30368,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A766" s="10" t="s">
         <v>977</v>
       </c>
@@ -30412,7 +30398,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A767" s="10" t="s">
         <v>977</v>
       </c>
@@ -30442,7 +30428,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A768" s="10" t="s">
         <v>977</v>
       </c>
@@ -30472,7 +30458,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A769" s="10" t="s">
         <v>977</v>
       </c>
@@ -30496,7 +30482,7 @@
         <v/>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A770" s="10" t="s">
         <v>977</v>
       </c>
@@ -30520,7 +30506,7 @@
         <v/>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A771" s="10" t="s">
         <v>977</v>
       </c>
@@ -30544,7 +30530,7 @@
         <v/>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A772" s="4" t="s">
         <v>979</v>
       </c>
@@ -30565,7 +30551,7 @@
         <v/>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A773" s="11" t="s">
         <v>978</v>
       </c>
@@ -30598,7 +30584,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A774" s="11" t="s">
         <v>978</v>
       </c>
@@ -30634,7 +30620,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A775" s="11" t="s">
         <v>978</v>
       </c>
@@ -30670,7 +30656,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A776" s="11" t="s">
         <v>978</v>
       </c>
@@ -30700,7 +30686,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A777" s="11" t="s">
         <v>978</v>
       </c>
@@ -30733,7 +30719,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A778" s="11" t="s">
         <v>978</v>
       </c>
@@ -30766,7 +30752,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A779" s="11" t="s">
         <v>978</v>
       </c>
@@ -30799,7 +30785,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A780" s="11" t="s">
         <v>978</v>
       </c>
@@ -30832,7 +30818,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A781" s="11" t="s">
         <v>978</v>
       </c>
@@ -30865,7 +30851,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A782" s="11" t="s">
         <v>978</v>
       </c>
@@ -30898,7 +30884,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A783" s="11" t="s">
         <v>978</v>
       </c>
@@ -30931,7 +30917,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A784" s="11" t="s">
         <v>978</v>
       </c>
@@ -30964,7 +30950,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A785" s="11" t="s">
         <v>978</v>
       </c>
@@ -30997,7 +30983,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A786" s="11" t="s">
         <v>978</v>
       </c>
@@ -31027,7 +31013,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A787" s="11" t="s">
         <v>978</v>
       </c>
@@ -31060,7 +31046,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A788" s="11" t="s">
         <v>978</v>
       </c>
@@ -31096,7 +31082,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A789" s="11" t="s">
         <v>978</v>
       </c>
@@ -31132,7 +31118,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A790" s="11" t="s">
         <v>978</v>
       </c>
@@ -31165,7 +31151,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A791" s="11" t="s">
         <v>978</v>
       </c>
@@ -31198,7 +31184,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A792" s="11" t="s">
         <v>978</v>
       </c>
@@ -31231,7 +31217,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A793" s="11" t="s">
         <v>978</v>
       </c>
@@ -31264,7 +31250,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A794" s="11" t="s">
         <v>978</v>
       </c>
@@ -31297,7 +31283,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A795" s="11" t="s">
         <v>978</v>
       </c>
@@ -31330,7 +31316,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A796" s="11" t="s">
         <v>978</v>
       </c>
@@ -31363,7 +31349,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A797" s="11" t="s">
         <v>978</v>
       </c>
@@ -31396,7 +31382,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A798" s="11" t="s">
         <v>978</v>
       </c>
@@ -31429,7 +31415,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A799" s="11" t="s">
         <v>978</v>
       </c>
@@ -31462,7 +31448,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A800" s="11" t="s">
         <v>978</v>
       </c>
@@ -31495,7 +31481,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A801" s="11" t="s">
         <v>978</v>
       </c>
@@ -31531,7 +31517,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A802" s="11" t="s">
         <v>978</v>
       </c>
@@ -31567,7 +31553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A803" s="11" t="s">
         <v>978</v>
       </c>
@@ -31600,7 +31586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A804" s="11" t="s">
         <v>978</v>
       </c>
@@ -31633,7 +31619,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A805" s="11" t="s">
         <v>978</v>
       </c>
@@ -31666,7 +31652,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A806" s="11" t="s">
         <v>978</v>
       </c>
@@ -31699,7 +31685,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A807" s="11" t="s">
         <v>978</v>
       </c>
@@ -31732,7 +31718,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A808" s="11" t="s">
         <v>978</v>
       </c>
@@ -31765,7 +31751,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A809" s="11" t="s">
         <v>978</v>
       </c>
@@ -31798,7 +31784,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A810" s="11" t="s">
         <v>978</v>
       </c>
@@ -31828,7 +31814,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A811" s="11" t="s">
         <v>978</v>
       </c>
@@ -31861,7 +31847,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A812" s="11" t="s">
         <v>978</v>
       </c>
@@ -31894,7 +31880,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A813" s="11" t="s">
         <v>978</v>
       </c>
@@ -31924,7 +31910,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A814" s="11" t="s">
         <v>978</v>
       </c>
@@ -31957,7 +31943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A815" s="11" t="s">
         <v>978</v>
       </c>
@@ -31990,7 +31976,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A816" s="11" t="s">
         <v>978</v>
       </c>
@@ -32023,7 +32009,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A817" s="11" t="s">
         <v>978</v>
       </c>
@@ -32056,7 +32042,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A818" s="11" t="s">
         <v>978</v>
       </c>
@@ -32089,7 +32075,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A819" s="11" t="s">
         <v>978</v>
       </c>
@@ -32122,7 +32108,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A820" s="11" t="s">
         <v>978</v>
       </c>
@@ -32155,7 +32141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A821" s="11" t="s">
         <v>978</v>
       </c>
@@ -32188,7 +32174,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A822" s="11" t="s">
         <v>978</v>
       </c>
@@ -32218,7 +32204,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A823" s="11" t="s">
         <v>978</v>
       </c>
@@ -32251,7 +32237,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A824" s="11" t="s">
         <v>978</v>
       </c>
@@ -32284,7 +32270,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A825" s="11" t="s">
         <v>978</v>
       </c>
@@ -32317,7 +32303,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A826" s="11" t="s">
         <v>978</v>
       </c>
@@ -32350,7 +32336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A827" s="11" t="s">
         <v>978</v>
       </c>
@@ -32383,7 +32369,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A828" s="11" t="s">
         <v>978</v>
       </c>
@@ -32416,7 +32402,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A829" s="11" t="s">
         <v>978</v>
       </c>
@@ -32449,7 +32435,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A830" s="11" t="s">
         <v>978</v>
       </c>
@@ -32482,7 +32468,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A831" s="11" t="s">
         <v>978</v>
       </c>
@@ -32518,7 +32504,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A832" s="11" t="s">
         <v>978</v>
       </c>
@@ -32554,7 +32540,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A833" s="11" t="s">
         <v>978</v>
       </c>
@@ -32587,7 +32573,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A834" s="11" t="s">
         <v>978</v>
       </c>
@@ -32623,7 +32609,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A835" s="11" t="s">
         <v>978</v>
       </c>
@@ -32656,7 +32642,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A836" s="11" t="s">
         <v>978</v>
       </c>
@@ -32689,7 +32675,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A837" s="11" t="s">
         <v>978</v>
       </c>
@@ -32722,7 +32708,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A838" s="11" t="s">
         <v>978</v>
       </c>
@@ -32755,7 +32741,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A839" s="11" t="s">
         <v>978</v>
       </c>
@@ -32788,7 +32774,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A840" s="11" t="s">
         <v>978</v>
       </c>
@@ -32821,7 +32807,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A841" s="11" t="s">
         <v>978</v>
       </c>
@@ -32854,7 +32840,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A842" s="11" t="s">
         <v>978</v>
       </c>
@@ -32884,7 +32870,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A843" s="11" t="s">
         <v>978</v>
       </c>
@@ -32914,7 +32900,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A844" s="11" t="s">
         <v>978</v>
       </c>
@@ -32944,7 +32930,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A845" s="11" t="s">
         <v>978</v>
       </c>
@@ -32974,7 +32960,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A846" s="11" t="s">
         <v>978</v>
       </c>
@@ -33007,7 +32993,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A847" s="11" t="s">
         <v>978</v>
       </c>
@@ -33040,7 +33026,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A848" s="11" t="s">
         <v>978</v>
       </c>
@@ -33073,7 +33059,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A849" s="11" t="s">
         <v>978</v>
       </c>
@@ -33106,7 +33092,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A850" s="11" t="s">
         <v>978</v>
       </c>
@@ -33139,7 +33125,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A851" s="11" t="s">
         <v>978</v>
       </c>
@@ -33172,7 +33158,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A852" s="11" t="s">
         <v>978</v>
       </c>
@@ -33205,7 +33191,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A853" s="11" t="s">
         <v>978</v>
       </c>
@@ -33238,7 +33224,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A854" s="11" t="s">
         <v>978</v>
       </c>
@@ -33271,7 +33257,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A855" s="11" t="s">
         <v>978</v>
       </c>
@@ -33304,7 +33290,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A856" s="11" t="s">
         <v>978</v>
       </c>
@@ -33337,7 +33323,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A857" s="11" t="s">
         <v>978</v>
       </c>
@@ -33370,7 +33356,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A858" s="11" t="s">
         <v>978</v>
       </c>
@@ -33403,7 +33389,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A859" s="11" t="s">
         <v>978</v>
       </c>
@@ -33436,7 +33422,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A860" s="11" t="s">
         <v>978</v>
       </c>
@@ -33469,7 +33455,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A861" s="11" t="s">
         <v>978</v>
       </c>
@@ -33502,7 +33488,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A862" s="11" t="s">
         <v>978</v>
       </c>
@@ -33535,7 +33521,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A863" s="11" t="s">
         <v>978</v>
       </c>
@@ -33568,7 +33554,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A864" s="11" t="s">
         <v>978</v>
       </c>
@@ -33601,7 +33587,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A865" s="11" t="s">
         <v>978</v>
       </c>
@@ -33637,7 +33623,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A866" s="11" t="s">
         <v>978</v>
       </c>
@@ -33673,7 +33659,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A867" s="11" t="s">
         <v>978</v>
       </c>
@@ -33703,7 +33689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A868" s="11" t="s">
         <v>978</v>
       </c>
@@ -33736,7 +33722,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A869" s="11" t="s">
         <v>978</v>
       </c>
@@ -33769,7 +33755,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A870" s="11" t="s">
         <v>978</v>
       </c>
@@ -33802,7 +33788,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A871" s="11" t="s">
         <v>978</v>
       </c>
@@ -33835,7 +33821,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A872" s="11" t="s">
         <v>978</v>
       </c>
@@ -33868,7 +33854,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A873" s="11" t="s">
         <v>978</v>
       </c>
@@ -33901,7 +33887,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A874" s="11" t="s">
         <v>978</v>
       </c>
@@ -33934,7 +33920,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A875" s="11" t="s">
         <v>978</v>
       </c>
@@ -33967,7 +33953,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A876" s="11" t="s">
         <v>978</v>
       </c>
@@ -34000,7 +33986,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A877" s="11" t="s">
         <v>978</v>
       </c>
@@ -34033,7 +34019,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A878" s="11" t="s">
         <v>978</v>
       </c>
@@ -34063,7 +34049,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A879" s="11" t="s">
         <v>978</v>
       </c>
@@ -34096,7 +34082,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A880" s="11" t="s">
         <v>978</v>
       </c>
@@ -34129,7 +34115,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A881" s="11" t="s">
         <v>978</v>
       </c>
@@ -34162,7 +34148,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A882" s="11" t="s">
         <v>978</v>
       </c>
@@ -34192,7 +34178,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A883" s="11" t="s">
         <v>978</v>
       </c>
@@ -34225,7 +34211,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A884" s="11" t="s">
         <v>978</v>
       </c>
@@ -34261,7 +34247,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A885" s="11" t="s">
         <v>978</v>
       </c>
@@ -34297,7 +34283,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A886" s="11" t="s">
         <v>978</v>
       </c>
@@ -34327,7 +34313,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A887" s="11" t="s">
         <v>978</v>
       </c>
@@ -34360,7 +34346,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A888" s="11" t="s">
         <v>978</v>
       </c>
@@ -34393,7 +34379,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A889" s="11" t="s">
         <v>978</v>
       </c>
@@ -34426,7 +34412,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A890" s="11" t="s">
         <v>978</v>
       </c>
@@ -34462,7 +34448,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A891" s="11" t="s">
         <v>978</v>
       </c>
@@ -34495,7 +34481,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A892" s="11" t="s">
         <v>978</v>
       </c>
@@ -34528,7 +34514,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A893" s="11" t="s">
         <v>978</v>
       </c>
@@ -34561,7 +34547,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A894" s="11" t="s">
         <v>978</v>
       </c>
@@ -34594,7 +34580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A895" s="11" t="s">
         <v>978</v>
       </c>
@@ -34627,7 +34613,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A896" s="11" t="s">
         <v>978</v>
       </c>
@@ -34660,7 +34646,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A897" s="11" t="s">
         <v>978</v>
       </c>
@@ -34684,7 +34670,7 @@
         <v/>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A898" s="4" t="s">
         <v>979</v>
       </c>
@@ -34706,7 +34692,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V897"/>
+  <autoFilter ref="A1:V897" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C1:F207 C209:F414 C416:F558 C560:F664 C666:F771 C773:F897 C899:F1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="11610" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="29" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7800" uniqueCount="2068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="2090">
   <si>
     <t>v</t>
     <phoneticPr fontId="2"/>
@@ -6448,6 +6448,97 @@
   </si>
   <si>
     <t>ちょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G.記号</t>
+    <rPh sb="2" eb="4">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''l</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''h</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''j</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''[</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>'']</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>'')</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6646,9 +6737,7 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
     </dxf>
     <dxf>
@@ -6658,7 +6747,9 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
@@ -6956,11 +7047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C854"/>
+  <dimension ref="A1:C865"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A826" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C854"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
@@ -16365,6 +16456,127 @@
         <v>53</v>
       </c>
     </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A855" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B855" s="13" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C855" s="6" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A856" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B856" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C856" s="6" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A857" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B857" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C857" s="6" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A858" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B858" s="13" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C858" s="6" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A859" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B859" s="13" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C859" s="6" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A860" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C860" s="6" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A861" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B861" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C861" s="6" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A862" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B862" s="13" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C862" s="6" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A863" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B863" s="13" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C863" s="6" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A864" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B864" s="13" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C864" s="6" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A865" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B865" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C865" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C854">
     <sortState ref="A2:C854">
@@ -16372,13 +16584,13 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B141 B143:B1048576">
+  <conditionalFormatting sqref="B1:B141 B143:B1048576 C860">
     <cfRule type="expression" dxfId="4" priority="59">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($B:$B,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($B:$B,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35349,7 +35561,7 @@
   <autoFilter ref="A1:J959"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($B:$B,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37408,10 +37620,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISERROR(INDIRECT(ADDRESS(0,1,4,0),0))=TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>ISERROR(INDIRECT(ADDRESS(0,0,4,0),0))=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="21930" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="29" r:id="rId1"/>
@@ -7861,70 +7861,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cbk</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbkg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbkn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbkh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbkkr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbkd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbcr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbcrg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbcrn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbcrh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbcrkr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbcrd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbrg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbrn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbrd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sbk</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7981,10 +7917,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cbr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sbrg</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8345,10 +8277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cbrdh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8357,14 +8285,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cbrh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cbrw</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xmsd</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8651,6 +8571,66 @@
   <si>
     <t>しましたら</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kbcr</t>
+  </si>
+  <si>
+    <t>kbcrd</t>
+  </si>
+  <si>
+    <t>kbcrg</t>
+  </si>
+  <si>
+    <t>kbcrh</t>
+  </si>
+  <si>
+    <t>kbcrkr</t>
+  </si>
+  <si>
+    <t>kbcrn</t>
+  </si>
+  <si>
+    <t>kbk</t>
+  </si>
+  <si>
+    <t>kbkd</t>
+  </si>
+  <si>
+    <t>kbkg</t>
+  </si>
+  <si>
+    <t>kbkh</t>
+  </si>
+  <si>
+    <t>kbkkr</t>
+  </si>
+  <si>
+    <t>kbkn</t>
+  </si>
+  <si>
+    <t>kbn</t>
+  </si>
+  <si>
+    <t>kbr</t>
+  </si>
+  <si>
+    <t>kbrd</t>
+  </si>
+  <si>
+    <t>kbrdh</t>
+  </si>
+  <si>
+    <t>kbrg</t>
+  </si>
+  <si>
+    <t>kbrh</t>
+  </si>
+  <si>
+    <t>kbrn</t>
+  </si>
+  <si>
+    <t>kbrw</t>
   </si>
 </sst>
 </file>
@@ -9186,9 +9166,9 @@
   <dimension ref="A1:F1809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C883" sqref="C883:D883"/>
+      <selection pane="bottomLeft" activeCell="A771" sqref="A771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -14704,7 +14684,7 @@
         <v>548</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>2668</v>
+        <v>2648</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>691</v>
@@ -18762,10 +18742,10 @@
         <v>1244</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>2493</v>
+        <v>2461</v>
       </c>
       <c r="D677" s="7" t="s">
-        <v>1358</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -18776,10 +18756,10 @@
         <v>1244</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>2498</v>
+        <v>2510</v>
       </c>
       <c r="D678" s="7" t="s">
-        <v>2408</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -18790,10 +18770,10 @@
         <v>1244</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>2494</v>
+        <v>2515</v>
       </c>
       <c r="D679" s="7" t="s">
-        <v>2406</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -18804,10 +18784,10 @@
         <v>1244</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>2496</v>
+        <v>2511</v>
       </c>
       <c r="D680" s="7" t="s">
-        <v>1362</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -18818,10 +18798,10 @@
         <v>1244</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>2497</v>
+        <v>2513</v>
       </c>
       <c r="D681" s="7" t="s">
-        <v>2407</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -18832,10 +18812,10 @@
         <v>1244</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>2495</v>
+        <v>2514</v>
       </c>
       <c r="D682" s="7" t="s">
-        <v>1364</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -18846,10 +18826,10 @@
         <v>1244</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>2487</v>
+        <v>2512</v>
       </c>
       <c r="D683" s="7" t="s">
-        <v>1366</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -18860,10 +18840,10 @@
         <v>1244</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>2492</v>
+        <v>2504</v>
       </c>
       <c r="D684" s="7" t="s">
-        <v>2405</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -18874,10 +18854,10 @@
         <v>1244</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>2488</v>
+        <v>2509</v>
       </c>
       <c r="D685" s="7" t="s">
-        <v>2403</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -18888,10 +18868,10 @@
         <v>1244</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>2490</v>
+        <v>2505</v>
       </c>
       <c r="D686" s="7" t="s">
-        <v>1368</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -18902,10 +18882,10 @@
         <v>1244</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>2491</v>
+        <v>2507</v>
       </c>
       <c r="D687" s="7" t="s">
-        <v>2404</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -18916,10 +18896,10 @@
         <v>1244</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>2489</v>
+        <v>2508</v>
       </c>
       <c r="D688" s="7" t="s">
-        <v>1370</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -18930,10 +18910,10 @@
         <v>1244</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="D689" s="7" t="s">
-        <v>1372</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -18944,10 +18924,10 @@
         <v>1244</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>2517</v>
+        <v>2623</v>
       </c>
       <c r="D690" s="7" t="s">
-        <v>1386</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -18958,10 +18938,10 @@
         <v>1244</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>2501</v>
+        <v>2625</v>
       </c>
       <c r="D691" s="7" t="s">
-        <v>2411</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -18972,10 +18952,10 @@
         <v>1244</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="D692" s="7" t="s">
-        <v>2608</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -18986,10 +18966,10 @@
         <v>1244</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>2499</v>
+        <v>2608</v>
       </c>
       <c r="D693" s="7" t="s">
-        <v>2409</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -19000,10 +18980,10 @@
         <v>1244</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="D694" s="7" t="s">
-        <v>2610</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -19014,10 +18994,10 @@
         <v>1244</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>2500</v>
+        <v>2609</v>
       </c>
       <c r="D695" s="7" t="s">
-        <v>2410</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -19028,10 +19008,10 @@
         <v>1244</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="D696" s="7" t="s">
-        <v>2611</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -19042,10 +19022,10 @@
         <v>1244</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>2461</v>
+        <v>2516</v>
       </c>
       <c r="D697" s="7" t="s">
-        <v>2460</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -19056,10 +19036,10 @@
         <v>1244</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>2527</v>
+        <v>2551</v>
       </c>
       <c r="D698" s="7" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -19070,10 +19050,10 @@
         <v>1244</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>2532</v>
+        <v>2554</v>
       </c>
       <c r="D699" s="7" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -19084,10 +19064,10 @@
         <v>1244</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>2528</v>
+        <v>2552</v>
       </c>
       <c r="D700" s="7" t="s">
-        <v>2424</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -19098,10 +19078,10 @@
         <v>1244</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>2530</v>
+        <v>2553</v>
       </c>
       <c r="D701" s="7" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -19112,10 +19092,10 @@
         <v>1244</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>2531</v>
+        <v>2628</v>
       </c>
       <c r="D702" s="7" t="s">
-        <v>2425</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -19126,10 +19106,10 @@
         <v>1244</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>2529</v>
+        <v>2517</v>
       </c>
       <c r="D703" s="7" t="s">
-        <v>1258</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -19140,10 +19120,10 @@
         <v>1244</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="D704" s="7" t="s">
-        <v>1278</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -19154,10 +19134,10 @@
         <v>1244</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>2526</v>
+        <v>2549</v>
       </c>
       <c r="D705" s="7" t="s">
-        <v>2423</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -19168,10 +19148,10 @@
         <v>1244</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>2522</v>
+        <v>2548</v>
       </c>
       <c r="D706" s="7" t="s">
-        <v>2421</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -19182,10 +19162,10 @@
         <v>1244</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>2524</v>
+        <v>2550</v>
       </c>
       <c r="D707" s="7" t="s">
-        <v>1280</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -19196,10 +19176,10 @@
         <v>1244</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>2525</v>
+        <v>2626</v>
       </c>
       <c r="D708" s="7" t="s">
-        <v>2422</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -19210,10 +19190,10 @@
         <v>1244</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>2523</v>
+        <v>2454</v>
       </c>
       <c r="D709" s="7" t="s">
-        <v>1284</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -19224,10 +19204,10 @@
         <v>1244</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>2643</v>
+        <v>2383</v>
       </c>
       <c r="D710" s="7" t="s">
-        <v>2586</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -19241,7 +19221,7 @@
         <v>2645</v>
       </c>
       <c r="D711" s="7" t="s">
-        <v>2587</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -19252,10 +19232,10 @@
         <v>1244</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>2627</v>
+        <v>2646</v>
       </c>
       <c r="D712" s="7" t="s">
-        <v>1288</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -19266,10 +19246,10 @@
         <v>1244</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>2628</v>
+        <v>2557</v>
       </c>
       <c r="D713" s="7" t="s">
-        <v>1292</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -19280,10 +19260,10 @@
         <v>1244</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>2630</v>
+        <v>2555</v>
       </c>
       <c r="D714" s="7" t="s">
-        <v>1294</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -19294,10 +19274,10 @@
         <v>1244</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>2629</v>
+        <v>2612</v>
       </c>
       <c r="D715" s="7" t="s">
-        <v>1296</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -19308,10 +19288,10 @@
         <v>1244</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>2631</v>
+        <v>2619</v>
       </c>
       <c r="D716" s="7" t="s">
-        <v>1298</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -19322,10 +19302,10 @@
         <v>1244</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>2533</v>
+        <v>2636</v>
       </c>
       <c r="D717" s="7" t="s">
-        <v>1272</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -19336,10 +19316,10 @@
         <v>1244</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>2568</v>
+        <v>2637</v>
       </c>
       <c r="D718" s="7" t="s">
-        <v>1264</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -19350,10 +19330,10 @@
         <v>1244</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>2571</v>
+        <v>2638</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>2427</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -19364,10 +19344,10 @@
         <v>1244</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>2569</v>
+        <v>2639</v>
       </c>
       <c r="D720" s="7" t="s">
-        <v>1266</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -19378,10 +19358,10 @@
         <v>1244</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>2570</v>
+        <v>2640</v>
       </c>
       <c r="D721" s="7" t="s">
-        <v>1268</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -19392,10 +19372,10 @@
         <v>1244</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>2648</v>
+        <v>2641</v>
       </c>
       <c r="D722" s="7" t="s">
-        <v>2649</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -19406,10 +19386,10 @@
         <v>1244</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>2534</v>
+        <v>2642</v>
       </c>
       <c r="D723" s="7" t="s">
-        <v>1274</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -19420,10 +19400,10 @@
         <v>1244</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>2535</v>
+        <v>2643</v>
       </c>
       <c r="D724" s="7" t="s">
-        <v>2420</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -19434,10 +19414,10 @@
         <v>1244</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>2566</v>
+        <v>2644</v>
       </c>
       <c r="D725" s="7" t="s">
-        <v>2588</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -19448,10 +19428,10 @@
         <v>1244</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>2565</v>
+        <v>2462</v>
       </c>
       <c r="D726" s="7" t="s">
-        <v>1312</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -19462,10 +19442,10 @@
         <v>1244</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>2567</v>
+        <v>2387</v>
       </c>
       <c r="D727" s="7" t="s">
-        <v>1314</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -19476,10 +19456,10 @@
         <v>1244</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>2646</v>
+        <v>2388</v>
       </c>
       <c r="D728" s="7" t="s">
-        <v>2647</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -19490,10 +19470,10 @@
         <v>1244</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>2454</v>
+        <v>1335</v>
       </c>
       <c r="D729" s="7" t="s">
-        <v>2455</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -19504,10 +19484,10 @@
         <v>1244</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>2383</v>
+        <v>1337</v>
       </c>
       <c r="D730" s="7" t="s">
-        <v>1262</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -19518,10 +19498,10 @@
         <v>1244</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>2665</v>
+        <v>1339</v>
       </c>
       <c r="D731" s="7" t="s">
-        <v>2634</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -19532,10 +19512,10 @@
         <v>1244</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>2666</v>
+        <v>2444</v>
       </c>
       <c r="D732" s="7" t="s">
-        <v>2576</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -19546,10 +19526,10 @@
         <v>1244</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>2574</v>
+        <v>2346</v>
       </c>
       <c r="D733" s="7" t="s">
-        <v>2575</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -19560,10 +19540,10 @@
         <v>1244</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>2572</v>
+        <v>1355</v>
       </c>
       <c r="D734" s="7" t="s">
-        <v>2573</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -19574,10 +19554,10 @@
         <v>1244</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>2632</v>
+        <v>2582</v>
       </c>
       <c r="D735" s="7" t="s">
-        <v>2633</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -19588,10 +19568,10 @@
         <v>1244</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>2639</v>
+        <v>2583</v>
       </c>
       <c r="D736" s="7" t="s">
-        <v>2452</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -19602,10 +19582,10 @@
         <v>1244</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="D737" s="7" t="s">
-        <v>1302</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -19616,10 +19596,10 @@
         <v>1244</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="D738" s="7" t="s">
-        <v>2577</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -19630,10 +19610,10 @@
         <v>1244</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="D739" s="7" t="s">
-        <v>2579</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -19644,10 +19624,10 @@
         <v>1244</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="D740" s="7" t="s">
-        <v>2638</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -19658,10 +19638,10 @@
         <v>1244</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="D741" s="7" t="s">
-        <v>2578</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -19672,10 +19652,10 @@
         <v>1244</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="D742" s="7" t="s">
-        <v>2635</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -19686,10 +19666,10 @@
         <v>1244</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="D743" s="7" t="s">
-        <v>2636</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -19700,10 +19680,10 @@
         <v>1244</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="D744" s="7" t="s">
-        <v>1324</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -19714,10 +19694,10 @@
         <v>1244</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="D745" s="7" t="s">
-        <v>2637</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -19728,10 +19708,10 @@
         <v>1244</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>2462</v>
+        <v>2675</v>
       </c>
       <c r="D746" s="7" t="s">
-        <v>2463</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -19742,10 +19722,10 @@
         <v>1244</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>2387</v>
+        <v>2676</v>
       </c>
       <c r="D747" s="7" t="s">
-        <v>1332</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -19756,10 +19736,10 @@
         <v>1244</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>2388</v>
+        <v>2677</v>
       </c>
       <c r="D748" s="7" t="s">
-        <v>1334</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -19770,10 +19750,10 @@
         <v>1244</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>1335</v>
+        <v>2678</v>
       </c>
       <c r="D749" s="7" t="s">
-        <v>1336</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -19784,10 +19764,10 @@
         <v>1244</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>1337</v>
+        <v>2679</v>
       </c>
       <c r="D750" s="7" t="s">
-        <v>1338</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -19798,10 +19778,10 @@
         <v>1244</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>1339</v>
+        <v>2680</v>
       </c>
       <c r="D751" s="7" t="s">
-        <v>1340</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -19812,10 +19792,10 @@
         <v>1244</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>2444</v>
+        <v>2681</v>
       </c>
       <c r="D752" s="7" t="s">
-        <v>2445</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -19826,10 +19806,10 @@
         <v>1244</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>2346</v>
+        <v>2682</v>
       </c>
       <c r="D753" s="7" t="s">
-        <v>1342</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -19840,10 +19820,10 @@
         <v>1244</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1355</v>
+        <v>2683</v>
       </c>
       <c r="D754" s="7" t="s">
-        <v>1356</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -19854,10 +19834,10 @@
         <v>1244</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>2599</v>
+        <v>2684</v>
       </c>
       <c r="D755" s="7" t="s">
-        <v>1354</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -19868,10 +19848,10 @@
         <v>1244</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>2600</v>
+        <v>2685</v>
       </c>
       <c r="D756" s="7" t="s">
-        <v>1659</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -20120,7 +20100,7 @@
         <v>1244</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>2667</v>
+        <v>2647</v>
       </c>
       <c r="D774" s="7" t="s">
         <v>1416</v>
@@ -20204,10 +20184,10 @@
         <v>1244</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>2682</v>
+        <v>2662</v>
       </c>
       <c r="D780" s="7" t="s">
-        <v>2683</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -20218,10 +20198,10 @@
         <v>1244</v>
       </c>
       <c r="C781" s="7" t="s">
-        <v>2595</v>
+        <v>2578</v>
       </c>
       <c r="D781" s="7" t="s">
-        <v>2596</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -20232,10 +20212,10 @@
         <v>1244</v>
       </c>
       <c r="C782" s="7" t="s">
-        <v>2597</v>
+        <v>2580</v>
       </c>
       <c r="D782" s="7" t="s">
-        <v>2598</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -20456,7 +20436,7 @@
         <v>1244</v>
       </c>
       <c r="C798" s="7" t="s">
-        <v>2509</v>
+        <v>2493</v>
       </c>
       <c r="D798" s="7" t="s">
         <v>1458</v>
@@ -20470,7 +20450,7 @@
         <v>1244</v>
       </c>
       <c r="C799" s="7" t="s">
-        <v>2514</v>
+        <v>2498</v>
       </c>
       <c r="D799" s="7" t="s">
         <v>2416</v>
@@ -20484,7 +20464,7 @@
         <v>1244</v>
       </c>
       <c r="C800" s="7" t="s">
-        <v>2510</v>
+        <v>2494</v>
       </c>
       <c r="D800" s="7" t="s">
         <v>2414</v>
@@ -20498,7 +20478,7 @@
         <v>1244</v>
       </c>
       <c r="C801" s="7" t="s">
-        <v>2512</v>
+        <v>2496</v>
       </c>
       <c r="D801" s="7" t="s">
         <v>1462</v>
@@ -20512,7 +20492,7 @@
         <v>1244</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>2513</v>
+        <v>2497</v>
       </c>
       <c r="D802" s="7" t="s">
         <v>2415</v>
@@ -20526,7 +20506,7 @@
         <v>1244</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>2511</v>
+        <v>2495</v>
       </c>
       <c r="D803" s="7" t="s">
         <v>1464</v>
@@ -20540,7 +20520,7 @@
         <v>1244</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>2503</v>
+        <v>2487</v>
       </c>
       <c r="D804" s="7" t="s">
         <v>1466</v>
@@ -20554,7 +20534,7 @@
         <v>1244</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>2508</v>
+        <v>2492</v>
       </c>
       <c r="D805" s="7" t="s">
         <v>1690</v>
@@ -20568,7 +20548,7 @@
         <v>1244</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>2504</v>
+        <v>2488</v>
       </c>
       <c r="D806" s="7" t="s">
         <v>2412</v>
@@ -20582,7 +20562,7 @@
         <v>1244</v>
       </c>
       <c r="C807" s="7" t="s">
-        <v>2506</v>
+        <v>2490</v>
       </c>
       <c r="D807" s="7" t="s">
         <v>1468</v>
@@ -20596,7 +20576,7 @@
         <v>1244</v>
       </c>
       <c r="C808" s="7" t="s">
-        <v>2507</v>
+        <v>2491</v>
       </c>
       <c r="D808" s="7" t="s">
         <v>2413</v>
@@ -20610,7 +20590,7 @@
         <v>1244</v>
       </c>
       <c r="C809" s="7" t="s">
-        <v>2505</v>
+        <v>2489</v>
       </c>
       <c r="D809" s="7" t="s">
         <v>1470</v>
@@ -20624,7 +20604,7 @@
         <v>1244</v>
       </c>
       <c r="C810" s="7" t="s">
-        <v>2515</v>
+        <v>2499</v>
       </c>
       <c r="D810" s="7" t="s">
         <v>1474</v>
@@ -20638,7 +20618,7 @@
         <v>1244</v>
       </c>
       <c r="C811" s="7" t="s">
-        <v>2516</v>
+        <v>2500</v>
       </c>
       <c r="D811" s="7" t="s">
         <v>1488</v>
@@ -20652,7 +20632,7 @@
         <v>1244</v>
       </c>
       <c r="C812" s="7" t="s">
-        <v>2520</v>
+        <v>2503</v>
       </c>
       <c r="D812" s="7" t="s">
         <v>2419</v>
@@ -20666,10 +20646,10 @@
         <v>1244</v>
       </c>
       <c r="C813" s="7" t="s">
-        <v>2621</v>
+        <v>2601</v>
       </c>
       <c r="D813" s="7" t="s">
-        <v>2622</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -20680,7 +20660,7 @@
         <v>1244</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>2518</v>
+        <v>2501</v>
       </c>
       <c r="D814" s="7" t="s">
         <v>2417</v>
@@ -20694,10 +20674,10 @@
         <v>1244</v>
       </c>
       <c r="C815" s="7" t="s">
-        <v>2623</v>
+        <v>2603</v>
       </c>
       <c r="D815" s="7" t="s">
-        <v>2625</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -20708,7 +20688,7 @@
         <v>1244</v>
       </c>
       <c r="C816" s="7" t="s">
-        <v>2519</v>
+        <v>2502</v>
       </c>
       <c r="D816" s="7" t="s">
         <v>2418</v>
@@ -20722,10 +20702,10 @@
         <v>1244</v>
       </c>
       <c r="C817" s="7" t="s">
-        <v>2624</v>
+        <v>2604</v>
       </c>
       <c r="D817" s="7" t="s">
-        <v>2626</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -20736,10 +20716,10 @@
         <v>1244</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>2669</v>
+        <v>2649</v>
       </c>
       <c r="D818" s="7" t="s">
-        <v>2620</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -20750,7 +20730,7 @@
         <v>1244</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>2670</v>
+        <v>2650</v>
       </c>
       <c r="D819" s="7" t="s">
         <v>2468</v>
@@ -20778,7 +20758,7 @@
         <v>1244</v>
       </c>
       <c r="C821" s="7" t="s">
-        <v>2671</v>
+        <v>2651</v>
       </c>
       <c r="D821" s="7" t="s">
         <v>2469</v>
@@ -20806,10 +20786,10 @@
         <v>1244</v>
       </c>
       <c r="C823" s="7" t="s">
-        <v>2674</v>
+        <v>2654</v>
       </c>
       <c r="D823" s="7" t="s">
-        <v>2676</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -20820,10 +20800,10 @@
         <v>1244</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>2675</v>
+        <v>2655</v>
       </c>
       <c r="D824" s="7" t="s">
-        <v>2679</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -20834,10 +20814,10 @@
         <v>1244</v>
       </c>
       <c r="C825" s="7" t="s">
-        <v>2677</v>
+        <v>2657</v>
       </c>
       <c r="D825" s="7" t="s">
-        <v>2678</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -20848,10 +20828,10 @@
         <v>1244</v>
       </c>
       <c r="C826" s="7" t="s">
-        <v>2673</v>
+        <v>2653</v>
       </c>
       <c r="D826" s="7" t="s">
-        <v>2601</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -20862,7 +20842,7 @@
         <v>1244</v>
       </c>
       <c r="C827" s="7" t="s">
-        <v>2672</v>
+        <v>2652</v>
       </c>
       <c r="D827" s="7" t="s">
         <v>2486</v>
@@ -20876,10 +20856,10 @@
         <v>1244</v>
       </c>
       <c r="C828" s="7" t="s">
-        <v>2641</v>
+        <v>2621</v>
       </c>
       <c r="D828" s="7" t="s">
-        <v>2640</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -20890,10 +20870,10 @@
         <v>1244</v>
       </c>
       <c r="C829" s="7" t="s">
-        <v>2642</v>
+        <v>2622</v>
       </c>
       <c r="D829" s="7" t="s">
-        <v>2585</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -20904,10 +20884,10 @@
         <v>1244</v>
       </c>
       <c r="C830" s="7" t="s">
-        <v>2644</v>
+        <v>2624</v>
       </c>
       <c r="D830" s="7" t="s">
-        <v>2584</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -20974,10 +20954,10 @@
         <v>1244</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>2590</v>
+        <v>2573</v>
       </c>
       <c r="D835" s="7" t="s">
-        <v>2591</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -20988,10 +20968,10 @@
         <v>1244</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>2592</v>
+        <v>2575</v>
       </c>
       <c r="D836" s="7" t="s">
-        <v>2594</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -21002,10 +20982,10 @@
         <v>1244</v>
       </c>
       <c r="C837" s="7" t="s">
-        <v>2593</v>
+        <v>2576</v>
       </c>
       <c r="D837" s="7" t="s">
-        <v>2589</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -21016,10 +20996,10 @@
         <v>1244</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>2580</v>
+        <v>2563</v>
       </c>
       <c r="D838" s="7" t="s">
-        <v>2581</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -21030,10 +21010,10 @@
         <v>1244</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>2582</v>
+        <v>2565</v>
       </c>
       <c r="D839" s="7" t="s">
-        <v>2583</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -21044,7 +21024,7 @@
         <v>1244</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>2542</v>
+        <v>2525</v>
       </c>
       <c r="D840" s="7" t="s">
         <v>2393</v>
@@ -21058,7 +21038,7 @@
         <v>1244</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>2547</v>
+        <v>2530</v>
       </c>
       <c r="D841" s="7" t="s">
         <v>2397</v>
@@ -21072,7 +21052,7 @@
         <v>1244</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>2543</v>
+        <v>2526</v>
       </c>
       <c r="D842" s="7" t="s">
         <v>2401</v>
@@ -21086,7 +21066,7 @@
         <v>1244</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>2545</v>
+        <v>2528</v>
       </c>
       <c r="D843" s="7" t="s">
         <v>2395</v>
@@ -21100,7 +21080,7 @@
         <v>1244</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>2546</v>
+        <v>2529</v>
       </c>
       <c r="D844" s="7" t="s">
         <v>2396</v>
@@ -21114,7 +21094,7 @@
         <v>1244</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>2544</v>
+        <v>2527</v>
       </c>
       <c r="D845" s="7" t="s">
         <v>2394</v>
@@ -21128,7 +21108,7 @@
         <v>1244</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>2536</v>
+        <v>2519</v>
       </c>
       <c r="D846" s="7" t="s">
         <v>1562</v>
@@ -21142,7 +21122,7 @@
         <v>1244</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>2541</v>
+        <v>2524</v>
       </c>
       <c r="D847" s="7" t="s">
         <v>2392</v>
@@ -21156,7 +21136,7 @@
         <v>1244</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>2537</v>
+        <v>2520</v>
       </c>
       <c r="D848" s="7" t="s">
         <v>2400</v>
@@ -21170,7 +21150,7 @@
         <v>1244</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>2539</v>
+        <v>2522</v>
       </c>
       <c r="D849" s="7" t="s">
         <v>2390</v>
@@ -21184,7 +21164,7 @@
         <v>1244</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>2540</v>
+        <v>2523</v>
       </c>
       <c r="D850" s="7" t="s">
         <v>2391</v>
@@ -21198,7 +21178,7 @@
         <v>1244</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>2538</v>
+        <v>2521</v>
       </c>
       <c r="D851" s="7" t="s">
         <v>2389</v>
@@ -21212,7 +21192,7 @@
         <v>1244</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>2548</v>
+        <v>2531</v>
       </c>
       <c r="D852" s="7" t="s">
         <v>1548</v>
@@ -21226,10 +21206,10 @@
         <v>1244</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>2602</v>
+        <v>2585</v>
       </c>
       <c r="D853" s="7" t="s">
-        <v>2603</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -21240,7 +21220,7 @@
         <v>1244</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>2549</v>
+        <v>2532</v>
       </c>
       <c r="D854" s="7" t="s">
         <v>1542</v>
@@ -21254,7 +21234,7 @@
         <v>1244</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>2552</v>
+        <v>2535</v>
       </c>
       <c r="D855" s="7" t="s">
         <v>2402</v>
@@ -21268,7 +21248,7 @@
         <v>1244</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>2550</v>
+        <v>2533</v>
       </c>
       <c r="D856" s="7" t="s">
         <v>2399</v>
@@ -21282,10 +21262,10 @@
         <v>1244</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>2605</v>
+        <v>2588</v>
       </c>
       <c r="D857" s="7" t="s">
-        <v>2604</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -21296,7 +21276,7 @@
         <v>1244</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>2551</v>
+        <v>2534</v>
       </c>
       <c r="D858" s="7" t="s">
         <v>2398</v>
@@ -21310,10 +21290,10 @@
         <v>1244</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>2606</v>
+        <v>2589</v>
       </c>
       <c r="D859" s="7" t="s">
-        <v>2607</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -21324,10 +21304,10 @@
         <v>1244</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>2553</v>
+        <v>2536</v>
       </c>
       <c r="D860" s="7" t="s">
-        <v>2554</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -21338,10 +21318,10 @@
         <v>1244</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>2555</v>
+        <v>2538</v>
       </c>
       <c r="D861" s="7" t="s">
-        <v>2560</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -21352,10 +21332,10 @@
         <v>1244</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>2556</v>
+        <v>2539</v>
       </c>
       <c r="D862" s="7" t="s">
-        <v>2561</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -21366,10 +21346,10 @@
         <v>1244</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>2558</v>
+        <v>2541</v>
       </c>
       <c r="D863" s="7" t="s">
-        <v>2563</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -21380,10 +21360,10 @@
         <v>1244</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>2557</v>
+        <v>2540</v>
       </c>
       <c r="D864" s="7" t="s">
-        <v>2562</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -21394,10 +21374,10 @@
         <v>1244</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>2559</v>
+        <v>2542</v>
       </c>
       <c r="D865" s="7" t="s">
-        <v>2564</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -21534,10 +21514,10 @@
         <v>1244</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>2614</v>
+        <v>2594</v>
       </c>
       <c r="D875" s="7" t="s">
-        <v>2615</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -21548,10 +21528,10 @@
         <v>1244</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>2619</v>
+        <v>2599</v>
       </c>
       <c r="D876" s="7" t="s">
-        <v>2617</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -21562,10 +21542,10 @@
         <v>1244</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>2618</v>
+        <v>2598</v>
       </c>
       <c r="D877" s="7" t="s">
-        <v>2616</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -21646,10 +21626,10 @@
         <v>1244</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>2684</v>
+        <v>2480</v>
       </c>
       <c r="D883" s="7" t="s">
-        <v>2685</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -21660,10 +21640,10 @@
         <v>1244</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>2480</v>
+        <v>2664</v>
       </c>
       <c r="D884" s="7" t="s">
-        <v>2482</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -21702,10 +21682,10 @@
         <v>1244</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>2680</v>
+        <v>2660</v>
       </c>
       <c r="D887" s="7" t="s">
-        <v>2681</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -21926,10 +21906,10 @@
         <v>1611</v>
       </c>
       <c r="C903" s="9" t="s">
-        <v>2654</v>
+        <v>2634</v>
       </c>
       <c r="D903" s="7" t="s">
-        <v>2655</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -21940,10 +21920,10 @@
         <v>1611</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>2652</v>
+        <v>2632</v>
       </c>
       <c r="D904" s="7" t="s">
-        <v>2653</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -21954,10 +21934,10 @@
         <v>1611</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>2650</v>
+        <v>2630</v>
       </c>
       <c r="D905" s="7" t="s">
-        <v>2651</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -22214,8 +22194,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I1809">
-    <sortState ref="A2:F1808">
-      <sortCondition ref="B1:B1808"/>
+    <sortState ref="A2:I1809">
+      <sortCondition ref="B1:B1809"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2"/>
@@ -22230,7 +22210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C882">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36468,12 +36448,12 @@
   </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D877 C1:C869 C871:C1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C870">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57140,12 +57120,12 @@
   </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D887 C878:C1048576 C1:C876">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C877">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21930" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="23220" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="29" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">wago_work!$A$1:$D$218</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$I$1809</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$I$1811</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'基本 (2)'!$A$1:$I$1772</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">基本_bak!$A$1:$I$1782</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12345" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12353" uniqueCount="2688">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -7789,10 +7789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>された</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xtr</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8513,10 +8509,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>srlt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>swr</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8631,6 +8623,22 @@
   </si>
   <si>
     <t>kbrw</t>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>''/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>srll</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>されて</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -9163,12 +9171,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1809"/>
+  <dimension ref="A1:F1811"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A771" sqref="A771"/>
+      <selection pane="bottomLeft" activeCell="E817" sqref="E817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -14684,7 +14692,7 @@
         <v>548</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>691</v>
@@ -18756,7 +18764,7 @@
         <v>1244</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D678" s="7" t="s">
         <v>1252</v>
@@ -18770,7 +18778,7 @@
         <v>1244</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D679" s="7" t="s">
         <v>2426</v>
@@ -18784,7 +18792,7 @@
         <v>1244</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D680" s="7" t="s">
         <v>2424</v>
@@ -18798,7 +18806,7 @@
         <v>1244</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D681" s="7" t="s">
         <v>1256</v>
@@ -18812,7 +18820,7 @@
         <v>1244</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D682" s="7" t="s">
         <v>2425</v>
@@ -18826,7 +18834,7 @@
         <v>1244</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D683" s="7" t="s">
         <v>1258</v>
@@ -18840,7 +18848,7 @@
         <v>1244</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D684" s="7" t="s">
         <v>1278</v>
@@ -18854,7 +18862,7 @@
         <v>1244</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D685" s="7" t="s">
         <v>2423</v>
@@ -18868,7 +18876,7 @@
         <v>1244</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D686" s="7" t="s">
         <v>2421</v>
@@ -18882,7 +18890,7 @@
         <v>1244</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D687" s="7" t="s">
         <v>1280</v>
@@ -18896,7 +18904,7 @@
         <v>1244</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D688" s="7" t="s">
         <v>2422</v>
@@ -18910,7 +18918,7 @@
         <v>1244</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D689" s="7" t="s">
         <v>1284</v>
@@ -18924,10 +18932,10 @@
         <v>1244</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D690" s="7" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -18938,10 +18946,10 @@
         <v>1244</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D691" s="7" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -18952,7 +18960,7 @@
         <v>1244</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D692" s="7" t="s">
         <v>1288</v>
@@ -18966,7 +18974,7 @@
         <v>1244</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D693" s="7" t="s">
         <v>1292</v>
@@ -18980,7 +18988,7 @@
         <v>1244</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D694" s="7" t="s">
         <v>1294</v>
@@ -18994,7 +19002,7 @@
         <v>1244</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D695" s="7" t="s">
         <v>1296</v>
@@ -19008,7 +19016,7 @@
         <v>1244</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D696" s="7" t="s">
         <v>1298</v>
@@ -19022,7 +19030,7 @@
         <v>1244</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D697" s="7" t="s">
         <v>1272</v>
@@ -19036,7 +19044,7 @@
         <v>1244</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D698" s="7" t="s">
         <v>1264</v>
@@ -19050,7 +19058,7 @@
         <v>1244</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D699" s="7" t="s">
         <v>2427</v>
@@ -19064,7 +19072,7 @@
         <v>1244</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D700" s="7" t="s">
         <v>1266</v>
@@ -19078,7 +19086,7 @@
         <v>1244</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D701" s="7" t="s">
         <v>1268</v>
@@ -19092,10 +19100,10 @@
         <v>1244</v>
       </c>
       <c r="C702" s="7" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D702" s="7" t="s">
         <v>2628</v>
-      </c>
-      <c r="D702" s="7" t="s">
-        <v>2629</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -19106,7 +19114,7 @@
         <v>1244</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D703" s="7" t="s">
         <v>1274</v>
@@ -19120,7 +19128,7 @@
         <v>1244</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D704" s="7" t="s">
         <v>2420</v>
@@ -19134,10 +19142,10 @@
         <v>1244</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D705" s="7" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -19148,7 +19156,7 @@
         <v>1244</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D706" s="7" t="s">
         <v>1312</v>
@@ -19162,7 +19170,7 @@
         <v>1244</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D707" s="7" t="s">
         <v>1314</v>
@@ -19176,10 +19184,10 @@
         <v>1244</v>
       </c>
       <c r="C708" s="7" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D708" s="7" t="s">
         <v>2626</v>
-      </c>
-      <c r="D708" s="7" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -19218,10 +19226,10 @@
         <v>1244</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D711" s="7" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -19232,10 +19240,10 @@
         <v>1244</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D712" s="7" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -19246,10 +19254,10 @@
         <v>1244</v>
       </c>
       <c r="C713" s="7" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D713" s="7" t="s">
         <v>2557</v>
-      </c>
-      <c r="D713" s="7" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -19260,10 +19268,10 @@
         <v>1244</v>
       </c>
       <c r="C714" s="7" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D714" s="7" t="s">
         <v>2555</v>
-      </c>
-      <c r="D714" s="7" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -19274,10 +19282,10 @@
         <v>1244</v>
       </c>
       <c r="C715" s="7" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D715" s="7" t="s">
         <v>2612</v>
-      </c>
-      <c r="D715" s="7" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -19288,7 +19296,7 @@
         <v>1244</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D716" s="7" t="s">
         <v>2452</v>
@@ -19302,7 +19310,7 @@
         <v>1244</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D717" s="7" t="s">
         <v>1302</v>
@@ -19316,10 +19324,10 @@
         <v>1244</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D718" s="7" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -19330,10 +19338,10 @@
         <v>1244</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -19344,10 +19352,10 @@
         <v>1244</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D720" s="7" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -19358,10 +19366,10 @@
         <v>1244</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D721" s="7" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -19372,10 +19380,10 @@
         <v>1244</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D722" s="7" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -19386,10 +19394,10 @@
         <v>1244</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D723" s="7" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -19400,7 +19408,7 @@
         <v>1244</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D724" s="7" t="s">
         <v>1324</v>
@@ -19414,10 +19422,10 @@
         <v>1244</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D725" s="7" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -19554,7 +19562,7 @@
         <v>1244</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D735" s="7" t="s">
         <v>1354</v>
@@ -19568,7 +19576,7 @@
         <v>1244</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D736" s="7" t="s">
         <v>1659</v>
@@ -19582,7 +19590,7 @@
         <v>1244</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="D737" s="7" t="s">
         <v>1358</v>
@@ -19596,7 +19604,7 @@
         <v>1244</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="D738" s="7" t="s">
         <v>2408</v>
@@ -19610,7 +19618,7 @@
         <v>1244</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="D739" s="7" t="s">
         <v>2406</v>
@@ -19624,7 +19632,7 @@
         <v>1244</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="D740" s="7" t="s">
         <v>1362</v>
@@ -19638,7 +19646,7 @@
         <v>1244</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="D741" s="7" t="s">
         <v>2407</v>
@@ -19652,7 +19660,7 @@
         <v>1244</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="D742" s="7" t="s">
         <v>1364</v>
@@ -19666,7 +19674,7 @@
         <v>1244</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="D743" s="7" t="s">
         <v>1366</v>
@@ -19680,7 +19688,7 @@
         <v>1244</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="D744" s="7" t="s">
         <v>2405</v>
@@ -19694,7 +19702,7 @@
         <v>1244</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="D745" s="7" t="s">
         <v>2403</v>
@@ -19708,7 +19716,7 @@
         <v>1244</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="D746" s="7" t="s">
         <v>1368</v>
@@ -19722,7 +19730,7 @@
         <v>1244</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="D747" s="7" t="s">
         <v>2404</v>
@@ -19736,7 +19744,7 @@
         <v>1244</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="D748" s="7" t="s">
         <v>1370</v>
@@ -19750,7 +19758,7 @@
         <v>1244</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="D749" s="7" t="s">
         <v>1372</v>
@@ -19764,7 +19772,7 @@
         <v>1244</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="D750" s="7" t="s">
         <v>1386</v>
@@ -19778,7 +19786,7 @@
         <v>1244</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="D751" s="7" t="s">
         <v>2411</v>
@@ -19792,10 +19800,10 @@
         <v>1244</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="D752" s="7" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -19806,7 +19814,7 @@
         <v>1244</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="D753" s="7" t="s">
         <v>2409</v>
@@ -19820,10 +19828,10 @@
         <v>1244</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="D754" s="7" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -19834,7 +19842,7 @@
         <v>1244</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="D755" s="7" t="s">
         <v>2410</v>
@@ -19848,10 +19856,10 @@
         <v>1244</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="D756" s="7" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -20100,7 +20108,7 @@
         <v>1244</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D774" s="7" t="s">
         <v>1416</v>
@@ -20184,10 +20192,10 @@
         <v>1244</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="D780" s="7" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -20198,10 +20206,10 @@
         <v>1244</v>
       </c>
       <c r="C781" s="7" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D781" s="7" t="s">
         <v>2578</v>
-      </c>
-      <c r="D781" s="7" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -20212,10 +20220,10 @@
         <v>1244</v>
       </c>
       <c r="C782" s="7" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D782" s="7" t="s">
         <v>2580</v>
-      </c>
-      <c r="D782" s="7" t="s">
-        <v>2581</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -20436,7 +20444,7 @@
         <v>1244</v>
       </c>
       <c r="C798" s="7" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D798" s="7" t="s">
         <v>1458</v>
@@ -20450,7 +20458,7 @@
         <v>1244</v>
       </c>
       <c r="C799" s="7" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D799" s="7" t="s">
         <v>2416</v>
@@ -20464,7 +20472,7 @@
         <v>1244</v>
       </c>
       <c r="C800" s="7" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D800" s="7" t="s">
         <v>2414</v>
@@ -20478,7 +20486,7 @@
         <v>1244</v>
       </c>
       <c r="C801" s="7" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D801" s="7" t="s">
         <v>1462</v>
@@ -20492,7 +20500,7 @@
         <v>1244</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D802" s="7" t="s">
         <v>2415</v>
@@ -20506,7 +20514,7 @@
         <v>1244</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D803" s="7" t="s">
         <v>1464</v>
@@ -20520,7 +20528,7 @@
         <v>1244</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D804" s="7" t="s">
         <v>1466</v>
@@ -20534,7 +20542,7 @@
         <v>1244</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D805" s="7" t="s">
         <v>1690</v>
@@ -20548,7 +20556,7 @@
         <v>1244</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D806" s="7" t="s">
         <v>2412</v>
@@ -20562,7 +20570,7 @@
         <v>1244</v>
       </c>
       <c r="C807" s="7" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D807" s="7" t="s">
         <v>1468</v>
@@ -20576,7 +20584,7 @@
         <v>1244</v>
       </c>
       <c r="C808" s="7" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D808" s="7" t="s">
         <v>2413</v>
@@ -20590,7 +20598,7 @@
         <v>1244</v>
       </c>
       <c r="C809" s="7" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D809" s="7" t="s">
         <v>1470</v>
@@ -20604,7 +20612,7 @@
         <v>1244</v>
       </c>
       <c r="C810" s="7" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D810" s="7" t="s">
         <v>1474</v>
@@ -20618,7 +20626,7 @@
         <v>1244</v>
       </c>
       <c r="C811" s="7" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D811" s="7" t="s">
         <v>1488</v>
@@ -20632,7 +20640,7 @@
         <v>1244</v>
       </c>
       <c r="C812" s="7" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D812" s="7" t="s">
         <v>2419</v>
@@ -20646,10 +20654,10 @@
         <v>1244</v>
       </c>
       <c r="C813" s="7" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D813" s="7" t="s">
         <v>2601</v>
-      </c>
-      <c r="D813" s="7" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -20660,7 +20668,7 @@
         <v>1244</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D814" s="7" t="s">
         <v>2417</v>
@@ -20674,10 +20682,10 @@
         <v>1244</v>
       </c>
       <c r="C815" s="7" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D815" s="7" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -20688,7 +20696,7 @@
         <v>1244</v>
       </c>
       <c r="C816" s="7" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D816" s="7" t="s">
         <v>2418</v>
@@ -20702,10 +20710,10 @@
         <v>1244</v>
       </c>
       <c r="C817" s="7" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D817" s="7" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -20716,10 +20724,10 @@
         <v>1244</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D818" s="7" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -20730,7 +20738,7 @@
         <v>1244</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D819" s="7" t="s">
         <v>2468</v>
@@ -20758,10 +20766,10 @@
         <v>1244</v>
       </c>
       <c r="C821" s="7" t="s">
-        <v>2651</v>
+        <v>1497</v>
       </c>
       <c r="D821" s="7" t="s">
-        <v>2469</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -20772,10 +20780,10 @@
         <v>1244</v>
       </c>
       <c r="C822" s="7" t="s">
-        <v>2465</v>
+        <v>2686</v>
       </c>
       <c r="D822" s="7" t="s">
-        <v>2464</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -20786,10 +20794,10 @@
         <v>1244</v>
       </c>
       <c r="C823" s="7" t="s">
-        <v>2654</v>
+        <v>2465</v>
       </c>
       <c r="D823" s="7" t="s">
-        <v>2656</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -20800,10 +20808,10 @@
         <v>1244</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="D824" s="7" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -20814,10 +20822,10 @@
         <v>1244</v>
       </c>
       <c r="C825" s="7" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D825" s="7" t="s">
         <v>2657</v>
-      </c>
-      <c r="D825" s="7" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -20828,10 +20836,10 @@
         <v>1244</v>
       </c>
       <c r="C826" s="7" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="D826" s="7" t="s">
-        <v>2584</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -20842,10 +20850,10 @@
         <v>1244</v>
       </c>
       <c r="C827" s="7" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D827" s="7" t="s">
-        <v>2486</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -20856,10 +20864,10 @@
         <v>1244</v>
       </c>
       <c r="C828" s="7" t="s">
-        <v>2621</v>
+        <v>2650</v>
       </c>
       <c r="D828" s="7" t="s">
-        <v>2620</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -20870,10 +20878,10 @@
         <v>1244</v>
       </c>
       <c r="C829" s="7" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="D829" s="7" t="s">
-        <v>2568</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -20884,7 +20892,7 @@
         <v>1244</v>
       </c>
       <c r="C830" s="7" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="D830" s="7" t="s">
         <v>2567</v>
@@ -20898,10 +20906,10 @@
         <v>1244</v>
       </c>
       <c r="C831" s="7" t="s">
-        <v>2385</v>
+        <v>2623</v>
       </c>
       <c r="D831" s="7" t="s">
-        <v>1506</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -20912,10 +20920,10 @@
         <v>1244</v>
       </c>
       <c r="C832" s="7" t="s">
-        <v>2316</v>
+        <v>2385</v>
       </c>
       <c r="D832" s="7" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -20926,10 +20934,10 @@
         <v>1244</v>
       </c>
       <c r="C833" s="7" t="s">
-        <v>2384</v>
+        <v>2316</v>
       </c>
       <c r="D833" s="7" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -20940,10 +20948,10 @@
         <v>1244</v>
       </c>
       <c r="C834" s="7" t="s">
-        <v>1515</v>
+        <v>2384</v>
       </c>
       <c r="D834" s="7" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -20954,10 +20962,10 @@
         <v>1244</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>2573</v>
+        <v>1515</v>
       </c>
       <c r="D835" s="7" t="s">
-        <v>2574</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -20968,10 +20976,10 @@
         <v>1244</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="D836" s="7" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -20982,10 +20990,10 @@
         <v>1244</v>
       </c>
       <c r="C837" s="7" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D837" s="7" t="s">
         <v>2576</v>
-      </c>
-      <c r="D837" s="7" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -20996,10 +21004,10 @@
         <v>1244</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>2563</v>
+        <v>2575</v>
       </c>
       <c r="D838" s="7" t="s">
-        <v>2564</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -21010,10 +21018,10 @@
         <v>1244</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="D839" s="7" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -21024,10 +21032,10 @@
         <v>1244</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>2525</v>
+        <v>2564</v>
       </c>
       <c r="D840" s="7" t="s">
-        <v>2393</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -21038,10 +21046,10 @@
         <v>1244</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
       <c r="D841" s="7" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -21052,10 +21060,10 @@
         <v>1244</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="D842" s="7" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -21066,10 +21074,10 @@
         <v>1244</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="D843" s="7" t="s">
-        <v>2395</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -21080,10 +21088,10 @@
         <v>1244</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="D844" s="7" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -21094,10 +21102,10 @@
         <v>1244</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="D845" s="7" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -21108,10 +21116,10 @@
         <v>1244</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>2519</v>
+        <v>2526</v>
       </c>
       <c r="D846" s="7" t="s">
-        <v>1562</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -21122,10 +21130,10 @@
         <v>1244</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
       <c r="D847" s="7" t="s">
-        <v>2392</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -21136,10 +21144,10 @@
         <v>1244</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="D848" s="7" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -21150,10 +21158,10 @@
         <v>1244</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="D849" s="7" t="s">
-        <v>2390</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -21164,10 +21172,10 @@
         <v>1244</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="D850" s="7" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -21178,10 +21186,10 @@
         <v>1244</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="D851" s="7" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -21192,10 +21200,10 @@
         <v>1244</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>2531</v>
+        <v>2520</v>
       </c>
       <c r="D852" s="7" t="s">
-        <v>1548</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -21206,10 +21214,10 @@
         <v>1244</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>2585</v>
+        <v>2530</v>
       </c>
       <c r="D853" s="7" t="s">
-        <v>2586</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -21220,10 +21228,10 @@
         <v>1244</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>2532</v>
+        <v>2584</v>
       </c>
       <c r="D854" s="7" t="s">
-        <v>1542</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -21234,10 +21242,10 @@
         <v>1244</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="D855" s="7" t="s">
-        <v>2402</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -21248,10 +21256,10 @@
         <v>1244</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="D856" s="7" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -21262,10 +21270,10 @@
         <v>1244</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>2588</v>
+        <v>2532</v>
       </c>
       <c r="D857" s="7" t="s">
-        <v>2587</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -21276,10 +21284,10 @@
         <v>1244</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>2534</v>
+        <v>2587</v>
       </c>
       <c r="D858" s="7" t="s">
-        <v>2398</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -21290,10 +21298,10 @@
         <v>1244</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>2589</v>
+        <v>2533</v>
       </c>
       <c r="D859" s="7" t="s">
-        <v>2590</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -21304,10 +21312,10 @@
         <v>1244</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>2536</v>
+        <v>2588</v>
       </c>
       <c r="D860" s="7" t="s">
-        <v>2537</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -21318,10 +21326,10 @@
         <v>1244</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="D861" s="7" t="s">
-        <v>2543</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -21332,10 +21340,10 @@
         <v>1244</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="D862" s="7" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -21346,10 +21354,10 @@
         <v>1244</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="D863" s="7" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -21374,10 +21382,10 @@
         <v>1244</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="D865" s="7" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -21388,10 +21396,10 @@
         <v>1244</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>2434</v>
+        <v>2541</v>
       </c>
       <c r="D866" s="7" t="s">
-        <v>2435</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -21402,10 +21410,10 @@
         <v>1244</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="D867" s="7" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -21416,10 +21424,10 @@
         <v>1244</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>2436</v>
+        <v>2442</v>
       </c>
       <c r="D868" s="7" t="s">
-        <v>2437</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -21430,10 +21438,10 @@
         <v>1244</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="D869" s="7" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -21444,10 +21452,10 @@
         <v>1244</v>
       </c>
       <c r="C870" s="7" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="D870" s="7" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -21458,10 +21466,10 @@
         <v>1244</v>
       </c>
       <c r="C871" s="7" t="s">
-        <v>1591</v>
+        <v>2440</v>
       </c>
       <c r="D871" s="7" t="s">
-        <v>1592</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -21472,10 +21480,10 @@
         <v>1244</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D872" s="7" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -21486,10 +21494,10 @@
         <v>1244</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>2353</v>
+        <v>1593</v>
       </c>
       <c r="D873" s="7" t="s">
-        <v>1478</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -21500,10 +21508,10 @@
         <v>1244</v>
       </c>
       <c r="C874" s="7" t="s">
-        <v>2446</v>
+        <v>2353</v>
       </c>
       <c r="D874" s="7" t="s">
-        <v>2447</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -21514,10 +21522,10 @@
         <v>1244</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>2594</v>
+        <v>2446</v>
       </c>
       <c r="D875" s="7" t="s">
-        <v>2595</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -21528,10 +21536,10 @@
         <v>1244</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>2599</v>
+        <v>2593</v>
       </c>
       <c r="D876" s="7" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -21556,10 +21564,10 @@
         <v>1244</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>2478</v>
+        <v>2597</v>
       </c>
       <c r="D878" s="7" t="s">
-        <v>2479</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -21570,10 +21578,10 @@
         <v>1244</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="D879" s="7" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -21584,10 +21592,10 @@
         <v>1244</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>2485</v>
+        <v>2474</v>
       </c>
       <c r="D880" s="7" t="s">
-        <v>2484</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -21598,10 +21606,10 @@
         <v>1244</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>2450</v>
+        <v>2484</v>
       </c>
       <c r="D881" s="7" t="s">
-        <v>2451</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -21612,10 +21620,10 @@
         <v>1244</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>2481</v>
+        <v>2450</v>
       </c>
       <c r="D882" s="7" t="s">
-        <v>2483</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -21640,10 +21648,10 @@
         <v>1244</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>2664</v>
+        <v>2479</v>
       </c>
       <c r="D884" s="7" t="s">
-        <v>2665</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -21654,10 +21662,10 @@
         <v>1244</v>
       </c>
       <c r="C885" s="7" t="s">
-        <v>2448</v>
+        <v>2662</v>
       </c>
       <c r="D885" s="7" t="s">
-        <v>2449</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -21668,10 +21676,10 @@
         <v>1244</v>
       </c>
       <c r="C886" s="7" t="s">
-        <v>2477</v>
+        <v>2448</v>
       </c>
       <c r="D886" s="7" t="s">
-        <v>2476</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -21682,10 +21690,10 @@
         <v>1244</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>2660</v>
+        <v>2476</v>
       </c>
       <c r="D887" s="7" t="s">
-        <v>2661</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -21696,10 +21704,10 @@
         <v>1244</v>
       </c>
       <c r="C888" s="7" t="s">
-        <v>2372</v>
+        <v>2658</v>
       </c>
       <c r="D888" s="7" t="s">
-        <v>1606</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -21710,10 +21718,10 @@
         <v>1244</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>2471</v>
+        <v>2372</v>
       </c>
       <c r="D889" s="7" t="s">
-        <v>2473</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -21735,13 +21743,13 @@
         <v>547</v>
       </c>
       <c r="B891" s="6" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C891" s="9" t="s">
-        <v>2381</v>
+        <v>1244</v>
+      </c>
+      <c r="C891" s="7" t="s">
+        <v>2469</v>
       </c>
       <c r="D891" s="7" t="s">
-        <v>2382</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -21752,10 +21760,10 @@
         <v>1611</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>1612</v>
+        <v>2381</v>
       </c>
       <c r="D892" s="7" t="s">
-        <v>1613</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -21766,10 +21774,10 @@
         <v>1611</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D893" s="7" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -21780,10 +21788,10 @@
         <v>1611</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D894" s="7" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -21794,10 +21802,10 @@
         <v>1611</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D895" s="7" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -21808,10 +21816,10 @@
         <v>1611</v>
       </c>
       <c r="C896" s="9" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D896" s="7" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -21822,10 +21830,10 @@
         <v>1611</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D897" s="7" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -21836,10 +21844,10 @@
         <v>1611</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D898" s="7" t="s">
-        <v>7</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -21850,10 +21858,10 @@
         <v>1611</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D899" s="7" t="s">
-        <v>1626</v>
+        <v>7</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -21864,10 +21872,10 @@
         <v>1611</v>
       </c>
       <c r="C900" s="9" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D900" s="7" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -21878,10 +21886,10 @@
         <v>1611</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>1507</v>
+        <v>1627</v>
       </c>
       <c r="D901" s="7" t="s">
-        <v>1508</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -21892,10 +21900,10 @@
         <v>1611</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>2377</v>
+        <v>1507</v>
       </c>
       <c r="D902" s="7" t="s">
-        <v>2378</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -21906,10 +21914,10 @@
         <v>1611</v>
       </c>
       <c r="C903" s="9" t="s">
-        <v>2634</v>
+        <v>2377</v>
       </c>
       <c r="D903" s="7" t="s">
-        <v>2635</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -21920,10 +21928,10 @@
         <v>1611</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="D904" s="7" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -21934,10 +21942,10 @@
         <v>1611</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D905" s="7" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -21948,10 +21956,10 @@
         <v>1611</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>2379</v>
+        <v>2629</v>
       </c>
       <c r="D906" s="7" t="s">
-        <v>2380</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -21962,10 +21970,10 @@
         <v>1611</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>1629</v>
+        <v>2379</v>
       </c>
       <c r="D907" s="7" t="s">
-        <v>1630</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -21976,10 +21984,10 @@
         <v>1611</v>
       </c>
       <c r="C908" s="9" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D908" s="7" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -21987,13 +21995,13 @@
         <v>547</v>
       </c>
       <c r="B909" s="6" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="C909" s="9" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D909" s="7" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -22004,10 +22012,10 @@
         <v>1633</v>
       </c>
       <c r="C910" s="9" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D910" s="7" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -22018,10 +22026,10 @@
         <v>1633</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D911" s="7" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -22032,10 +22040,10 @@
         <v>1633</v>
       </c>
       <c r="C912" s="9" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D912" s="7" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -22046,10 +22054,10 @@
         <v>1633</v>
       </c>
       <c r="C913" s="9" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D913" s="7" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -22060,10 +22068,10 @@
         <v>1633</v>
       </c>
       <c r="C914" s="9" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D914" s="7" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -22074,10 +22082,10 @@
         <v>1633</v>
       </c>
       <c r="C915" s="9" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D915" s="7" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -22088,10 +22096,10 @@
         <v>1633</v>
       </c>
       <c r="C916" s="9" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D916" s="7" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -22102,10 +22110,10 @@
         <v>1633</v>
       </c>
       <c r="C917" s="9" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D917" s="7" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -22116,14 +22124,39 @@
         <v>1633</v>
       </c>
       <c r="C918" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D918" s="7" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4">
+      <c r="A919" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B919" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C919" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="D918" s="7" t="s">
+      <c r="D919" s="7" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="1761" spans="5:5">
-      <c r="E1761" s="8"/>
+    <row r="920" spans="1:4">
+      <c r="A920" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B920" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C920" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D920" s="7" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="1763" spans="5:5">
       <c r="E1763" s="8"/>
@@ -22146,15 +22179,14 @@
     <row r="1775" spans="5:5">
       <c r="E1775" s="8"/>
     </row>
-    <row r="1777" spans="5:6">
+    <row r="1777" spans="5:5">
       <c r="E1777" s="8"/>
     </row>
-    <row r="1779" spans="5:6">
+    <row r="1779" spans="5:5">
       <c r="E1779" s="8"/>
     </row>
-    <row r="1791" spans="5:6">
-      <c r="E1791" s="8"/>
-      <c r="F1791" s="8"/>
+    <row r="1781" spans="5:5">
+      <c r="E1781" s="8"/>
     </row>
     <row r="1793" spans="5:6">
       <c r="E1793" s="8"/>
@@ -22192,25 +22224,29 @@
       <c r="E1809" s="8"/>
       <c r="F1809" s="8"/>
     </row>
+    <row r="1811" spans="5:6">
+      <c r="E1811" s="8"/>
+      <c r="F1811" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1809">
+  <autoFilter ref="A1:I1811">
     <sortState ref="A2:I1809">
       <sortCondition ref="B1:B1809"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D914 C905:C1048576 C886:C888 C890:C903 C874 C790:C851 C1:C783 C877:C881 C883:C884">
-    <cfRule type="expression" dxfId="13" priority="217">
+  <conditionalFormatting sqref="D915 C887:C889 C875 C891:C918 C878:C885 C920:C1048576 C790:C820 C1:C783 C822:C852">
+    <cfRule type="expression" dxfId="13" priority="219">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C904">
-    <cfRule type="expression" dxfId="12" priority="9">
+  <conditionalFormatting sqref="C919">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C882">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="C821">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22220,7 +22256,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="38" id="{1936EB0A-1D3D-41AF-A14F-3012AAD3962B}">
+          <x14:cfRule type="expression" priority="40" id="{1936EB0A-1D3D-41AF-A14F-3012AAD3962B}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -22230,10 +22266,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C852:C858</xm:sqref>
+          <xm:sqref>C853:C859</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="37" id="{19ACEE3C-3029-4F9B-AE67-D39B44B93929}">
+          <x14:cfRule type="expression" priority="39" id="{19ACEE3C-3029-4F9B-AE67-D39B44B93929}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -22243,10 +22279,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C859:C864</xm:sqref>
+          <xm:sqref>C860:C865</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="36" id="{448C4A6C-2A24-434D-8406-DEF1888B7833}">
+          <x14:cfRule type="expression" priority="38" id="{448C4A6C-2A24-434D-8406-DEF1888B7833}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -22256,10 +22292,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C865:C873</xm:sqref>
+          <xm:sqref>C866:C874</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="35" id="{11DA0C5E-CE6A-4DCA-A614-6BCFA00F48EF}">
+          <x14:cfRule type="expression" priority="37" id="{11DA0C5E-CE6A-4DCA-A614-6BCFA00F48EF}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -22269,10 +22305,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C875:C876</xm:sqref>
+          <xm:sqref>C876:C877</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="34" id="{85EF9835-554D-4051-8585-30A062742CD5}">
+          <x14:cfRule type="expression" priority="36" id="{85EF9835-554D-4051-8585-30A062742CD5}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -22282,10 +22318,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C885</xm:sqref>
+          <xm:sqref>C886</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="33" id="{0130406E-9AA4-4297-B548-058628B0BBEC}">
+          <x14:cfRule type="expression" priority="35" id="{0130406E-9AA4-4297-B548-058628B0BBEC}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -22295,10 +22331,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C889</xm:sqref>
+          <xm:sqref>C890</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="18" id="{84A29813-E4FC-4FD9-8E6C-B60A764DB59A}">
+          <x14:cfRule type="expression" priority="20" id="{84A29813-E4FC-4FD9-8E6C-B60A764DB59A}">
             <xm:f>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF('基本 (2)'!$C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</xm:f>
             <x14:dxf>
               <font>
@@ -36448,12 +36484,12 @@
   </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D877 C1:C869 C871:C1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C870">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57120,12 +57156,12 @@
   </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D887 C878:C1048576 C1:C876">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C877">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29670" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="32250" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="29" r:id="rId1"/>
@@ -4809,9 +4809,9 @@
   <dimension ref="A1:K1835"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A891" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="T911" sqref="T911"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -4853,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="str">
-        <f>CONCATENATE(E2,F2,G2,H2,I2,J2)</f>
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE(E2,F2,G2,H2,I2,J2)</f>
         <v>''a</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4874,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="str">
-        <f>CONCATENATE(E3,F3,G3,H3,I3,J3)</f>
+        <f t="shared" si="0"/>
         <v>a</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -4892,7 +4892,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="str">
-        <f>CONCATENATE(E4,F4,G4,H4,I4,J4)</f>
+        <f t="shared" si="0"/>
         <v>'i</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -4913,7 +4913,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="8" t="str">
-        <f>CONCATENATE(E5,F5,G5,H5,I5,J5)</f>
+        <f t="shared" si="0"/>
         <v>i</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -4931,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="str">
-        <f>CONCATENATE(E6,F6,G6,H6,I6,J6)</f>
+        <f t="shared" si="0"/>
         <v>yi</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -4952,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>CONCATENATE(E7,F7,G7,H7,I7,J7)</f>
+        <f t="shared" si="0"/>
         <v>ye</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="str">
-        <f>CONCATENATE(E8,F8,G8,H8,I8,J8)</f>
+        <f t="shared" si="0"/>
         <v>'u</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -4994,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="str">
-        <f>CONCATENATE(E9,F9,G9,H9,I9,J9)</f>
+        <f t="shared" si="0"/>
         <v>u</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -5012,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f>CONCATENATE(E10,F10,G10,H10,I10,J10)</f>
+        <f t="shared" si="0"/>
         <v>whu</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -5036,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f>CONCATENATE(E11,F11,G11,H11,I11,J11)</f>
+        <f t="shared" si="0"/>
         <v>wu</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f>CONCATENATE(E12,F12,G12,H12,I12,J12)</f>
+        <f t="shared" si="0"/>
         <v>wha</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="str">
-        <f>CONCATENATE(E13,F13,G13,H13,I13,J13)</f>
+        <f t="shared" si="0"/>
         <v>whi</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -5105,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f>CONCATENATE(E14,F14,G14,H14,I14,J14)</f>
+        <f t="shared" si="0"/>
         <v>wi</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -5126,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f>CONCATENATE(E15,F15,G15,H15,I15,J15)</f>
+        <f t="shared" si="0"/>
         <v>we</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -5147,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="8" t="str">
-        <f>CONCATENATE(E16,F16,G16,H16,I16,J16)</f>
+        <f t="shared" si="0"/>
         <v>whe</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -5171,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="8" t="str">
-        <f>CONCATENATE(E17,F17,G17,H17,I17,J17)</f>
+        <f t="shared" si="0"/>
         <v>who</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -5195,7 +5195,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="8" t="str">
-        <f>CONCATENATE(E18,F18,G18,H18,I18,J18)</f>
+        <f t="shared" si="0"/>
         <v>'e</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -5216,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="8" t="str">
-        <f>CONCATENATE(E19,F19,G19,H19,I19,J19)</f>
+        <f t="shared" si="0"/>
         <v>e</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -5234,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f>CONCATENATE(E20,F20,G20,H20,I20,J20)</f>
+        <f t="shared" si="0"/>
         <v>'o</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -5255,7 +5255,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f>CONCATENATE(E21,F21,G21,H21,I21,J21)</f>
+        <f t="shared" si="0"/>
         <v>o</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -5273,7 +5273,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f>CONCATENATE(E22,F22,G22,H22,I22,J22)</f>
+        <f t="shared" si="0"/>
         <v>ka</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -5294,7 +5294,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="str">
-        <f>CONCATENATE(E23,F23,G23,H23,I23,J23)</f>
+        <f t="shared" si="0"/>
         <v>ga</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -5315,7 +5315,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>CONCATENATE(E24,F24,G24,H24,I24,J24)</f>
+        <f t="shared" si="0"/>
         <v>ki</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f>CONCATENATE(E25,F25,G25,H25,I25,J25)</f>
+        <f t="shared" si="0"/>
         <v>gi</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -5357,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f>CONCATENATE(E26,F26,G26,H26,I26,J26)</f>
+        <f t="shared" si="0"/>
         <v>kye</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -5381,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f>CONCATENATE(E27,F27,G27,H27,I27,J27)</f>
+        <f t="shared" si="0"/>
         <v>gye</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -5405,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f>CONCATENATE(E28,F28,G28,H28,I28,J28)</f>
+        <f t="shared" si="0"/>
         <v>kya</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="8" t="str">
-        <f>CONCATENATE(E29,F29,G29,H29,I29,J29)</f>
+        <f t="shared" si="0"/>
         <v>gya</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -5453,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f>CONCATENATE(E30,F30,G30,H30,I30,J30)</f>
+        <f t="shared" si="0"/>
         <v>kyu</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -5477,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f>CONCATENATE(E31,F31,G31,H31,I31,J31)</f>
+        <f t="shared" si="0"/>
         <v>gyu</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -5501,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f>CONCATENATE(E32,F32,G32,H32,I32,J32)</f>
+        <f t="shared" si="0"/>
         <v>kyo</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -5525,7 +5525,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f>CONCATENATE(E33,F33,G33,H33,I33,J33)</f>
+        <f t="shared" si="0"/>
         <v>gyo</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -5549,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="8" t="str">
-        <f>CONCATENATE(E34,F34,G34,H34,I34,J34)</f>
+        <f t="shared" si="0"/>
         <v>ku</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -5570,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="8" t="str">
-        <f>CONCATENATE(E35,F35,G35,H35,I35,J35)</f>
+        <f t="shared" si="0"/>
         <v>gu</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -5591,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="8" t="str">
-        <f>CONCATENATE(E36,F36,G36,H36,I36,J36)</f>
+        <f t="shared" si="0"/>
         <v>ke</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -5612,7 +5612,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="8" t="str">
-        <f>CONCATENATE(E37,F37,G37,H37,I37,J37)</f>
+        <f t="shared" si="0"/>
         <v>ge</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -5633,7 +5633,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="8" t="str">
-        <f>CONCATENATE(E38,F38,G38,H38,I38,J38)</f>
+        <f t="shared" si="0"/>
         <v>ko</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -5654,7 +5654,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f>CONCATENATE(E39,F39,G39,H39,I39,J39)</f>
+        <f t="shared" si="0"/>
         <v>go</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -5675,7 +5675,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="8" t="str">
-        <f>CONCATENATE(E40,F40,G40,H40,I40,J40)</f>
+        <f t="shared" si="0"/>
         <v>sa</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -5696,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f>CONCATENATE(E41,F41,G41,H41,I41,J41)</f>
+        <f t="shared" si="0"/>
         <v>za</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -5717,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f>CONCATENATE(E42,F42,G42,H42,I42,J42)</f>
+        <f t="shared" si="0"/>
         <v>shi</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -5741,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="8" t="str">
-        <f>CONCATENATE(E43,F43,G43,H43,I43,J43)</f>
+        <f t="shared" si="0"/>
         <v>si</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -5762,7 +5762,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="8" t="str">
-        <f>CONCATENATE(E44,F44,G44,H44,I44,J44)</f>
+        <f t="shared" si="0"/>
         <v>ji</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -5783,7 +5783,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="8" t="str">
-        <f>CONCATENATE(E45,F45,G45,H45,I45,J45)</f>
+        <f t="shared" si="0"/>
         <v>zi</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -5804,7 +5804,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f>CONCATENATE(E46,F46,G46,H46,I46,J46)</f>
+        <f t="shared" si="0"/>
         <v>she</v>
       </c>
       <c r="D46" s="9" t="s">
@@ -5828,7 +5828,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="8" t="str">
-        <f>CONCATENATE(E47,F47,G47,H47,I47,J47)</f>
+        <f t="shared" si="0"/>
         <v>sye</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -5852,7 +5852,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f>CONCATENATE(E48,F48,G48,H48,I48,J48)</f>
+        <f t="shared" si="0"/>
         <v>je</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -5873,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="8" t="str">
-        <f>CONCATENATE(E49,F49,G49,H49,I49,J49)</f>
+        <f t="shared" si="0"/>
         <v>zye</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -5897,7 +5897,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f>CONCATENATE(E50,F50,G50,H50,I50,J50)</f>
+        <f t="shared" si="0"/>
         <v>sha</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -5921,7 +5921,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f>CONCATENATE(E51,F51,G51,H51,I51,J51)</f>
+        <f t="shared" si="0"/>
         <v>sya</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -5945,7 +5945,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f>CONCATENATE(E52,F52,G52,H52,I52,J52)</f>
+        <f t="shared" si="0"/>
         <v>ja</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -5966,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f>CONCATENATE(E53,F53,G53,H53,I53,J53)</f>
+        <f t="shared" si="0"/>
         <v>zya</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -5990,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f>CONCATENATE(E54,F54,G54,H54,I54,J54)</f>
+        <f t="shared" si="0"/>
         <v>shu</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -6014,7 +6014,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f>CONCATENATE(E55,F55,G55,H55,I55,J55)</f>
+        <f t="shared" si="0"/>
         <v>syu</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -6038,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="8" t="str">
-        <f>CONCATENATE(E56,F56,G56,H56,I56,J56)</f>
+        <f t="shared" si="0"/>
         <v>ju</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f>CONCATENATE(E57,F57,G57,H57,I57,J57)</f>
+        <f t="shared" si="0"/>
         <v>zyu</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -6083,7 +6083,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f>CONCATENATE(E58,F58,G58,H58,I58,J58)</f>
+        <f t="shared" si="0"/>
         <v>sho</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -6107,7 +6107,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="8" t="str">
-        <f>CONCATENATE(E59,F59,G59,H59,I59,J59)</f>
+        <f t="shared" si="0"/>
         <v>syo</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -6131,7 +6131,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f>CONCATENATE(E60,F60,G60,H60,I60,J60)</f>
+        <f t="shared" si="0"/>
         <v>jo</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -6152,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f>CONCATENATE(E61,F61,G61,H61,I61,J61)</f>
+        <f t="shared" si="0"/>
         <v>zyo</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -6176,7 +6176,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f>CONCATENATE(E62,F62,G62,H62,I62,J62)</f>
+        <f t="shared" si="0"/>
         <v>su</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -6197,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f>CONCATENATE(E63,F63,G63,H63,I63,J63)</f>
+        <f t="shared" si="0"/>
         <v>zu</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -6218,7 +6218,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f>CONCATENATE(E64,F64,G64,H64,I64,J64)</f>
+        <f t="shared" si="0"/>
         <v>se</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -6239,7 +6239,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="8" t="str">
-        <f>CONCATENATE(E65,F65,G65,H65,I65,J65)</f>
+        <f t="shared" si="0"/>
         <v>ze</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -6260,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f>CONCATENATE(E66,F66,G66,H66,I66,J66)</f>
+        <f t="shared" ref="C66:C129" si="1">CONCATENATE(E66,F66,G66,H66,I66,J66)</f>
         <v>so</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -6281,7 +6281,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f>CONCATENATE(E67,F67,G67,H67,I67,J67)</f>
+        <f t="shared" si="1"/>
         <v>zo</v>
       </c>
       <c r="D67" s="9" t="s">
@@ -6302,7 +6302,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f>CONCATENATE(E68,F68,G68,H68,I68,J68)</f>
+        <f t="shared" si="1"/>
         <v>ta</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -6323,7 +6323,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f>CONCATENATE(E69,F69,G69,H69,I69,J69)</f>
+        <f t="shared" si="1"/>
         <v>da</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -6344,7 +6344,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f>CONCATENATE(E70,F70,G70,H70,I70,J70)</f>
+        <f t="shared" si="1"/>
         <v>chi</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -6368,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f>CONCATENATE(E71,F71,G71,H71,I71,J71)</f>
+        <f t="shared" si="1"/>
         <v>ti</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -6389,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f>CONCATENATE(E72,F72,G72,H72,I72,J72)</f>
+        <f t="shared" si="1"/>
         <v>di</v>
       </c>
       <c r="D72" s="9" t="s">
@@ -6410,7 +6410,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f>CONCATENATE(E73,F73,G73,H73,I73,J73)</f>
+        <f t="shared" si="1"/>
         <v>che</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -6434,7 +6434,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="8" t="str">
-        <f>CONCATENATE(E74,F74,G74,H74,I74,J74)</f>
+        <f t="shared" si="1"/>
         <v>tye</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -6458,7 +6458,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="8" t="str">
-        <f>CONCATENATE(E75,F75,G75,H75,I75,J75)</f>
+        <f t="shared" si="1"/>
         <v>cha</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -6482,7 +6482,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="8" t="str">
-        <f>CONCATENATE(E76,F76,G76,H76,I76,J76)</f>
+        <f t="shared" si="1"/>
         <v>tya</v>
       </c>
       <c r="D76" s="9" t="s">
@@ -6506,7 +6506,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="8" t="str">
-        <f>CONCATENATE(E77,F77,G77,H77,I77,J77)</f>
+        <f t="shared" si="1"/>
         <v>chu</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -6530,7 +6530,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="8" t="str">
-        <f>CONCATENATE(E78,F78,G78,H78,I78,J78)</f>
+        <f t="shared" si="1"/>
         <v>tyu</v>
       </c>
       <c r="D78" s="9" t="s">
@@ -6554,7 +6554,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="8" t="str">
-        <f>CONCATENATE(E79,F79,G79,H79,I79,J79)</f>
+        <f t="shared" si="1"/>
         <v>cho</v>
       </c>
       <c r="D79" s="9" t="s">
@@ -6578,7 +6578,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="8" t="str">
-        <f>CONCATENATE(E80,F80,G80,H80,I80,J80)</f>
+        <f t="shared" si="1"/>
         <v>tyo</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -6602,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="8" t="str">
-        <f>CONCATENATE(E81,F81,G81,H81,I81,J81)</f>
+        <f t="shared" si="1"/>
         <v>'tu</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -6626,7 +6626,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="8" t="str">
-        <f>CONCATENATE(E82,F82,G82,H82,I82,J82)</f>
+        <f t="shared" si="1"/>
         <v>vv</v>
       </c>
       <c r="D82" s="9" t="s">
@@ -6647,7 +6647,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="8" t="str">
-        <f>CONCATENATE(E83,F83,G83,H83,I83,J83)</f>
+        <f t="shared" si="1"/>
         <v>tu</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -6668,7 +6668,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="8" t="str">
-        <f>CONCATENATE(E84,F84,G84,H84,I84,J84)</f>
+        <f t="shared" si="1"/>
         <v>du</v>
       </c>
       <c r="D84" s="9" t="s">
@@ -6689,7 +6689,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="8" t="str">
-        <f>CONCATENATE(E85,F85,G85,H85,I85,J85)</f>
+        <f t="shared" si="1"/>
         <v>te</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -6710,7 +6710,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="8" t="str">
-        <f>CONCATENATE(E86,F86,G86,H86,I86,J86)</f>
+        <f t="shared" si="1"/>
         <v>de</v>
       </c>
       <c r="D86" s="9" t="s">
@@ -6731,7 +6731,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="8" t="str">
-        <f>CONCATENATE(E87,F87,G87,H87,I87,J87)</f>
+        <f t="shared" si="1"/>
         <v>to</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -6752,7 +6752,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="8" t="str">
-        <f>CONCATENATE(E88,F88,G88,H88,I88,J88)</f>
+        <f t="shared" si="1"/>
         <v>do</v>
       </c>
       <c r="D88" s="9" t="s">
@@ -6773,7 +6773,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="8" t="str">
-        <f>CONCATENATE(E89,F89,G89,H89,I89,J89)</f>
+        <f t="shared" si="1"/>
         <v>na</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -6794,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="8" t="str">
-        <f>CONCATENATE(E90,F90,G90,H90,I90,J90)</f>
+        <f t="shared" si="1"/>
         <v>ni</v>
       </c>
       <c r="D90" s="9" t="s">
@@ -6815,7 +6815,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="8" t="str">
-        <f>CONCATENATE(E91,F91,G91,H91,I91,J91)</f>
+        <f t="shared" si="1"/>
         <v>nye</v>
       </c>
       <c r="D91" s="9" t="s">
@@ -6839,7 +6839,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="8" t="str">
-        <f>CONCATENATE(E92,F92,G92,H92,I92,J92)</f>
+        <f t="shared" si="1"/>
         <v>nya</v>
       </c>
       <c r="D92" s="9" t="s">
@@ -6863,7 +6863,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="8" t="str">
-        <f>CONCATENATE(E93,F93,G93,H93,I93,J93)</f>
+        <f t="shared" si="1"/>
         <v>nyu</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -6887,7 +6887,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="8" t="str">
-        <f>CONCATENATE(E94,F94,G94,H94,I94,J94)</f>
+        <f t="shared" si="1"/>
         <v>nyo</v>
       </c>
       <c r="D94" s="9" t="s">
@@ -6911,7 +6911,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="8" t="str">
-        <f>CONCATENATE(E95,F95,G95,H95,I95,J95)</f>
+        <f t="shared" si="1"/>
         <v>nu</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -6932,7 +6932,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="8" t="str">
-        <f>CONCATENATE(E96,F96,G96,H96,I96,J96)</f>
+        <f t="shared" si="1"/>
         <v>ne</v>
       </c>
       <c r="D96" s="9" t="s">
@@ -6953,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="8" t="str">
-        <f>CONCATENATE(E97,F97,G97,H97,I97,J97)</f>
+        <f t="shared" si="1"/>
         <v>no</v>
       </c>
       <c r="D97" s="9" t="s">
@@ -6974,7 +6974,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f>CONCATENATE(E98,F98,G98,H98,I98,J98)</f>
+        <f t="shared" si="1"/>
         <v>ha</v>
       </c>
       <c r="D98" s="9" t="s">
@@ -6995,7 +6995,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f>CONCATENATE(E99,F99,G99,H99,I99,J99)</f>
+        <f t="shared" si="1"/>
         <v>ba</v>
       </c>
       <c r="D99" s="9" t="s">
@@ -7016,7 +7016,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f>CONCATENATE(E100,F100,G100,H100,I100,J100)</f>
+        <f t="shared" si="1"/>
         <v>pa</v>
       </c>
       <c r="D100" s="9" t="s">
@@ -7037,7 +7037,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="8" t="str">
-        <f>CONCATENATE(E101,F101,G101,H101,I101,J101)</f>
+        <f t="shared" si="1"/>
         <v>hi</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -7058,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="8" t="str">
-        <f>CONCATENATE(E102,F102,G102,H102,I102,J102)</f>
+        <f t="shared" si="1"/>
         <v>bi</v>
       </c>
       <c r="D102" s="9" t="s">
@@ -7079,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="8" t="str">
-        <f>CONCATENATE(E103,F103,G103,H103,I103,J103)</f>
+        <f t="shared" si="1"/>
         <v>pi</v>
       </c>
       <c r="D103" s="9" t="s">
@@ -7100,7 +7100,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="8" t="str">
-        <f>CONCATENATE(E104,F104,G104,H104,I104,J104)</f>
+        <f t="shared" si="1"/>
         <v>hye</v>
       </c>
       <c r="D104" s="9" t="s">
@@ -7124,7 +7124,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="8" t="str">
-        <f>CONCATENATE(E105,F105,G105,H105,I105,J105)</f>
+        <f t="shared" si="1"/>
         <v>bye</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -7148,7 +7148,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="8" t="str">
-        <f>CONCATENATE(E106,F106,G106,H106,I106,J106)</f>
+        <f t="shared" si="1"/>
         <v>pye</v>
       </c>
       <c r="D106" s="9" t="s">
@@ -7172,7 +7172,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="8" t="str">
-        <f>CONCATENATE(E107,F107,G107,H107,I107,J107)</f>
+        <f t="shared" si="1"/>
         <v>hya</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -7196,7 +7196,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="8" t="str">
-        <f>CONCATENATE(E108,F108,G108,H108,I108,J108)</f>
+        <f t="shared" si="1"/>
         <v>bya</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -7220,7 +7220,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="8" t="str">
-        <f>CONCATENATE(E109,F109,G109,H109,I109,J109)</f>
+        <f t="shared" si="1"/>
         <v>pya</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -7244,7 +7244,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="8" t="str">
-        <f>CONCATENATE(E110,F110,G110,H110,I110,J110)</f>
+        <f t="shared" si="1"/>
         <v>hyu</v>
       </c>
       <c r="D110" s="9" t="s">
@@ -7268,7 +7268,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="8" t="str">
-        <f>CONCATENATE(E111,F111,G111,H111,I111,J111)</f>
+        <f t="shared" si="1"/>
         <v>byu</v>
       </c>
       <c r="D111" s="9" t="s">
@@ -7292,7 +7292,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="8" t="str">
-        <f>CONCATENATE(E112,F112,G112,H112,I112,J112)</f>
+        <f t="shared" si="1"/>
         <v>pyu</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -7316,7 +7316,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="8" t="str">
-        <f>CONCATENATE(E113,F113,G113,H113,I113,J113)</f>
+        <f t="shared" si="1"/>
         <v>hyo</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -7340,7 +7340,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="8" t="str">
-        <f>CONCATENATE(E114,F114,G114,H114,I114,J114)</f>
+        <f t="shared" si="1"/>
         <v>byo</v>
       </c>
       <c r="D114" s="9" t="s">
@@ -7364,7 +7364,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="8" t="str">
-        <f>CONCATENATE(E115,F115,G115,H115,I115,J115)</f>
+        <f t="shared" si="1"/>
         <v>pyo</v>
       </c>
       <c r="D115" s="9" t="s">
@@ -7388,7 +7388,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="8" t="str">
-        <f>CONCATENATE(E116,F116,G116,H116,I116,J116)</f>
+        <f t="shared" si="1"/>
         <v>fu</v>
       </c>
       <c r="D116" s="9" t="s">
@@ -7409,7 +7409,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="8" t="str">
-        <f>CONCATENATE(E117,F117,G117,H117,I117,J117)</f>
+        <f t="shared" si="1"/>
         <v>hu</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -7430,7 +7430,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="8" t="str">
-        <f>CONCATENATE(E118,F118,G118,H118,I118,J118)</f>
+        <f t="shared" si="1"/>
         <v>bu</v>
       </c>
       <c r="D118" s="9" t="s">
@@ -7451,7 +7451,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="8" t="str">
-        <f>CONCATENATE(E119,F119,G119,H119,I119,J119)</f>
+        <f t="shared" si="1"/>
         <v>pu</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -7472,7 +7472,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="8" t="str">
-        <f>CONCATENATE(E120,F120,G120,H120,I120,J120)</f>
+        <f t="shared" si="1"/>
         <v>fa</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -7493,7 +7493,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="8" t="str">
-        <f>CONCATENATE(E121,F121,G121,H121,I121,J121)</f>
+        <f t="shared" si="1"/>
         <v>fi</v>
       </c>
       <c r="D121" s="9" t="s">
@@ -7514,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="C122" s="8" t="str">
-        <f>CONCATENATE(E122,F122,G122,H122,I122,J122)</f>
+        <f t="shared" si="1"/>
         <v>fe</v>
       </c>
       <c r="D122" s="9" t="s">
@@ -7535,7 +7535,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="8" t="str">
-        <f>CONCATENATE(E123,F123,G123,H123,I123,J123)</f>
+        <f t="shared" si="1"/>
         <v>fo</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -7556,7 +7556,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="8" t="str">
-        <f>CONCATENATE(E124,F124,G124,H124,I124,J124)</f>
+        <f t="shared" si="1"/>
         <v>he</v>
       </c>
       <c r="D124" s="9" t="s">
@@ -7577,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="8" t="str">
-        <f>CONCATENATE(E125,F125,G125,H125,I125,J125)</f>
+        <f t="shared" si="1"/>
         <v>be</v>
       </c>
       <c r="D125" s="9" t="s">
@@ -7598,7 +7598,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="8" t="str">
-        <f>CONCATENATE(E126,F126,G126,H126,I126,J126)</f>
+        <f t="shared" si="1"/>
         <v>pe</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -7619,7 +7619,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="8" t="str">
-        <f>CONCATENATE(E127,F127,G127,H127,I127,J127)</f>
+        <f t="shared" si="1"/>
         <v>ho</v>
       </c>
       <c r="D127" s="9" t="s">
@@ -7640,7 +7640,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="8" t="str">
-        <f>CONCATENATE(E128,F128,G128,H128,I128,J128)</f>
+        <f t="shared" si="1"/>
         <v>bo</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -7661,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="8" t="str">
-        <f>CONCATENATE(E129,F129,G129,H129,I129,J129)</f>
+        <f t="shared" si="1"/>
         <v>po</v>
       </c>
       <c r="D129" s="9" t="s">
@@ -7682,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="8" t="str">
-        <f>CONCATENATE(E130,F130,G130,H130,I130,J130)</f>
+        <f t="shared" ref="C130:C193" si="2">CONCATENATE(E130,F130,G130,H130,I130,J130)</f>
         <v>ma</v>
       </c>
       <c r="D130" s="9" t="s">
@@ -7703,7 +7703,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="8" t="str">
-        <f>CONCATENATE(E131,F131,G131,H131,I131,J131)</f>
+        <f t="shared" si="2"/>
         <v>mi</v>
       </c>
       <c r="D131" s="9" t="s">
@@ -7724,7 +7724,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="8" t="str">
-        <f>CONCATENATE(E132,F132,G132,H132,I132,J132)</f>
+        <f t="shared" si="2"/>
         <v>mye</v>
       </c>
       <c r="D132" s="9" t="s">
@@ -7748,7 +7748,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="8" t="str">
-        <f>CONCATENATE(E133,F133,G133,H133,I133,J133)</f>
+        <f t="shared" si="2"/>
         <v>mya</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -7772,7 +7772,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="8" t="str">
-        <f>CONCATENATE(E134,F134,G134,H134,I134,J134)</f>
+        <f t="shared" si="2"/>
         <v>myu</v>
       </c>
       <c r="D134" s="9" t="s">
@@ -7796,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="8" t="str">
-        <f>CONCATENATE(E135,F135,G135,H135,I135,J135)</f>
+        <f t="shared" si="2"/>
         <v>myo</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -7820,7 +7820,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="8" t="str">
-        <f>CONCATENATE(E136,F136,G136,H136,I136,J136)</f>
+        <f t="shared" si="2"/>
         <v>mu</v>
       </c>
       <c r="D136" s="9" t="s">
@@ -7841,7 +7841,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="8" t="str">
-        <f>CONCATENATE(E137,F137,G137,H137,I137,J137)</f>
+        <f t="shared" si="2"/>
         <v>me</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -7862,7 +7862,7 @@
         <v>5</v>
       </c>
       <c r="C138" s="8" t="str">
-        <f>CONCATENATE(E138,F138,G138,H138,I138,J138)</f>
+        <f t="shared" si="2"/>
         <v>mo</v>
       </c>
       <c r="D138" s="9" t="s">
@@ -7883,7 +7883,7 @@
         <v>5</v>
       </c>
       <c r="C139" s="8" t="str">
-        <f>CONCATENATE(E139,F139,G139,H139,I139,J139)</f>
+        <f t="shared" si="2"/>
         <v>'ya</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -7907,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="C140" s="8" t="str">
-        <f>CONCATENATE(E140,F140,G140,H140,I140,J140)</f>
+        <f t="shared" si="2"/>
         <v>ya</v>
       </c>
       <c r="D140" s="9" t="s">
@@ -7928,7 +7928,7 @@
         <v>5</v>
       </c>
       <c r="C141" s="8" t="str">
-        <f>CONCATENATE(E141,F141,G141,H141,I141,J141)</f>
+        <f t="shared" si="2"/>
         <v>'yu</v>
       </c>
       <c r="D141" s="9" t="s">
@@ -7952,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="8" t="str">
-        <f>CONCATENATE(E142,F142,G142,H142,I142,J142)</f>
+        <f t="shared" si="2"/>
         <v>yu</v>
       </c>
       <c r="D142" s="9" t="s">
@@ -7973,7 +7973,7 @@
         <v>5</v>
       </c>
       <c r="C143" s="8" t="str">
-        <f>CONCATENATE(E143,F143,G143,H143,I143,J143)</f>
+        <f t="shared" si="2"/>
         <v>'yo</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -7997,7 +7997,7 @@
         <v>5</v>
       </c>
       <c r="C144" s="8" t="str">
-        <f>CONCATENATE(E144,F144,G144,H144,I144,J144)</f>
+        <f t="shared" si="2"/>
         <v>yo</v>
       </c>
       <c r="D144" s="9" t="s">
@@ -8018,7 +8018,7 @@
         <v>5</v>
       </c>
       <c r="C145" s="8" t="str">
-        <f>CONCATENATE(E145,F145,G145,H145,I145,J145)</f>
+        <f t="shared" si="2"/>
         <v>ra</v>
       </c>
       <c r="D145" s="9" t="s">
@@ -8039,7 +8039,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="8" t="str">
-        <f>CONCATENATE(E146,F146,G146,H146,I146,J146)</f>
+        <f t="shared" si="2"/>
         <v>ri</v>
       </c>
       <c r="D146" s="9" t="s">
@@ -8060,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="C147" s="8" t="str">
-        <f>CONCATENATE(E147,F147,G147,H147,I147,J147)</f>
+        <f t="shared" si="2"/>
         <v>rye</v>
       </c>
       <c r="D147" s="9" t="s">
@@ -8084,7 +8084,7 @@
         <v>5</v>
       </c>
       <c r="C148" s="8" t="str">
-        <f>CONCATENATE(E148,F148,G148,H148,I148,J148)</f>
+        <f t="shared" si="2"/>
         <v>rya</v>
       </c>
       <c r="D148" s="9" t="s">
@@ -8108,7 +8108,7 @@
         <v>5</v>
       </c>
       <c r="C149" s="8" t="str">
-        <f>CONCATENATE(E149,F149,G149,H149,I149,J149)</f>
+        <f t="shared" si="2"/>
         <v>ryu</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -8132,7 +8132,7 @@
         <v>5</v>
       </c>
       <c r="C150" s="8" t="str">
-        <f>CONCATENATE(E150,F150,G150,H150,I150,J150)</f>
+        <f t="shared" si="2"/>
         <v>ryo</v>
       </c>
       <c r="D150" s="9" t="s">
@@ -8156,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="C151" s="8" t="str">
-        <f>CONCATENATE(E151,F151,G151,H151,I151,J151)</f>
+        <f t="shared" si="2"/>
         <v>ru</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -8177,7 +8177,7 @@
         <v>5</v>
       </c>
       <c r="C152" s="8" t="str">
-        <f>CONCATENATE(E152,F152,G152,H152,I152,J152)</f>
+        <f t="shared" si="2"/>
         <v>re</v>
       </c>
       <c r="D152" s="9" t="s">
@@ -8198,7 +8198,7 @@
         <v>5</v>
       </c>
       <c r="C153" s="8" t="str">
-        <f>CONCATENATE(E153,F153,G153,H153,I153,J153)</f>
+        <f t="shared" si="2"/>
         <v>ro</v>
       </c>
       <c r="D153" s="9" t="s">
@@ -8219,7 +8219,7 @@
         <v>5</v>
       </c>
       <c r="C154" s="8" t="str">
-        <f>CONCATENATE(E154,F154,G154,H154,I154,J154)</f>
+        <f t="shared" si="2"/>
         <v>'wa</v>
       </c>
       <c r="D154" s="9" t="s">
@@ -8243,7 +8243,7 @@
         <v>5</v>
       </c>
       <c r="C155" s="8" t="str">
-        <f>CONCATENATE(E155,F155,G155,H155,I155,J155)</f>
+        <f t="shared" si="2"/>
         <v>wa</v>
       </c>
       <c r="D155" s="9" t="s">
@@ -8264,7 +8264,7 @@
         <v>5</v>
       </c>
       <c r="C156" s="8" t="str">
-        <f>CONCATENATE(E156,F156,G156,H156,I156,J156)</f>
+        <f t="shared" si="2"/>
         <v>wo</v>
       </c>
       <c r="D156" s="9" t="s">
@@ -8285,7 +8285,7 @@
         <v>5</v>
       </c>
       <c r="C157" s="8" t="str">
-        <f>CONCATENATE(E157,F157,G157,H157,I157,J157)</f>
+        <f t="shared" si="2"/>
         <v>nn</v>
       </c>
       <c r="D157" s="9" t="s">
@@ -8306,7 +8306,7 @@
         <v>5</v>
       </c>
       <c r="C158" s="8" t="str">
-        <f>CONCATENATE(E158,F158,G158,H158,I158,J158)</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="D158" s="9" t="s">
@@ -8324,7 +8324,7 @@
         <v>5</v>
       </c>
       <c r="C159" s="8" t="str">
-        <f>CONCATENATE(E159,F159,G159,H159,I159,J159)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
       <c r="D159" s="9" t="s">
@@ -8342,7 +8342,7 @@
         <v>150</v>
       </c>
       <c r="C160" s="8" t="str">
-        <f>CONCATENATE(E160,F160,G160,H160,I160,J160)</f>
+        <f t="shared" si="2"/>
         <v>ca</v>
       </c>
       <c r="D160" s="9" t="s">
@@ -8363,7 +8363,7 @@
         <v>150</v>
       </c>
       <c r="C161" s="8" t="str">
-        <f>CONCATENATE(E161,F161,G161,H161,I161,J161)</f>
+        <f t="shared" si="2"/>
         <v>qi</v>
       </c>
       <c r="D161" s="9" t="s">
@@ -8384,7 +8384,7 @@
         <v>150</v>
       </c>
       <c r="C162" s="8" t="str">
-        <f>CONCATENATE(E162,F162,G162,H162,I162,J162)</f>
+        <f t="shared" si="2"/>
         <v>kje</v>
       </c>
       <c r="D162" s="9" t="s">
@@ -8408,7 +8408,7 @@
         <v>150</v>
       </c>
       <c r="C163" s="8" t="str">
-        <f>CONCATENATE(E163,F163,G163,H163,I163,J163)</f>
+        <f t="shared" si="2"/>
         <v>gje</v>
       </c>
       <c r="D163" s="9" t="s">
@@ -8432,7 +8432,7 @@
         <v>150</v>
       </c>
       <c r="C164" s="8" t="str">
-        <f>CONCATENATE(E164,F164,G164,H164,I164,J164)</f>
+        <f t="shared" si="2"/>
         <v>kja</v>
       </c>
       <c r="D164" s="9" t="s">
@@ -8456,7 +8456,7 @@
         <v>150</v>
       </c>
       <c r="C165" s="8" t="str">
-        <f>CONCATENATE(E165,F165,G165,H165,I165,J165)</f>
+        <f t="shared" si="2"/>
         <v>qa</v>
       </c>
       <c r="D165" s="9" t="s">
@@ -8477,7 +8477,7 @@
         <v>150</v>
       </c>
       <c r="C166" s="8" t="str">
-        <f>CONCATENATE(E166,F166,G166,H166,I166,J166)</f>
+        <f t="shared" si="2"/>
         <v>gja</v>
       </c>
       <c r="D166" s="9" t="s">
@@ -8501,7 +8501,7 @@
         <v>150</v>
       </c>
       <c r="C167" s="8" t="str">
-        <f>CONCATENATE(E167,F167,G167,H167,I167,J167)</f>
+        <f t="shared" si="2"/>
         <v>kju</v>
       </c>
       <c r="D167" s="9" t="s">
@@ -8525,7 +8525,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="8" t="str">
-        <f>CONCATENATE(E168,F168,G168,H168,I168,J168)</f>
+        <f t="shared" si="2"/>
         <v>qu</v>
       </c>
       <c r="D168" s="9" t="s">
@@ -8546,7 +8546,7 @@
         <v>150</v>
       </c>
       <c r="C169" s="8" t="str">
-        <f>CONCATENATE(E169,F169,G169,H169,I169,J169)</f>
+        <f t="shared" si="2"/>
         <v>gju</v>
       </c>
       <c r="D169" s="9" t="s">
@@ -8570,7 +8570,7 @@
         <v>150</v>
       </c>
       <c r="C170" s="8" t="str">
-        <f>CONCATENATE(E170,F170,G170,H170,I170,J170)</f>
+        <f t="shared" si="2"/>
         <v>kjo</v>
       </c>
       <c r="D170" s="9" t="s">
@@ -8594,7 +8594,7 @@
         <v>150</v>
       </c>
       <c r="C171" s="8" t="str">
-        <f>CONCATENATE(E171,F171,G171,H171,I171,J171)</f>
+        <f t="shared" si="2"/>
         <v>qo</v>
       </c>
       <c r="D171" s="9" t="s">
@@ -8615,7 +8615,7 @@
         <v>150</v>
       </c>
       <c r="C172" s="8" t="str">
-        <f>CONCATENATE(E172,F172,G172,H172,I172,J172)</f>
+        <f t="shared" si="2"/>
         <v>gjo</v>
       </c>
       <c r="D172" s="9" t="s">
@@ -8639,7 +8639,7 @@
         <v>150</v>
       </c>
       <c r="C173" s="8" t="str">
-        <f>CONCATENATE(E173,F173,G173,H173,I173,J173)</f>
+        <f t="shared" si="2"/>
         <v>cu</v>
       </c>
       <c r="D173" s="9" t="s">
@@ -8660,7 +8660,7 @@
         <v>150</v>
       </c>
       <c r="C174" s="8" t="str">
-        <f>CONCATENATE(E174,F174,G174,H174,I174,J174)</f>
+        <f t="shared" si="2"/>
         <v>qe</v>
       </c>
       <c r="D174" s="9" t="s">
@@ -8681,7 +8681,7 @@
         <v>150</v>
       </c>
       <c r="C175" s="8" t="str">
-        <f>CONCATENATE(E175,F175,G175,H175,I175,J175)</f>
+        <f t="shared" si="2"/>
         <v>co</v>
       </c>
       <c r="D175" s="9" t="s">
@@ -8702,7 +8702,7 @@
         <v>150</v>
       </c>
       <c r="C176" s="8" t="str">
-        <f>CONCATENATE(E176,F176,G176,H176,I176,J176)</f>
+        <f t="shared" si="2"/>
         <v>xi</v>
       </c>
       <c r="D176" s="9" t="s">
@@ -8723,7 +8723,7 @@
         <v>150</v>
       </c>
       <c r="C177" s="8" t="str">
-        <f>CONCATENATE(E177,F177,G177,H177,I177,J177)</f>
+        <f t="shared" si="2"/>
         <v>sje</v>
       </c>
       <c r="D177" s="9" t="s">
@@ -8747,7 +8747,7 @@
         <v>150</v>
       </c>
       <c r="C178" s="8" t="str">
-        <f>CONCATENATE(E178,F178,G178,H178,I178,J178)</f>
+        <f t="shared" si="2"/>
         <v>xe</v>
       </c>
       <c r="D178" s="9" t="s">
@@ -8768,7 +8768,7 @@
         <v>150</v>
       </c>
       <c r="C179" s="8" t="str">
-        <f>CONCATENATE(E179,F179,G179,H179,I179,J179)</f>
+        <f t="shared" si="2"/>
         <v>sja</v>
       </c>
       <c r="D179" s="9" t="s">
@@ -8792,7 +8792,7 @@
         <v>150</v>
       </c>
       <c r="C180" s="8" t="str">
-        <f>CONCATENATE(E180,F180,G180,H180,I180,J180)</f>
+        <f t="shared" si="2"/>
         <v>xa</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -8813,7 +8813,7 @@
         <v>150</v>
       </c>
       <c r="C181" s="8" t="str">
-        <f>CONCATENATE(E181,F181,G181,H181,I181,J181)</f>
+        <f t="shared" si="2"/>
         <v>sju</v>
       </c>
       <c r="D181" s="9" t="s">
@@ -8837,7 +8837,7 @@
         <v>150</v>
       </c>
       <c r="C182" s="8" t="str">
-        <f>CONCATENATE(E182,F182,G182,H182,I182,J182)</f>
+        <f t="shared" si="2"/>
         <v>xu</v>
       </c>
       <c r="D182" s="9" t="s">
@@ -8858,7 +8858,7 @@
         <v>150</v>
       </c>
       <c r="C183" s="8" t="str">
-        <f>CONCATENATE(E183,F183,G183,H183,I183,J183)</f>
+        <f t="shared" si="2"/>
         <v>sjo</v>
       </c>
       <c r="D183" s="9" t="s">
@@ -8882,7 +8882,7 @@
         <v>150</v>
       </c>
       <c r="C184" s="8" t="str">
-        <f>CONCATENATE(E184,F184,G184,H184,I184,J184)</f>
+        <f t="shared" si="2"/>
         <v>xo</v>
       </c>
       <c r="D184" s="9" t="s">
@@ -8903,7 +8903,7 @@
         <v>150</v>
       </c>
       <c r="C185" s="8" t="str">
-        <f>CONCATENATE(E185,F185,G185,H185,I185,J185)</f>
+        <f t="shared" si="2"/>
         <v>ce</v>
       </c>
       <c r="D185" s="9" t="s">
@@ -8924,7 +8924,7 @@
         <v>150</v>
       </c>
       <c r="C186" s="8" t="str">
-        <f>CONCATENATE(E186,F186,G186,H186,I186,J186)</f>
+        <f t="shared" si="2"/>
         <v>ci</v>
       </c>
       <c r="D186" s="9" t="s">
@@ -8945,7 +8945,7 @@
         <v>150</v>
       </c>
       <c r="C187" s="8" t="str">
-        <f>CONCATENATE(E187,F187,G187,H187,I187,J187)</f>
+        <f t="shared" si="2"/>
         <v>tje</v>
       </c>
       <c r="D187" s="9" t="s">
@@ -8969,7 +8969,7 @@
         <v>150</v>
       </c>
       <c r="C188" s="8" t="str">
-        <f>CONCATENATE(E188,F188,G188,H188,I188,J188)</f>
+        <f t="shared" si="2"/>
         <v>tja</v>
       </c>
       <c r="D188" s="9" t="s">
@@ -8993,7 +8993,7 @@
         <v>150</v>
       </c>
       <c r="C189" s="8" t="str">
-        <f>CONCATENATE(E189,F189,G189,H189,I189,J189)</f>
+        <f t="shared" si="2"/>
         <v>tju</v>
       </c>
       <c r="D189" s="9" t="s">
@@ -9017,7 +9017,7 @@
         <v>150</v>
       </c>
       <c r="C190" s="8" t="str">
-        <f>CONCATENATE(E190,F190,G190,H190,I190,J190)</f>
+        <f t="shared" si="2"/>
         <v>tjo</v>
       </c>
       <c r="D190" s="9" t="s">
@@ -9041,7 +9041,7 @@
         <v>150</v>
       </c>
       <c r="C191" s="8" t="str">
-        <f>CONCATENATE(E191,F191,G191,H191,I191,J191)</f>
+        <f t="shared" si="2"/>
         <v>thi</v>
       </c>
       <c r="D191" s="9" t="s">
@@ -9065,7 +9065,7 @@
         <v>150</v>
       </c>
       <c r="C192" s="8" t="str">
-        <f>CONCATENATE(E192,F192,G192,H192,I192,J192)</f>
+        <f t="shared" si="2"/>
         <v>dhi</v>
       </c>
       <c r="D192" s="9" t="s">
@@ -9089,7 +9089,7 @@
         <v>150</v>
       </c>
       <c r="C193" s="8" t="str">
-        <f>CONCATENATE(E193,F193,G193,H193,I193,J193)</f>
+        <f t="shared" si="2"/>
         <v>thu</v>
       </c>
       <c r="D193" s="9" t="s">
@@ -9113,7 +9113,7 @@
         <v>150</v>
       </c>
       <c r="C194" s="8" t="str">
-        <f>CONCATENATE(E194,F194,G194,H194,I194,J194)</f>
+        <f t="shared" ref="C194:C257" si="3">CONCATENATE(E194,F194,G194,H194,I194,J194)</f>
         <v>dhu</v>
       </c>
       <c r="D194" s="9" t="s">
@@ -9137,7 +9137,7 @@
         <v>150</v>
       </c>
       <c r="C195" s="8" t="str">
-        <f>CONCATENATE(E195,F195,G195,H195,I195,J195)</f>
+        <f t="shared" si="3"/>
         <v>tho</v>
       </c>
       <c r="D195" s="9" t="s">
@@ -9161,7 +9161,7 @@
         <v>150</v>
       </c>
       <c r="C196" s="8" t="str">
-        <f>CONCATENATE(E196,F196,G196,H196,I196,J196)</f>
+        <f t="shared" si="3"/>
         <v>dho</v>
       </c>
       <c r="D196" s="9" t="s">
@@ -9185,7 +9185,7 @@
         <v>150</v>
       </c>
       <c r="C197" s="8" t="str">
-        <f>CONCATENATE(E197,F197,G197,H197,I197,J197)</f>
+        <f t="shared" si="3"/>
         <v>nje</v>
       </c>
       <c r="D197" s="9" t="s">
@@ -9209,7 +9209,7 @@
         <v>150</v>
       </c>
       <c r="C198" s="8" t="str">
-        <f>CONCATENATE(E198,F198,G198,H198,I198,J198)</f>
+        <f t="shared" si="3"/>
         <v>nja</v>
       </c>
       <c r="D198" s="9" t="s">
@@ -9233,7 +9233,7 @@
         <v>150</v>
       </c>
       <c r="C199" s="8" t="str">
-        <f>CONCATENATE(E199,F199,G199,H199,I199,J199)</f>
+        <f t="shared" si="3"/>
         <v>nju</v>
       </c>
       <c r="D199" s="9" t="s">
@@ -9257,7 +9257,7 @@
         <v>150</v>
       </c>
       <c r="C200" s="8" t="str">
-        <f>CONCATENATE(E200,F200,G200,H200,I200,J200)</f>
+        <f t="shared" si="3"/>
         <v>njo</v>
       </c>
       <c r="D200" s="9" t="s">
@@ -9281,7 +9281,7 @@
         <v>150</v>
       </c>
       <c r="C201" s="8" t="str">
-        <f>CONCATENATE(E201,F201,G201,H201,I201,J201)</f>
+        <f t="shared" si="3"/>
         <v>hje</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -9305,7 +9305,7 @@
         <v>150</v>
       </c>
       <c r="C202" s="8" t="str">
-        <f>CONCATENATE(E202,F202,G202,H202,I202,J202)</f>
+        <f t="shared" si="3"/>
         <v>bje</v>
       </c>
       <c r="D202" s="9" t="s">
@@ -9329,7 +9329,7 @@
         <v>150</v>
       </c>
       <c r="C203" s="8" t="str">
-        <f>CONCATENATE(E203,F203,G203,H203,I203,J203)</f>
+        <f t="shared" si="3"/>
         <v>pje</v>
       </c>
       <c r="D203" s="9" t="s">
@@ -9353,7 +9353,7 @@
         <v>150</v>
       </c>
       <c r="C204" s="8" t="str">
-        <f>CONCATENATE(E204,F204,G204,H204,I204,J204)</f>
+        <f t="shared" si="3"/>
         <v>hja</v>
       </c>
       <c r="D204" s="9" t="s">
@@ -9377,7 +9377,7 @@
         <v>150</v>
       </c>
       <c r="C205" s="8" t="str">
-        <f>CONCATENATE(E205,F205,G205,H205,I205,J205)</f>
+        <f t="shared" si="3"/>
         <v>bja</v>
       </c>
       <c r="D205" s="9" t="s">
@@ -9401,7 +9401,7 @@
         <v>150</v>
       </c>
       <c r="C206" s="8" t="str">
-        <f>CONCATENATE(E206,F206,G206,H206,I206,J206)</f>
+        <f t="shared" si="3"/>
         <v>pja</v>
       </c>
       <c r="D206" s="9" t="s">
@@ -9425,7 +9425,7 @@
         <v>150</v>
       </c>
       <c r="C207" s="8" t="str">
-        <f>CONCATENATE(E207,F207,G207,H207,I207,J207)</f>
+        <f t="shared" si="3"/>
         <v>hju</v>
       </c>
       <c r="D207" s="9" t="s">
@@ -9449,7 +9449,7 @@
         <v>150</v>
       </c>
       <c r="C208" s="8" t="str">
-        <f>CONCATENATE(E208,F208,G208,H208,I208,J208)</f>
+        <f t="shared" si="3"/>
         <v>bju</v>
       </c>
       <c r="D208" s="9" t="s">
@@ -9473,7 +9473,7 @@
         <v>150</v>
       </c>
       <c r="C209" s="8" t="str">
-        <f>CONCATENATE(E209,F209,G209,H209,I209,J209)</f>
+        <f t="shared" si="3"/>
         <v>pju</v>
       </c>
       <c r="D209" s="9" t="s">
@@ -9497,7 +9497,7 @@
         <v>150</v>
       </c>
       <c r="C210" s="8" t="str">
-        <f>CONCATENATE(E210,F210,G210,H210,I210,J210)</f>
+        <f t="shared" si="3"/>
         <v>hjo</v>
       </c>
       <c r="D210" s="9" t="s">
@@ -9521,7 +9521,7 @@
         <v>150</v>
       </c>
       <c r="C211" s="8" t="str">
-        <f>CONCATENATE(E211,F211,G211,H211,I211,J211)</f>
+        <f t="shared" si="3"/>
         <v>bjo</v>
       </c>
       <c r="D211" s="9" t="s">
@@ -9545,7 +9545,7 @@
         <v>150</v>
       </c>
       <c r="C212" s="8" t="str">
-        <f>CONCATENATE(E212,F212,G212,H212,I212,J212)</f>
+        <f t="shared" si="3"/>
         <v>pjo</v>
       </c>
       <c r="D212" s="9" t="s">
@@ -9569,7 +9569,7 @@
         <v>150</v>
       </c>
       <c r="C213" s="8" t="str">
-        <f>CONCATENATE(E213,F213,G213,H213,I213,J213)</f>
+        <f t="shared" si="3"/>
         <v>fju</v>
       </c>
       <c r="D213" s="9" t="s">
@@ -9593,7 +9593,7 @@
         <v>150</v>
       </c>
       <c r="C214" s="8" t="str">
-        <f>CONCATENATE(E214,F214,G214,H214,I214,J214)</f>
+        <f t="shared" si="3"/>
         <v>mje</v>
       </c>
       <c r="D214" s="9" t="s">
@@ -9617,7 +9617,7 @@
         <v>150</v>
       </c>
       <c r="C215" s="8" t="str">
-        <f>CONCATENATE(E215,F215,G215,H215,I215,J215)</f>
+        <f t="shared" si="3"/>
         <v>mja</v>
       </c>
       <c r="D215" s="9" t="s">
@@ -9641,7 +9641,7 @@
         <v>150</v>
       </c>
       <c r="C216" s="8" t="str">
-        <f>CONCATENATE(E216,F216,G216,H216,I216,J216)</f>
+        <f t="shared" si="3"/>
         <v>mju</v>
       </c>
       <c r="D216" s="9" t="s">
@@ -9665,7 +9665,7 @@
         <v>150</v>
       </c>
       <c r="C217" s="8" t="str">
-        <f>CONCATENATE(E217,F217,G217,H217,I217,J217)</f>
+        <f t="shared" si="3"/>
         <v>mjo</v>
       </c>
       <c r="D217" s="9" t="s">
@@ -9689,7 +9689,7 @@
         <v>150</v>
       </c>
       <c r="C218" s="8" t="str">
-        <f>CONCATENATE(E218,F218,G218,H218,I218,J218)</f>
+        <f t="shared" si="3"/>
         <v>li</v>
       </c>
       <c r="D218" s="9" t="s">
@@ -9710,7 +9710,7 @@
         <v>150</v>
       </c>
       <c r="C219" s="8" t="str">
-        <f>CONCATENATE(E219,F219,G219,H219,I219,J219)</f>
+        <f t="shared" si="3"/>
         <v>rje</v>
       </c>
       <c r="D219" s="9" t="s">
@@ -9734,7 +9734,7 @@
         <v>150</v>
       </c>
       <c r="C220" s="8" t="str">
-        <f>CONCATENATE(E220,F220,G220,H220,I220,J220)</f>
+        <f t="shared" si="3"/>
         <v>la</v>
       </c>
       <c r="D220" s="9" t="s">
@@ -9755,7 +9755,7 @@
         <v>150</v>
       </c>
       <c r="C221" s="8" t="str">
-        <f>CONCATENATE(E221,F221,G221,H221,I221,J221)</f>
+        <f t="shared" si="3"/>
         <v>rja</v>
       </c>
       <c r="D221" s="9" t="s">
@@ -9779,7 +9779,7 @@
         <v>150</v>
       </c>
       <c r="C222" s="8" t="str">
-        <f>CONCATENATE(E222,F222,G222,H222,I222,J222)</f>
+        <f t="shared" si="3"/>
         <v>lu</v>
       </c>
       <c r="D222" s="9" t="s">
@@ -9800,7 +9800,7 @@
         <v>150</v>
       </c>
       <c r="C223" s="8" t="str">
-        <f>CONCATENATE(E223,F223,G223,H223,I223,J223)</f>
+        <f t="shared" si="3"/>
         <v>rju</v>
       </c>
       <c r="D223" s="9" t="s">
@@ -9824,7 +9824,7 @@
         <v>150</v>
       </c>
       <c r="C224" s="8" t="str">
-        <f>CONCATENATE(E224,F224,G224,H224,I224,J224)</f>
+        <f t="shared" si="3"/>
         <v>lo</v>
       </c>
       <c r="D224" s="9" t="s">
@@ -9845,7 +9845,7 @@
         <v>150</v>
       </c>
       <c r="C225" s="8" t="str">
-        <f>CONCATENATE(E225,F225,G225,H225,I225,J225)</f>
+        <f t="shared" si="3"/>
         <v>rjo</v>
       </c>
       <c r="D225" s="9" t="s">
@@ -9869,7 +9869,7 @@
         <v>150</v>
       </c>
       <c r="C226" s="8" t="str">
-        <f>CONCATENATE(E226,F226,G226,H226,I226,J226)</f>
+        <f t="shared" si="3"/>
         <v>le</v>
       </c>
       <c r="D226" s="9" t="s">
@@ -9890,7 +9890,7 @@
         <v>161</v>
       </c>
       <c r="C227" s="8" t="str">
-        <f>CONCATENATE(E227,F227,G227,H227,I227,J227)</f>
+        <f t="shared" si="3"/>
         <v>bb</v>
       </c>
       <c r="D227" s="9" t="s">
@@ -9911,7 +9911,7 @@
         <v>161</v>
       </c>
       <c r="C228" s="8" t="str">
-        <f>CONCATENATE(E228,F228,G228,H228,I228,J228)</f>
+        <f t="shared" si="3"/>
         <v>cc</v>
       </c>
       <c r="D228" s="9" t="s">
@@ -9932,7 +9932,7 @@
         <v>161</v>
       </c>
       <c r="C229" s="8" t="str">
-        <f>CONCATENATE(E229,F229,G229,H229,I229,J229)</f>
+        <f t="shared" si="3"/>
         <v>ff</v>
       </c>
       <c r="D229" s="9" t="s">
@@ -9953,7 +9953,7 @@
         <v>161</v>
       </c>
       <c r="C230" s="8" t="str">
-        <f>CONCATENATE(E230,F230,G230,H230,I230,J230)</f>
+        <f t="shared" si="3"/>
         <v>kk</v>
       </c>
       <c r="D230" s="9" t="s">
@@ -9974,7 +9974,7 @@
         <v>161</v>
       </c>
       <c r="C231" s="8" t="str">
-        <f>CONCATENATE(E231,F231,G231,H231,I231,J231)</f>
+        <f t="shared" si="3"/>
         <v>pp</v>
       </c>
       <c r="D231" s="9" t="s">
@@ -9995,7 +9995,7 @@
         <v>161</v>
       </c>
       <c r="C232" s="8" t="str">
-        <f>CONCATENATE(E232,F232,G232,H232,I232,J232)</f>
+        <f t="shared" si="3"/>
         <v>qq</v>
       </c>
       <c r="D232" s="9" t="s">
@@ -10016,7 +10016,7 @@
         <v>161</v>
       </c>
       <c r="C233" s="8" t="str">
-        <f>CONCATENATE(E233,F233,G233,H233,I233,J233)</f>
+        <f t="shared" si="3"/>
         <v>ss</v>
       </c>
       <c r="D233" s="9" t="s">
@@ -10037,7 +10037,7 @@
         <v>161</v>
       </c>
       <c r="C234" s="8" t="str">
-        <f>CONCATENATE(E234,F234,G234,H234,I234,J234)</f>
+        <f t="shared" si="3"/>
         <v>tt</v>
       </c>
       <c r="D234" s="9" t="s">
@@ -10058,7 +10058,7 @@
         <v>161</v>
       </c>
       <c r="C235" s="8" t="str">
-        <f>CONCATENATE(E235,F235,G235,H235,I235,J235)</f>
+        <f t="shared" si="3"/>
         <v>xx</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -10079,7 +10079,7 @@
         <v>161</v>
       </c>
       <c r="C236" s="8" t="str">
-        <f>CONCATENATE(E236,F236,G236,H236,I236,J236)</f>
+        <f t="shared" si="3"/>
         <v>zz</v>
       </c>
       <c r="D236" s="9" t="s">
@@ -10100,7 +10100,7 @@
         <v>172</v>
       </c>
       <c r="C237" s="8" t="str">
-        <f>CONCATENATE(E237,F237,G237,H237,I237,J237)</f>
+        <f t="shared" si="3"/>
         <v>v'u</v>
       </c>
       <c r="D237" s="9" t="s">
@@ -10124,7 +10124,7 @@
         <v>172</v>
       </c>
       <c r="C238" s="8" t="str">
-        <f>CONCATENATE(E238,F238,G238,H238,I238,J238)</f>
+        <f t="shared" si="3"/>
         <v>v'a</v>
       </c>
       <c r="D238" s="9" t="s">
@@ -10148,7 +10148,7 @@
         <v>172</v>
       </c>
       <c r="C239" s="8" t="str">
-        <f>CONCATENATE(E239,F239,G239,H239,I239,J239)</f>
+        <f t="shared" si="3"/>
         <v>v'i</v>
       </c>
       <c r="D239" s="9" t="s">
@@ -10172,7 +10172,7 @@
         <v>172</v>
       </c>
       <c r="C240" s="8" t="str">
-        <f>CONCATENATE(E240,F240,G240,H240,I240,J240)</f>
+        <f t="shared" si="3"/>
         <v>v'e</v>
       </c>
       <c r="D240" s="9" t="s">
@@ -10196,7 +10196,7 @@
         <v>172</v>
       </c>
       <c r="C241" s="8" t="str">
-        <f>CONCATENATE(E241,F241,G241,H241,I241,J241)</f>
+        <f t="shared" si="3"/>
         <v>v'o</v>
       </c>
       <c r="D241" s="9" t="s">
@@ -10220,7 +10220,7 @@
         <v>172</v>
       </c>
       <c r="C242" s="8" t="str">
-        <f>CONCATENATE(E242,F242,G242,H242,I242,J242)</f>
+        <f t="shared" si="3"/>
         <v>'ka</v>
       </c>
       <c r="D242" s="9" t="s">
@@ -10244,7 +10244,7 @@
         <v>172</v>
       </c>
       <c r="C243" s="8" t="str">
-        <f>CONCATENATE(E243,F243,G243,H243,I243,J243)</f>
+        <f t="shared" si="3"/>
         <v>k'yi</v>
       </c>
       <c r="D243" s="9" t="s">
@@ -10271,7 +10271,7 @@
         <v>172</v>
       </c>
       <c r="C244" s="8" t="str">
-        <f>CONCATENATE(E244,F244,G244,H244,I244,J244)</f>
+        <f t="shared" si="3"/>
         <v>g'yi</v>
       </c>
       <c r="D244" s="9" t="s">
@@ -10298,7 +10298,7 @@
         <v>172</v>
       </c>
       <c r="C245" s="8" t="str">
-        <f>CONCATENATE(E245,F245,G245,H245,I245,J245)</f>
+        <f t="shared" si="3"/>
         <v>k'a</v>
       </c>
       <c r="D245" s="9" t="s">
@@ -10322,7 +10322,7 @@
         <v>172</v>
       </c>
       <c r="C246" s="8" t="str">
-        <f>CONCATENATE(E246,F246,G246,H246,I246,J246)</f>
+        <f t="shared" si="3"/>
         <v>g'a</v>
       </c>
       <c r="D246" s="9" t="s">
@@ -10346,7 +10346,7 @@
         <v>172</v>
       </c>
       <c r="C247" s="8" t="str">
-        <f>CONCATENATE(E247,F247,G247,H247,I247,J247)</f>
+        <f t="shared" si="3"/>
         <v>k'i</v>
       </c>
       <c r="D247" s="9" t="s">
@@ -10370,7 +10370,7 @@
         <v>172</v>
       </c>
       <c r="C248" s="8" t="str">
-        <f>CONCATENATE(E248,F248,G248,H248,I248,J248)</f>
+        <f t="shared" si="3"/>
         <v>g'i</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -10394,7 +10394,7 @@
         <v>172</v>
       </c>
       <c r="C249" s="8" t="str">
-        <f>CONCATENATE(E249,F249,G249,H249,I249,J249)</f>
+        <f t="shared" si="3"/>
         <v>k'u</v>
       </c>
       <c r="D249" s="9" t="s">
@@ -10418,7 +10418,7 @@
         <v>172</v>
       </c>
       <c r="C250" s="8" t="str">
-        <f>CONCATENATE(E250,F250,G250,H250,I250,J250)</f>
+        <f t="shared" si="3"/>
         <v>g'u</v>
       </c>
       <c r="D250" s="9" t="s">
@@ -10442,7 +10442,7 @@
         <v>172</v>
       </c>
       <c r="C251" s="8" t="str">
-        <f>CONCATENATE(E251,F251,G251,H251,I251,J251)</f>
+        <f t="shared" si="3"/>
         <v>k'e</v>
       </c>
       <c r="D251" s="9" t="s">
@@ -10466,7 +10466,7 @@
         <v>172</v>
       </c>
       <c r="C252" s="8" t="str">
-        <f>CONCATENATE(E252,F252,G252,H252,I252,J252)</f>
+        <f t="shared" si="3"/>
         <v>g'e</v>
       </c>
       <c r="D252" s="9" t="s">
@@ -10490,7 +10490,7 @@
         <v>172</v>
       </c>
       <c r="C253" s="8" t="str">
-        <f>CONCATENATE(E253,F253,G253,H253,I253,J253)</f>
+        <f t="shared" si="3"/>
         <v>k'o</v>
       </c>
       <c r="D253" s="9" t="s">
@@ -10514,7 +10514,7 @@
         <v>172</v>
       </c>
       <c r="C254" s="8" t="str">
-        <f>CONCATENATE(E254,F254,G254,H254,I254,J254)</f>
+        <f t="shared" si="3"/>
         <v>g'o</v>
       </c>
       <c r="D254" s="9" t="s">
@@ -10538,7 +10538,7 @@
         <v>172</v>
       </c>
       <c r="C255" s="8" t="str">
-        <f>CONCATENATE(E255,F255,G255,H255,I255,J255)</f>
+        <f t="shared" si="3"/>
         <v>k'wa</v>
       </c>
       <c r="D255" s="9" t="s">
@@ -10565,7 +10565,7 @@
         <v>172</v>
       </c>
       <c r="C256" s="8" t="str">
-        <f>CONCATENATE(E256,F256,G256,H256,I256,J256)</f>
+        <f t="shared" si="3"/>
         <v>g'wa</v>
       </c>
       <c r="D256" s="9" t="s">
@@ -10592,7 +10592,7 @@
         <v>172</v>
       </c>
       <c r="C257" s="8" t="str">
-        <f>CONCATENATE(E257,F257,G257,H257,I257,J257)</f>
+        <f t="shared" si="3"/>
         <v>'ke</v>
       </c>
       <c r="D257" s="9" t="s">
@@ -10616,7 +10616,7 @@
         <v>172</v>
       </c>
       <c r="C258" s="8" t="str">
-        <f>CONCATENATE(E258,F258,G258,H258,I258,J258)</f>
+        <f t="shared" ref="C258:C321" si="4">CONCATENATE(E258,F258,G258,H258,I258,J258)</f>
         <v>s'yi</v>
       </c>
       <c r="D258" s="9" t="s">
@@ -10643,7 +10643,7 @@
         <v>172</v>
       </c>
       <c r="C259" s="8" t="str">
-        <f>CONCATENATE(E259,F259,G259,H259,I259,J259)</f>
+        <f t="shared" si="4"/>
         <v>z'yi</v>
       </c>
       <c r="D259" s="9" t="s">
@@ -10670,7 +10670,7 @@
         <v>172</v>
       </c>
       <c r="C260" s="8" t="str">
-        <f>CONCATENATE(E260,F260,G260,H260,I260,J260)</f>
+        <f t="shared" si="4"/>
         <v>s'a</v>
       </c>
       <c r="D260" s="9" t="s">
@@ -10694,7 +10694,7 @@
         <v>172</v>
       </c>
       <c r="C261" s="8" t="str">
-        <f>CONCATENATE(E261,F261,G261,H261,I261,J261)</f>
+        <f t="shared" si="4"/>
         <v>s'i</v>
       </c>
       <c r="D261" s="9" t="s">
@@ -10718,7 +10718,7 @@
         <v>172</v>
       </c>
       <c r="C262" s="8" t="str">
-        <f>CONCATENATE(E262,F262,G262,H262,I262,J262)</f>
+        <f t="shared" si="4"/>
         <v>s'u</v>
       </c>
       <c r="D262" s="9" t="s">
@@ -10742,7 +10742,7 @@
         <v>172</v>
       </c>
       <c r="C263" s="8" t="str">
-        <f>CONCATENATE(E263,F263,G263,H263,I263,J263)</f>
+        <f t="shared" si="4"/>
         <v>s'e</v>
       </c>
       <c r="D263" s="9" t="s">
@@ -10766,7 +10766,7 @@
         <v>172</v>
       </c>
       <c r="C264" s="8" t="str">
-        <f>CONCATENATE(E264,F264,G264,H264,I264,J264)</f>
+        <f t="shared" si="4"/>
         <v>s'o</v>
       </c>
       <c r="D264" s="9" t="s">
@@ -10790,7 +10790,7 @@
         <v>172</v>
       </c>
       <c r="C265" s="8" t="str">
-        <f>CONCATENATE(E265,F265,G265,H265,I265,J265)</f>
+        <f t="shared" si="4"/>
         <v>t'yi</v>
       </c>
       <c r="D265" s="9" t="s">
@@ -10817,7 +10817,7 @@
         <v>172</v>
       </c>
       <c r="C266" s="8" t="str">
-        <f>CONCATENATE(E266,F266,G266,H266,I266,J266)</f>
+        <f t="shared" si="4"/>
         <v>d'ji</v>
       </c>
       <c r="D266" s="9" t="s">
@@ -10844,7 +10844,7 @@
         <v>172</v>
       </c>
       <c r="C267" s="8" t="str">
-        <f>CONCATENATE(E267,F267,G267,H267,I267,J267)</f>
+        <f t="shared" si="4"/>
         <v>d'je</v>
       </c>
       <c r="D267" s="9" t="s">
@@ -10871,7 +10871,7 @@
         <v>172</v>
       </c>
       <c r="C268" s="8" t="str">
-        <f>CONCATENATE(E268,F268,G268,H268,I268,J268)</f>
+        <f t="shared" si="4"/>
         <v>d'ja</v>
       </c>
       <c r="D268" s="9" t="s">
@@ -10898,7 +10898,7 @@
         <v>172</v>
       </c>
       <c r="C269" s="8" t="str">
-        <f>CONCATENATE(E269,F269,G269,H269,I269,J269)</f>
+        <f t="shared" si="4"/>
         <v>d'ju</v>
       </c>
       <c r="D269" s="9" t="s">
@@ -10925,7 +10925,7 @@
         <v>172</v>
       </c>
       <c r="C270" s="8" t="str">
-        <f>CONCATENATE(E270,F270,G270,H270,I270,J270)</f>
+        <f t="shared" si="4"/>
         <v>d'jo</v>
       </c>
       <c r="D270" s="9" t="s">
@@ -10952,7 +10952,7 @@
         <v>172</v>
       </c>
       <c r="C271" s="8" t="str">
-        <f>CONCATENATE(E271,F271,G271,H271,I271,J271)</f>
+        <f t="shared" si="4"/>
         <v>c'a</v>
       </c>
       <c r="D271" s="9" t="s">
@@ -10976,7 +10976,7 @@
         <v>172</v>
       </c>
       <c r="C272" s="8" t="str">
-        <f>CONCATENATE(E272,F272,G272,H272,I272,J272)</f>
+        <f t="shared" si="4"/>
         <v>d'sa</v>
       </c>
       <c r="D272" s="9" t="s">
@@ -11003,7 +11003,7 @@
         <v>172</v>
       </c>
       <c r="C273" s="8" t="str">
-        <f>CONCATENATE(E273,F273,G273,H273,I273,J273)</f>
+        <f t="shared" si="4"/>
         <v>c'i</v>
       </c>
       <c r="D273" s="9" t="s">
@@ -11027,7 +11027,7 @@
         <v>172</v>
       </c>
       <c r="C274" s="8" t="str">
-        <f>CONCATENATE(E274,F274,G274,H274,I274,J274)</f>
+        <f t="shared" si="4"/>
         <v>d'si</v>
       </c>
       <c r="D274" s="9" t="s">
@@ -11054,7 +11054,7 @@
         <v>172</v>
       </c>
       <c r="C275" s="8" t="str">
-        <f>CONCATENATE(E275,F275,G275,H275,I275,J275)</f>
+        <f t="shared" si="4"/>
         <v>c'u</v>
       </c>
       <c r="D275" s="9" t="s">
@@ -11078,7 +11078,7 @@
         <v>172</v>
       </c>
       <c r="C276" s="8" t="str">
-        <f>CONCATENATE(E276,F276,G276,H276,I276,J276)</f>
+        <f t="shared" si="4"/>
         <v>d'su</v>
       </c>
       <c r="D276" s="9" t="s">
@@ -11105,7 +11105,7 @@
         <v>172</v>
       </c>
       <c r="C277" s="8" t="str">
-        <f>CONCATENATE(E277,F277,G277,H277,I277,J277)</f>
+        <f t="shared" si="4"/>
         <v>c'e</v>
       </c>
       <c r="D277" s="9" t="s">
@@ -11129,7 +11129,7 @@
         <v>172</v>
       </c>
       <c r="C278" s="8" t="str">
-        <f>CONCATENATE(E278,F278,G278,H278,I278,J278)</f>
+        <f t="shared" si="4"/>
         <v>d'se</v>
       </c>
       <c r="D278" s="9" t="s">
@@ -11156,7 +11156,7 @@
         <v>172</v>
       </c>
       <c r="C279" s="8" t="str">
-        <f>CONCATENATE(E279,F279,G279,H279,I279,J279)</f>
+        <f t="shared" si="4"/>
         <v>c'o</v>
       </c>
       <c r="D279" s="9" t="s">
@@ -11180,7 +11180,7 @@
         <v>172</v>
       </c>
       <c r="C280" s="8" t="str">
-        <f>CONCATENATE(E280,F280,G280,H280,I280,J280)</f>
+        <f t="shared" si="4"/>
         <v>d'so</v>
       </c>
       <c r="D280" s="9" t="s">
@@ -11207,7 +11207,7 @@
         <v>172</v>
       </c>
       <c r="C281" s="8" t="str">
-        <f>CONCATENATE(E281,F281,G281,H281,I281,J281)</f>
+        <f t="shared" si="4"/>
         <v>t'hi</v>
       </c>
       <c r="D281" s="9" t="s">
@@ -11234,7 +11234,7 @@
         <v>172</v>
       </c>
       <c r="C282" s="8" t="str">
-        <f>CONCATENATE(E282,F282,G282,H282,I282,J282)</f>
+        <f t="shared" si="4"/>
         <v>d'hi</v>
       </c>
       <c r="D282" s="9" t="s">
@@ -11261,7 +11261,7 @@
         <v>172</v>
       </c>
       <c r="C283" s="8" t="str">
-        <f>CONCATENATE(E283,F283,G283,H283,I283,J283)</f>
+        <f t="shared" si="4"/>
         <v>t'he</v>
       </c>
       <c r="D283" s="9" t="s">
@@ -11288,7 +11288,7 @@
         <v>172</v>
       </c>
       <c r="C284" s="8" t="str">
-        <f>CONCATENATE(E284,F284,G284,H284,I284,J284)</f>
+        <f t="shared" si="4"/>
         <v>d'he</v>
       </c>
       <c r="D284" s="9" t="s">
@@ -11315,7 +11315,7 @@
         <v>172</v>
       </c>
       <c r="C285" s="8" t="str">
-        <f>CONCATENATE(E285,F285,G285,H285,I285,J285)</f>
+        <f t="shared" si="4"/>
         <v>t'ha</v>
       </c>
       <c r="D285" s="9" t="s">
@@ -11342,7 +11342,7 @@
         <v>172</v>
       </c>
       <c r="C286" s="8" t="str">
-        <f>CONCATENATE(E286,F286,G286,H286,I286,J286)</f>
+        <f t="shared" si="4"/>
         <v>d'ha</v>
       </c>
       <c r="D286" s="9" t="s">
@@ -11369,7 +11369,7 @@
         <v>172</v>
       </c>
       <c r="C287" s="8" t="str">
-        <f>CONCATENATE(E287,F287,G287,H287,I287,J287)</f>
+        <f t="shared" si="4"/>
         <v>t'hu</v>
       </c>
       <c r="D287" s="9" t="s">
@@ -11396,7 +11396,7 @@
         <v>172</v>
       </c>
       <c r="C288" s="8" t="str">
-        <f>CONCATENATE(E288,F288,G288,H288,I288,J288)</f>
+        <f t="shared" si="4"/>
         <v>d'hu</v>
       </c>
       <c r="D288" s="9" t="s">
@@ -11423,7 +11423,7 @@
         <v>172</v>
       </c>
       <c r="C289" s="8" t="str">
-        <f>CONCATENATE(E289,F289,G289,H289,I289,J289)</f>
+        <f t="shared" si="4"/>
         <v>t'ho</v>
       </c>
       <c r="D289" s="9" t="s">
@@ -11450,7 +11450,7 @@
         <v>172</v>
       </c>
       <c r="C290" s="8" t="str">
-        <f>CONCATENATE(E290,F290,G290,H290,I290,J290)</f>
+        <f t="shared" si="4"/>
         <v>d'ho</v>
       </c>
       <c r="D290" s="9" t="s">
@@ -11477,7 +11477,7 @@
         <v>172</v>
       </c>
       <c r="C291" s="8" t="str">
-        <f>CONCATENATE(E291,F291,G291,H291,I291,J291)</f>
+        <f t="shared" si="4"/>
         <v>t'a</v>
       </c>
       <c r="D291" s="9" t="s">
@@ -11501,7 +11501,7 @@
         <v>172</v>
       </c>
       <c r="C292" s="8" t="str">
-        <f>CONCATENATE(E292,F292,G292,H292,I292,J292)</f>
+        <f t="shared" si="4"/>
         <v>d'a</v>
       </c>
       <c r="D292" s="9" t="s">
@@ -11525,7 +11525,7 @@
         <v>172</v>
       </c>
       <c r="C293" s="8" t="str">
-        <f>CONCATENATE(E293,F293,G293,H293,I293,J293)</f>
+        <f t="shared" si="4"/>
         <v>t'i</v>
       </c>
       <c r="D293" s="9" t="s">
@@ -11549,7 +11549,7 @@
         <v>172</v>
       </c>
       <c r="C294" s="8" t="str">
-        <f>CONCATENATE(E294,F294,G294,H294,I294,J294)</f>
+        <f t="shared" si="4"/>
         <v>d'i</v>
       </c>
       <c r="D294" s="9" t="s">
@@ -11573,7 +11573,7 @@
         <v>172</v>
       </c>
       <c r="C295" s="8" t="str">
-        <f>CONCATENATE(E295,F295,G295,H295,I295,J295)</f>
+        <f t="shared" si="4"/>
         <v>t'u</v>
       </c>
       <c r="D295" s="9" t="s">
@@ -11597,7 +11597,7 @@
         <v>172</v>
       </c>
       <c r="C296" s="8" t="str">
-        <f>CONCATENATE(E296,F296,G296,H296,I296,J296)</f>
+        <f t="shared" si="4"/>
         <v>d'u</v>
       </c>
       <c r="D296" s="9" t="s">
@@ -11621,7 +11621,7 @@
         <v>172</v>
       </c>
       <c r="C297" s="8" t="str">
-        <f>CONCATENATE(E297,F297,G297,H297,I297,J297)</f>
+        <f t="shared" si="4"/>
         <v>t'e</v>
       </c>
       <c r="D297" s="9" t="s">
@@ -11645,7 +11645,7 @@
         <v>172</v>
       </c>
       <c r="C298" s="8" t="str">
-        <f>CONCATENATE(E298,F298,G298,H298,I298,J298)</f>
+        <f t="shared" si="4"/>
         <v>d'e</v>
       </c>
       <c r="D298" s="9" t="s">
@@ -11669,7 +11669,7 @@
         <v>172</v>
       </c>
       <c r="C299" s="8" t="str">
-        <f>CONCATENATE(E299,F299,G299,H299,I299,J299)</f>
+        <f t="shared" si="4"/>
         <v>t'o</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -11693,7 +11693,7 @@
         <v>172</v>
       </c>
       <c r="C300" s="8" t="str">
-        <f>CONCATENATE(E300,F300,G300,H300,I300,J300)</f>
+        <f t="shared" si="4"/>
         <v>d'o</v>
       </c>
       <c r="D300" s="9" t="s">
@@ -11717,7 +11717,7 @@
         <v>172</v>
       </c>
       <c r="C301" s="8" t="str">
-        <f>CONCATENATE(E301,F301,G301,H301,I301,J301)</f>
+        <f t="shared" si="4"/>
         <v>n'yi</v>
       </c>
       <c r="D301" s="9" t="s">
@@ -11744,7 +11744,7 @@
         <v>172</v>
       </c>
       <c r="C302" s="8" t="str">
-        <f>CONCATENATE(E302,F302,G302,H302,I302,J302)</f>
+        <f t="shared" si="4"/>
         <v>h'yi</v>
       </c>
       <c r="D302" s="9" t="s">
@@ -11771,7 +11771,7 @@
         <v>172</v>
       </c>
       <c r="C303" s="8" t="str">
-        <f>CONCATENATE(E303,F303,G303,H303,I303,J303)</f>
+        <f t="shared" si="4"/>
         <v>b'yi</v>
       </c>
       <c r="D303" s="9" t="s">
@@ -11798,7 +11798,7 @@
         <v>172</v>
       </c>
       <c r="C304" s="8" t="str">
-        <f>CONCATENATE(E304,F304,G304,H304,I304,J304)</f>
+        <f t="shared" si="4"/>
         <v>p'yi</v>
       </c>
       <c r="D304" s="9" t="s">
@@ -11825,7 +11825,7 @@
         <v>172</v>
       </c>
       <c r="C305" s="8" t="str">
-        <f>CONCATENATE(E305,F305,G305,H305,I305,J305)</f>
+        <f t="shared" si="4"/>
         <v>h'wa</v>
       </c>
       <c r="D305" s="9" t="s">
@@ -11852,7 +11852,7 @@
         <v>172</v>
       </c>
       <c r="C306" s="8" t="str">
-        <f>CONCATENATE(E306,F306,G306,H306,I306,J306)</f>
+        <f t="shared" si="4"/>
         <v>h'wi</v>
       </c>
       <c r="D306" s="9" t="s">
@@ -11879,7 +11879,7 @@
         <v>172</v>
       </c>
       <c r="C307" s="8" t="str">
-        <f>CONCATENATE(E307,F307,G307,H307,I307,J307)</f>
+        <f t="shared" si="4"/>
         <v>h'wu</v>
       </c>
       <c r="D307" s="9" t="s">
@@ -11906,7 +11906,7 @@
         <v>172</v>
       </c>
       <c r="C308" s="8" t="str">
-        <f>CONCATENATE(E308,F308,G308,H308,I308,J308)</f>
+        <f t="shared" si="4"/>
         <v>h'we</v>
       </c>
       <c r="D308" s="9" t="s">
@@ -11933,7 +11933,7 @@
         <v>172</v>
       </c>
       <c r="C309" s="8" t="str">
-        <f>CONCATENATE(E309,F309,G309,H309,I309,J309)</f>
+        <f t="shared" si="4"/>
         <v>h'wo</v>
       </c>
       <c r="D309" s="9" t="s">
@@ -11960,7 +11960,7 @@
         <v>172</v>
       </c>
       <c r="C310" s="8" t="str">
-        <f>CONCATENATE(E310,F310,G310,H310,I310,J310)</f>
+        <f t="shared" si="4"/>
         <v>f'ya</v>
       </c>
       <c r="D310" s="9" t="s">
@@ -11987,7 +11987,7 @@
         <v>172</v>
       </c>
       <c r="C311" s="8" t="str">
-        <f>CONCATENATE(E311,F311,G311,H311,I311,J311)</f>
+        <f t="shared" si="4"/>
         <v>f'yu</v>
       </c>
       <c r="D311" s="9" t="s">
@@ -12014,7 +12014,7 @@
         <v>172</v>
       </c>
       <c r="C312" s="8" t="str">
-        <f>CONCATENATE(E312,F312,G312,H312,I312,J312)</f>
+        <f t="shared" si="4"/>
         <v>f'yo</v>
       </c>
       <c r="D312" s="9" t="s">
@@ -12041,7 +12041,7 @@
         <v>172</v>
       </c>
       <c r="C313" s="8" t="str">
-        <f>CONCATENATE(E313,F313,G313,H313,I313,J313)</f>
+        <f t="shared" si="4"/>
         <v>m'yi</v>
       </c>
       <c r="D313" s="9" t="s">
@@ -12068,7 +12068,7 @@
         <v>172</v>
       </c>
       <c r="C314" s="8" t="str">
-        <f>CONCATENATE(E314,F314,G314,H314,I314,J314)</f>
+        <f t="shared" si="4"/>
         <v>r'yi</v>
       </c>
       <c r="D314" s="9" t="s">
@@ -12095,7 +12095,7 @@
         <v>172</v>
       </c>
       <c r="C315" s="8" t="str">
-        <f>CONCATENATE(E315,F315,G315,H315,I315,J315)</f>
+        <f t="shared" si="4"/>
         <v>w'yi</v>
       </c>
       <c r="D315" s="9" t="s">
@@ -12122,7 +12122,7 @@
         <v>172</v>
       </c>
       <c r="C316" s="8" t="str">
-        <f>CONCATENATE(E316,F316,G316,H316,I316,J316)</f>
+        <f t="shared" si="4"/>
         <v>w'yu</v>
       </c>
       <c r="D316" s="9" t="s">
@@ -12149,7 +12149,7 @@
         <v>243</v>
       </c>
       <c r="C317" s="8" t="str">
-        <f>CONCATENATE(E317,F317,G317,H317,I317,J317)</f>
+        <f t="shared" si="4"/>
         <v>vn</v>
       </c>
       <c r="D317" s="9" t="s">
@@ -12170,7 +12170,7 @@
         <v>243</v>
       </c>
       <c r="C318" s="8" t="str">
-        <f>CONCATENATE(E318,F318,G318,H318,I318,J318)</f>
+        <f t="shared" si="4"/>
         <v>yd</v>
       </c>
       <c r="D318" s="9" t="s">
@@ -12191,7 +12191,7 @@
         <v>243</v>
       </c>
       <c r="C319" s="8" t="str">
-        <f>CONCATENATE(E319,F319,G319,H319,I319,J319)</f>
+        <f t="shared" si="4"/>
         <v>vg</v>
       </c>
       <c r="D319" s="9" t="s">
@@ -12212,7 +12212,7 @@
         <v>243</v>
       </c>
       <c r="C320" s="8" t="str">
-        <f>CONCATENATE(E320,F320,G320,H320,I320,J320)</f>
+        <f t="shared" si="4"/>
         <v>yg</v>
       </c>
       <c r="D320" s="9" t="s">
@@ -12233,7 +12233,7 @@
         <v>243</v>
       </c>
       <c r="C321" s="8" t="str">
-        <f>CONCATENATE(E321,F321,G321,H321,I321,J321)</f>
+        <f t="shared" si="4"/>
         <v>whn</v>
       </c>
       <c r="D321" s="9" t="s">
@@ -12257,7 +12257,7 @@
         <v>243</v>
       </c>
       <c r="C322" s="8" t="str">
-        <f>CONCATENATE(E322,F322,G322,H322,I322,J322)</f>
+        <f t="shared" ref="C322:C385" si="5">CONCATENATE(E322,F322,G322,H322,I322,J322)</f>
         <v>vhn</v>
       </c>
       <c r="D322" s="9" t="s">
@@ -12281,7 +12281,7 @@
         <v>243</v>
       </c>
       <c r="C323" s="8" t="str">
-        <f>CONCATENATE(E323,F323,G323,H323,I323,J323)</f>
+        <f t="shared" si="5"/>
         <v>whg</v>
       </c>
       <c r="D323" s="9" t="s">
@@ -12305,7 +12305,7 @@
         <v>243</v>
       </c>
       <c r="C324" s="8" t="str">
-        <f>CONCATENATE(E324,F324,G324,H324,I324,J324)</f>
+        <f t="shared" si="5"/>
         <v>vhg</v>
       </c>
       <c r="D324" s="9" t="s">
@@ -12329,7 +12329,7 @@
         <v>243</v>
       </c>
       <c r="C325" s="8" t="str">
-        <f>CONCATENATE(E325,F325,G325,H325,I325,J325)</f>
+        <f t="shared" si="5"/>
         <v>wd</v>
       </c>
       <c r="D325" s="9" t="s">
@@ -12350,7 +12350,7 @@
         <v>243</v>
       </c>
       <c r="C326" s="8" t="str">
-        <f>CONCATENATE(E326,F326,G326,H326,I326,J326)</f>
+        <f t="shared" si="5"/>
         <v>whd</v>
       </c>
       <c r="D326" s="9" t="s">
@@ -12374,7 +12374,7 @@
         <v>243</v>
       </c>
       <c r="C327" s="8" t="str">
-        <f>CONCATENATE(E327,F327,G327,H327,I327,J327)</f>
+        <f t="shared" si="5"/>
         <v>vhd</v>
       </c>
       <c r="D327" s="9" t="s">
@@ -12398,7 +12398,7 @@
         <v>243</v>
       </c>
       <c r="C328" s="8" t="str">
-        <f>CONCATENATE(E328,F328,G328,H328,I328,J328)</f>
+        <f t="shared" si="5"/>
         <v>whp</v>
       </c>
       <c r="D328" s="9" t="s">
@@ -12422,7 +12422,7 @@
         <v>243</v>
       </c>
       <c r="C329" s="8" t="str">
-        <f>CONCATENATE(E329,F329,G329,H329,I329,J329)</f>
+        <f t="shared" si="5"/>
         <v>vhp</v>
       </c>
       <c r="D329" s="9" t="s">
@@ -12446,7 +12446,7 @@
         <v>243</v>
       </c>
       <c r="C330" s="8" t="str">
-        <f>CONCATENATE(E330,F330,G330,H330,I330,J330)</f>
+        <f t="shared" si="5"/>
         <v>vm</v>
       </c>
       <c r="D330" s="9" t="s">
@@ -12467,7 +12467,7 @@
         <v>243</v>
       </c>
       <c r="C331" s="8" t="str">
-        <f>CONCATENATE(E331,F331,G331,H331,I331,J331)</f>
+        <f t="shared" si="5"/>
         <v>wm</v>
       </c>
       <c r="D331" s="9" t="s">
@@ -12488,7 +12488,7 @@
         <v>243</v>
       </c>
       <c r="C332" s="8" t="str">
-        <f>CONCATENATE(E332,F332,G332,H332,I332,J332)</f>
+        <f t="shared" si="5"/>
         <v>vhm</v>
       </c>
       <c r="D332" s="9" t="s">
@@ -12512,7 +12512,7 @@
         <v>243</v>
       </c>
       <c r="C333" s="8" t="str">
-        <f>CONCATENATE(E333,F333,G333,H333,I333,J333)</f>
+        <f t="shared" si="5"/>
         <v>vd</v>
       </c>
       <c r="D333" s="9" t="s">
@@ -12533,7 +12533,7 @@
         <v>243</v>
       </c>
       <c r="C334" s="8" t="str">
-        <f>CONCATENATE(E334,F334,G334,H334,I334,J334)</f>
+        <f t="shared" si="5"/>
         <v>vp</v>
       </c>
       <c r="D334" s="9" t="s">
@@ -12554,7 +12554,7 @@
         <v>243</v>
       </c>
       <c r="C335" s="8" t="str">
-        <f>CONCATENATE(E335,F335,G335,H335,I335,J335)</f>
+        <f t="shared" si="5"/>
         <v>wp</v>
       </c>
       <c r="D335" s="9" t="s">
@@ -12575,7 +12575,7 @@
         <v>243</v>
       </c>
       <c r="C336" s="8" t="str">
-        <f>CONCATENATE(E336,F336,G336,H336,I336,J336)</f>
+        <f t="shared" si="5"/>
         <v>kn</v>
       </c>
       <c r="D336" s="9" t="s">
@@ -12596,7 +12596,7 @@
         <v>243</v>
       </c>
       <c r="C337" s="8" t="str">
-        <f>CONCATENATE(E337,F337,G337,H337,I337,J337)</f>
+        <f t="shared" si="5"/>
         <v>gn</v>
       </c>
       <c r="D337" s="9" t="s">
@@ -12617,7 +12617,7 @@
         <v>243</v>
       </c>
       <c r="C338" s="8" t="str">
-        <f>CONCATENATE(E338,F338,G338,H338,I338,J338)</f>
+        <f t="shared" si="5"/>
         <v>kjd</v>
       </c>
       <c r="D338" s="9" t="s">
@@ -12641,7 +12641,7 @@
         <v>243</v>
       </c>
       <c r="C339" s="8" t="str">
-        <f>CONCATENATE(E339,F339,G339,H339,I339,J339)</f>
+        <f t="shared" si="5"/>
         <v>gjd</v>
       </c>
       <c r="D339" s="9" t="s">
@@ -12665,7 +12665,7 @@
         <v>243</v>
       </c>
       <c r="C340" s="8" t="str">
-        <f>CONCATENATE(E340,F340,G340,H340,I340,J340)</f>
+        <f t="shared" si="5"/>
         <v>kjn</v>
       </c>
       <c r="D340" s="9" t="s">
@@ -12689,7 +12689,7 @@
         <v>243</v>
       </c>
       <c r="C341" s="8" t="str">
-        <f>CONCATENATE(E341,F341,G341,H341,I341,J341)</f>
+        <f t="shared" si="5"/>
         <v>qn</v>
       </c>
       <c r="D341" s="9" t="s">
@@ -12710,7 +12710,7 @@
         <v>243</v>
       </c>
       <c r="C342" s="8" t="str">
-        <f>CONCATENATE(E342,F342,G342,H342,I342,J342)</f>
+        <f t="shared" si="5"/>
         <v>gjn</v>
       </c>
       <c r="D342" s="9" t="s">
@@ -12734,7 +12734,7 @@
         <v>243</v>
       </c>
       <c r="C343" s="8" t="str">
-        <f>CONCATENATE(E343,F343,G343,H343,I343,J343)</f>
+        <f t="shared" si="5"/>
         <v>kjm</v>
       </c>
       <c r="D343" s="9" t="s">
@@ -12758,7 +12758,7 @@
         <v>243</v>
       </c>
       <c r="C344" s="8" t="str">
-        <f>CONCATENATE(E344,F344,G344,H344,I344,J344)</f>
+        <f t="shared" si="5"/>
         <v>qm</v>
       </c>
       <c r="D344" s="9" t="s">
@@ -12779,7 +12779,7 @@
         <v>243</v>
       </c>
       <c r="C345" s="8" t="str">
-        <f>CONCATENATE(E345,F345,G345,H345,I345,J345)</f>
+        <f t="shared" si="5"/>
         <v>gjm</v>
       </c>
       <c r="D345" s="9" t="s">
@@ -12803,7 +12803,7 @@
         <v>243</v>
       </c>
       <c r="C346" s="8" t="str">
-        <f>CONCATENATE(E346,F346,G346,H346,I346,J346)</f>
+        <f t="shared" si="5"/>
         <v>kjp</v>
       </c>
       <c r="D346" s="9" t="s">
@@ -12827,7 +12827,7 @@
         <v>243</v>
       </c>
       <c r="C347" s="8" t="str">
-        <f>CONCATENATE(E347,F347,G347,H347,I347,J347)</f>
+        <f t="shared" si="5"/>
         <v>qp</v>
       </c>
       <c r="D347" s="9" t="s">
@@ -12848,7 +12848,7 @@
         <v>243</v>
       </c>
       <c r="C348" s="8" t="str">
-        <f>CONCATENATE(E348,F348,G348,H348,I348,J348)</f>
+        <f t="shared" si="5"/>
         <v>gjp</v>
       </c>
       <c r="D348" s="9" t="s">
@@ -12872,7 +12872,7 @@
         <v>243</v>
       </c>
       <c r="C349" s="8" t="str">
-        <f>CONCATENATE(E349,F349,G349,H349,I349,J349)</f>
+        <f t="shared" si="5"/>
         <v>kg</v>
       </c>
       <c r="D349" s="9" t="s">
@@ -12893,7 +12893,7 @@
         <v>243</v>
       </c>
       <c r="C350" s="8" t="str">
-        <f>CONCATENATE(E350,F350,G350,H350,I350,J350)</f>
+        <f t="shared" si="5"/>
         <v>qg</v>
       </c>
       <c r="D350" s="9" t="s">
@@ -12914,7 +12914,7 @@
         <v>243</v>
       </c>
       <c r="C351" s="8" t="str">
-        <f>CONCATENATE(E351,F351,G351,H351,I351,J351)</f>
+        <f t="shared" si="5"/>
         <v>gg</v>
       </c>
       <c r="D351" s="9" t="s">
@@ -12935,7 +12935,7 @@
         <v>243</v>
       </c>
       <c r="C352" s="8" t="str">
-        <f>CONCATENATE(E352,F352,G352,H352,I352,J352)</f>
+        <f t="shared" si="5"/>
         <v>km</v>
       </c>
       <c r="D352" s="9" t="s">
@@ -12956,7 +12956,7 @@
         <v>243</v>
       </c>
       <c r="C353" s="8" t="str">
-        <f>CONCATENATE(E353,F353,G353,H353,I353,J353)</f>
+        <f t="shared" si="5"/>
         <v>gm</v>
       </c>
       <c r="D353" s="9" t="s">
@@ -12977,7 +12977,7 @@
         <v>243</v>
       </c>
       <c r="C354" s="8" t="str">
-        <f>CONCATENATE(E354,F354,G354,H354,I354,J354)</f>
+        <f t="shared" si="5"/>
         <v>kd</v>
       </c>
       <c r="D354" s="9" t="s">
@@ -12998,7 +12998,7 @@
         <v>243</v>
       </c>
       <c r="C355" s="8" t="str">
-        <f>CONCATENATE(E355,F355,G355,H355,I355,J355)</f>
+        <f t="shared" si="5"/>
         <v>qd</v>
       </c>
       <c r="D355" s="9" t="s">
@@ -13019,7 +13019,7 @@
         <v>243</v>
       </c>
       <c r="C356" s="8" t="str">
-        <f>CONCATENATE(E356,F356,G356,H356,I356,J356)</f>
+        <f t="shared" si="5"/>
         <v>gd</v>
       </c>
       <c r="D356" s="9" t="s">
@@ -13040,7 +13040,7 @@
         <v>243</v>
       </c>
       <c r="C357" s="8" t="str">
-        <f>CONCATENATE(E357,F357,G357,H357,I357,J357)</f>
+        <f t="shared" si="5"/>
         <v>kp</v>
       </c>
       <c r="D357" s="9" t="s">
@@ -13061,7 +13061,7 @@
         <v>243</v>
       </c>
       <c r="C358" s="8" t="str">
-        <f>CONCATENATE(E358,F358,G358,H358,I358,J358)</f>
+        <f t="shared" si="5"/>
         <v>gp</v>
       </c>
       <c r="D358" s="9" t="s">
@@ -13082,7 +13082,7 @@
         <v>243</v>
       </c>
       <c r="C359" s="8" t="str">
-        <f>CONCATENATE(E359,F359,G359,H359,I359,J359)</f>
+        <f t="shared" si="5"/>
         <v>sn</v>
       </c>
       <c r="D359" s="9" t="s">
@@ -13103,7 +13103,7 @@
         <v>243</v>
       </c>
       <c r="C360" s="8" t="str">
-        <f>CONCATENATE(E360,F360,G360,H360,I360,J360)</f>
+        <f t="shared" si="5"/>
         <v>zn</v>
       </c>
       <c r="D360" s="9" t="s">
@@ -13124,7 +13124,7 @@
         <v>243</v>
       </c>
       <c r="C361" s="8" t="str">
-        <f>CONCATENATE(E361,F361,G361,H361,I361,J361)</f>
+        <f t="shared" si="5"/>
         <v>sjd</v>
       </c>
       <c r="D361" s="9" t="s">
@@ -13148,7 +13148,7 @@
         <v>243</v>
       </c>
       <c r="C362" s="8" t="str">
-        <f>CONCATENATE(E362,F362,G362,H362,I362,J362)</f>
+        <f t="shared" si="5"/>
         <v>xd</v>
       </c>
       <c r="D362" s="9" t="s">
@@ -13169,7 +13169,7 @@
         <v>243</v>
       </c>
       <c r="C363" s="8" t="str">
-        <f>CONCATENATE(E363,F363,G363,H363,I363,J363)</f>
+        <f t="shared" si="5"/>
         <v>jd</v>
       </c>
       <c r="D363" s="9" t="s">
@@ -13190,7 +13190,7 @@
         <v>243</v>
       </c>
       <c r="C364" s="8" t="str">
-        <f>CONCATENATE(E364,F364,G364,H364,I364,J364)</f>
+        <f t="shared" si="5"/>
         <v>sjn</v>
       </c>
       <c r="D364" s="9" t="s">
@@ -13214,7 +13214,7 @@
         <v>243</v>
       </c>
       <c r="C365" s="8" t="str">
-        <f>CONCATENATE(E365,F365,G365,H365,I365,J365)</f>
+        <f t="shared" si="5"/>
         <v>xn</v>
       </c>
       <c r="D365" s="9" t="s">
@@ -13235,7 +13235,7 @@
         <v>243</v>
       </c>
       <c r="C366" s="8" t="str">
-        <f>CONCATENATE(E366,F366,G366,H366,I366,J366)</f>
+        <f t="shared" si="5"/>
         <v>jn</v>
       </c>
       <c r="D366" s="9" t="s">
@@ -13256,7 +13256,7 @@
         <v>243</v>
       </c>
       <c r="C367" s="8" t="str">
-        <f>CONCATENATE(E367,F367,G367,H367,I367,J367)</f>
+        <f t="shared" si="5"/>
         <v>sjm</v>
       </c>
       <c r="D367" s="9" t="s">
@@ -13280,7 +13280,7 @@
         <v>243</v>
       </c>
       <c r="C368" s="8" t="str">
-        <f>CONCATENATE(E368,F368,G368,H368,I368,J368)</f>
+        <f t="shared" si="5"/>
         <v>jm</v>
       </c>
       <c r="D368" s="9" t="s">
@@ -13301,7 +13301,7 @@
         <v>243</v>
       </c>
       <c r="C369" s="8" t="str">
-        <f>CONCATENATE(E369,F369,G369,H369,I369,J369)</f>
+        <f t="shared" si="5"/>
         <v>sjp</v>
       </c>
       <c r="D369" s="9" t="s">
@@ -13325,7 +13325,7 @@
         <v>243</v>
       </c>
       <c r="C370" s="8" t="str">
-        <f>CONCATENATE(E370,F370,G370,H370,I370,J370)</f>
+        <f t="shared" si="5"/>
         <v>xp</v>
       </c>
       <c r="D370" s="9" t="s">
@@ -13346,7 +13346,7 @@
         <v>243</v>
       </c>
       <c r="C371" s="8" t="str">
-        <f>CONCATENATE(E371,F371,G371,H371,I371,J371)</f>
+        <f t="shared" si="5"/>
         <v>jp</v>
       </c>
       <c r="D371" s="9" t="s">
@@ -13367,7 +13367,7 @@
         <v>243</v>
       </c>
       <c r="C372" s="8" t="str">
-        <f>CONCATENATE(E372,F372,G372,H372,I372,J372)</f>
+        <f t="shared" si="5"/>
         <v>shg</v>
       </c>
       <c r="D372" s="9" t="s">
@@ -13391,7 +13391,7 @@
         <v>243</v>
       </c>
       <c r="C373" s="8" t="str">
-        <f>CONCATENATE(E373,F373,G373,H373,I373,J373)</f>
+        <f t="shared" si="5"/>
         <v>xg</v>
       </c>
       <c r="D373" s="9" t="s">
@@ -13412,7 +13412,7 @@
         <v>243</v>
       </c>
       <c r="C374" s="8" t="str">
-        <f>CONCATENATE(E374,F374,G374,H374,I374,J374)</f>
+        <f t="shared" si="5"/>
         <v>jg</v>
       </c>
       <c r="D374" s="9" t="s">
@@ -13433,7 +13433,7 @@
         <v>243</v>
       </c>
       <c r="C375" s="8" t="str">
-        <f>CONCATENATE(E375,F375,G375,H375,I375,J375)</f>
+        <f t="shared" si="5"/>
         <v>zg</v>
       </c>
       <c r="D375" s="9" t="s">
@@ -13454,7 +13454,7 @@
         <v>243</v>
       </c>
       <c r="C376" s="8" t="str">
-        <f>CONCATENATE(E376,F376,G376,H376,I376,J376)</f>
+        <f t="shared" si="5"/>
         <v>sm</v>
       </c>
       <c r="D376" s="9" t="s">
@@ -13475,7 +13475,7 @@
         <v>243</v>
       </c>
       <c r="C377" s="8" t="str">
-        <f>CONCATENATE(E377,F377,G377,H377,I377,J377)</f>
+        <f t="shared" si="5"/>
         <v>zm</v>
       </c>
       <c r="D377" s="9" t="s">
@@ -13496,7 +13496,7 @@
         <v>243</v>
       </c>
       <c r="C378" s="8" t="str">
-        <f>CONCATENATE(E378,F378,G378,H378,I378,J378)</f>
+        <f t="shared" si="5"/>
         <v>sd</v>
       </c>
       <c r="D378" s="9" t="s">
@@ -13517,7 +13517,7 @@
         <v>243</v>
       </c>
       <c r="C379" s="8" t="str">
-        <f>CONCATENATE(E379,F379,G379,H379,I379,J379)</f>
+        <f t="shared" si="5"/>
         <v>zd</v>
       </c>
       <c r="D379" s="9" t="s">
@@ -13538,7 +13538,7 @@
         <v>243</v>
       </c>
       <c r="C380" s="8" t="str">
-        <f>CONCATENATE(E380,F380,G380,H380,I380,J380)</f>
+        <f t="shared" si="5"/>
         <v>sp</v>
       </c>
       <c r="D380" s="9" t="s">
@@ -13559,7 +13559,7 @@
         <v>243</v>
       </c>
       <c r="C381" s="8" t="str">
-        <f>CONCATENATE(E381,F381,G381,H381,I381,J381)</f>
+        <f t="shared" si="5"/>
         <v>zp</v>
       </c>
       <c r="D381" s="9" t="s">
@@ -13580,7 +13580,7 @@
         <v>243</v>
       </c>
       <c r="C382" s="8" t="str">
-        <f>CONCATENATE(E382,F382,G382,H382,I382,J382)</f>
+        <f t="shared" si="5"/>
         <v>tn</v>
       </c>
       <c r="D382" s="9" t="s">
@@ -13601,7 +13601,7 @@
         <v>243</v>
       </c>
       <c r="C383" s="8" t="str">
-        <f>CONCATENATE(E383,F383,G383,H383,I383,J383)</f>
+        <f t="shared" si="5"/>
         <v>dn</v>
       </c>
       <c r="D383" s="9" t="s">
@@ -13622,7 +13622,7 @@
         <v>243</v>
       </c>
       <c r="C384" s="8" t="str">
-        <f>CONCATENATE(E384,F384,G384,H384,I384,J384)</f>
+        <f t="shared" si="5"/>
         <v>chd</v>
       </c>
       <c r="D384" s="9" t="s">
@@ -13646,7 +13646,7 @@
         <v>243</v>
       </c>
       <c r="C385" s="8" t="str">
-        <f>CONCATENATE(E385,F385,G385,H385,I385,J385)</f>
+        <f t="shared" si="5"/>
         <v>chn</v>
       </c>
       <c r="D385" s="9" t="s">
@@ -13670,7 +13670,7 @@
         <v>243</v>
       </c>
       <c r="C386" s="8" t="str">
-        <f>CONCATENATE(E386,F386,G386,H386,I386,J386)</f>
+        <f t="shared" ref="C386:C449" si="6">CONCATENATE(E386,F386,G386,H386,I386,J386)</f>
         <v>chm</v>
       </c>
       <c r="D386" s="9" t="s">
@@ -13694,7 +13694,7 @@
         <v>243</v>
       </c>
       <c r="C387" s="8" t="str">
-        <f>CONCATENATE(E387,F387,G387,H387,I387,J387)</f>
+        <f t="shared" si="6"/>
         <v>chp</v>
       </c>
       <c r="D387" s="9" t="s">
@@ -13718,7 +13718,7 @@
         <v>243</v>
       </c>
       <c r="C388" s="8" t="str">
-        <f>CONCATENATE(E388,F388,G388,H388,I388,J388)</f>
+        <f t="shared" si="6"/>
         <v>chg</v>
       </c>
       <c r="D388" s="9" t="s">
@@ -13742,7 +13742,7 @@
         <v>243</v>
       </c>
       <c r="C389" s="8" t="str">
-        <f>CONCATENATE(E389,F389,G389,H389,I389,J389)</f>
+        <f t="shared" si="6"/>
         <v>tg</v>
       </c>
       <c r="D389" s="9" t="s">
@@ -13763,7 +13763,7 @@
         <v>243</v>
       </c>
       <c r="C390" s="8" t="str">
-        <f>CONCATENATE(E390,F390,G390,H390,I390,J390)</f>
+        <f t="shared" si="6"/>
         <v>tm</v>
       </c>
       <c r="D390" s="9" t="s">
@@ -13784,7 +13784,7 @@
         <v>243</v>
       </c>
       <c r="C391" s="8" t="str">
-        <f>CONCATENATE(E391,F391,G391,H391,I391,J391)</f>
+        <f t="shared" si="6"/>
         <v>thg</v>
       </c>
       <c r="D391" s="9" t="s">
@@ -13808,7 +13808,7 @@
         <v>243</v>
       </c>
       <c r="C392" s="8" t="str">
-        <f>CONCATENATE(E392,F392,G392,H392,I392,J392)</f>
+        <f t="shared" si="6"/>
         <v>dhg</v>
       </c>
       <c r="D392" s="9" t="s">
@@ -13832,7 +13832,7 @@
         <v>243</v>
       </c>
       <c r="C393" s="8" t="str">
-        <f>CONCATENATE(E393,F393,G393,H393,I393,J393)</f>
+        <f t="shared" si="6"/>
         <v>td</v>
       </c>
       <c r="D393" s="9" t="s">
@@ -13853,7 +13853,7 @@
         <v>243</v>
       </c>
       <c r="C394" s="8" t="str">
-        <f>CONCATENATE(E394,F394,G394,H394,I394,J394)</f>
+        <f t="shared" si="6"/>
         <v>dd</v>
       </c>
       <c r="D394" s="9" t="s">
@@ -13874,7 +13874,7 @@
         <v>243</v>
       </c>
       <c r="C395" s="8" t="str">
-        <f>CONCATENATE(E395,F395,G395,H395,I395,J395)</f>
+        <f t="shared" si="6"/>
         <v>tp</v>
       </c>
       <c r="D395" s="9" t="s">
@@ -13895,7 +13895,7 @@
         <v>243</v>
       </c>
       <c r="C396" s="8" t="str">
-        <f>CONCATENATE(E396,F396,G396,H396,I396,J396)</f>
+        <f t="shared" si="6"/>
         <v>dp</v>
       </c>
       <c r="D396" s="9" t="s">
@@ -13916,7 +13916,7 @@
         <v>243</v>
       </c>
       <c r="C397" s="8" t="str">
-        <f>CONCATENATE(E397,F397,G397,H397,I397,J397)</f>
+        <f t="shared" si="6"/>
         <v>nm</v>
       </c>
       <c r="D397" s="9" t="s">
@@ -13937,7 +13937,7 @@
         <v>243</v>
       </c>
       <c r="C398" s="8" t="str">
-        <f>CONCATENATE(E398,F398,G398,H398,I398,J398)</f>
+        <f t="shared" si="6"/>
         <v>njd</v>
       </c>
       <c r="D398" s="9" t="s">
@@ -13961,7 +13961,7 @@
         <v>243</v>
       </c>
       <c r="C399" s="8" t="str">
-        <f>CONCATENATE(E399,F399,G399,H399,I399,J399)</f>
+        <f t="shared" si="6"/>
         <v>njn</v>
       </c>
       <c r="D399" s="9" t="s">
@@ -13985,7 +13985,7 @@
         <v>243</v>
       </c>
       <c r="C400" s="8" t="str">
-        <f>CONCATENATE(E400,F400,G400,H400,I400,J400)</f>
+        <f t="shared" si="6"/>
         <v>njm</v>
       </c>
       <c r="D400" s="9" t="s">
@@ -14009,7 +14009,7 @@
         <v>243</v>
       </c>
       <c r="C401" s="8" t="str">
-        <f>CONCATENATE(E401,F401,G401,H401,I401,J401)</f>
+        <f t="shared" si="6"/>
         <v>njp</v>
       </c>
       <c r="D401" s="9" t="s">
@@ -14033,7 +14033,7 @@
         <v>243</v>
       </c>
       <c r="C402" s="8" t="str">
-        <f>CONCATENATE(E402,F402,G402,H402,I402,J402)</f>
+        <f t="shared" si="6"/>
         <v>ng</v>
       </c>
       <c r="D402" s="9" t="s">
@@ -14054,7 +14054,7 @@
         <v>243</v>
       </c>
       <c r="C403" s="8" t="str">
-        <f>CONCATENATE(E403,F403,G403,H403,I403,J403)</f>
+        <f t="shared" si="6"/>
         <v>nwm</v>
       </c>
       <c r="D403" s="9" t="s">
@@ -14078,7 +14078,7 @@
         <v>243</v>
       </c>
       <c r="C404" s="8" t="str">
-        <f>CONCATENATE(E404,F404,G404,H404,I404,J404)</f>
+        <f t="shared" si="6"/>
         <v>nd</v>
       </c>
       <c r="D404" s="9" t="s">
@@ -14099,7 +14099,7 @@
         <v>243</v>
       </c>
       <c r="C405" s="8" t="str">
-        <f>CONCATENATE(E405,F405,G405,H405,I405,J405)</f>
+        <f t="shared" si="6"/>
         <v>np</v>
       </c>
       <c r="D405" s="9" t="s">
@@ -14120,7 +14120,7 @@
         <v>243</v>
       </c>
       <c r="C406" s="8" t="str">
-        <f>CONCATENATE(E406,F406,G406,H406,I406,J406)</f>
+        <f t="shared" si="6"/>
         <v>hn</v>
       </c>
       <c r="D406" s="9" t="s">
@@ -14141,7 +14141,7 @@
         <v>243</v>
       </c>
       <c r="C407" s="8" t="str">
-        <f>CONCATENATE(E407,F407,G407,H407,I407,J407)</f>
+        <f t="shared" si="6"/>
         <v>bn</v>
       </c>
       <c r="D407" s="9" t="s">
@@ -14162,7 +14162,7 @@
         <v>243</v>
       </c>
       <c r="C408" s="8" t="str">
-        <f>CONCATENATE(E408,F408,G408,H408,I408,J408)</f>
+        <f t="shared" si="6"/>
         <v>pn</v>
       </c>
       <c r="D408" s="9" t="s">
@@ -14183,7 +14183,7 @@
         <v>243</v>
       </c>
       <c r="C409" s="8" t="str">
-        <f>CONCATENATE(E409,F409,G409,H409,I409,J409)</f>
+        <f t="shared" si="6"/>
         <v>hjd</v>
       </c>
       <c r="D409" s="9" t="s">
@@ -14207,7 +14207,7 @@
         <v>243</v>
       </c>
       <c r="C410" s="8" t="str">
-        <f>CONCATENATE(E410,F410,G410,H410,I410,J410)</f>
+        <f t="shared" si="6"/>
         <v>bjd</v>
       </c>
       <c r="D410" s="9" t="s">
@@ -14231,7 +14231,7 @@
         <v>243</v>
       </c>
       <c r="C411" s="8" t="str">
-        <f>CONCATENATE(E411,F411,G411,H411,I411,J411)</f>
+        <f t="shared" si="6"/>
         <v>pjd</v>
       </c>
       <c r="D411" s="9" t="s">
@@ -14255,7 +14255,7 @@
         <v>243</v>
       </c>
       <c r="C412" s="8" t="str">
-        <f>CONCATENATE(E412,F412,G412,H412,I412,J412)</f>
+        <f t="shared" si="6"/>
         <v>hjn</v>
       </c>
       <c r="D412" s="9" t="s">
@@ -14279,7 +14279,7 @@
         <v>243</v>
       </c>
       <c r="C413" s="8" t="str">
-        <f>CONCATENATE(E413,F413,G413,H413,I413,J413)</f>
+        <f t="shared" si="6"/>
         <v>bjn</v>
       </c>
       <c r="D413" s="9" t="s">
@@ -14303,7 +14303,7 @@
         <v>243</v>
       </c>
       <c r="C414" s="8" t="str">
-        <f>CONCATENATE(E414,F414,G414,H414,I414,J414)</f>
+        <f t="shared" si="6"/>
         <v>pjn</v>
       </c>
       <c r="D414" s="9" t="s">
@@ -14327,7 +14327,7 @@
         <v>243</v>
       </c>
       <c r="C415" s="8" t="str">
-        <f>CONCATENATE(E415,F415,G415,H415,I415,J415)</f>
+        <f t="shared" si="6"/>
         <v>hjm</v>
       </c>
       <c r="D415" s="9" t="s">
@@ -14351,7 +14351,7 @@
         <v>243</v>
       </c>
       <c r="C416" s="8" t="str">
-        <f>CONCATENATE(E416,F416,G416,H416,I416,J416)</f>
+        <f t="shared" si="6"/>
         <v>bjm</v>
       </c>
       <c r="D416" s="9" t="s">
@@ -14375,7 +14375,7 @@
         <v>243</v>
       </c>
       <c r="C417" s="8" t="str">
-        <f>CONCATENATE(E417,F417,G417,H417,I417,J417)</f>
+        <f t="shared" si="6"/>
         <v>pjm</v>
       </c>
       <c r="D417" s="9" t="s">
@@ -14399,7 +14399,7 @@
         <v>243</v>
       </c>
       <c r="C418" s="8" t="str">
-        <f>CONCATENATE(E418,F418,G418,H418,I418,J418)</f>
+        <f t="shared" si="6"/>
         <v>hjp</v>
       </c>
       <c r="D418" s="9" t="s">
@@ -14423,7 +14423,7 @@
         <v>243</v>
       </c>
       <c r="C419" s="8" t="str">
-        <f>CONCATENATE(E419,F419,G419,H419,I419,J419)</f>
+        <f t="shared" si="6"/>
         <v>bjp</v>
       </c>
       <c r="D419" s="9" t="s">
@@ -14447,7 +14447,7 @@
         <v>243</v>
       </c>
       <c r="C420" s="8" t="str">
-        <f>CONCATENATE(E420,F420,G420,H420,I420,J420)</f>
+        <f t="shared" si="6"/>
         <v>pjp</v>
       </c>
       <c r="D420" s="9" t="s">
@@ -14471,7 +14471,7 @@
         <v>243</v>
       </c>
       <c r="C421" s="8" t="str">
-        <f>CONCATENATE(E421,F421,G421,H421,I421,J421)</f>
+        <f t="shared" si="6"/>
         <v>hg</v>
       </c>
       <c r="D421" s="9" t="s">
@@ -14492,7 +14492,7 @@
         <v>243</v>
       </c>
       <c r="C422" s="8" t="str">
-        <f>CONCATENATE(E422,F422,G422,H422,I422,J422)</f>
+        <f t="shared" si="6"/>
         <v>bg</v>
       </c>
       <c r="D422" s="9" t="s">
@@ -14513,7 +14513,7 @@
         <v>243</v>
       </c>
       <c r="C423" s="8" t="str">
-        <f>CONCATENATE(E423,F423,G423,H423,I423,J423)</f>
+        <f t="shared" si="6"/>
         <v>pg</v>
       </c>
       <c r="D423" s="9" t="s">
@@ -14534,7 +14534,7 @@
         <v>243</v>
       </c>
       <c r="C424" s="8" t="str">
-        <f>CONCATENATE(E424,F424,G424,H424,I424,J424)</f>
+        <f t="shared" si="6"/>
         <v>fn</v>
       </c>
       <c r="D424" s="9" t="s">
@@ -14555,7 +14555,7 @@
         <v>243</v>
       </c>
       <c r="C425" s="8" t="str">
-        <f>CONCATENATE(E425,F425,G425,H425,I425,J425)</f>
+        <f t="shared" si="6"/>
         <v>fg</v>
       </c>
       <c r="D425" s="9" t="s">
@@ -14576,7 +14576,7 @@
         <v>243</v>
       </c>
       <c r="C426" s="8" t="str">
-        <f>CONCATENATE(E426,F426,G426,H426,I426,J426)</f>
+        <f t="shared" si="6"/>
         <v>fd</v>
       </c>
       <c r="D426" s="9" t="s">
@@ -14597,7 +14597,7 @@
         <v>243</v>
       </c>
       <c r="C427" s="8" t="str">
-        <f>CONCATENATE(E427,F427,G427,H427,I427,J427)</f>
+        <f t="shared" si="6"/>
         <v>fp</v>
       </c>
       <c r="D427" s="9" t="s">
@@ -14618,7 +14618,7 @@
         <v>243</v>
       </c>
       <c r="C428" s="8" t="str">
-        <f>CONCATENATE(E428,F428,G428,H428,I428,J428)</f>
+        <f t="shared" si="6"/>
         <v>fm</v>
       </c>
       <c r="D428" s="9" t="s">
@@ -14639,7 +14639,7 @@
         <v>243</v>
       </c>
       <c r="C429" s="8" t="str">
-        <f>CONCATENATE(E429,F429,G429,H429,I429,J429)</f>
+        <f t="shared" si="6"/>
         <v>hm</v>
       </c>
       <c r="D429" s="9" t="s">
@@ -14660,7 +14660,7 @@
         <v>243</v>
       </c>
       <c r="C430" s="8" t="str">
-        <f>CONCATENATE(E430,F430,G430,H430,I430,J430)</f>
+        <f t="shared" si="6"/>
         <v>bm</v>
       </c>
       <c r="D430" s="9" t="s">
@@ -14681,7 +14681,7 @@
         <v>243</v>
       </c>
       <c r="C431" s="8" t="str">
-        <f>CONCATENATE(E431,F431,G431,H431,I431,J431)</f>
+        <f t="shared" si="6"/>
         <v>pm</v>
       </c>
       <c r="D431" s="9" t="s">
@@ -14702,7 +14702,7 @@
         <v>243</v>
       </c>
       <c r="C432" s="8" t="str">
-        <f>CONCATENATE(E432,F432,G432,H432,I432,J432)</f>
+        <f t="shared" si="6"/>
         <v>hd</v>
       </c>
       <c r="D432" s="9" t="s">
@@ -14723,7 +14723,7 @@
         <v>243</v>
       </c>
       <c r="C433" s="8" t="str">
-        <f>CONCATENATE(E433,F433,G433,H433,I433,J433)</f>
+        <f t="shared" si="6"/>
         <v>bd</v>
       </c>
       <c r="D433" s="9" t="s">
@@ -14744,7 +14744,7 @@
         <v>243</v>
       </c>
       <c r="C434" s="8" t="str">
-        <f>CONCATENATE(E434,F434,G434,H434,I434,J434)</f>
+        <f t="shared" si="6"/>
         <v>pd</v>
       </c>
       <c r="D434" s="9" t="s">
@@ -14765,7 +14765,7 @@
         <v>243</v>
       </c>
       <c r="C435" s="8" t="str">
-        <f>CONCATENATE(E435,F435,G435,H435,I435,J435)</f>
+        <f t="shared" si="6"/>
         <v>hp</v>
       </c>
       <c r="D435" s="9" t="s">
@@ -14786,7 +14786,7 @@
         <v>243</v>
       </c>
       <c r="C436" s="8" t="str">
-        <f>CONCATENATE(E436,F436,G436,H436,I436,J436)</f>
+        <f t="shared" si="6"/>
         <v>bp</v>
       </c>
       <c r="D436" s="9" t="s">
@@ -14807,7 +14807,7 @@
         <v>243</v>
       </c>
       <c r="C437" s="8" t="str">
-        <f>CONCATENATE(E437,F437,G437,H437,I437,J437)</f>
+        <f t="shared" si="6"/>
         <v>php</v>
       </c>
       <c r="D437" s="9" t="s">
@@ -14831,7 +14831,7 @@
         <v>243</v>
       </c>
       <c r="C438" s="8" t="str">
-        <f>CONCATENATE(E438,F438,G438,H438,I438,J438)</f>
+        <f t="shared" si="6"/>
         <v>mn</v>
       </c>
       <c r="D438" s="9" t="s">
@@ -14852,7 +14852,7 @@
         <v>243</v>
       </c>
       <c r="C439" s="8" t="str">
-        <f>CONCATENATE(E439,F439,G439,H439,I439,J439)</f>
+        <f t="shared" si="6"/>
         <v>mjd</v>
       </c>
       <c r="D439" s="9" t="s">
@@ -14876,7 +14876,7 @@
         <v>243</v>
       </c>
       <c r="C440" s="8" t="str">
-        <f>CONCATENATE(E440,F440,G440,H440,I440,J440)</f>
+        <f t="shared" si="6"/>
         <v>mjn</v>
       </c>
       <c r="D440" s="9" t="s">
@@ -14900,7 +14900,7 @@
         <v>243</v>
       </c>
       <c r="C441" s="8" t="str">
-        <f>CONCATENATE(E441,F441,G441,H441,I441,J441)</f>
+        <f t="shared" si="6"/>
         <v>mjm</v>
       </c>
       <c r="D441" s="9" t="s">
@@ -14924,7 +14924,7 @@
         <v>243</v>
       </c>
       <c r="C442" s="8" t="str">
-        <f>CONCATENATE(E442,F442,G442,H442,I442,J442)</f>
+        <f t="shared" si="6"/>
         <v>mjp</v>
       </c>
       <c r="D442" s="9" t="s">
@@ -14948,7 +14948,7 @@
         <v>243</v>
       </c>
       <c r="C443" s="8" t="str">
-        <f>CONCATENATE(E443,F443,G443,H443,I443,J443)</f>
+        <f t="shared" si="6"/>
         <v>mg</v>
       </c>
       <c r="D443" s="9" t="s">
@@ -14969,7 +14969,7 @@
         <v>243</v>
       </c>
       <c r="C444" s="8" t="str">
-        <f>CONCATENATE(E444,F444,G444,H444,I444,J444)</f>
+        <f t="shared" si="6"/>
         <v>mwm</v>
       </c>
       <c r="D444" s="9" t="s">
@@ -14993,7 +14993,7 @@
         <v>243</v>
       </c>
       <c r="C445" s="8" t="str">
-        <f>CONCATENATE(E445,F445,G445,H445,I445,J445)</f>
+        <f t="shared" si="6"/>
         <v>md</v>
       </c>
       <c r="D445" s="9" t="s">
@@ -15014,7 +15014,7 @@
         <v>243</v>
       </c>
       <c r="C446" s="8" t="str">
-        <f>CONCATENATE(E446,F446,G446,H446,I446,J446)</f>
+        <f t="shared" si="6"/>
         <v>mp</v>
       </c>
       <c r="D446" s="9" t="s">
@@ -15035,7 +15035,7 @@
         <v>243</v>
       </c>
       <c r="C447" s="8" t="str">
-        <f>CONCATENATE(E447,F447,G447,H447,I447,J447)</f>
+        <f t="shared" si="6"/>
         <v>yn</v>
       </c>
       <c r="D447" s="9" t="s">
@@ -15056,7 +15056,7 @@
         <v>243</v>
       </c>
       <c r="C448" s="8" t="str">
-        <f>CONCATENATE(E448,F448,G448,H448,I448,J448)</f>
+        <f t="shared" si="6"/>
         <v>ym</v>
       </c>
       <c r="D448" s="9" t="s">
@@ -15077,7 +15077,7 @@
         <v>243</v>
       </c>
       <c r="C449" s="8" t="str">
-        <f>CONCATENATE(E449,F449,G449,H449,I449,J449)</f>
+        <f t="shared" si="6"/>
         <v>yp</v>
       </c>
       <c r="D449" s="9" t="s">
@@ -15098,7 +15098,7 @@
         <v>243</v>
       </c>
       <c r="C450" s="8" t="str">
-        <f>CONCATENATE(E450,F450,G450,H450,I450,J450)</f>
+        <f t="shared" ref="C450:C513" si="7">CONCATENATE(E450,F450,G450,H450,I450,J450)</f>
         <v>rn</v>
       </c>
       <c r="D450" s="9" t="s">
@@ -15119,7 +15119,7 @@
         <v>243</v>
       </c>
       <c r="C451" s="8" t="str">
-        <f>CONCATENATE(E451,F451,G451,H451,I451,J451)</f>
+        <f t="shared" si="7"/>
         <v>rjd</v>
       </c>
       <c r="D451" s="9" t="s">
@@ -15143,7 +15143,7 @@
         <v>243</v>
       </c>
       <c r="C452" s="8" t="str">
-        <f>CONCATENATE(E452,F452,G452,H452,I452,J452)</f>
+        <f t="shared" si="7"/>
         <v>ln</v>
       </c>
       <c r="D452" s="9" t="s">
@@ -15164,7 +15164,7 @@
         <v>243</v>
       </c>
       <c r="C453" s="8" t="str">
-        <f>CONCATENATE(E453,F453,G453,H453,I453,J453)</f>
+        <f t="shared" si="7"/>
         <v>rjn</v>
       </c>
       <c r="D453" s="9" t="s">
@@ -15188,7 +15188,7 @@
         <v>243</v>
       </c>
       <c r="C454" s="8" t="str">
-        <f>CONCATENATE(E454,F454,G454,H454,I454,J454)</f>
+        <f t="shared" si="7"/>
         <v>lm</v>
       </c>
       <c r="D454" s="9" t="s">
@@ -15209,7 +15209,7 @@
         <v>243</v>
       </c>
       <c r="C455" s="8" t="str">
-        <f>CONCATENATE(E455,F455,G455,H455,I455,J455)</f>
+        <f t="shared" si="7"/>
         <v>rjm</v>
       </c>
       <c r="D455" s="9" t="s">
@@ -15233,7 +15233,7 @@
         <v>243</v>
       </c>
       <c r="C456" s="8" t="str">
-        <f>CONCATENATE(E456,F456,G456,H456,I456,J456)</f>
+        <f t="shared" si="7"/>
         <v>lp</v>
       </c>
       <c r="D456" s="9" t="s">
@@ -15254,7 +15254,7 @@
         <v>243</v>
       </c>
       <c r="C457" s="8" t="str">
-        <f>CONCATENATE(E457,F457,G457,H457,I457,J457)</f>
+        <f t="shared" si="7"/>
         <v>rjp</v>
       </c>
       <c r="D457" s="9" t="s">
@@ -15278,7 +15278,7 @@
         <v>243</v>
       </c>
       <c r="C458" s="8" t="str">
-        <f>CONCATENATE(E458,F458,G458,H458,I458,J458)</f>
+        <f t="shared" si="7"/>
         <v>lg</v>
       </c>
       <c r="D458" s="9" t="s">
@@ -15299,7 +15299,7 @@
         <v>243</v>
       </c>
       <c r="C459" s="8" t="str">
-        <f>CONCATENATE(E459,F459,G459,H459,I459,J459)</f>
+        <f t="shared" si="7"/>
         <v>rg</v>
       </c>
       <c r="D459" s="9" t="s">
@@ -15320,7 +15320,7 @@
         <v>243</v>
       </c>
       <c r="C460" s="8" t="str">
-        <f>CONCATENATE(E460,F460,G460,H460,I460,J460)</f>
+        <f t="shared" si="7"/>
         <v>rm</v>
       </c>
       <c r="D460" s="9" t="s">
@@ -15341,7 +15341,7 @@
         <v>243</v>
       </c>
       <c r="C461" s="8" t="str">
-        <f>CONCATENATE(E461,F461,G461,H461,I461,J461)</f>
+        <f t="shared" si="7"/>
         <v>ld</v>
       </c>
       <c r="D461" s="9" t="s">
@@ -15362,7 +15362,7 @@
         <v>243</v>
       </c>
       <c r="C462" s="8" t="str">
-        <f>CONCATENATE(E462,F462,G462,H462,I462,J462)</f>
+        <f t="shared" si="7"/>
         <v>rd</v>
       </c>
       <c r="D462" s="9" t="s">
@@ -15383,7 +15383,7 @@
         <v>243</v>
       </c>
       <c r="C463" s="8" t="str">
-        <f>CONCATENATE(E463,F463,G463,H463,I463,J463)</f>
+        <f t="shared" si="7"/>
         <v>rp</v>
       </c>
       <c r="D463" s="9" t="s">
@@ -15404,7 +15404,7 @@
         <v>243</v>
       </c>
       <c r="C464" s="8" t="str">
-        <f>CONCATENATE(E464,F464,G464,H464,I464,J464)</f>
+        <f t="shared" si="7"/>
         <v>wn</v>
       </c>
       <c r="D464" s="9" t="s">
@@ -15425,7 +15425,7 @@
         <v>371</v>
       </c>
       <c r="C465" s="8" t="str">
-        <f>CONCATENATE(E465,F465,G465,H465,I465,J465)</f>
+        <f t="shared" si="7"/>
         <v>vhf</v>
       </c>
       <c r="D465" s="9" t="s">
@@ -15449,7 +15449,7 @@
         <v>371</v>
       </c>
       <c r="C466" s="8" t="str">
-        <f>CONCATENATE(E466,F466,G466,H466,I466,J466)</f>
+        <f t="shared" si="7"/>
         <v>vhv</v>
       </c>
       <c r="D466" s="9" t="s">
@@ -15473,7 +15473,7 @@
         <v>371</v>
       </c>
       <c r="C467" s="8" t="str">
-        <f>CONCATENATE(E467,F467,G467,H467,I467,J467)</f>
+        <f t="shared" si="7"/>
         <v>kf</v>
       </c>
       <c r="D467" s="9" t="s">
@@ -15494,7 +15494,7 @@
         <v>371</v>
       </c>
       <c r="C468" s="8" t="str">
-        <f>CONCATENATE(E468,F468,G468,H468,I468,J468)</f>
+        <f t="shared" si="7"/>
         <v>gf</v>
       </c>
       <c r="D468" s="9" t="s">
@@ -15515,7 +15515,7 @@
         <v>371</v>
       </c>
       <c r="C469" s="8" t="str">
-        <f>CONCATENATE(E469,F469,G469,H469,I469,J469)</f>
+        <f t="shared" si="7"/>
         <v>kji</v>
       </c>
       <c r="D469" s="9" t="s">
@@ -15539,7 +15539,7 @@
         <v>371</v>
       </c>
       <c r="C470" s="8" t="str">
-        <f>CONCATENATE(E470,F470,G470,H470,I470,J470)</f>
+        <f t="shared" si="7"/>
         <v>gji</v>
       </c>
       <c r="D470" s="9" t="s">
@@ -15563,7 +15563,7 @@
         <v>371</v>
       </c>
       <c r="C471" s="8" t="str">
-        <f>CONCATENATE(E471,F471,G471,H471,I471,J471)</f>
+        <f t="shared" si="7"/>
         <v>kjw</v>
       </c>
       <c r="D471" s="9" t="s">
@@ -15587,7 +15587,7 @@
         <v>371</v>
       </c>
       <c r="C472" s="8" t="str">
-        <f>CONCATENATE(E472,F472,G472,H472,I472,J472)</f>
+        <f t="shared" si="7"/>
         <v>qw</v>
       </c>
       <c r="D472" s="9" t="s">
@@ -15608,7 +15608,7 @@
         <v>371</v>
       </c>
       <c r="C473" s="8" t="str">
-        <f>CONCATENATE(E473,F473,G473,H473,I473,J473)</f>
+        <f t="shared" si="7"/>
         <v>gjw</v>
       </c>
       <c r="D473" s="9" t="s">
@@ -15632,7 +15632,7 @@
         <v>371</v>
       </c>
       <c r="C474" s="8" t="str">
-        <f>CONCATENATE(E474,F474,G474,H474,I474,J474)</f>
+        <f t="shared" si="7"/>
         <v>kjv</v>
       </c>
       <c r="D474" s="9" t="s">
@@ -15656,7 +15656,7 @@
         <v>371</v>
       </c>
       <c r="C475" s="8" t="str">
-        <f>CONCATENATE(E475,F475,G475,H475,I475,J475)</f>
+        <f t="shared" si="7"/>
         <v>qv</v>
       </c>
       <c r="D475" s="9" t="s">
@@ -15677,7 +15677,7 @@
         <v>371</v>
       </c>
       <c r="C476" s="8" t="str">
-        <f>CONCATENATE(E476,F476,G476,H476,I476,J476)</f>
+        <f t="shared" si="7"/>
         <v>gjv</v>
       </c>
       <c r="D476" s="9" t="s">
@@ -15701,7 +15701,7 @@
         <v>371</v>
       </c>
       <c r="C477" s="8" t="str">
-        <f>CONCATENATE(E477,F477,G477,H477,I477,J477)</f>
+        <f t="shared" si="7"/>
         <v>kw</v>
       </c>
       <c r="D477" s="9" t="s">
@@ -15722,7 +15722,7 @@
         <v>371</v>
       </c>
       <c r="C478" s="8" t="str">
-        <f>CONCATENATE(E478,F478,G478,H478,I478,J478)</f>
+        <f t="shared" si="7"/>
         <v>gw</v>
       </c>
       <c r="D478" s="9" t="s">
@@ -15743,7 +15743,7 @@
         <v>371</v>
       </c>
       <c r="C479" s="8" t="str">
-        <f>CONCATENATE(E479,F479,G479,H479,I479,J479)</f>
+        <f t="shared" si="7"/>
         <v>kl</v>
       </c>
       <c r="D479" s="9" t="s">
@@ -15764,7 +15764,7 @@
         <v>371</v>
       </c>
       <c r="C480" s="8" t="str">
-        <f>CONCATENATE(E480,F480,G480,H480,I480,J480)</f>
+        <f t="shared" si="7"/>
         <v>ql</v>
       </c>
       <c r="D480" s="9" t="s">
@@ -15785,7 +15785,7 @@
         <v>371</v>
       </c>
       <c r="C481" s="8" t="str">
-        <f>CONCATENATE(E481,F481,G481,H481,I481,J481)</f>
+        <f t="shared" si="7"/>
         <v>gl</v>
       </c>
       <c r="D481" s="9" t="s">
@@ -15806,7 +15806,7 @@
         <v>371</v>
       </c>
       <c r="C482" s="8" t="str">
-        <f>CONCATENATE(E482,F482,G482,H482,I482,J482)</f>
+        <f t="shared" si="7"/>
         <v>kv</v>
       </c>
       <c r="D482" s="9" t="s">
@@ -15827,7 +15827,7 @@
         <v>371</v>
       </c>
       <c r="C483" s="8" t="str">
-        <f>CONCATENATE(E483,F483,G483,H483,I483,J483)</f>
+        <f t="shared" si="7"/>
         <v>gv</v>
       </c>
       <c r="D483" s="9" t="s">
@@ -15848,7 +15848,7 @@
         <v>371</v>
       </c>
       <c r="C484" s="8" t="str">
-        <f>CONCATENATE(E484,F484,G484,H484,I484,J484)</f>
+        <f t="shared" si="7"/>
         <v>sf</v>
       </c>
       <c r="D484" s="9" t="s">
@@ -15869,7 +15869,7 @@
         <v>371</v>
       </c>
       <c r="C485" s="8" t="str">
-        <f>CONCATENATE(E485,F485,G485,H485,I485,J485)</f>
+        <f t="shared" si="7"/>
         <v>zf</v>
       </c>
       <c r="D485" s="9" t="s">
@@ -15890,7 +15890,7 @@
         <v>371</v>
       </c>
       <c r="C486" s="8" t="str">
-        <f>CONCATENATE(E486,F486,G486,H486,I486,J486)</f>
+        <f t="shared" si="7"/>
         <v>sji</v>
       </c>
       <c r="D486" s="9" t="s">
@@ -15914,7 +15914,7 @@
         <v>371</v>
       </c>
       <c r="C487" s="8" t="str">
-        <f>CONCATENATE(E487,F487,G487,H487,I487,J487)</f>
+        <f t="shared" si="7"/>
         <v>zji</v>
       </c>
       <c r="D487" s="9" t="s">
@@ -15938,7 +15938,7 @@
         <v>371</v>
       </c>
       <c r="C488" s="8" t="str">
-        <f>CONCATENATE(E488,F488,G488,H488,I488,J488)</f>
+        <f t="shared" si="7"/>
         <v>xl</v>
       </c>
       <c r="D488" s="9" t="s">
@@ -15959,7 +15959,7 @@
         <v>371</v>
       </c>
       <c r="C489" s="8" t="str">
-        <f>CONCATENATE(E489,F489,G489,H489,I489,J489)</f>
+        <f t="shared" si="7"/>
         <v>jl</v>
       </c>
       <c r="D489" s="9" t="s">
@@ -15980,7 +15980,7 @@
         <v>371</v>
       </c>
       <c r="C490" s="8" t="str">
-        <f>CONCATENATE(E490,F490,G490,H490,I490,J490)</f>
+        <f t="shared" si="7"/>
         <v>sjf</v>
       </c>
       <c r="D490" s="9" t="s">
@@ -16004,7 +16004,7 @@
         <v>371</v>
       </c>
       <c r="C491" s="8" t="str">
-        <f>CONCATENATE(E491,F491,G491,H491,I491,J491)</f>
+        <f t="shared" si="7"/>
         <v>xf</v>
       </c>
       <c r="D491" s="9" t="s">
@@ -16025,7 +16025,7 @@
         <v>371</v>
       </c>
       <c r="C492" s="8" t="str">
-        <f>CONCATENATE(E492,F492,G492,H492,I492,J492)</f>
+        <f t="shared" si="7"/>
         <v>jf</v>
       </c>
       <c r="D492" s="9" t="s">
@@ -16046,7 +16046,7 @@
         <v>371</v>
       </c>
       <c r="C493" s="8" t="str">
-        <f>CONCATENATE(E493,F493,G493,H493,I493,J493)</f>
+        <f t="shared" si="7"/>
         <v>sjw</v>
       </c>
       <c r="D493" s="9" t="s">
@@ -16070,7 +16070,7 @@
         <v>371</v>
       </c>
       <c r="C494" s="8" t="str">
-        <f>CONCATENATE(E494,F494,G494,H494,I494,J494)</f>
+        <f t="shared" si="7"/>
         <v>xw</v>
       </c>
       <c r="D494" s="9" t="s">
@@ -16091,7 +16091,7 @@
         <v>371</v>
       </c>
       <c r="C495" s="8" t="str">
-        <f>CONCATENATE(E495,F495,G495,H495,I495,J495)</f>
+        <f t="shared" si="7"/>
         <v>jw</v>
       </c>
       <c r="D495" s="9" t="s">
@@ -16112,7 +16112,7 @@
         <v>371</v>
       </c>
       <c r="C496" s="8" t="str">
-        <f>CONCATENATE(E496,F496,G496,H496,I496,J496)</f>
+        <f t="shared" si="7"/>
         <v>sjv</v>
       </c>
       <c r="D496" s="9" t="s">
@@ -16136,7 +16136,7 @@
         <v>371</v>
       </c>
       <c r="C497" s="8" t="str">
-        <f>CONCATENATE(E497,F497,G497,H497,I497,J497)</f>
+        <f t="shared" si="7"/>
         <v>xv</v>
       </c>
       <c r="D497" s="9" t="s">
@@ -16157,7 +16157,7 @@
         <v>371</v>
       </c>
       <c r="C498" s="8" t="str">
-        <f>CONCATENATE(E498,F498,G498,H498,I498,J498)</f>
+        <f t="shared" si="7"/>
         <v>jv</v>
       </c>
       <c r="D498" s="9" t="s">
@@ -16178,7 +16178,7 @@
         <v>371</v>
       </c>
       <c r="C499" s="8" t="str">
-        <f>CONCATENATE(E499,F499,G499,H499,I499,J499)</f>
+        <f t="shared" si="7"/>
         <v>sw</v>
       </c>
       <c r="D499" s="9" t="s">
@@ -16199,7 +16199,7 @@
         <v>371</v>
       </c>
       <c r="C500" s="8" t="str">
-        <f>CONCATENATE(E500,F500,G500,H500,I500,J500)</f>
+        <f t="shared" si="7"/>
         <v>zw</v>
       </c>
       <c r="D500" s="9" t="s">
@@ -16220,7 +16220,7 @@
         <v>371</v>
       </c>
       <c r="C501" s="8" t="str">
-        <f>CONCATENATE(E501,F501,G501,H501,I501,J501)</f>
+        <f t="shared" si="7"/>
         <v>sl</v>
       </c>
       <c r="D501" s="9" t="s">
@@ -16241,7 +16241,7 @@
         <v>371</v>
       </c>
       <c r="C502" s="8" t="str">
-        <f>CONCATENATE(E502,F502,G502,H502,I502,J502)</f>
+        <f t="shared" si="7"/>
         <v>zl</v>
       </c>
       <c r="D502" s="9" t="s">
@@ -16262,7 +16262,7 @@
         <v>371</v>
       </c>
       <c r="C503" s="8" t="str">
-        <f>CONCATENATE(E503,F503,G503,H503,I503,J503)</f>
+        <f t="shared" si="7"/>
         <v>sv</v>
       </c>
       <c r="D503" s="9" t="s">
@@ -16283,7 +16283,7 @@
         <v>371</v>
       </c>
       <c r="C504" s="8" t="str">
-        <f>CONCATENATE(E504,F504,G504,H504,I504,J504)</f>
+        <f t="shared" si="7"/>
         <v>zv</v>
       </c>
       <c r="D504" s="9" t="s">
@@ -16304,7 +16304,7 @@
         <v>371</v>
       </c>
       <c r="C505" s="8" t="str">
-        <f>CONCATENATE(E505,F505,G505,H505,I505,J505)</f>
+        <f t="shared" si="7"/>
         <v>tf</v>
       </c>
       <c r="D505" s="9" t="s">
@@ -16325,7 +16325,7 @@
         <v>371</v>
       </c>
       <c r="C506" s="8" t="str">
-        <f>CONCATENATE(E506,F506,G506,H506,I506,J506)</f>
+        <f t="shared" si="7"/>
         <v>df</v>
       </c>
       <c r="D506" s="9" t="s">
@@ -16346,7 +16346,7 @@
         <v>371</v>
       </c>
       <c r="C507" s="8" t="str">
-        <f>CONCATENATE(E507,F507,G507,H507,I507,J507)</f>
+        <f t="shared" si="7"/>
         <v>tji</v>
       </c>
       <c r="D507" s="9" t="s">
@@ -16370,7 +16370,7 @@
         <v>371</v>
       </c>
       <c r="C508" s="8" t="str">
-        <f>CONCATENATE(E508,F508,G508,H508,I508,J508)</f>
+        <f t="shared" si="7"/>
         <v>cl</v>
       </c>
       <c r="D508" s="9" t="s">
@@ -16391,7 +16391,7 @@
         <v>371</v>
       </c>
       <c r="C509" s="8" t="str">
-        <f>CONCATENATE(E509,F509,G509,H509,I509,J509)</f>
+        <f t="shared" si="7"/>
         <v>cf</v>
       </c>
       <c r="D509" s="9" t="s">
@@ -16412,7 +16412,7 @@
         <v>371</v>
       </c>
       <c r="C510" s="8" t="str">
-        <f>CONCATENATE(E510,F510,G510,H510,I510,J510)</f>
+        <f t="shared" si="7"/>
         <v>chw</v>
       </c>
       <c r="D510" s="9" t="s">
@@ -16436,7 +16436,7 @@
         <v>371</v>
       </c>
       <c r="C511" s="8" t="str">
-        <f>CONCATENATE(E511,F511,G511,H511,I511,J511)</f>
+        <f t="shared" si="7"/>
         <v>chv</v>
       </c>
       <c r="D511" s="9" t="s">
@@ -16460,7 +16460,7 @@
         <v>371</v>
       </c>
       <c r="C512" s="8" t="str">
-        <f>CONCATENATE(E512,F512,G512,H512,I512,J512)</f>
+        <f t="shared" si="7"/>
         <v>cv</v>
       </c>
       <c r="D512" s="9" t="s">
@@ -16481,7 +16481,7 @@
         <v>371</v>
       </c>
       <c r="C513" s="8" t="str">
-        <f>CONCATENATE(E513,F513,G513,H513,I513,J513)</f>
+        <f t="shared" si="7"/>
         <v>cw</v>
       </c>
       <c r="D513" s="9" t="s">
@@ -16502,7 +16502,7 @@
         <v>371</v>
       </c>
       <c r="C514" s="8" t="str">
-        <f>CONCATENATE(E514,F514,G514,H514,I514,J514)</f>
+        <f t="shared" ref="C514:C577" si="8">CONCATENATE(E514,F514,G514,H514,I514,J514)</f>
         <v>tl</v>
       </c>
       <c r="D514" s="9" t="s">
@@ -16523,7 +16523,7 @@
         <v>371</v>
       </c>
       <c r="C515" s="8" t="str">
-        <f>CONCATENATE(E515,F515,G515,H515,I515,J515)</f>
+        <f t="shared" si="8"/>
         <v>dl</v>
       </c>
       <c r="D515" s="9" t="s">
@@ -16544,7 +16544,7 @@
         <v>371</v>
       </c>
       <c r="C516" s="8" t="str">
-        <f>CONCATENATE(E516,F516,G516,H516,I516,J516)</f>
+        <f t="shared" si="8"/>
         <v>tv</v>
       </c>
       <c r="D516" s="9" t="s">
@@ -16565,7 +16565,7 @@
         <v>371</v>
       </c>
       <c r="C517" s="8" t="str">
-        <f>CONCATENATE(E517,F517,G517,H517,I517,J517)</f>
+        <f t="shared" si="8"/>
         <v>dv</v>
       </c>
       <c r="D517" s="9" t="s">
@@ -16586,7 +16586,7 @@
         <v>371</v>
       </c>
       <c r="C518" s="8" t="str">
-        <f>CONCATENATE(E518,F518,G518,H518,I518,J518)</f>
+        <f t="shared" si="8"/>
         <v>nf</v>
       </c>
       <c r="D518" s="9" t="s">
@@ -16607,7 +16607,7 @@
         <v>371</v>
       </c>
       <c r="C519" s="8" t="str">
-        <f>CONCATENATE(E519,F519,G519,H519,I519,J519)</f>
+        <f t="shared" si="8"/>
         <v>nji</v>
       </c>
       <c r="D519" s="9" t="s">
@@ -16631,7 +16631,7 @@
         <v>371</v>
       </c>
       <c r="C520" s="8" t="str">
-        <f>CONCATENATE(E520,F520,G520,H520,I520,J520)</f>
+        <f t="shared" si="8"/>
         <v>njw</v>
       </c>
       <c r="D520" s="9" t="s">
@@ -16655,7 +16655,7 @@
         <v>371</v>
       </c>
       <c r="C521" s="8" t="str">
-        <f>CONCATENATE(E521,F521,G521,H521,I521,J521)</f>
+        <f t="shared" si="8"/>
         <v>njv</v>
       </c>
       <c r="D521" s="9" t="s">
@@ -16679,7 +16679,7 @@
         <v>371</v>
       </c>
       <c r="C522" s="8" t="str">
-        <f>CONCATENATE(E522,F522,G522,H522,I522,J522)</f>
+        <f t="shared" si="8"/>
         <v>nw</v>
       </c>
       <c r="D522" s="9" t="s">
@@ -16700,7 +16700,7 @@
         <v>371</v>
       </c>
       <c r="C523" s="8" t="str">
-        <f>CONCATENATE(E523,F523,G523,H523,I523,J523)</f>
+        <f t="shared" si="8"/>
         <v>nl</v>
       </c>
       <c r="D523" s="9" t="s">
@@ -16721,7 +16721,7 @@
         <v>371</v>
       </c>
       <c r="C524" s="8" t="str">
-        <f>CONCATENATE(E524,F524,G524,H524,I524,J524)</f>
+        <f t="shared" si="8"/>
         <v>nv</v>
       </c>
       <c r="D524" s="9" t="s">
@@ -16742,7 +16742,7 @@
         <v>371</v>
       </c>
       <c r="C525" s="8" t="str">
-        <f>CONCATENATE(E525,F525,G525,H525,I525,J525)</f>
+        <f t="shared" si="8"/>
         <v>hf</v>
       </c>
       <c r="D525" s="9" t="s">
@@ -16763,7 +16763,7 @@
         <v>371</v>
       </c>
       <c r="C526" s="8" t="str">
-        <f>CONCATENATE(E526,F526,G526,H526,I526,J526)</f>
+        <f t="shared" si="8"/>
         <v>bf</v>
       </c>
       <c r="D526" s="9" t="s">
@@ -16784,7 +16784,7 @@
         <v>371</v>
       </c>
       <c r="C527" s="8" t="str">
-        <f>CONCATENATE(E527,F527,G527,H527,I527,J527)</f>
+        <f t="shared" si="8"/>
         <v>pf</v>
       </c>
       <c r="D527" s="9" t="s">
@@ -16805,7 +16805,7 @@
         <v>371</v>
       </c>
       <c r="C528" s="8" t="str">
-        <f>CONCATENATE(E528,F528,G528,H528,I528,J528)</f>
+        <f t="shared" si="8"/>
         <v>hji</v>
       </c>
       <c r="D528" s="9" t="s">
@@ -16829,7 +16829,7 @@
         <v>371</v>
       </c>
       <c r="C529" s="8" t="str">
-        <f>CONCATENATE(E529,F529,G529,H529,I529,J529)</f>
+        <f t="shared" si="8"/>
         <v>bji</v>
       </c>
       <c r="D529" s="9" t="s">
@@ -16853,7 +16853,7 @@
         <v>371</v>
       </c>
       <c r="C530" s="8" t="str">
-        <f>CONCATENATE(E530,F530,G530,H530,I530,J530)</f>
+        <f t="shared" si="8"/>
         <v>pji</v>
       </c>
       <c r="D530" s="9" t="s">
@@ -16877,7 +16877,7 @@
         <v>371</v>
       </c>
       <c r="C531" s="8" t="str">
-        <f>CONCATENATE(E531,F531,G531,H531,I531,J531)</f>
+        <f t="shared" si="8"/>
         <v>hjw</v>
       </c>
       <c r="D531" s="9" t="s">
@@ -16901,7 +16901,7 @@
         <v>371</v>
       </c>
       <c r="C532" s="8" t="str">
-        <f>CONCATENATE(E532,F532,G532,H532,I532,J532)</f>
+        <f t="shared" si="8"/>
         <v>vw</v>
       </c>
       <c r="D532" s="9" t="s">
@@ -16922,7 +16922,7 @@
         <v>371</v>
       </c>
       <c r="C533" s="8" t="str">
-        <f>CONCATENATE(E533,F533,G533,H533,I533,J533)</f>
+        <f t="shared" si="8"/>
         <v>bjw</v>
       </c>
       <c r="D533" s="9" t="s">
@@ -16946,7 +16946,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="8" t="str">
-        <f>CONCATENATE(E534,F534,G534,H534,I534,J534)</f>
+        <f t="shared" si="8"/>
         <v>pjw</v>
       </c>
       <c r="D534" s="9" t="s">
@@ -16970,7 +16970,7 @@
         <v>371</v>
       </c>
       <c r="C535" s="8" t="str">
-        <f>CONCATENATE(E535,F535,G535,H535,I535,J535)</f>
+        <f t="shared" si="8"/>
         <v>hjv</v>
       </c>
       <c r="D535" s="9" t="s">
@@ -16994,7 +16994,7 @@
         <v>371</v>
       </c>
       <c r="C536" s="8" t="str">
-        <f>CONCATENATE(E536,F536,G536,H536,I536,J536)</f>
+        <f t="shared" si="8"/>
         <v>bjv</v>
       </c>
       <c r="D536" s="9" t="s">
@@ -17018,7 +17018,7 @@
         <v>371</v>
       </c>
       <c r="C537" s="8" t="str">
-        <f>CONCATENATE(E537,F537,G537,H537,I537,J537)</f>
+        <f t="shared" si="8"/>
         <v>pjv</v>
       </c>
       <c r="D537" s="9" t="s">
@@ -17042,7 +17042,7 @@
         <v>371</v>
       </c>
       <c r="C538" s="8" t="str">
-        <f>CONCATENATE(E538,F538,G538,H538,I538,J538)</f>
+        <f t="shared" si="8"/>
         <v>fy</v>
       </c>
       <c r="D538" s="9" t="s">
@@ -17063,7 +17063,7 @@
         <v>371</v>
       </c>
       <c r="C539" s="8" t="str">
-        <f>CONCATENATE(E539,F539,G539,H539,I539,J539)</f>
+        <f t="shared" si="8"/>
         <v>hw</v>
       </c>
       <c r="D539" s="9" t="s">
@@ -17084,7 +17084,7 @@
         <v>371</v>
       </c>
       <c r="C540" s="8" t="str">
-        <f>CONCATENATE(E540,F540,G540,H540,I540,J540)</f>
+        <f t="shared" si="8"/>
         <v>bw</v>
       </c>
       <c r="D540" s="9" t="s">
@@ -17105,7 +17105,7 @@
         <v>371</v>
       </c>
       <c r="C541" s="8" t="str">
-        <f>CONCATENATE(E541,F541,G541,H541,I541,J541)</f>
+        <f t="shared" si="8"/>
         <v>pw</v>
       </c>
       <c r="D541" s="9" t="s">
@@ -17126,7 +17126,7 @@
         <v>371</v>
       </c>
       <c r="C542" s="8" t="str">
-        <f>CONCATENATE(E542,F542,G542,H542,I542,J542)</f>
+        <f t="shared" si="8"/>
         <v>fl</v>
       </c>
       <c r="D542" s="9" t="s">
@@ -17147,7 +17147,7 @@
         <v>371</v>
       </c>
       <c r="C543" s="8" t="str">
-        <f>CONCATENATE(E543,F543,G543,H543,I543,J543)</f>
+        <f t="shared" si="8"/>
         <v>fv</v>
       </c>
       <c r="D543" s="9" t="s">
@@ -17168,7 +17168,7 @@
         <v>371</v>
       </c>
       <c r="C544" s="8" t="str">
-        <f>CONCATENATE(E544,F544,G544,H544,I544,J544)</f>
+        <f t="shared" si="8"/>
         <v>fw</v>
       </c>
       <c r="D544" s="9" t="s">
@@ -17189,7 +17189,7 @@
         <v>371</v>
       </c>
       <c r="C545" s="8" t="str">
-        <f>CONCATENATE(E545,F545,G545,H545,I545,J545)</f>
+        <f t="shared" si="8"/>
         <v>hl</v>
       </c>
       <c r="D545" s="9" t="s">
@@ -17210,7 +17210,7 @@
         <v>371</v>
       </c>
       <c r="C546" s="8" t="str">
-        <f>CONCATENATE(E546,F546,G546,H546,I546,J546)</f>
+        <f t="shared" si="8"/>
         <v>bl</v>
       </c>
       <c r="D546" s="9" t="s">
@@ -17231,7 +17231,7 @@
         <v>371</v>
       </c>
       <c r="C547" s="8" t="str">
-        <f>CONCATENATE(E547,F547,G547,H547,I547,J547)</f>
+        <f t="shared" si="8"/>
         <v>pl</v>
       </c>
       <c r="D547" s="9" t="s">
@@ -17252,7 +17252,7 @@
         <v>371</v>
       </c>
       <c r="C548" s="8" t="str">
-        <f>CONCATENATE(E548,F548,G548,H548,I548,J548)</f>
+        <f t="shared" si="8"/>
         <v>hv</v>
       </c>
       <c r="D548" s="9" t="s">
@@ -17273,7 +17273,7 @@
         <v>371</v>
       </c>
       <c r="C549" s="8" t="str">
-        <f>CONCATENATE(E549,F549,G549,H549,I549,J549)</f>
+        <f t="shared" si="8"/>
         <v>bv</v>
       </c>
       <c r="D549" s="9" t="s">
@@ -17294,7 +17294,7 @@
         <v>371</v>
       </c>
       <c r="C550" s="8" t="str">
-        <f>CONCATENATE(E550,F550,G550,H550,I550,J550)</f>
+        <f t="shared" si="8"/>
         <v>pv</v>
       </c>
       <c r="D550" s="9" t="s">
@@ -17315,7 +17315,7 @@
         <v>371</v>
       </c>
       <c r="C551" s="8" t="str">
-        <f>CONCATENATE(E551,F551,G551,H551,I551,J551)</f>
+        <f t="shared" si="8"/>
         <v>mf</v>
       </c>
       <c r="D551" s="9" t="s">
@@ -17336,7 +17336,7 @@
         <v>371</v>
       </c>
       <c r="C552" s="8" t="str">
-        <f>CONCATENATE(E552,F552,G552,H552,I552,J552)</f>
+        <f t="shared" si="8"/>
         <v>mji</v>
       </c>
       <c r="D552" s="9" t="s">
@@ -17360,7 +17360,7 @@
         <v>371</v>
       </c>
       <c r="C553" s="8" t="str">
-        <f>CONCATENATE(E553,F553,G553,H553,I553,J553)</f>
+        <f t="shared" si="8"/>
         <v>mjw</v>
       </c>
       <c r="D553" s="9" t="s">
@@ -17384,7 +17384,7 @@
         <v>371</v>
       </c>
       <c r="C554" s="8" t="str">
-        <f>CONCATENATE(E554,F554,G554,H554,I554,J554)</f>
+        <f t="shared" si="8"/>
         <v>mjv</v>
       </c>
       <c r="D554" s="9" t="s">
@@ -17408,7 +17408,7 @@
         <v>371</v>
       </c>
       <c r="C555" s="8" t="str">
-        <f>CONCATENATE(E555,F555,G555,H555,I555,J555)</f>
+        <f t="shared" si="8"/>
         <v>mw</v>
       </c>
       <c r="D555" s="9" t="s">
@@ -17429,7 +17429,7 @@
         <v>371</v>
       </c>
       <c r="C556" s="8" t="str">
-        <f>CONCATENATE(E556,F556,G556,H556,I556,J556)</f>
+        <f t="shared" si="8"/>
         <v>ml</v>
       </c>
       <c r="D556" s="9" t="s">
@@ -17450,7 +17450,7 @@
         <v>371</v>
       </c>
       <c r="C557" s="8" t="str">
-        <f>CONCATENATE(E557,F557,G557,H557,I557,J557)</f>
+        <f t="shared" si="8"/>
         <v>mv</v>
       </c>
       <c r="D557" s="9" t="s">
@@ -17471,7 +17471,7 @@
         <v>371</v>
       </c>
       <c r="C558" s="8" t="str">
-        <f>CONCATENATE(E558,F558,G558,H558,I558,J558)</f>
+        <f t="shared" si="8"/>
         <v>yf</v>
       </c>
       <c r="D558" s="9" t="s">
@@ -17492,7 +17492,7 @@
         <v>371</v>
       </c>
       <c r="C559" s="8" t="str">
-        <f>CONCATENATE(E559,F559,G559,H559,I559,J559)</f>
+        <f t="shared" si="8"/>
         <v>yw</v>
       </c>
       <c r="D559" s="9" t="s">
@@ -17513,7 +17513,7 @@
         <v>371</v>
       </c>
       <c r="C560" s="8" t="str">
-        <f>CONCATENATE(E560,F560,G560,H560,I560,J560)</f>
+        <f t="shared" si="8"/>
         <v>yv</v>
       </c>
       <c r="D560" s="9" t="s">
@@ -17534,7 +17534,7 @@
         <v>371</v>
       </c>
       <c r="C561" s="8" t="str">
-        <f>CONCATENATE(E561,F561,G561,H561,I561,J561)</f>
+        <f t="shared" si="8"/>
         <v>rf</v>
       </c>
       <c r="D561" s="9" t="s">
@@ -17555,7 +17555,7 @@
         <v>371</v>
       </c>
       <c r="C562" s="8" t="str">
-        <f>CONCATENATE(E562,F562,G562,H562,I562,J562)</f>
+        <f t="shared" si="8"/>
         <v>rji</v>
       </c>
       <c r="D562" s="9" t="s">
@@ -17579,7 +17579,7 @@
         <v>371</v>
       </c>
       <c r="C563" s="8" t="str">
-        <f>CONCATENATE(E563,F563,G563,H563,I563,J563)</f>
+        <f t="shared" si="8"/>
         <v>lw</v>
       </c>
       <c r="D563" s="9" t="s">
@@ -17600,7 +17600,7 @@
         <v>371</v>
       </c>
       <c r="C564" s="8" t="str">
-        <f>CONCATENATE(E564,F564,G564,H564,I564,J564)</f>
+        <f t="shared" si="8"/>
         <v>rjw</v>
       </c>
       <c r="D564" s="9" t="s">
@@ -17624,7 +17624,7 @@
         <v>371</v>
       </c>
       <c r="C565" s="8" t="str">
-        <f>CONCATENATE(E565,F565,G565,H565,I565,J565)</f>
+        <f t="shared" si="8"/>
         <v>lv</v>
       </c>
       <c r="D565" s="9" t="s">
@@ -17645,7 +17645,7 @@
         <v>371</v>
       </c>
       <c r="C566" s="8" t="str">
-        <f>CONCATENATE(E566,F566,G566,H566,I566,J566)</f>
+        <f t="shared" si="8"/>
         <v>rjv</v>
       </c>
       <c r="D566" s="9" t="s">
@@ -17669,7 +17669,7 @@
         <v>371</v>
       </c>
       <c r="C567" s="8" t="str">
-        <f>CONCATENATE(E567,F567,G567,H567,I567,J567)</f>
+        <f t="shared" si="8"/>
         <v>rw</v>
       </c>
       <c r="D567" s="9" t="s">
@@ -17690,7 +17690,7 @@
         <v>371</v>
       </c>
       <c r="C568" s="8" t="str">
-        <f>CONCATENATE(E568,F568,G568,H568,I568,J568)</f>
+        <f t="shared" si="8"/>
         <v>rl</v>
       </c>
       <c r="D568" s="9" t="s">
@@ -17711,7 +17711,7 @@
         <v>371</v>
       </c>
       <c r="C569" s="8" t="str">
-        <f>CONCATENATE(E569,F569,G569,H569,I569,J569)</f>
+        <f t="shared" si="8"/>
         <v>rv</v>
       </c>
       <c r="D569" s="9" t="s">
@@ -17732,7 +17732,7 @@
         <v>371</v>
       </c>
       <c r="C570" s="8" t="str">
-        <f>CONCATENATE(E570,F570,G570,H570,I570,J570)</f>
+        <f t="shared" si="8"/>
         <v>wf</v>
       </c>
       <c r="D570" s="9" t="s">
@@ -17753,7 +17753,7 @@
         <v>474</v>
       </c>
       <c r="C571" s="8" t="str">
-        <f>CONCATENATE(E571,F571,G571,H571,I571,J571)</f>
+        <f t="shared" si="8"/>
         <v>vq</v>
       </c>
       <c r="D571" s="9" t="s">
@@ -17774,7 +17774,7 @@
         <v>474</v>
       </c>
       <c r="C572" s="8" t="str">
-        <f>CONCATENATE(E572,F572,G572,H572,I572,J572)</f>
+        <f t="shared" si="8"/>
         <v>vt</v>
       </c>
       <c r="D572" s="9" t="s">
@@ -17795,7 +17795,7 @@
         <v>474</v>
       </c>
       <c r="C573" s="8" t="str">
-        <f>CONCATENATE(E573,F573,G573,H573,I573,J573)</f>
+        <f t="shared" si="8"/>
         <v>yk</v>
       </c>
       <c r="D573" s="9" t="s">
@@ -17816,7 +17816,7 @@
         <v>474</v>
       </c>
       <c r="C574" s="8" t="str">
-        <f>CONCATENATE(E574,F574,G574,H574,I574,J574)</f>
+        <f t="shared" si="8"/>
         <v>yt</v>
       </c>
       <c r="D574" s="9" t="s">
@@ -17837,7 +17837,7 @@
         <v>474</v>
       </c>
       <c r="C575" s="8" t="str">
-        <f>CONCATENATE(E575,F575,G575,H575,I575,J575)</f>
+        <f t="shared" si="8"/>
         <v>vs</v>
       </c>
       <c r="D575" s="9" t="s">
@@ -17858,7 +17858,7 @@
         <v>474</v>
       </c>
       <c r="C576" s="8" t="str">
-        <f>CONCATENATE(E576,F576,G576,H576,I576,J576)</f>
+        <f t="shared" si="8"/>
         <v>yx</v>
       </c>
       <c r="D576" s="9" t="s">
@@ -17879,7 +17879,7 @@
         <v>474</v>
       </c>
       <c r="C577" s="8" t="str">
-        <f>CONCATENATE(E577,F577,G577,H577,I577,J577)</f>
+        <f t="shared" si="8"/>
         <v>vz</v>
       </c>
       <c r="D577" s="9" t="s">
@@ -17900,7 +17900,7 @@
         <v>474</v>
       </c>
       <c r="C578" s="8" t="str">
-        <f>CONCATENATE(E578,F578,G578,H578,I578,J578)</f>
+        <f t="shared" ref="C578:C641" si="9">CONCATENATE(E578,F578,G578,H578,I578,J578)</f>
         <v>vc</v>
       </c>
       <c r="D578" s="9" t="s">
@@ -17921,7 +17921,7 @@
         <v>474</v>
       </c>
       <c r="C579" s="8" t="str">
-        <f>CONCATENATE(E579,F579,G579,H579,I579,J579)</f>
+        <f t="shared" si="9"/>
         <v>wz</v>
       </c>
       <c r="D579" s="9" t="s">
@@ -17942,7 +17942,7 @@
         <v>474</v>
       </c>
       <c r="C580" s="8" t="str">
-        <f>CONCATENATE(E580,F580,G580,H580,I580,J580)</f>
+        <f t="shared" si="9"/>
         <v>kq</v>
       </c>
       <c r="D580" s="9" t="s">
@@ -17963,7 +17963,7 @@
         <v>474</v>
       </c>
       <c r="C581" s="8" t="str">
-        <f>CONCATENATE(E581,F581,G581,H581,I581,J581)</f>
+        <f t="shared" si="9"/>
         <v>gq</v>
       </c>
       <c r="D581" s="9" t="s">
@@ -17984,7 +17984,7 @@
         <v>474</v>
       </c>
       <c r="C582" s="8" t="str">
-        <f>CONCATENATE(E582,F582,G582,H582,I582,J582)</f>
+        <f t="shared" si="9"/>
         <v>kt</v>
       </c>
       <c r="D582" s="9" t="s">
@@ -18005,7 +18005,7 @@
         <v>474</v>
       </c>
       <c r="C583" s="8" t="str">
-        <f>CONCATENATE(E583,F583,G583,H583,I583,J583)</f>
+        <f t="shared" si="9"/>
         <v>gt</v>
       </c>
       <c r="D583" s="9" t="s">
@@ -18026,7 +18026,7 @@
         <v>474</v>
       </c>
       <c r="C584" s="8" t="str">
-        <f>CONCATENATE(E584,F584,G584,H584,I584,J584)</f>
+        <f t="shared" si="9"/>
         <v>qt</v>
       </c>
       <c r="D584" s="9" t="s">
@@ -18047,7 +18047,7 @@
         <v>474</v>
       </c>
       <c r="C585" s="8" t="str">
-        <f>CONCATENATE(E585,F585,G585,H585,I585,J585)</f>
+        <f t="shared" si="9"/>
         <v>kjq</v>
       </c>
       <c r="D585" s="9" t="s">
@@ -18071,7 +18071,7 @@
         <v>474</v>
       </c>
       <c r="C586" s="8" t="str">
-        <f>CONCATENATE(E586,F586,G586,H586,I586,J586)</f>
+        <f t="shared" si="9"/>
         <v>gjq</v>
       </c>
       <c r="D586" s="9" t="s">
@@ -18095,7 +18095,7 @@
         <v>474</v>
       </c>
       <c r="C587" s="8" t="str">
-        <f>CONCATENATE(E587,F587,G587,H587,I587,J587)</f>
+        <f t="shared" si="9"/>
         <v>qc</v>
       </c>
       <c r="D587" s="9" t="s">
@@ -18116,7 +18116,7 @@
         <v>474</v>
       </c>
       <c r="C588" s="8" t="str">
-        <f>CONCATENATE(E588,F588,G588,H588,I588,J588)</f>
+        <f t="shared" si="9"/>
         <v>gjc</v>
       </c>
       <c r="D588" s="9" t="s">
@@ -18140,7 +18140,7 @@
         <v>474</v>
       </c>
       <c r="C589" s="8" t="str">
-        <f>CONCATENATE(E589,F589,G589,H589,I589,J589)</f>
+        <f t="shared" si="9"/>
         <v>ks</v>
       </c>
       <c r="D589" s="9" t="s">
@@ -18161,7 +18161,7 @@
         <v>474</v>
       </c>
       <c r="C590" s="8" t="str">
-        <f>CONCATENATE(E590,F590,G590,H590,I590,J590)</f>
+        <f t="shared" si="9"/>
         <v>gx</v>
       </c>
       <c r="D590" s="9" t="s">
@@ -18182,7 +18182,7 @@
         <v>474</v>
       </c>
       <c r="C591" s="8" t="str">
-        <f>CONCATENATE(E591,F591,G591,H591,I591,J591)</f>
+        <f t="shared" si="9"/>
         <v>qz</v>
       </c>
       <c r="D591" s="9" t="s">
@@ -18203,7 +18203,7 @@
         <v>474</v>
       </c>
       <c r="C592" s="8" t="str">
-        <f>CONCATENATE(E592,F592,G592,H592,I592,J592)</f>
+        <f t="shared" si="9"/>
         <v>gz</v>
       </c>
       <c r="D592" s="9" t="s">
@@ -18224,7 +18224,7 @@
         <v>474</v>
       </c>
       <c r="C593" s="8" t="str">
-        <f>CONCATENATE(E593,F593,G593,H593,I593,J593)</f>
+        <f t="shared" si="9"/>
         <v>kc</v>
       </c>
       <c r="D593" s="9" t="s">
@@ -18245,7 +18245,7 @@
         <v>474</v>
       </c>
       <c r="C594" s="8" t="str">
-        <f>CONCATENATE(E594,F594,G594,H594,I594,J594)</f>
+        <f t="shared" si="9"/>
         <v>gc</v>
       </c>
       <c r="D594" s="9" t="s">
@@ -18266,7 +18266,7 @@
         <v>474</v>
       </c>
       <c r="C595" s="8" t="str">
-        <f>CONCATENATE(E595,F595,G595,H595,I595,J595)</f>
+        <f t="shared" si="9"/>
         <v>kz</v>
       </c>
       <c r="D595" s="9" t="s">
@@ -18287,7 +18287,7 @@
         <v>474</v>
       </c>
       <c r="C596" s="8" t="str">
-        <f>CONCATENATE(E596,F596,G596,H596,I596,J596)</f>
+        <f t="shared" si="9"/>
         <v>sq</v>
       </c>
       <c r="D596" s="9" t="s">
@@ -18308,7 +18308,7 @@
         <v>474</v>
       </c>
       <c r="C597" s="8" t="str">
-        <f>CONCATENATE(E597,F597,G597,H597,I597,J597)</f>
+        <f t="shared" si="9"/>
         <v>st</v>
       </c>
       <c r="D597" s="9" t="s">
@@ -18329,7 +18329,7 @@
         <v>474</v>
       </c>
       <c r="C598" s="8" t="str">
-        <f>CONCATENATE(E598,F598,G598,H598,I598,J598)</f>
+        <f t="shared" si="9"/>
         <v>zt</v>
       </c>
       <c r="D598" s="9" t="s">
@@ -18350,7 +18350,7 @@
         <v>474</v>
       </c>
       <c r="C599" s="8" t="str">
-        <f>CONCATENATE(E599,F599,G599,H599,I599,J599)</f>
+        <f t="shared" si="9"/>
         <v>cx</v>
       </c>
       <c r="D599" s="9" t="s">
@@ -18371,7 +18371,7 @@
         <v>474</v>
       </c>
       <c r="C600" s="8" t="str">
-        <f>CONCATENATE(E600,F600,G600,H600,I600,J600)</f>
+        <f t="shared" si="9"/>
         <v>jx</v>
       </c>
       <c r="D600" s="9" t="s">
@@ -18392,7 +18392,7 @@
         <v>474</v>
       </c>
       <c r="C601" s="8" t="str">
-        <f>CONCATENATE(E601,F601,G601,H601,I601,J601)</f>
+        <f t="shared" si="9"/>
         <v>sjt</v>
       </c>
       <c r="D601" s="9" t="s">
@@ -18416,7 +18416,7 @@
         <v>474</v>
       </c>
       <c r="C602" s="8" t="str">
-        <f>CONCATENATE(E602,F602,G602,H602,I602,J602)</f>
+        <f t="shared" si="9"/>
         <v>jt</v>
       </c>
       <c r="D602" s="9" t="s">
@@ -18437,7 +18437,7 @@
         <v>474</v>
       </c>
       <c r="C603" s="8" t="str">
-        <f>CONCATENATE(E603,F603,G603,H603,I603,J603)</f>
+        <f t="shared" si="9"/>
         <v>xq</v>
       </c>
       <c r="D603" s="9" t="s">
@@ -18458,7 +18458,7 @@
         <v>474</v>
       </c>
       <c r="C604" s="8" t="str">
-        <f>CONCATENATE(E604,F604,G604,H604,I604,J604)</f>
+        <f t="shared" si="9"/>
         <v>jq</v>
       </c>
       <c r="D604" s="9" t="s">
@@ -18479,7 +18479,7 @@
         <v>474</v>
       </c>
       <c r="C605" s="8" t="str">
-        <f>CONCATENATE(E605,F605,G605,H605,I605,J605)</f>
+        <f t="shared" si="9"/>
         <v>xk</v>
       </c>
       <c r="D605" s="9" t="s">
@@ -18500,7 +18500,7 @@
         <v>474</v>
       </c>
       <c r="C606" s="8" t="str">
-        <f>CONCATENATE(E606,F606,G606,H606,I606,J606)</f>
+        <f t="shared" si="9"/>
         <v>jk</v>
       </c>
       <c r="D606" s="9" t="s">
@@ -18521,7 +18521,7 @@
         <v>474</v>
       </c>
       <c r="C607" s="8" t="str">
-        <f>CONCATENATE(E607,F607,G607,H607,I607,J607)</f>
+        <f t="shared" si="9"/>
         <v>xs</v>
       </c>
       <c r="D607" s="9" t="s">
@@ -18542,7 +18542,7 @@
         <v>474</v>
       </c>
       <c r="C608" s="8" t="str">
-        <f>CONCATENATE(E608,F608,G608,H608,I608,J608)</f>
+        <f t="shared" si="9"/>
         <v>js</v>
       </c>
       <c r="D608" s="9" t="s">
@@ -18563,7 +18563,7 @@
         <v>474</v>
       </c>
       <c r="C609" s="8" t="str">
-        <f>CONCATENATE(E609,F609,G609,H609,I609,J609)</f>
+        <f t="shared" si="9"/>
         <v>xc</v>
       </c>
       <c r="D609" s="9" t="s">
@@ -18584,7 +18584,7 @@
         <v>474</v>
       </c>
       <c r="C610" s="8" t="str">
-        <f>CONCATENATE(E610,F610,G610,H610,I610,J610)</f>
+        <f t="shared" si="9"/>
         <v>jc</v>
       </c>
       <c r="D610" s="9" t="s">
@@ -18605,7 +18605,7 @@
         <v>474</v>
       </c>
       <c r="C611" s="8" t="str">
-        <f>CONCATENATE(E611,F611,G611,H611,I611,J611)</f>
+        <f t="shared" si="9"/>
         <v>sx</v>
       </c>
       <c r="D611" s="9" t="s">
@@ -18626,7 +18626,7 @@
         <v>474</v>
       </c>
       <c r="C612" s="8" t="str">
-        <f>CONCATENATE(E612,F612,G612,H612,I612,J612)</f>
+        <f t="shared" si="9"/>
         <v>zx</v>
       </c>
       <c r="D612" s="9" t="s">
@@ -18647,7 +18647,7 @@
         <v>474</v>
       </c>
       <c r="C613" s="8" t="str">
-        <f>CONCATENATE(E613,F613,G613,H613,I613,J613)</f>
+        <f t="shared" si="9"/>
         <v>xz</v>
       </c>
       <c r="D613" s="9" t="s">
@@ -18668,7 +18668,7 @@
         <v>474</v>
       </c>
       <c r="C614" s="8" t="str">
-        <f>CONCATENATE(E614,F614,G614,H614,I614,J614)</f>
+        <f t="shared" si="9"/>
         <v>jz</v>
       </c>
       <c r="D614" s="9" t="s">
@@ -18689,7 +18689,7 @@
         <v>474</v>
       </c>
       <c r="C615" s="8" t="str">
-        <f>CONCATENATE(E615,F615,G615,H615,I615,J615)</f>
+        <f t="shared" si="9"/>
         <v>sc</v>
       </c>
       <c r="D615" s="9" t="s">
@@ -18710,7 +18710,7 @@
         <v>474</v>
       </c>
       <c r="C616" s="8" t="str">
-        <f>CONCATENATE(E616,F616,G616,H616,I616,J616)</f>
+        <f t="shared" si="9"/>
         <v>zc</v>
       </c>
       <c r="D616" s="9" t="s">
@@ -18731,7 +18731,7 @@
         <v>474</v>
       </c>
       <c r="C617" s="8" t="str">
-        <f>CONCATENATE(E617,F617,G617,H617,I617,J617)</f>
+        <f t="shared" si="9"/>
         <v>sz</v>
       </c>
       <c r="D617" s="9" t="s">
@@ -18752,7 +18752,7 @@
         <v>474</v>
       </c>
       <c r="C618" s="8" t="str">
-        <f>CONCATENATE(E618,F618,G618,H618,I618,J618)</f>
+        <f t="shared" si="9"/>
         <v>tq</v>
       </c>
       <c r="D618" s="9" t="s">
@@ -18773,7 +18773,7 @@
         <v>474</v>
       </c>
       <c r="C619" s="8" t="str">
-        <f>CONCATENATE(E619,F619,G619,H619,I619,J619)</f>
+        <f t="shared" si="9"/>
         <v>dq</v>
       </c>
       <c r="D619" s="9" t="s">
@@ -18794,7 +18794,7 @@
         <v>474</v>
       </c>
       <c r="C620" s="8" t="str">
-        <f>CONCATENATE(E620,F620,G620,H620,I620,J620)</f>
+        <f t="shared" si="9"/>
         <v>thc</v>
       </c>
       <c r="D620" s="9" t="s">
@@ -18818,7 +18818,7 @@
         <v>474</v>
       </c>
       <c r="C621" s="8" t="str">
-        <f>CONCATENATE(E621,F621,G621,H621,I621,J621)</f>
+        <f t="shared" si="9"/>
         <v>dhc</v>
       </c>
       <c r="D621" s="9" t="s">
@@ -18842,7 +18842,7 @@
         <v>474</v>
       </c>
       <c r="C622" s="8" t="str">
-        <f>CONCATENATE(E622,F622,G622,H622,I622,J622)</f>
+        <f t="shared" si="9"/>
         <v>tht</v>
       </c>
       <c r="D622" s="9" t="s">
@@ -18866,7 +18866,7 @@
         <v>474</v>
       </c>
       <c r="C623" s="8" t="str">
-        <f>CONCATENATE(E623,F623,G623,H623,I623,J623)</f>
+        <f t="shared" si="9"/>
         <v>dt</v>
       </c>
       <c r="D623" s="9" t="s">
@@ -18887,7 +18887,7 @@
         <v>474</v>
       </c>
       <c r="C624" s="8" t="str">
-        <f>CONCATENATE(E624,F624,G624,H624,I624,J624)</f>
+        <f t="shared" si="9"/>
         <v>ck</v>
       </c>
       <c r="D624" s="9" t="s">
@@ -18908,7 +18908,7 @@
         <v>474</v>
       </c>
       <c r="C625" s="8" t="str">
-        <f>CONCATENATE(E625,F625,G625,H625,I625,J625)</f>
+        <f t="shared" si="9"/>
         <v>cq</v>
       </c>
       <c r="D625" s="9" t="s">
@@ -18929,7 +18929,7 @@
         <v>474</v>
       </c>
       <c r="C626" s="8" t="str">
-        <f>CONCATENATE(E626,F626,G626,H626,I626,J626)</f>
+        <f t="shared" si="9"/>
         <v>chc</v>
       </c>
       <c r="D626" s="9" t="s">
@@ -18953,7 +18953,7 @@
         <v>474</v>
       </c>
       <c r="C627" s="8" t="str">
-        <f>CONCATENATE(E627,F627,G627,H627,I627,J627)</f>
+        <f t="shared" si="9"/>
         <v>tx</v>
       </c>
       <c r="D627" s="9" t="s">
@@ -18974,7 +18974,7 @@
         <v>474</v>
       </c>
       <c r="C628" s="8" t="str">
-        <f>CONCATENATE(E628,F628,G628,H628,I628,J628)</f>
+        <f t="shared" si="9"/>
         <v>dhx</v>
       </c>
       <c r="D628" s="9" t="s">
@@ -18998,7 +18998,7 @@
         <v>474</v>
       </c>
       <c r="C629" s="8" t="str">
-        <f>CONCATENATE(E629,F629,G629,H629,I629,J629)</f>
+        <f t="shared" si="9"/>
         <v>tz</v>
       </c>
       <c r="D629" s="9" t="s">
@@ -19019,7 +19019,7 @@
         <v>474</v>
       </c>
       <c r="C630" s="8" t="str">
-        <f>CONCATENATE(E630,F630,G630,H630,I630,J630)</f>
+        <f t="shared" si="9"/>
         <v>tc</v>
       </c>
       <c r="D630" s="9" t="s">
@@ -19040,7 +19040,7 @@
         <v>474</v>
       </c>
       <c r="C631" s="8" t="str">
-        <f>CONCATENATE(E631,F631,G631,H631,I631,J631)</f>
+        <f t="shared" si="9"/>
         <v>dc</v>
       </c>
       <c r="D631" s="9" t="s">
@@ -19061,7 +19061,7 @@
         <v>474</v>
       </c>
       <c r="C632" s="8" t="str">
-        <f>CONCATENATE(E632,F632,G632,H632,I632,J632)</f>
+        <f t="shared" si="9"/>
         <v>dz</v>
       </c>
       <c r="D632" s="9" t="s">
@@ -19082,7 +19082,7 @@
         <v>474</v>
       </c>
       <c r="C633" s="8" t="str">
-        <f>CONCATENATE(E633,F633,G633,H633,I633,J633)</f>
+        <f t="shared" si="9"/>
         <v>nt</v>
       </c>
       <c r="D633" s="9" t="s">
@@ -19103,7 +19103,7 @@
         <v>474</v>
       </c>
       <c r="C634" s="8" t="str">
-        <f>CONCATENATE(E634,F634,G634,H634,I634,J634)</f>
+        <f t="shared" si="9"/>
         <v>nc</v>
       </c>
       <c r="D634" s="9" t="s">
@@ -19124,7 +19124,7 @@
         <v>474</v>
       </c>
       <c r="C635" s="8" t="str">
-        <f>CONCATENATE(E635,F635,G635,H635,I635,J635)</f>
+        <f t="shared" si="9"/>
         <v>njq</v>
       </c>
       <c r="D635" s="9" t="s">
@@ -19148,7 +19148,7 @@
         <v>474</v>
       </c>
       <c r="C636" s="8" t="str">
-        <f>CONCATENATE(E636,F636,G636,H636,I636,J636)</f>
+        <f t="shared" si="9"/>
         <v>hq</v>
       </c>
       <c r="D636" s="9" t="s">
@@ -19169,7 +19169,7 @@
         <v>474</v>
       </c>
       <c r="C637" s="8" t="str">
-        <f>CONCATENATE(E637,F637,G637,H637,I637,J637)</f>
+        <f t="shared" si="9"/>
         <v>bq</v>
       </c>
       <c r="D637" s="9" t="s">
@@ -19190,7 +19190,7 @@
         <v>474</v>
       </c>
       <c r="C638" s="8" t="str">
-        <f>CONCATENATE(E638,F638,G638,H638,I638,J638)</f>
+        <f t="shared" si="9"/>
         <v>pq</v>
       </c>
       <c r="D638" s="9" t="s">
@@ -19211,7 +19211,7 @@
         <v>474</v>
       </c>
       <c r="C639" s="8" t="str">
-        <f>CONCATENATE(E639,F639,G639,H639,I639,J639)</f>
+        <f t="shared" si="9"/>
         <v>ht</v>
       </c>
       <c r="D639" s="9" t="s">
@@ -19232,7 +19232,7 @@
         <v>474</v>
       </c>
       <c r="C640" s="8" t="str">
-        <f>CONCATENATE(E640,F640,G640,H640,I640,J640)</f>
+        <f t="shared" si="9"/>
         <v>bt</v>
       </c>
       <c r="D640" s="9" t="s">
@@ -19253,7 +19253,7 @@
         <v>474</v>
       </c>
       <c r="C641" s="8" t="str">
-        <f>CONCATENATE(E641,F641,G641,H641,I641,J641)</f>
+        <f t="shared" si="9"/>
         <v>pt</v>
       </c>
       <c r="D641" s="9" t="s">
@@ -19274,7 +19274,7 @@
         <v>474</v>
       </c>
       <c r="C642" s="8" t="str">
-        <f>CONCATENATE(E642,F642,G642,H642,I642,J642)</f>
+        <f t="shared" ref="C642:C705" si="10">CONCATENATE(E642,F642,G642,H642,I642,J642)</f>
         <v>ft</v>
       </c>
       <c r="D642" s="9" t="s">
@@ -19295,7 +19295,7 @@
         <v>474</v>
       </c>
       <c r="C643" s="8" t="str">
-        <f>CONCATENATE(E643,F643,G643,H643,I643,J643)</f>
+        <f t="shared" si="10"/>
         <v>bjt</v>
       </c>
       <c r="D643" s="9" t="s">
@@ -19319,7 +19319,7 @@
         <v>474</v>
       </c>
       <c r="C644" s="8" t="str">
-        <f>CONCATENATE(E644,F644,G644,H644,I644,J644)</f>
+        <f t="shared" si="10"/>
         <v>hjq</v>
       </c>
       <c r="D644" s="9" t="s">
@@ -19343,7 +19343,7 @@
         <v>474</v>
       </c>
       <c r="C645" s="8" t="str">
-        <f>CONCATENATE(E645,F645,G645,H645,I645,J645)</f>
+        <f t="shared" si="10"/>
         <v>bjq</v>
       </c>
       <c r="D645" s="9" t="s">
@@ -19367,7 +19367,7 @@
         <v>474</v>
       </c>
       <c r="C646" s="8" t="str">
-        <f>CONCATENATE(E646,F646,G646,H646,I646,J646)</f>
+        <f t="shared" si="10"/>
         <v>fk</v>
       </c>
       <c r="D646" s="9" t="s">
@@ -19388,7 +19388,7 @@
         <v>474</v>
       </c>
       <c r="C647" s="8" t="str">
-        <f>CONCATENATE(E647,F647,G647,H647,I647,J647)</f>
+        <f t="shared" si="10"/>
         <v>fs</v>
       </c>
       <c r="D647" s="9" t="s">
@@ -19409,7 +19409,7 @@
         <v>474</v>
       </c>
       <c r="C648" s="8" t="str">
-        <f>CONCATENATE(E648,F648,G648,H648,I648,J648)</f>
+        <f t="shared" si="10"/>
         <v>bs</v>
       </c>
       <c r="D648" s="9" t="s">
@@ -19430,7 +19430,7 @@
         <v>474</v>
       </c>
       <c r="C649" s="8" t="str">
-        <f>CONCATENATE(E649,F649,G649,H649,I649,J649)</f>
+        <f t="shared" si="10"/>
         <v>hx</v>
       </c>
       <c r="D649" s="9" t="s">
@@ -19451,7 +19451,7 @@
         <v>474</v>
       </c>
       <c r="C650" s="8" t="str">
-        <f>CONCATENATE(E650,F650,G650,H650,I650,J650)</f>
+        <f t="shared" si="10"/>
         <v>bx</v>
       </c>
       <c r="D650" s="9" t="s">
@@ -19472,7 +19472,7 @@
         <v>474</v>
       </c>
       <c r="C651" s="8" t="str">
-        <f>CONCATENATE(E651,F651,G651,H651,I651,J651)</f>
+        <f t="shared" si="10"/>
         <v>bjz</v>
       </c>
       <c r="D651" s="9" t="s">
@@ -19496,7 +19496,7 @@
         <v>474</v>
       </c>
       <c r="C652" s="8" t="str">
-        <f>CONCATENATE(E652,F652,G652,H652,I652,J652)</f>
+        <f t="shared" si="10"/>
         <v>hc</v>
       </c>
       <c r="D652" s="9" t="s">
@@ -19517,7 +19517,7 @@
         <v>474</v>
       </c>
       <c r="C653" s="8" t="str">
-        <f>CONCATENATE(E653,F653,G653,H653,I653,J653)</f>
+        <f t="shared" si="10"/>
         <v>bc</v>
       </c>
       <c r="D653" s="9" t="s">
@@ -19538,7 +19538,7 @@
         <v>474</v>
       </c>
       <c r="C654" s="8" t="str">
-        <f>CONCATENATE(E654,F654,G654,H654,I654,J654)</f>
+        <f t="shared" si="10"/>
         <v>pc</v>
       </c>
       <c r="D654" s="9" t="s">
@@ -19559,7 +19559,7 @@
         <v>474</v>
       </c>
       <c r="C655" s="8" t="str">
-        <f>CONCATENATE(E655,F655,G655,H655,I655,J655)</f>
+        <f t="shared" si="10"/>
         <v>bz</v>
       </c>
       <c r="D655" s="9" t="s">
@@ -19580,7 +19580,7 @@
         <v>474</v>
       </c>
       <c r="C656" s="8" t="str">
-        <f>CONCATENATE(E656,F656,G656,H656,I656,J656)</f>
+        <f t="shared" si="10"/>
         <v>mq</v>
       </c>
       <c r="D656" s="9" t="s">
@@ -19601,7 +19601,7 @@
         <v>474</v>
       </c>
       <c r="C657" s="8" t="str">
-        <f>CONCATENATE(E657,F657,G657,H657,I657,J657)</f>
+        <f t="shared" si="10"/>
         <v>mt</v>
       </c>
       <c r="D657" s="9" t="s">
@@ -19622,7 +19622,7 @@
         <v>474</v>
       </c>
       <c r="C658" s="8" t="str">
-        <f>CONCATENATE(E658,F658,G658,H658,I658,J658)</f>
+        <f t="shared" si="10"/>
         <v>mjt</v>
       </c>
       <c r="D658" s="9" t="s">
@@ -19646,7 +19646,7 @@
         <v>474</v>
       </c>
       <c r="C659" s="8" t="str">
-        <f>CONCATENATE(E659,F659,G659,H659,I659,J659)</f>
+        <f t="shared" si="10"/>
         <v>mjq</v>
       </c>
       <c r="D659" s="9" t="s">
@@ -19670,7 +19670,7 @@
         <v>474</v>
       </c>
       <c r="C660" s="8" t="str">
-        <f>CONCATENATE(E660,F660,G660,H660,I660,J660)</f>
+        <f t="shared" si="10"/>
         <v>mjz</v>
       </c>
       <c r="D660" s="9" t="s">
@@ -19694,7 +19694,7 @@
         <v>474</v>
       </c>
       <c r="C661" s="8" t="str">
-        <f>CONCATENATE(E661,F661,G661,H661,I661,J661)</f>
+        <f t="shared" si="10"/>
         <v>mc</v>
       </c>
       <c r="D661" s="9" t="s">
@@ -19715,7 +19715,7 @@
         <v>474</v>
       </c>
       <c r="C662" s="8" t="str">
-        <f>CONCATENATE(E662,F662,G662,H662,I662,J662)</f>
+        <f t="shared" si="10"/>
         <v>mz</v>
       </c>
       <c r="D662" s="9" t="s">
@@ -19736,7 +19736,7 @@
         <v>474</v>
       </c>
       <c r="C663" s="8" t="str">
-        <f>CONCATENATE(E663,F663,G663,H663,I663,J663)</f>
+        <f t="shared" si="10"/>
         <v>yq</v>
       </c>
       <c r="D663" s="9" t="s">
@@ -19757,7 +19757,7 @@
         <v>474</v>
       </c>
       <c r="C664" s="8" t="str">
-        <f>CONCATENATE(E664,F664,G664,H664,I664,J664)</f>
+        <f t="shared" si="10"/>
         <v>yc</v>
       </c>
       <c r="D664" s="9" t="s">
@@ -19778,7 +19778,7 @@
         <v>474</v>
       </c>
       <c r="C665" s="8" t="str">
-        <f>CONCATENATE(E665,F665,G665,H665,I665,J665)</f>
+        <f t="shared" si="10"/>
         <v>rq</v>
       </c>
       <c r="D665" s="9" t="s">
@@ -19799,7 +19799,7 @@
         <v>474</v>
       </c>
       <c r="C666" s="8" t="str">
-        <f>CONCATENATE(E666,F666,G666,H666,I666,J666)</f>
+        <f t="shared" si="10"/>
         <v>rt</v>
       </c>
       <c r="D666" s="9" t="s">
@@ -19820,7 +19820,7 @@
         <v>474</v>
       </c>
       <c r="C667" s="8" t="str">
-        <f>CONCATENATE(E667,F667,G667,H667,I667,J667)</f>
+        <f t="shared" si="10"/>
         <v>lx</v>
       </c>
       <c r="D667" s="9" t="s">
@@ -19841,7 +19841,7 @@
         <v>474</v>
       </c>
       <c r="C668" s="8" t="str">
-        <f>CONCATENATE(E668,F668,G668,H668,I668,J668)</f>
+        <f t="shared" si="10"/>
         <v>lk</v>
       </c>
       <c r="D668" s="9" t="s">
@@ -19862,7 +19862,7 @@
         <v>474</v>
       </c>
       <c r="C669" s="8" t="str">
-        <f>CONCATENATE(E669,F669,G669,H669,I669,J669)</f>
+        <f t="shared" si="10"/>
         <v>lt</v>
       </c>
       <c r="D669" s="9" t="s">
@@ -19883,7 +19883,7 @@
         <v>474</v>
       </c>
       <c r="C670" s="8" t="str">
-        <f>CONCATENATE(E670,F670,G670,H670,I670,J670)</f>
+        <f t="shared" si="10"/>
         <v>lq</v>
       </c>
       <c r="D670" s="9" t="s">
@@ -19904,7 +19904,7 @@
         <v>474</v>
       </c>
       <c r="C671" s="8" t="str">
-        <f>CONCATENATE(E671,F671,G671,H671,I671,J671)</f>
+        <f t="shared" si="10"/>
         <v>lc</v>
       </c>
       <c r="D671" s="9" t="s">
@@ -19925,7 +19925,7 @@
         <v>474</v>
       </c>
       <c r="C672" s="8" t="str">
-        <f>CONCATENATE(E672,F672,G672,H672,I672,J672)</f>
+        <f t="shared" si="10"/>
         <v>rx</v>
       </c>
       <c r="D672" s="9" t="s">
@@ -19946,7 +19946,7 @@
         <v>474</v>
       </c>
       <c r="C673" s="8" t="str">
-        <f>CONCATENATE(E673,F673,G673,H673,I673,J673)</f>
+        <f t="shared" si="10"/>
         <v>lz</v>
       </c>
       <c r="D673" s="9" t="s">
@@ -19967,7 +19967,7 @@
         <v>474</v>
       </c>
       <c r="C674" s="8" t="str">
-        <f>CONCATENATE(E674,F674,G674,H674,I674,J674)</f>
+        <f t="shared" si="10"/>
         <v>rc</v>
       </c>
       <c r="D674" s="9" t="s">
@@ -19988,7 +19988,7 @@
         <v>474</v>
       </c>
       <c r="C675" s="8" t="str">
-        <f>CONCATENATE(E675,F675,G675,H675,I675,J675)</f>
+        <f t="shared" si="10"/>
         <v>wq</v>
       </c>
       <c r="D675" s="9" t="s">
@@ -20009,7 +20009,7 @@
         <v>578</v>
       </c>
       <c r="C676" s="8" t="str">
-        <f>CONCATENATE(E676,F676,G676,H676,I676,J676)</f>
+        <f t="shared" si="10"/>
         <v>vbk</v>
       </c>
       <c r="D676" s="9" t="s">
@@ -20033,7 +20033,7 @@
         <v>578</v>
       </c>
       <c r="C677" s="8" t="str">
-        <f>CONCATENATE(E677,F677,G677,H677,I677,J677)</f>
+        <f t="shared" si="10"/>
         <v>vbkg</v>
       </c>
       <c r="D677" s="9" t="s">
@@ -20060,7 +20060,7 @@
         <v>578</v>
       </c>
       <c r="C678" s="8" t="str">
-        <f>CONCATENATE(E678,F678,G678,H678,I678,J678)</f>
+        <f t="shared" si="10"/>
         <v>vbkkr</v>
       </c>
       <c r="D678" s="9" t="s">
@@ -20090,7 +20090,7 @@
         <v>578</v>
       </c>
       <c r="C679" s="8" t="str">
-        <f>CONCATENATE(E679,F679,G679,H679,I679,J679)</f>
+        <f t="shared" si="10"/>
         <v>vbkd</v>
       </c>
       <c r="D679" s="9" t="s">
@@ -20117,7 +20117,7 @@
         <v>578</v>
       </c>
       <c r="C680" s="8" t="str">
-        <f>CONCATENATE(E680,F680,G680,H680,I680,J680)</f>
+        <f t="shared" si="10"/>
         <v>vbkn</v>
       </c>
       <c r="D680" s="9" t="s">
@@ -20144,7 +20144,7 @@
         <v>578</v>
       </c>
       <c r="C681" s="8" t="str">
-        <f>CONCATENATE(E681,F681,G681,H681,I681,J681)</f>
+        <f t="shared" si="10"/>
         <v>vbkh</v>
       </c>
       <c r="D681" s="9" t="s">
@@ -20171,7 +20171,7 @@
         <v>578</v>
       </c>
       <c r="C682" s="8" t="str">
-        <f>CONCATENATE(E682,F682,G682,H682,I682,J682)</f>
+        <f t="shared" si="10"/>
         <v>vbcr</v>
       </c>
       <c r="D682" s="9" t="s">
@@ -20198,7 +20198,7 @@
         <v>578</v>
       </c>
       <c r="C683" s="8" t="str">
-        <f>CONCATENATE(E683,F683,G683,H683,I683,J683)</f>
+        <f t="shared" si="10"/>
         <v>vbcrg</v>
       </c>
       <c r="D683" s="9" t="s">
@@ -20228,7 +20228,7 @@
         <v>578</v>
       </c>
       <c r="C684" s="8" t="str">
-        <f>CONCATENATE(E684,F684,G684,H684,I684,J684)</f>
+        <f t="shared" si="10"/>
         <v>vbcrkr</v>
       </c>
       <c r="D684" s="9" t="s">
@@ -20261,7 +20261,7 @@
         <v>578</v>
       </c>
       <c r="C685" s="8" t="str">
-        <f>CONCATENATE(E685,F685,G685,H685,I685,J685)</f>
+        <f t="shared" si="10"/>
         <v>vbcrd</v>
       </c>
       <c r="D685" s="9" t="s">
@@ -20291,7 +20291,7 @@
         <v>578</v>
       </c>
       <c r="C686" s="8" t="str">
-        <f>CONCATENATE(E686,F686,G686,H686,I686,J686)</f>
+        <f t="shared" si="10"/>
         <v>vbcrn</v>
       </c>
       <c r="D686" s="9" t="s">
@@ -20321,7 +20321,7 @@
         <v>578</v>
       </c>
       <c r="C687" s="8" t="str">
-        <f>CONCATENATE(E687,F687,G687,H687,I687,J687)</f>
+        <f t="shared" si="10"/>
         <v>vbcrh</v>
       </c>
       <c r="D687" s="9" t="s">
@@ -20351,7 +20351,7 @@
         <v>578</v>
       </c>
       <c r="C688" s="8" t="str">
-        <f>CONCATENATE(E688,F688,G688,H688,I688,J688)</f>
+        <f t="shared" si="10"/>
         <v>vbt</v>
       </c>
       <c r="D688" s="9" t="s">
@@ -20375,7 +20375,7 @@
         <v>578</v>
       </c>
       <c r="C689" s="8" t="str">
-        <f>CONCATENATE(E689,F689,G689,H689,I689,J689)</f>
+        <f t="shared" si="10"/>
         <v>vbtg</v>
       </c>
       <c r="D689" s="9" t="s">
@@ -20402,7 +20402,7 @@
         <v>578</v>
       </c>
       <c r="C690" s="8" t="str">
-        <f>CONCATENATE(E690,F690,G690,H690,I690,J690)</f>
+        <f t="shared" si="10"/>
         <v>vbtkr</v>
       </c>
       <c r="D690" s="9" t="s">
@@ -20432,7 +20432,7 @@
         <v>578</v>
       </c>
       <c r="C691" s="8" t="str">
-        <f>CONCATENATE(E691,F691,G691,H691,I691,J691)</f>
+        <f t="shared" si="10"/>
         <v>vbtt</v>
       </c>
       <c r="D691" s="9" t="s">
@@ -20459,7 +20459,7 @@
         <v>578</v>
       </c>
       <c r="C692" s="8" t="str">
-        <f>CONCATENATE(E692,F692,G692,H692,I692,J692)</f>
+        <f t="shared" si="10"/>
         <v>vbtn</v>
       </c>
       <c r="D692" s="9" t="s">
@@ -20486,7 +20486,7 @@
         <v>578</v>
       </c>
       <c r="C693" s="8" t="str">
-        <f>CONCATENATE(E693,F693,G693,H693,I693,J693)</f>
+        <f t="shared" si="10"/>
         <v>vbth</v>
       </c>
       <c r="D693" s="9" t="s">
@@ -20513,7 +20513,7 @@
         <v>578</v>
       </c>
       <c r="C694" s="8" t="str">
-        <f>CONCATENATE(E694,F694,G694,H694,I694,J694)</f>
+        <f t="shared" si="10"/>
         <v>vbntw</v>
       </c>
       <c r="D694" s="9" t="s">
@@ -20543,7 +20543,7 @@
         <v>578</v>
       </c>
       <c r="C695" s="8" t="str">
-        <f>CONCATENATE(E695,F695,G695,H695,I695,J695)</f>
+        <f t="shared" si="10"/>
         <v>vbn</v>
       </c>
       <c r="D695" s="9" t="s">
@@ -20567,7 +20567,7 @@
         <v>578</v>
       </c>
       <c r="C696" s="8" t="str">
-        <f>CONCATENATE(E696,F696,G696,H696,I696,J696)</f>
+        <f t="shared" si="10"/>
         <v>vbr</v>
       </c>
       <c r="D696" s="9" t="s">
@@ -20591,7 +20591,7 @@
         <v>578</v>
       </c>
       <c r="C697" s="8" t="str">
-        <f>CONCATENATE(E697,F697,G697,H697,I697,J697)</f>
+        <f t="shared" si="10"/>
         <v>vbrg</v>
       </c>
       <c r="D697" s="9" t="s">
@@ -20618,7 +20618,7 @@
         <v>578</v>
       </c>
       <c r="C698" s="8" t="str">
-        <f>CONCATENATE(E698,F698,G698,H698,I698,J698)</f>
+        <f t="shared" si="10"/>
         <v>vbrd</v>
       </c>
       <c r="D698" s="9" t="s">
@@ -20645,7 +20645,7 @@
         <v>578</v>
       </c>
       <c r="C699" s="8" t="str">
-        <f>CONCATENATE(E699,F699,G699,H699,I699,J699)</f>
+        <f t="shared" si="10"/>
         <v>vbrn</v>
       </c>
       <c r="D699" s="9" t="s">
@@ -20672,7 +20672,7 @@
         <v>578</v>
       </c>
       <c r="C700" s="8" t="str">
-        <f>CONCATENATE(E700,F700,G700,H700,I700,J700)</f>
+        <f t="shared" si="10"/>
         <v>vbrh</v>
       </c>
       <c r="D700" s="9" t="s">
@@ -20699,7 +20699,7 @@
         <v>578</v>
       </c>
       <c r="C701" s="8" t="str">
-        <f>CONCATENATE(E701,F701,G701,H701,I701,J701)</f>
+        <f t="shared" si="10"/>
         <v>vbrw</v>
       </c>
       <c r="D701" s="9" t="s">
@@ -20726,7 +20726,7 @@
         <v>578</v>
       </c>
       <c r="C702" s="8" t="str">
-        <f>CONCATENATE(E702,F702,G702,H702,I702,J702)</f>
+        <f t="shared" si="10"/>
         <v>jkg</v>
       </c>
       <c r="D702" s="9" t="s">
@@ -20750,7 +20750,7 @@
         <v>578</v>
       </c>
       <c r="C703" s="8" t="str">
-        <f>CONCATENATE(E703,F703,G703,H703,I703,J703)</f>
+        <f t="shared" si="10"/>
         <v>grr</v>
       </c>
       <c r="D703" s="9" t="s">
@@ -20774,7 +20774,7 @@
         <v>578</v>
       </c>
       <c r="C704" s="8" t="str">
-        <f>CONCATENATE(E704,F704,G704,H704,I704,J704)</f>
+        <f t="shared" si="10"/>
         <v>krt</v>
       </c>
       <c r="D704" s="9" t="s">
@@ -20798,7 +20798,7 @@
         <v>578</v>
       </c>
       <c r="C705" s="8" t="str">
-        <f>CONCATENATE(E705,F705,G705,H705,I705,J705)</f>
+        <f t="shared" si="10"/>
         <v>krn</v>
       </c>
       <c r="D705" s="9" t="s">
@@ -20822,7 +20822,7 @@
         <v>578</v>
       </c>
       <c r="C706" s="8" t="str">
-        <f>CONCATENATE(E706,F706,G706,H706,I706,J706)</f>
+        <f t="shared" ref="C706:C769" si="11">CONCATENATE(E706,F706,G706,H706,I706,J706)</f>
         <v>krr</v>
       </c>
       <c r="D706" s="9" t="s">
@@ -20846,7 +20846,7 @@
         <v>578</v>
       </c>
       <c r="C707" s="8" t="str">
-        <f>CONCATENATE(E707,F707,G707,H707,I707,J707)</f>
+        <f t="shared" si="11"/>
         <v>cdsf</v>
       </c>
       <c r="D707" s="9" t="s">
@@ -20873,7 +20873,7 @@
         <v>578</v>
       </c>
       <c r="C708" s="8" t="str">
-        <f>CONCATENATE(E708,F708,G708,H708,I708,J708)</f>
+        <f t="shared" si="11"/>
         <v>kbk</v>
       </c>
       <c r="D708" s="9" t="s">
@@ -20897,7 +20897,7 @@
         <v>578</v>
       </c>
       <c r="C709" s="8" t="str">
-        <f>CONCATENATE(E709,F709,G709,H709,I709,J709)</f>
+        <f t="shared" si="11"/>
         <v>kbkg</v>
       </c>
       <c r="D709" s="9" t="s">
@@ -20924,7 +20924,7 @@
         <v>578</v>
       </c>
       <c r="C710" s="8" t="str">
-        <f>CONCATENATE(E710,F710,G710,H710,I710,J710)</f>
+        <f t="shared" si="11"/>
         <v>kbkkr</v>
       </c>
       <c r="D710" s="9" t="s">
@@ -20954,7 +20954,7 @@
         <v>578</v>
       </c>
       <c r="C711" s="8" t="str">
-        <f>CONCATENATE(E711,F711,G711,H711,I711,J711)</f>
+        <f t="shared" si="11"/>
         <v>kbkd</v>
       </c>
       <c r="D711" s="9" t="s">
@@ -20981,7 +20981,7 @@
         <v>578</v>
       </c>
       <c r="C712" s="8" t="str">
-        <f>CONCATENATE(E712,F712,G712,H712,I712,J712)</f>
+        <f t="shared" si="11"/>
         <v>kbkn</v>
       </c>
       <c r="D712" s="9" t="s">
@@ -21008,7 +21008,7 @@
         <v>578</v>
       </c>
       <c r="C713" s="8" t="str">
-        <f>CONCATENATE(E713,F713,G713,H713,I713,J713)</f>
+        <f t="shared" si="11"/>
         <v>kbkh</v>
       </c>
       <c r="D713" s="9" t="s">
@@ -21035,7 +21035,7 @@
         <v>578</v>
       </c>
       <c r="C714" s="8" t="str">
-        <f>CONCATENATE(E714,F714,G714,H714,I714,J714)</f>
+        <f t="shared" si="11"/>
         <v>gwz</v>
       </c>
       <c r="D714" s="9" t="s">
@@ -21059,7 +21059,7 @@
         <v>578</v>
       </c>
       <c r="C715" s="8" t="str">
-        <f>CONCATENATE(E715,F715,G715,H715,I715,J715)</f>
+        <f t="shared" si="11"/>
         <v>kbcr</v>
       </c>
       <c r="D715" s="9" t="s">
@@ -21086,7 +21086,7 @@
         <v>578</v>
       </c>
       <c r="C716" s="8" t="str">
-        <f>CONCATENATE(E716,F716,G716,H716,I716,J716)</f>
+        <f t="shared" si="11"/>
         <v>kbcrg</v>
       </c>
       <c r="D716" s="9" t="s">
@@ -21116,7 +21116,7 @@
         <v>578</v>
       </c>
       <c r="C717" s="8" t="str">
-        <f>CONCATENATE(E717,F717,G717,H717,I717,J717)</f>
+        <f t="shared" si="11"/>
         <v>kbcrkr</v>
       </c>
       <c r="D717" s="9" t="s">
@@ -21149,7 +21149,7 @@
         <v>578</v>
       </c>
       <c r="C718" s="8" t="str">
-        <f>CONCATENATE(E718,F718,G718,H718,I718,J718)</f>
+        <f t="shared" si="11"/>
         <v>kbcrd</v>
       </c>
       <c r="D718" s="9" t="s">
@@ -21179,7 +21179,7 @@
         <v>578</v>
       </c>
       <c r="C719" s="8" t="str">
-        <f>CONCATENATE(E719,F719,G719,H719,I719,J719)</f>
+        <f t="shared" si="11"/>
         <v>kbcrn</v>
       </c>
       <c r="D719" s="9" t="s">
@@ -21209,7 +21209,7 @@
         <v>578</v>
       </c>
       <c r="C720" s="8" t="str">
-        <f>CONCATENATE(E720,F720,G720,H720,I720,J720)</f>
+        <f t="shared" si="11"/>
         <v>kbcrh</v>
       </c>
       <c r="D720" s="9" t="s">
@@ -21239,7 +21239,7 @@
         <v>578</v>
       </c>
       <c r="C721" s="8" t="str">
-        <f>CONCATENATE(E721,F721,G721,H721,I721,J721)</f>
+        <f t="shared" si="11"/>
         <v>kwt</v>
       </c>
       <c r="D721" s="9" t="s">
@@ -21263,7 +21263,7 @@
         <v>578</v>
       </c>
       <c r="C722" s="8" t="str">
-        <f>CONCATENATE(E722,F722,G722,H722,I722,J722)</f>
+        <f t="shared" si="11"/>
         <v>gwt</v>
       </c>
       <c r="D722" s="9" t="s">
@@ -21287,7 +21287,7 @@
         <v>578</v>
       </c>
       <c r="C723" s="8" t="str">
-        <f>CONCATENATE(E723,F723,G723,H723,I723,J723)</f>
+        <f t="shared" si="11"/>
         <v>kwtg</v>
       </c>
       <c r="D723" s="9" t="s">
@@ -21314,7 +21314,7 @@
         <v>578</v>
       </c>
       <c r="C724" s="8" t="str">
-        <f>CONCATENATE(E724,F724,G724,H724,I724,J724)</f>
+        <f t="shared" si="11"/>
         <v>gwtg</v>
       </c>
       <c r="D724" s="9" t="s">
@@ -21341,7 +21341,7 @@
         <v>578</v>
       </c>
       <c r="C725" s="8" t="str">
-        <f>CONCATENATE(E725,F725,G725,H725,I725,J725)</f>
+        <f t="shared" si="11"/>
         <v>kwtt</v>
       </c>
       <c r="D725" s="9" t="s">
@@ -21368,7 +21368,7 @@
         <v>578</v>
       </c>
       <c r="C726" s="8" t="str">
-        <f>CONCATENATE(E726,F726,G726,H726,I726,J726)</f>
+        <f t="shared" si="11"/>
         <v>kwtn</v>
       </c>
       <c r="D726" s="9" t="s">
@@ -21395,7 +21395,7 @@
         <v>578</v>
       </c>
       <c r="C727" s="8" t="str">
-        <f>CONCATENATE(E727,F727,G727,H727,I727,J727)</f>
+        <f t="shared" si="11"/>
         <v>kwtnh</v>
       </c>
       <c r="D727" s="9" t="s">
@@ -21425,7 +21425,7 @@
         <v>578</v>
       </c>
       <c r="C728" s="8" t="str">
-        <f>CONCATENATE(E728,F728,G728,H728,I728,J728)</f>
+        <f t="shared" si="11"/>
         <v>kwtb</v>
       </c>
       <c r="D728" s="9" t="s">
@@ -21452,7 +21452,7 @@
         <v>578</v>
       </c>
       <c r="C729" s="8" t="str">
-        <f>CONCATENATE(E729,F729,G729,H729,I729,J729)</f>
+        <f t="shared" si="11"/>
         <v>kwth</v>
       </c>
       <c r="D729" s="9" t="s">
@@ -21479,7 +21479,7 @@
         <v>578</v>
       </c>
       <c r="C730" s="8" t="str">
-        <f>CONCATENATE(E730,F730,G730,H730,I730,J730)</f>
+        <f t="shared" si="11"/>
         <v>gwth</v>
       </c>
       <c r="D730" s="9" t="s">
@@ -21506,7 +21506,7 @@
         <v>578</v>
       </c>
       <c r="C731" s="8" t="str">
-        <f>CONCATENATE(E731,F731,G731,H731,I731,J731)</f>
+        <f t="shared" si="11"/>
         <v>kwtw</v>
       </c>
       <c r="D731" s="9" t="s">
@@ -21533,7 +21533,7 @@
         <v>578</v>
       </c>
       <c r="C732" s="8" t="str">
-        <f>CONCATENATE(E732,F732,G732,H732,I732,J732)</f>
+        <f t="shared" si="11"/>
         <v>kbn</v>
       </c>
       <c r="D732" s="9" t="s">
@@ -21557,7 +21557,7 @@
         <v>578</v>
       </c>
       <c r="C733" s="8" t="str">
-        <f>CONCATENATE(E733,F733,G733,H733,I733,J733)</f>
+        <f t="shared" si="11"/>
         <v>kbr</v>
       </c>
       <c r="D733" s="9" t="s">
@@ -21581,7 +21581,7 @@
         <v>578</v>
       </c>
       <c r="C734" s="8" t="str">
-        <f>CONCATENATE(E734,F734,G734,H734,I734,J734)</f>
+        <f t="shared" si="11"/>
         <v>kbrg</v>
       </c>
       <c r="D734" s="9" t="s">
@@ -21608,7 +21608,7 @@
         <v>578</v>
       </c>
       <c r="C735" s="8" t="str">
-        <f>CONCATENATE(E735,F735,G735,H735,I735,J735)</f>
+        <f t="shared" si="11"/>
         <v>kbrd</v>
       </c>
       <c r="D735" s="9" t="s">
@@ -21635,7 +21635,7 @@
         <v>578</v>
       </c>
       <c r="C736" s="8" t="str">
-        <f>CONCATENATE(E736,F736,G736,H736,I736,J736)</f>
+        <f t="shared" si="11"/>
         <v>kbrdh</v>
       </c>
       <c r="D736" s="9" t="s">
@@ -21665,7 +21665,7 @@
         <v>578</v>
       </c>
       <c r="C737" s="8" t="str">
-        <f>CONCATENATE(E737,F737,G737,H737,I737,J737)</f>
+        <f t="shared" si="11"/>
         <v>kbrn</v>
       </c>
       <c r="D737" s="9" t="s">
@@ -21692,7 +21692,7 @@
         <v>578</v>
       </c>
       <c r="C738" s="8" t="str">
-        <f>CONCATENATE(E738,F738,G738,H738,I738,J738)</f>
+        <f t="shared" si="11"/>
         <v>kbrh</v>
       </c>
       <c r="D738" s="9" t="s">
@@ -21719,7 +21719,7 @@
         <v>578</v>
       </c>
       <c r="C739" s="8" t="str">
-        <f>CONCATENATE(E739,F739,G739,H739,I739,J739)</f>
+        <f t="shared" si="11"/>
         <v>kbrw</v>
       </c>
       <c r="D739" s="9" t="s">
@@ -21746,7 +21746,7 @@
         <v>578</v>
       </c>
       <c r="C740" s="8" t="str">
-        <f>CONCATENATE(E740,F740,G740,H740,I740,J740)</f>
+        <f t="shared" si="11"/>
         <v>kwr</v>
       </c>
       <c r="D740" s="9" t="s">
@@ -21770,7 +21770,7 @@
         <v>578</v>
       </c>
       <c r="C741" s="8" t="str">
-        <f>CONCATENATE(E741,F741,G741,H741,I741,J741)</f>
+        <f t="shared" si="11"/>
         <v>gwr</v>
       </c>
       <c r="D741" s="9" t="s">
@@ -21794,7 +21794,7 @@
         <v>578</v>
       </c>
       <c r="C742" s="8" t="str">
-        <f>CONCATENATE(E742,F742,G742,H742,I742,J742)</f>
+        <f t="shared" si="11"/>
         <v>srs</v>
       </c>
       <c r="D742" s="9" t="s">
@@ -21818,7 +21818,7 @@
         <v>578</v>
       </c>
       <c r="C743" s="8" t="str">
-        <f>CONCATENATE(E743,F743,G743,H743,I743,J743)</f>
+        <f t="shared" si="11"/>
         <v>srsr</v>
       </c>
       <c r="D743" s="9" t="s">
@@ -21845,7 +21845,7 @@
         <v>578</v>
       </c>
       <c r="C744" s="8" t="str">
-        <f>CONCATENATE(E744,F744,G744,H744,I744,J744)</f>
+        <f t="shared" si="11"/>
         <v>srslb</v>
       </c>
       <c r="D744" s="9" t="s">
@@ -21875,7 +21875,7 @@
         <v>578</v>
       </c>
       <c r="C745" s="8" t="str">
-        <f>CONCATENATE(E745,F745,G745,H745,I745,J745)</f>
+        <f t="shared" si="11"/>
         <v>srm</v>
       </c>
       <c r="D745" s="9" t="s">
@@ -21899,7 +21899,7 @@
         <v>578</v>
       </c>
       <c r="C746" s="8" t="str">
-        <f>CONCATENATE(E746,F746,G746,H746,I746,J746)</f>
+        <f t="shared" si="11"/>
         <v>srl</v>
       </c>
       <c r="D746" s="9" t="s">
@@ -21923,7 +21923,7 @@
         <v>578</v>
       </c>
       <c r="C747" s="8" t="str">
-        <f>CONCATENATE(E747,F747,G747,H747,I747,J747)</f>
+        <f t="shared" si="11"/>
         <v>srlt</v>
       </c>
       <c r="D747" s="9" t="s">
@@ -21950,7 +21950,7 @@
         <v>578</v>
       </c>
       <c r="C748" s="8" t="str">
-        <f>CONCATENATE(E748,F748,G748,H748,I748,J748)</f>
+        <f t="shared" si="11"/>
         <v>srll</v>
       </c>
       <c r="D748" s="9" t="s">
@@ -21977,7 +21977,7 @@
         <v>578</v>
       </c>
       <c r="C749" s="8" t="str">
-        <f>CONCATENATE(E749,F749,G749,H749,I749,J749)</f>
+        <f t="shared" si="11"/>
         <v>srlr</v>
       </c>
       <c r="D749" s="9" t="s">
@@ -22004,7 +22004,7 @@
         <v>578</v>
       </c>
       <c r="C750" s="8" t="str">
-        <f>CONCATENATE(E750,F750,G750,H750,I750,J750)</f>
+        <f t="shared" si="11"/>
         <v>xkx</v>
       </c>
       <c r="D750" s="9" t="s">
@@ -22028,7 +22028,7 @@
         <v>578</v>
       </c>
       <c r="C751" s="8" t="str">
-        <f>CONCATENATE(E751,F751,G751,H751,I751,J751)</f>
+        <f t="shared" si="11"/>
         <v>xt</v>
       </c>
       <c r="D751" s="9" t="s">
@@ -22049,7 +22049,7 @@
         <v>578</v>
       </c>
       <c r="C752" s="8" t="str">
-        <f>CONCATENATE(E752,F752,G752,H752,I752,J752)</f>
+        <f t="shared" si="11"/>
         <v>xtg</v>
       </c>
       <c r="D752" s="9" t="s">
@@ -22073,7 +22073,7 @@
         <v>578</v>
       </c>
       <c r="C753" s="8" t="str">
-        <f>CONCATENATE(E753,F753,G753,H753,I753,J753)</f>
+        <f t="shared" si="11"/>
         <v>xtr</v>
       </c>
       <c r="D753" s="9" t="s">
@@ -22097,7 +22097,7 @@
         <v>578</v>
       </c>
       <c r="C754" s="8" t="str">
-        <f>CONCATENATE(E754,F754,G754,H754,I754,J754)</f>
+        <f t="shared" si="11"/>
         <v>xmx</v>
       </c>
       <c r="D754" s="9" t="s">
@@ -22121,7 +22121,7 @@
         <v>578</v>
       </c>
       <c r="C755" s="8" t="str">
-        <f>CONCATENATE(E755,F755,G755,H755,I755,J755)</f>
+        <f t="shared" si="11"/>
         <v>xmxt</v>
       </c>
       <c r="D755" s="9" t="s">
@@ -22148,7 +22148,7 @@
         <v>578</v>
       </c>
       <c r="C756" s="8" t="str">
-        <f>CONCATENATE(E756,F756,G756,H756,I756,J756)</f>
+        <f t="shared" si="11"/>
         <v>xmxtk</v>
       </c>
       <c r="D756" s="9" t="s">
@@ -22178,7 +22178,7 @@
         <v>578</v>
       </c>
       <c r="C757" s="8" t="str">
-        <f>CONCATENATE(E757,F757,G757,H757,I757,J757)</f>
+        <f t="shared" si="11"/>
         <v>xmxtg</v>
       </c>
       <c r="D757" s="9" t="s">
@@ -22208,7 +22208,7 @@
         <v>578</v>
       </c>
       <c r="C758" s="8" t="str">
-        <f>CONCATENATE(E758,F758,G758,H758,I758,J758)</f>
+        <f t="shared" si="11"/>
         <v>xmxtr</v>
       </c>
       <c r="D758" s="9" t="s">
@@ -22238,7 +22238,7 @@
         <v>578</v>
       </c>
       <c r="C759" s="8" t="str">
-        <f>CONCATENATE(E759,F759,G759,H759,I759,J759)</f>
+        <f t="shared" si="11"/>
         <v>xmxx</v>
       </c>
       <c r="D759" s="9" t="s">
@@ -22265,7 +22265,7 @@
         <v>578</v>
       </c>
       <c r="C760" s="8" t="str">
-        <f>CONCATENATE(E760,F760,G760,H760,I760,J760)</f>
+        <f t="shared" si="11"/>
         <v>xmxv</v>
       </c>
       <c r="D760" s="9" t="s">
@@ -22292,7 +22292,7 @@
         <v>578</v>
       </c>
       <c r="C761" s="8" t="str">
-        <f>CONCATENATE(E761,F761,G761,H761,I761,J761)</f>
+        <f t="shared" si="11"/>
         <v>xmxvk</v>
       </c>
       <c r="D761" s="9" t="s">
@@ -22322,7 +22322,7 @@
         <v>578</v>
       </c>
       <c r="C762" s="8" t="str">
-        <f>CONCATENATE(E762,F762,G762,H762,I762,J762)</f>
+        <f t="shared" si="11"/>
         <v>xms</v>
       </c>
       <c r="D762" s="9" t="s">
@@ -22346,7 +22346,7 @@
         <v>578</v>
       </c>
       <c r="C763" s="8" t="str">
-        <f>CONCATENATE(E763,F763,G763,H763,I763,J763)</f>
+        <f t="shared" si="11"/>
         <v>xmsk</v>
       </c>
       <c r="D763" s="9" t="s">
@@ -22373,7 +22373,7 @@
         <v>578</v>
       </c>
       <c r="C764" s="8" t="str">
-        <f>CONCATENATE(E764,F764,G764,H764,I764,J764)</f>
+        <f t="shared" si="11"/>
         <v>xmsg</v>
       </c>
       <c r="D764" s="9" t="s">
@@ -22400,7 +22400,7 @@
         <v>578</v>
       </c>
       <c r="C765" s="8" t="str">
-        <f>CONCATENATE(E765,F765,G765,H765,I765,J765)</f>
+        <f t="shared" si="11"/>
         <v>xmst</v>
       </c>
       <c r="D765" s="9" t="s">
@@ -22427,7 +22427,7 @@
         <v>578</v>
       </c>
       <c r="C766" s="8" t="str">
-        <f>CONCATENATE(E766,F766,G766,H766,I766,J766)</f>
+        <f t="shared" si="11"/>
         <v>xmsd</v>
       </c>
       <c r="D766" s="9" t="s">
@@ -22454,7 +22454,7 @@
         <v>578</v>
       </c>
       <c r="C767" s="8" t="str">
-        <f>CONCATENATE(E767,F767,G767,H767,I767,J767)</f>
+        <f t="shared" si="11"/>
         <v>xmsdg</v>
       </c>
       <c r="D767" s="9" t="s">
@@ -22484,7 +22484,7 @@
         <v>578</v>
       </c>
       <c r="C768" s="8" t="str">
-        <f>CONCATENATE(E768,F768,G768,H768,I768,J768)</f>
+        <f t="shared" si="11"/>
         <v>xmsdk</v>
       </c>
       <c r="D768" s="9" t="s">
@@ -22514,7 +22514,7 @@
         <v>578</v>
       </c>
       <c r="C769" s="8" t="str">
-        <f>CONCATENATE(E769,F769,G769,H769,I769,J769)</f>
+        <f t="shared" si="11"/>
         <v>srr</v>
       </c>
       <c r="D769" s="9" t="s">
@@ -22538,7 +22538,7 @@
         <v>578</v>
       </c>
       <c r="C770" s="8" t="str">
-        <f>CONCATENATE(E770,F770,G770,H770,I770,J770)</f>
+        <f t="shared" ref="C770:C833" si="12">CONCATENATE(E770,F770,G770,H770,I770,J770)</f>
         <v>srlb</v>
       </c>
       <c r="D770" s="9" t="s">
@@ -22565,7 +22565,7 @@
         <v>578</v>
       </c>
       <c r="C771" s="8" t="str">
-        <f>CONCATENATE(E771,F771,G771,H771,I771,J771)</f>
+        <f t="shared" si="12"/>
         <v>sbk</v>
       </c>
       <c r="D771" s="9" t="s">
@@ -22589,7 +22589,7 @@
         <v>578</v>
       </c>
       <c r="C772" s="8" t="str">
-        <f>CONCATENATE(E772,F772,G772,H772,I772,J772)</f>
+        <f t="shared" si="12"/>
         <v>sbkg</v>
       </c>
       <c r="D772" s="9" t="s">
@@ -22616,7 +22616,7 @@
         <v>578</v>
       </c>
       <c r="C773" s="8" t="str">
-        <f>CONCATENATE(E773,F773,G773,H773,I773,J773)</f>
+        <f t="shared" si="12"/>
         <v>sbkkr</v>
       </c>
       <c r="D773" s="9" t="s">
@@ -22646,7 +22646,7 @@
         <v>578</v>
       </c>
       <c r="C774" s="8" t="str">
-        <f>CONCATENATE(E774,F774,G774,H774,I774,J774)</f>
+        <f t="shared" si="12"/>
         <v>sbkd</v>
       </c>
       <c r="D774" s="9" t="s">
@@ -22673,7 +22673,7 @@
         <v>578</v>
       </c>
       <c r="C775" s="8" t="str">
-        <f>CONCATENATE(E775,F775,G775,H775,I775,J775)</f>
+        <f t="shared" si="12"/>
         <v>sbkn</v>
       </c>
       <c r="D775" s="9" t="s">
@@ -22700,7 +22700,7 @@
         <v>578</v>
       </c>
       <c r="C776" s="8" t="str">
-        <f>CONCATENATE(E776,F776,G776,H776,I776,J776)</f>
+        <f t="shared" si="12"/>
         <v>sbkh</v>
       </c>
       <c r="D776" s="9" t="s">
@@ -22727,7 +22727,7 @@
         <v>578</v>
       </c>
       <c r="C777" s="8" t="str">
-        <f>CONCATENATE(E777,F777,G777,H777,I777,J777)</f>
+        <f t="shared" si="12"/>
         <v>sbxt</v>
       </c>
       <c r="D777" s="9" t="s">
@@ -22754,7 +22754,7 @@
         <v>578</v>
       </c>
       <c r="C778" s="8" t="str">
-        <f>CONCATENATE(E778,F778,G778,H778,I778,J778)</f>
+        <f t="shared" si="12"/>
         <v>sbcr</v>
       </c>
       <c r="D778" s="9" t="s">
@@ -22781,7 +22781,7 @@
         <v>578</v>
       </c>
       <c r="C779" s="8" t="str">
-        <f>CONCATENATE(E779,F779,G779,H779,I779,J779)</f>
+        <f t="shared" si="12"/>
         <v>sbcrg</v>
       </c>
       <c r="D779" s="9" t="s">
@@ -22811,7 +22811,7 @@
         <v>578</v>
       </c>
       <c r="C780" s="8" t="str">
-        <f>CONCATENATE(E780,F780,G780,H780,I780,J780)</f>
+        <f t="shared" si="12"/>
         <v>sbcrkr</v>
       </c>
       <c r="D780" s="9" t="s">
@@ -22844,7 +22844,7 @@
         <v>578</v>
       </c>
       <c r="C781" s="8" t="str">
-        <f>CONCATENATE(E781,F781,G781,H781,I781,J781)</f>
+        <f t="shared" si="12"/>
         <v>sbcrd</v>
       </c>
       <c r="D781" s="9" t="s">
@@ -22874,7 +22874,7 @@
         <v>578</v>
       </c>
       <c r="C782" s="8" t="str">
-        <f>CONCATENATE(E782,F782,G782,H782,I782,J782)</f>
+        <f t="shared" si="12"/>
         <v>sbcrn</v>
       </c>
       <c r="D782" s="9" t="s">
@@ -22904,7 +22904,7 @@
         <v>578</v>
       </c>
       <c r="C783" s="8" t="str">
-        <f>CONCATENATE(E783,F783,G783,H783,I783,J783)</f>
+        <f t="shared" si="12"/>
         <v>sbcrh</v>
       </c>
       <c r="D783" s="9" t="s">
@@ -22934,7 +22934,7 @@
         <v>578</v>
       </c>
       <c r="C784" s="8" t="str">
-        <f>CONCATENATE(E784,F784,G784,H784,I784,J784)</f>
+        <f t="shared" si="12"/>
         <v>sbn</v>
       </c>
       <c r="D784" s="9" t="s">
@@ -22958,7 +22958,7 @@
         <v>578</v>
       </c>
       <c r="C785" s="8" t="str">
-        <f>CONCATENATE(E785,F785,G785,H785,I785,J785)</f>
+        <f t="shared" si="12"/>
         <v>sbr</v>
       </c>
       <c r="D785" s="9" t="s">
@@ -22982,7 +22982,7 @@
         <v>578</v>
       </c>
       <c r="C786" s="8" t="str">
-        <f>CONCATENATE(E786,F786,G786,H786,I786,J786)</f>
+        <f t="shared" si="12"/>
         <v>sbrg</v>
       </c>
       <c r="D786" s="9" t="s">
@@ -23009,7 +23009,7 @@
         <v>578</v>
       </c>
       <c r="C787" s="8" t="str">
-        <f>CONCATENATE(E787,F787,G787,H787,I787,J787)</f>
+        <f t="shared" si="12"/>
         <v>sbrd</v>
       </c>
       <c r="D787" s="9" t="s">
@@ -23036,7 +23036,7 @@
         <v>578</v>
       </c>
       <c r="C788" s="8" t="str">
-        <f>CONCATENATE(E788,F788,G788,H788,I788,J788)</f>
+        <f t="shared" si="12"/>
         <v>sbrdh</v>
       </c>
       <c r="D788" s="9" t="s">
@@ -23066,7 +23066,7 @@
         <v>578</v>
       </c>
       <c r="C789" s="8" t="str">
-        <f>CONCATENATE(E789,F789,G789,H789,I789,J789)</f>
+        <f t="shared" si="12"/>
         <v>sbrn</v>
       </c>
       <c r="D789" s="9" t="s">
@@ -23093,7 +23093,7 @@
         <v>578</v>
       </c>
       <c r="C790" s="8" t="str">
-        <f>CONCATENATE(E790,F790,G790,H790,I790,J790)</f>
+        <f t="shared" si="12"/>
         <v>sbrh</v>
       </c>
       <c r="D790" s="9" t="s">
@@ -23120,7 +23120,7 @@
         <v>578</v>
       </c>
       <c r="C791" s="8" t="str">
-        <f>CONCATENATE(E791,F791,G791,H791,I791,J791)</f>
+        <f t="shared" si="12"/>
         <v>sbrw</v>
       </c>
       <c r="D791" s="9" t="s">
@@ -23147,7 +23147,7 @@
         <v>578</v>
       </c>
       <c r="C792" s="8" t="str">
-        <f>CONCATENATE(E792,F792,G792,H792,I792,J792)</f>
+        <f t="shared" si="12"/>
         <v>drx</v>
       </c>
       <c r="D792" s="9" t="s">
@@ -23171,7 +23171,7 @@
         <v>578</v>
       </c>
       <c r="C793" s="8" t="str">
-        <f>CONCATENATE(E793,F793,G793,H793,I793,J793)</f>
+        <f t="shared" si="12"/>
         <v>dhk</v>
       </c>
       <c r="D793" s="9" t="s">
@@ -23195,7 +23195,7 @@
         <v>578</v>
       </c>
       <c r="C794" s="8" t="str">
-        <f>CONCATENATE(E794,F794,G794,H794,I794,J794)</f>
+        <f t="shared" si="12"/>
         <v>dtt</v>
       </c>
       <c r="D794" s="9" t="s">
@@ -23219,7 +23219,7 @@
         <v>578</v>
       </c>
       <c r="C795" s="8" t="str">
-        <f>CONCATENATE(E795,F795,G795,H795,I795,J795)</f>
+        <f t="shared" si="12"/>
         <v>thm</v>
       </c>
       <c r="D795" s="9" t="s">
@@ -23243,7 +23243,7 @@
         <v>578</v>
       </c>
       <c r="C796" s="8" t="str">
-        <f>CONCATENATE(E796,F796,G796,H796,I796,J796)</f>
+        <f t="shared" si="12"/>
         <v>trr</v>
       </c>
       <c r="D796" s="9" t="s">
@@ -23267,7 +23267,7 @@
         <v>578</v>
       </c>
       <c r="C797" s="8" t="str">
-        <f>CONCATENATE(E797,F797,G797,H797,I797,J797)</f>
+        <f t="shared" si="12"/>
         <v>dbl</v>
       </c>
       <c r="D797" s="9" t="s">
@@ -23291,7 +23291,7 @@
         <v>578</v>
       </c>
       <c r="C798" s="8" t="str">
-        <f>CONCATENATE(E798,F798,G798,H798,I798,J798)</f>
+        <f t="shared" si="12"/>
         <v>dblg</v>
       </c>
       <c r="D798" s="9" t="s">
@@ -23318,7 +23318,7 @@
         <v>578</v>
       </c>
       <c r="C799" s="8" t="str">
-        <f>CONCATENATE(E799,F799,G799,H799,I799,J799)</f>
+        <f t="shared" si="12"/>
         <v>dblt</v>
       </c>
       <c r="D799" s="9" t="s">
@@ -23345,7 +23345,7 @@
         <v>578</v>
       </c>
       <c r="C800" s="8" t="str">
-        <f>CONCATENATE(E800,F800,G800,H800,I800,J800)</f>
+        <f t="shared" si="12"/>
         <v>dbln</v>
       </c>
       <c r="D800" s="9" t="s">
@@ -23372,7 +23372,7 @@
         <v>578</v>
       </c>
       <c r="C801" s="8" t="str">
-        <f>CONCATENATE(E801,F801,G801,H801,I801,J801)</f>
+        <f t="shared" si="12"/>
         <v>dblw</v>
       </c>
       <c r="D801" s="9" t="s">
@@ -23399,7 +23399,7 @@
         <v>578</v>
       </c>
       <c r="C802" s="8" t="str">
-        <f>CONCATENATE(E802,F802,G802,H802,I802,J802)</f>
+        <f t="shared" si="12"/>
         <v>drv</v>
       </c>
       <c r="D802" s="9" t="s">
@@ -23423,7 +23423,7 @@
         <v>578</v>
       </c>
       <c r="C803" s="8" t="str">
-        <f>CONCATENATE(E803,F803,G803,H803,I803,J803)</f>
+        <f t="shared" si="12"/>
         <v>drtt</v>
       </c>
       <c r="D803" s="9" t="s">
@@ -23450,7 +23450,7 @@
         <v>578</v>
       </c>
       <c r="C804" s="8" t="str">
-        <f>CONCATENATE(E804,F804,G804,H804,I804,J804)</f>
+        <f t="shared" si="12"/>
         <v>drr</v>
       </c>
       <c r="D804" s="9" t="s">
@@ -23474,7 +23474,7 @@
         <v>578</v>
       </c>
       <c r="C805" s="8" t="str">
-        <f>CONCATENATE(E805,F805,G805,H805,I805,J805)</f>
+        <f t="shared" si="12"/>
         <v>drlb</v>
       </c>
       <c r="D805" s="9" t="s">
@@ -23501,7 +23501,7 @@
         <v>578</v>
       </c>
       <c r="C806" s="8" t="str">
-        <f>CONCATENATE(E806,F806,G806,H806,I806,J806)</f>
+        <f t="shared" si="12"/>
         <v>dkn</v>
       </c>
       <c r="D806" s="9" t="s">
@@ -23525,7 +23525,7 @@
         <v>578</v>
       </c>
       <c r="C807" s="8" t="str">
-        <f>CONCATENATE(E807,F807,G807,H807,I807,J807)</f>
+        <f t="shared" si="12"/>
         <v>dknf</v>
       </c>
       <c r="D807" s="9" t="s">
@@ -23552,7 +23552,7 @@
         <v>578</v>
       </c>
       <c r="C808" s="8" t="str">
-        <f>CONCATENATE(E808,F808,G808,H808,I808,J808)</f>
+        <f t="shared" si="12"/>
         <v>dknktt</v>
       </c>
       <c r="D808" s="9" t="s">
@@ -23585,7 +23585,7 @@
         <v>578</v>
       </c>
       <c r="C809" s="8" t="str">
-        <f>CONCATENATE(E809,F809,G809,H809,I809,J809)</f>
+        <f t="shared" si="12"/>
         <v>dkms</v>
       </c>
       <c r="D809" s="9" t="s">
@@ -23612,7 +23612,7 @@
         <v>578</v>
       </c>
       <c r="C810" s="8" t="str">
-        <f>CONCATENATE(E810,F810,G810,H810,I810,J810)</f>
+        <f t="shared" si="12"/>
         <v>dkmsd</v>
       </c>
       <c r="D810" s="9" t="s">
@@ -23642,7 +23642,7 @@
         <v>578</v>
       </c>
       <c r="C811" s="8" t="str">
-        <f>CONCATENATE(E811,F811,G811,H811,I811,J811)</f>
+        <f t="shared" si="12"/>
         <v>dkrr</v>
       </c>
       <c r="D811" s="9" t="s">
@@ -23669,7 +23669,7 @@
         <v>578</v>
       </c>
       <c r="C812" s="8" t="str">
-        <f>CONCATENATE(E812,F812,G812,H812,I812,J812)</f>
+        <f t="shared" si="12"/>
         <v>dklb</v>
       </c>
       <c r="D812" s="9" t="s">
@@ -23696,7 +23696,7 @@
         <v>578</v>
       </c>
       <c r="C813" s="8" t="str">
-        <f>CONCATENATE(E813,F813,G813,H813,I813,J813)</f>
+        <f t="shared" si="12"/>
         <v>dxt</v>
       </c>
       <c r="D813" s="9" t="s">
@@ -23720,7 +23720,7 @@
         <v>578</v>
       </c>
       <c r="C814" s="8" t="str">
-        <f>CONCATENATE(E814,F814,G814,H814,I814,J814)</f>
+        <f t="shared" si="12"/>
         <v>dxtg</v>
       </c>
       <c r="D814" s="9" t="s">
@@ -23747,7 +23747,7 @@
         <v>578</v>
       </c>
       <c r="C815" s="8" t="str">
-        <f>CONCATENATE(E815,F815,G815,H815,I815,J815)</f>
+        <f t="shared" si="12"/>
         <v>dxtr</v>
       </c>
       <c r="D815" s="9" t="s">
@@ -23774,7 +23774,7 @@
         <v>578</v>
       </c>
       <c r="C816" s="8" t="str">
-        <f>CONCATENATE(E816,F816,G816,H816,I816,J816)</f>
+        <f t="shared" si="12"/>
         <v>dxv</v>
       </c>
       <c r="D816" s="9" t="s">
@@ -23798,7 +23798,7 @@
         <v>578</v>
       </c>
       <c r="C817" s="8" t="str">
-        <f>CONCATENATE(E817,F817,G817,H817,I817,J817)</f>
+        <f t="shared" si="12"/>
         <v>dxvk</v>
       </c>
       <c r="D817" s="9" t="s">
@@ -23825,7 +23825,7 @@
         <v>578</v>
       </c>
       <c r="C818" s="8" t="str">
-        <f>CONCATENATE(E818,F818,G818,H818,I818,J818)</f>
+        <f t="shared" si="12"/>
         <v>ds</v>
       </c>
       <c r="D818" s="9" t="s">
@@ -23846,7 +23846,7 @@
         <v>578</v>
       </c>
       <c r="C819" s="8" t="str">
-        <f>CONCATENATE(E819,F819,G819,H819,I819,J819)</f>
+        <f t="shared" si="12"/>
         <v>dsk</v>
       </c>
       <c r="D819" s="9" t="s">
@@ -23870,7 +23870,7 @@
         <v>578</v>
       </c>
       <c r="C820" s="8" t="str">
-        <f>CONCATENATE(E820,F820,G820,H820,I820,J820)</f>
+        <f t="shared" si="12"/>
         <v>dsg</v>
       </c>
       <c r="D820" s="9" t="s">
@@ -23894,7 +23894,7 @@
         <v>578</v>
       </c>
       <c r="C821" s="8" t="str">
-        <f>CONCATENATE(E821,F821,G821,H821,I821,J821)</f>
+        <f t="shared" si="12"/>
         <v>dst</v>
       </c>
       <c r="D821" s="9" t="s">
@@ -23918,7 +23918,7 @@
         <v>578</v>
       </c>
       <c r="C822" s="8" t="str">
-        <f>CONCATENATE(E822,F822,G822,H822,I822,J822)</f>
+        <f t="shared" si="12"/>
         <v>dhh</v>
       </c>
       <c r="D822" s="9" t="s">
@@ -23942,7 +23942,7 @@
         <v>578</v>
       </c>
       <c r="C823" s="8" t="str">
-        <f>CONCATENATE(E823,F823,G823,H823,I823,J823)</f>
+        <f t="shared" si="12"/>
         <v>dhm</v>
       </c>
       <c r="D823" s="9" t="s">
@@ -23966,7 +23966,7 @@
         <v>578</v>
       </c>
       <c r="C824" s="8" t="str">
-        <f>CONCATENATE(E824,F824,G824,H824,I824,J824)</f>
+        <f t="shared" si="12"/>
         <v>tjw</v>
       </c>
       <c r="D824" s="9" t="s">
@@ -23990,7 +23990,7 @@
         <v>578</v>
       </c>
       <c r="C825" s="8" t="str">
-        <f>CONCATENATE(E825,F825,G825,H825,I825,J825)</f>
+        <f t="shared" si="12"/>
         <v>twr</v>
       </c>
       <c r="D825" s="9" t="s">
@@ -24014,7 +24014,7 @@
         <v>578</v>
       </c>
       <c r="C826" s="8" t="str">
-        <f>CONCATENATE(E826,F826,G826,H826,I826,J826)</f>
+        <f t="shared" si="12"/>
         <v>twx</v>
       </c>
       <c r="D826" s="9" t="s">
@@ -24038,7 +24038,7 @@
         <v>578</v>
       </c>
       <c r="C827" s="8" t="str">
-        <f>CONCATENATE(E827,F827,G827,H827,I827,J827)</f>
+        <f t="shared" si="12"/>
         <v>tbk</v>
       </c>
       <c r="D827" s="9" t="s">
@@ -24062,7 +24062,7 @@
         <v>578</v>
       </c>
       <c r="C828" s="8" t="str">
-        <f>CONCATENATE(E828,F828,G828,H828,I828,J828)</f>
+        <f t="shared" si="12"/>
         <v>dbk</v>
       </c>
       <c r="D828" s="9" t="s">
@@ -24086,7 +24086,7 @@
         <v>578</v>
       </c>
       <c r="C829" s="8" t="str">
-        <f>CONCATENATE(E829,F829,G829,H829,I829,J829)</f>
+        <f t="shared" si="12"/>
         <v>dbkg</v>
       </c>
       <c r="D829" s="9" t="s">
@@ -24113,7 +24113,7 @@
         <v>578</v>
       </c>
       <c r="C830" s="8" t="str">
-        <f>CONCATENATE(E830,F830,G830,H830,I830,J830)</f>
+        <f t="shared" si="12"/>
         <v>dbkkr</v>
       </c>
       <c r="D830" s="9" t="s">
@@ -24143,7 +24143,7 @@
         <v>578</v>
       </c>
       <c r="C831" s="8" t="str">
-        <f>CONCATENATE(E831,F831,G831,H831,I831,J831)</f>
+        <f t="shared" si="12"/>
         <v>dbkd</v>
       </c>
       <c r="D831" s="9" t="s">
@@ -24170,7 +24170,7 @@
         <v>578</v>
       </c>
       <c r="C832" s="8" t="str">
-        <f>CONCATENATE(E832,F832,G832,H832,I832,J832)</f>
+        <f t="shared" si="12"/>
         <v>dbkn</v>
       </c>
       <c r="D832" s="9" t="s">
@@ -24197,7 +24197,7 @@
         <v>578</v>
       </c>
       <c r="C833" s="8" t="str">
-        <f>CONCATENATE(E833,F833,G833,H833,I833,J833)</f>
+        <f t="shared" si="12"/>
         <v>dbkh</v>
       </c>
       <c r="D833" s="9" t="s">
@@ -24224,7 +24224,7 @@
         <v>578</v>
       </c>
       <c r="C834" s="8" t="str">
-        <f>CONCATENATE(E834,F834,G834,H834,I834,J834)</f>
+        <f t="shared" ref="C834:C897" si="13">CONCATENATE(E834,F834,G834,H834,I834,J834)</f>
         <v>tbkr</v>
       </c>
       <c r="D834" s="9" t="s">
@@ -24251,7 +24251,7 @@
         <v>578</v>
       </c>
       <c r="C835" s="8" t="str">
-        <f>CONCATENATE(E835,F835,G835,H835,I835,J835)</f>
+        <f t="shared" si="13"/>
         <v>dbkr</v>
       </c>
       <c r="D835" s="9" t="s">
@@ -24278,7 +24278,7 @@
         <v>578</v>
       </c>
       <c r="C836" s="8" t="str">
-        <f>CONCATENATE(E836,F836,G836,H836,I836,J836)</f>
+        <f t="shared" si="13"/>
         <v>tbkrg</v>
       </c>
       <c r="D836" s="9" t="s">
@@ -24308,7 +24308,7 @@
         <v>578</v>
       </c>
       <c r="C837" s="8" t="str">
-        <f>CONCATENATE(E837,F837,G837,H837,I837,J837)</f>
+        <f t="shared" si="13"/>
         <v>dbkrk</v>
       </c>
       <c r="D837" s="9" t="s">
@@ -24338,7 +24338,7 @@
         <v>578</v>
       </c>
       <c r="C838" s="8" t="str">
-        <f>CONCATENATE(E838,F838,G838,H838,I838,J838)</f>
+        <f t="shared" si="13"/>
         <v>dbcr</v>
       </c>
       <c r="D838" s="9" t="s">
@@ -24365,7 +24365,7 @@
         <v>578</v>
       </c>
       <c r="C839" s="8" t="str">
-        <f>CONCATENATE(E839,F839,G839,H839,I839,J839)</f>
+        <f t="shared" si="13"/>
         <v>dbcrg</v>
       </c>
       <c r="D839" s="9" t="s">
@@ -24395,7 +24395,7 @@
         <v>578</v>
       </c>
       <c r="C840" s="8" t="str">
-        <f>CONCATENATE(E840,F840,G840,H840,I840,J840)</f>
+        <f t="shared" si="13"/>
         <v>dbcrkr</v>
       </c>
       <c r="D840" s="9" t="s">
@@ -24428,7 +24428,7 @@
         <v>578</v>
       </c>
       <c r="C841" s="8" t="str">
-        <f>CONCATENATE(E841,F841,G841,H841,I841,J841)</f>
+        <f t="shared" si="13"/>
         <v>dbcrd</v>
       </c>
       <c r="D841" s="9" t="s">
@@ -24458,7 +24458,7 @@
         <v>578</v>
       </c>
       <c r="C842" s="8" t="str">
-        <f>CONCATENATE(E842,F842,G842,H842,I842,J842)</f>
+        <f t="shared" si="13"/>
         <v>dbcrn</v>
       </c>
       <c r="D842" s="9" t="s">
@@ -24488,7 +24488,7 @@
         <v>578</v>
       </c>
       <c r="C843" s="8" t="str">
-        <f>CONCATENATE(E843,F843,G843,H843,I843,J843)</f>
+        <f t="shared" si="13"/>
         <v>dbcrh</v>
       </c>
       <c r="D843" s="9" t="s">
@@ -24518,7 +24518,7 @@
         <v>578</v>
       </c>
       <c r="C844" s="8" t="str">
-        <f>CONCATENATE(E844,F844,G844,H844,I844,J844)</f>
+        <f t="shared" si="13"/>
         <v>dbt</v>
       </c>
       <c r="D844" s="9" t="s">
@@ -24542,7 +24542,7 @@
         <v>578</v>
       </c>
       <c r="C845" s="8" t="str">
-        <f>CONCATENATE(E845,F845,G845,H845,I845,J845)</f>
+        <f t="shared" si="13"/>
         <v>dbtg</v>
       </c>
       <c r="D845" s="9" t="s">
@@ -24569,7 +24569,7 @@
         <v>578</v>
       </c>
       <c r="C846" s="8" t="str">
-        <f>CONCATENATE(E846,F846,G846,H846,I846,J846)</f>
+        <f t="shared" si="13"/>
         <v>dbtkr</v>
       </c>
       <c r="D846" s="9" t="s">
@@ -24599,7 +24599,7 @@
         <v>578</v>
       </c>
       <c r="C847" s="8" t="str">
-        <f>CONCATENATE(E847,F847,G847,H847,I847,J847)</f>
+        <f t="shared" si="13"/>
         <v>dbtt</v>
       </c>
       <c r="D847" s="9" t="s">
@@ -24626,7 +24626,7 @@
         <v>578</v>
       </c>
       <c r="C848" s="8" t="str">
-        <f>CONCATENATE(E848,F848,G848,H848,I848,J848)</f>
+        <f t="shared" si="13"/>
         <v>dbtn</v>
       </c>
       <c r="D848" s="9" t="s">
@@ -24653,7 +24653,7 @@
         <v>578</v>
       </c>
       <c r="C849" s="8" t="str">
-        <f>CONCATENATE(E849,F849,G849,H849,I849,J849)</f>
+        <f t="shared" si="13"/>
         <v>dbtw</v>
       </c>
       <c r="D849" s="9" t="s">
@@ -24680,7 +24680,7 @@
         <v>578</v>
       </c>
       <c r="C850" s="8" t="str">
-        <f>CONCATENATE(E850,F850,G850,H850,I850,J850)</f>
+        <f t="shared" si="13"/>
         <v>twnrj</v>
       </c>
       <c r="D850" s="9" t="s">
@@ -24710,7 +24710,7 @@
         <v>578</v>
       </c>
       <c r="C851" s="8" t="str">
-        <f>CONCATENATE(E851,F851,G851,H851,I851,J851)</f>
+        <f t="shared" si="13"/>
         <v>twnrr</v>
       </c>
       <c r="D851" s="9" t="s">
@@ -24740,7 +24740,7 @@
         <v>578</v>
       </c>
       <c r="C852" s="8" t="str">
-        <f>CONCATENATE(E852,F852,G852,H852,I852,J852)</f>
+        <f t="shared" si="13"/>
         <v>twnlb</v>
       </c>
       <c r="D852" s="9" t="s">
@@ -24770,7 +24770,7 @@
         <v>578</v>
       </c>
       <c r="C853" s="8" t="str">
-        <f>CONCATENATE(E853,F853,G853,H853,I853,J853)</f>
+        <f t="shared" si="13"/>
         <v>dbn</v>
       </c>
       <c r="D853" s="9" t="s">
@@ -24794,7 +24794,7 @@
         <v>578</v>
       </c>
       <c r="C854" s="8" t="str">
-        <f>CONCATENATE(E854,F854,G854,H854,I854,J854)</f>
+        <f t="shared" si="13"/>
         <v>twh</v>
       </c>
       <c r="D854" s="9" t="s">
@@ -24818,7 +24818,7 @@
         <v>578</v>
       </c>
       <c r="C855" s="8" t="str">
-        <f>CONCATENATE(E855,F855,G855,H855,I855,J855)</f>
+        <f t="shared" si="13"/>
         <v>dbr</v>
       </c>
       <c r="D855" s="9" t="s">
@@ -24842,7 +24842,7 @@
         <v>578</v>
       </c>
       <c r="C856" s="8" t="str">
-        <f>CONCATENATE(E856,F856,G856,H856,I856,J856)</f>
+        <f t="shared" si="13"/>
         <v>dbrg</v>
       </c>
       <c r="D856" s="9" t="s">
@@ -24869,7 +24869,7 @@
         <v>578</v>
       </c>
       <c r="C857" s="8" t="str">
-        <f>CONCATENATE(E857,F857,G857,H857,I857,J857)</f>
+        <f t="shared" si="13"/>
         <v>dbrd</v>
       </c>
       <c r="D857" s="9" t="s">
@@ -24896,7 +24896,7 @@
         <v>578</v>
       </c>
       <c r="C858" s="8" t="str">
-        <f>CONCATENATE(E858,F858,G858,H858,I858,J858)</f>
+        <f t="shared" si="13"/>
         <v>dbrn</v>
       </c>
       <c r="D858" s="9" t="s">
@@ -24923,7 +24923,7 @@
         <v>578</v>
       </c>
       <c r="C859" s="8" t="str">
-        <f>CONCATENATE(E859,F859,G859,H859,I859,J859)</f>
+        <f t="shared" si="13"/>
         <v>dbrw</v>
       </c>
       <c r="D859" s="9" t="s">
@@ -24950,7 +24950,7 @@
         <v>578</v>
       </c>
       <c r="C860" s="8" t="str">
-        <f>CONCATENATE(E860,F860,G860,H860,I860,J860)</f>
+        <f t="shared" si="13"/>
         <v>nktt</v>
       </c>
       <c r="D860" s="9" t="s">
@@ -24977,7 +24977,7 @@
         <v>578</v>
       </c>
       <c r="C861" s="8" t="str">
-        <f>CONCATENATE(E861,F861,G861,H861,I861,J861)</f>
+        <f t="shared" si="13"/>
         <v>nhgr</v>
       </c>
       <c r="D861" s="9" t="s">
@@ -25004,7 +25004,7 @@
         <v>578</v>
       </c>
       <c r="C862" s="8" t="str">
-        <f>CONCATENATE(E862,F862,G862,H862,I862,J862)</f>
+        <f t="shared" si="13"/>
         <v>nq</v>
       </c>
       <c r="D862" s="9" t="s">
@@ -25025,7 +25025,7 @@
         <v>578</v>
       </c>
       <c r="C863" s="8" t="str">
-        <f>CONCATENATE(E863,F863,G863,H863,I863,J863)</f>
+        <f t="shared" si="13"/>
         <v>nklb</v>
       </c>
       <c r="D863" s="9" t="s">
@@ -25052,7 +25052,7 @@
         <v>578</v>
       </c>
       <c r="C864" s="8" t="str">
-        <f>CONCATENATE(E864,F864,G864,H864,I864,J864)</f>
+        <f t="shared" si="13"/>
         <v>nhnn</v>
       </c>
       <c r="D864" s="9" t="s">
@@ -25079,7 +25079,7 @@
         <v>578</v>
       </c>
       <c r="C865" s="8" t="str">
-        <f>CONCATENATE(E865,F865,G865,H865,I865,J865)</f>
+        <f t="shared" si="13"/>
         <v>nrb</v>
       </c>
       <c r="D865" s="9" t="s">
@@ -25103,7 +25103,7 @@
         <v>578</v>
       </c>
       <c r="C866" s="8" t="str">
-        <f>CONCATENATE(E866,F866,G866,H866,I866,J866)</f>
+        <f t="shared" si="13"/>
         <v>nrj</v>
       </c>
       <c r="D866" s="9" t="s">
@@ -25127,7 +25127,7 @@
         <v>578</v>
       </c>
       <c r="C867" s="8" t="str">
-        <f>CONCATENATE(E867,F867,G867,H867,I867,J867)</f>
+        <f t="shared" si="13"/>
         <v>nrr</v>
       </c>
       <c r="D867" s="9" t="s">
@@ -25151,7 +25151,7 @@
         <v>578</v>
       </c>
       <c r="C868" s="8" t="str">
-        <f>CONCATENATE(E868,F868,G868,H868,I868,J868)</f>
+        <f t="shared" si="13"/>
         <v>nrl</v>
       </c>
       <c r="D868" s="9" t="s">
@@ -25175,7 +25175,7 @@
         <v>578</v>
       </c>
       <c r="C869" s="8" t="str">
-        <f>CONCATENATE(E869,F869,G869,H869,I869,J869)</f>
+        <f t="shared" si="13"/>
         <v>nrlb</v>
       </c>
       <c r="D869" s="9" t="s">
@@ -25202,7 +25202,7 @@
         <v>578</v>
       </c>
       <c r="C870" s="8" t="str">
-        <f>CONCATENATE(E870,F870,G870,H870,I870,J870)</f>
+        <f t="shared" si="13"/>
         <v>njtjt</v>
       </c>
       <c r="D870" s="9" t="s">
@@ -25232,7 +25232,7 @@
         <v>578</v>
       </c>
       <c r="C871" s="8" t="str">
-        <f>CONCATENATE(E871,F871,G871,H871,I871,J871)</f>
+        <f t="shared" si="13"/>
         <v>njtk</v>
       </c>
       <c r="D871" s="9" t="s">
@@ -25259,7 +25259,7 @@
         <v>578</v>
       </c>
       <c r="C872" s="8" t="str">
-        <f>CONCATENATE(E872,F872,G872,H872,I872,J872)</f>
+        <f t="shared" si="13"/>
         <v>njh</v>
       </c>
       <c r="D872" s="9" t="s">
@@ -25283,7 +25283,7 @@
         <v>578</v>
       </c>
       <c r="C873" s="8" t="str">
-        <f>CONCATENATE(E873,F873,G873,H873,I873,J873)</f>
+        <f t="shared" si="13"/>
         <v>njrj</v>
       </c>
       <c r="D873" s="9" t="s">
@@ -25310,7 +25310,7 @@
         <v>578</v>
       </c>
       <c r="C874" s="8" t="str">
-        <f>CONCATENATE(E874,F874,G874,H874,I874,J874)</f>
+        <f t="shared" si="13"/>
         <v>njrr</v>
       </c>
       <c r="D874" s="9" t="s">
@@ -25337,7 +25337,7 @@
         <v>578</v>
       </c>
       <c r="C875" s="8" t="str">
-        <f>CONCATENATE(E875,F875,G875,H875,I875,J875)</f>
+        <f t="shared" si="13"/>
         <v>njlb</v>
       </c>
       <c r="D875" s="9" t="s">
@@ -25364,7 +25364,7 @@
         <v>578</v>
       </c>
       <c r="C876" s="8" t="str">
-        <f>CONCATENATE(E876,F876,G876,H876,I876,J876)</f>
+        <f t="shared" si="13"/>
         <v>nwd</v>
       </c>
       <c r="D876" s="9" t="s">
@@ -25388,7 +25388,7 @@
         <v>578</v>
       </c>
       <c r="C877" s="8" t="str">
-        <f>CONCATENATE(E877,F877,G877,H877,I877,J877)</f>
+        <f t="shared" si="13"/>
         <v>nwh</v>
       </c>
       <c r="D877" s="9" t="s">
@@ -25412,7 +25412,7 @@
         <v>578</v>
       </c>
       <c r="C878" s="8" t="str">
-        <f>CONCATENATE(E878,F878,G878,H878,I878,J878)</f>
+        <f t="shared" si="13"/>
         <v>nhv</v>
       </c>
       <c r="D878" s="9" t="s">
@@ -25436,7 +25436,7 @@
         <v>578</v>
       </c>
       <c r="C879" s="8" t="str">
-        <f>CONCATENATE(E879,F879,G879,H879,I879,J879)</f>
+        <f t="shared" si="13"/>
         <v>nhvn</v>
       </c>
       <c r="D879" s="9" t="s">
@@ -25463,7 +25463,7 @@
         <v>578</v>
       </c>
       <c r="C880" s="8" t="str">
-        <f>CONCATENATE(E880,F880,G880,H880,I880,J880)</f>
+        <f t="shared" si="13"/>
         <v>nhvh</v>
       </c>
       <c r="D880" s="9" t="s">
@@ -25490,7 +25490,7 @@
         <v>578</v>
       </c>
       <c r="C881" s="8" t="str">
-        <f>CONCATENATE(E881,F881,G881,H881,I881,J881)</f>
+        <f t="shared" si="13"/>
         <v>hz</v>
       </c>
       <c r="D881" s="9" t="s">
@@ -25511,7 +25511,7 @@
         <v>578</v>
       </c>
       <c r="C882" s="8" t="str">
-        <f>CONCATENATE(E882,F882,G882,H882,I882,J882)</f>
+        <f t="shared" si="13"/>
         <v>hjt</v>
       </c>
       <c r="D882" s="9" t="s">
@@ -25535,7 +25535,7 @@
         <v>578</v>
       </c>
       <c r="C883" s="8" t="str">
-        <f>CONCATENATE(E883,F883,G883,H883,I883,J883)</f>
+        <f t="shared" si="13"/>
         <v>hhd</v>
       </c>
       <c r="D883" s="9" t="s">
@@ -25559,7 +25559,7 @@
         <v>578</v>
       </c>
       <c r="C884" s="8" t="str">
-        <f>CONCATENATE(E884,F884,G884,H884,I884,J884)</f>
+        <f t="shared" si="13"/>
         <v>mxt</v>
       </c>
       <c r="D884" s="9" t="s">
@@ -25583,7 +25583,7 @@
         <v>578</v>
       </c>
       <c r="C885" s="8" t="str">
-        <f>CONCATENATE(E885,F885,G885,H885,I885,J885)</f>
+        <f t="shared" si="13"/>
         <v>mxtg</v>
       </c>
       <c r="D885" s="9" t="s">
@@ -25610,7 +25610,7 @@
         <v>578</v>
       </c>
       <c r="C886" s="8" t="str">
-        <f>CONCATENATE(E886,F886,G886,H886,I886,J886)</f>
+        <f t="shared" si="13"/>
         <v>mxtr</v>
       </c>
       <c r="D886" s="9" t="s">
@@ -25637,7 +25637,7 @@
         <v>578</v>
       </c>
       <c r="C887" s="8" t="str">
-        <f>CONCATENATE(E887,F887,G887,H887,I887,J887)</f>
+        <f t="shared" si="13"/>
         <v>mxx</v>
       </c>
       <c r="D887" s="9" t="s">
@@ -25661,7 +25661,7 @@
         <v>578</v>
       </c>
       <c r="C888" s="8" t="str">
-        <f>CONCATENATE(E888,F888,G888,H888,I888,J888)</f>
+        <f t="shared" si="13"/>
         <v>mxv</v>
       </c>
       <c r="D888" s="9" t="s">
@@ -25685,7 +25685,7 @@
         <v>578</v>
       </c>
       <c r="C889" s="8" t="str">
-        <f>CONCATENATE(E889,F889,G889,H889,I889,J889)</f>
+        <f t="shared" si="13"/>
         <v>mxvk</v>
       </c>
       <c r="D889" s="9" t="s">
@@ -25712,7 +25712,7 @@
         <v>578</v>
       </c>
       <c r="C890" s="8" t="str">
-        <f>CONCATENATE(E890,F890,G890,H890,I890,J890)</f>
+        <f t="shared" si="13"/>
         <v>ms</v>
       </c>
       <c r="D890" s="9" t="s">
@@ -25733,7 +25733,7 @@
         <v>578</v>
       </c>
       <c r="C891" s="8" t="str">
-        <f>CONCATENATE(E891,F891,G891,H891,I891,J891)</f>
+        <f t="shared" si="13"/>
         <v>mmz</v>
       </c>
       <c r="D891" s="9" t="s">
@@ -25757,7 +25757,7 @@
         <v>578</v>
       </c>
       <c r="C892" s="8" t="str">
-        <f>CONCATENATE(E892,F892,G892,H892,I892,J892)</f>
+        <f t="shared" si="13"/>
         <v>msk</v>
       </c>
       <c r="D892" s="9" t="s">
@@ -25781,7 +25781,7 @@
         <v>578</v>
       </c>
       <c r="C893" s="8" t="str">
-        <f>CONCATENATE(E893,F893,G893,H893,I893,J893)</f>
+        <f t="shared" si="13"/>
         <v>msg</v>
       </c>
       <c r="D893" s="9" t="s">
@@ -25805,7 +25805,7 @@
         <v>578</v>
       </c>
       <c r="C894" s="8" t="str">
-        <f>CONCATENATE(E894,F894,G894,H894,I894,J894)</f>
+        <f t="shared" si="13"/>
         <v>mst</v>
       </c>
       <c r="D894" s="9" t="s">
@@ -25829,7 +25829,7 @@
         <v>578</v>
       </c>
       <c r="C895" s="8" t="str">
-        <f>CONCATENATE(E895,F895,G895,H895,I895,J895)</f>
+        <f t="shared" si="13"/>
         <v>msd</v>
       </c>
       <c r="D895" s="9" t="s">
@@ -25853,7 +25853,7 @@
         <v>578</v>
       </c>
       <c r="C896" s="8" t="str">
-        <f>CONCATENATE(E896,F896,G896,H896,I896,J896)</f>
+        <f t="shared" si="13"/>
         <v>mrt</v>
       </c>
       <c r="D896" s="9" t="s">
@@ -25877,7 +25877,7 @@
         <v>578</v>
       </c>
       <c r="C897" s="8" t="str">
-        <f>CONCATENATE(E897,F897,G897,H897,I897,J897)</f>
+        <f t="shared" si="13"/>
         <v>mrd</v>
       </c>
       <c r="D897" s="9" t="s">
@@ -25901,7 +25901,7 @@
         <v>578</v>
       </c>
       <c r="C898" s="8" t="str">
-        <f>CONCATENATE(E898,F898,G898,H898,I898,J898)</f>
+        <f t="shared" ref="C898:C944" si="14">CONCATENATE(E898,F898,G898,H898,I898,J898)</f>
         <v>mmd</v>
       </c>
       <c r="D898" s="9" t="s">
@@ -25925,7 +25925,7 @@
         <v>578</v>
       </c>
       <c r="C899" s="8" t="str">
-        <f>CONCATENATE(E899,F899,G899,H899,I899,J899)</f>
+        <f t="shared" si="14"/>
         <v>mrr</v>
       </c>
       <c r="D899" s="9" t="s">
@@ -25949,7 +25949,7 @@
         <v>578</v>
       </c>
       <c r="C900" s="8" t="str">
-        <f>CONCATENATE(E900,F900,G900,H900,I900,J900)</f>
+        <f t="shared" si="14"/>
         <v>mmx</v>
       </c>
       <c r="D900" s="9" t="s">
@@ -25973,7 +25973,7 @@
         <v>578</v>
       </c>
       <c r="C901" s="8" t="str">
-        <f>CONCATENATE(E901,F901,G901,H901,I901,J901)</f>
+        <f t="shared" si="14"/>
         <v>mwn</v>
       </c>
       <c r="D901" s="9" t="s">
@@ -25997,7 +25997,7 @@
         <v>578</v>
       </c>
       <c r="C902" s="8" t="str">
-        <f>CONCATENATE(E902,F902,G902,H902,I902,J902)</f>
+        <f t="shared" si="14"/>
         <v>jrr</v>
       </c>
       <c r="D902" s="9" t="s">
@@ -26021,7 +26021,7 @@
         <v>578</v>
       </c>
       <c r="C903" s="8" t="str">
-        <f>CONCATENATE(E903,F903,G903,H903,I903,J903)</f>
+        <f t="shared" si="14"/>
         <v>jrlb</v>
       </c>
       <c r="D903" s="9" t="s">
@@ -26048,7 +26048,7 @@
         <v>578</v>
       </c>
       <c r="C904" s="8" t="str">
-        <f>CONCATENATE(E904,F904,G904,H904,I904,J904)</f>
+        <f t="shared" si="14"/>
         <v>jhr</v>
       </c>
       <c r="D904" s="9" t="s">
@@ -26072,7 +26072,7 @@
         <v>578</v>
       </c>
       <c r="C905" s="8" t="str">
-        <f>CONCATENATE(E905,F905,G905,H905,I905,J905)</f>
+        <f t="shared" si="14"/>
         <v>rsj</v>
       </c>
       <c r="D905" s="9" t="s">
@@ -26096,7 +26096,7 @@
         <v>578</v>
       </c>
       <c r="C906" s="8" t="str">
-        <f>CONCATENATE(E906,F906,G906,H906,I906,J906)</f>
+        <f t="shared" si="14"/>
         <v>lb</v>
       </c>
       <c r="D906" s="9" t="s">
@@ -26117,7 +26117,7 @@
         <v>578</v>
       </c>
       <c r="C907" s="8" t="str">
-        <f>CONCATENATE(E907,F907,G907,H907,I907,J907)</f>
+        <f t="shared" si="14"/>
         <v>lr</v>
       </c>
       <c r="D907" s="9" t="s">
@@ -26138,7 +26138,7 @@
         <v>578</v>
       </c>
       <c r="C908" s="8" t="str">
-        <f>CONCATENATE(E908,F908,G908,H908,I908,J908)</f>
+        <f t="shared" si="14"/>
         <v>wts</v>
       </c>
       <c r="D908" s="9" t="s">
@@ -26162,7 +26162,7 @@
         <v>578</v>
       </c>
       <c r="C909" s="8" t="str">
-        <f>CONCATENATE(E909,F909,G909,H909,I909,J909)</f>
+        <f t="shared" si="14"/>
         <v>wtsg</v>
       </c>
       <c r="D909" s="9" t="s">
@@ -26189,7 +26189,7 @@
         <v>578</v>
       </c>
       <c r="C910" s="8" t="str">
-        <f>CONCATENATE(E910,F910,G910,H910,I910,J910)</f>
+        <f t="shared" si="14"/>
         <v>wtst</v>
       </c>
       <c r="D910" s="9" t="s">
@@ -26216,7 +26216,7 @@
         <v>578</v>
       </c>
       <c r="C911" s="8" t="str">
-        <f>CONCATENATE(E911,F911,G911,H911,I911,J911)</f>
+        <f t="shared" si="14"/>
         <v>wtsn</v>
       </c>
       <c r="D911" s="9" t="s">
@@ -26243,7 +26243,7 @@
         <v>578</v>
       </c>
       <c r="C912" s="8" t="str">
-        <f>CONCATENATE(E912,F912,G912,H912,I912,J912)</f>
+        <f t="shared" si="14"/>
         <v>wtsb</v>
       </c>
       <c r="D912" s="9" t="s">
@@ -26270,7 +26270,7 @@
         <v>578</v>
       </c>
       <c r="C913" s="8" t="str">
-        <f>CONCATENATE(E913,F913,G913,H913,I913,J913)</f>
+        <f t="shared" si="14"/>
         <v>wtsh</v>
       </c>
       <c r="D913" s="9" t="s">
@@ -26297,7 +26297,7 @@
         <v>578</v>
       </c>
       <c r="C914" s="8" t="str">
-        <f>CONCATENATE(E914,F914,G914,H914,I914,J914)</f>
+        <f t="shared" si="14"/>
         <v>wtsm</v>
       </c>
       <c r="D914" s="9" t="s">
@@ -26324,7 +26324,7 @@
         <v>578</v>
       </c>
       <c r="C915" s="8" t="str">
-        <f>CONCATENATE(E915,F915,G915,H915,I915,J915)</f>
+        <f t="shared" si="14"/>
         <v>wtsw</v>
       </c>
       <c r="D915" s="9" t="s">
@@ -26351,7 +26351,7 @@
         <v>670</v>
       </c>
       <c r="C916" s="8" t="str">
-        <f>CONCATENATE(E916,F916,G916,H916,I916,J916)</f>
+        <f t="shared" si="14"/>
         <v>thx</v>
       </c>
       <c r="D916" s="9" t="s">
@@ -26375,7 +26375,7 @@
         <v>670</v>
       </c>
       <c r="C917" s="8" t="str">
-        <f>CONCATENATE(E917,F917,G917,H917,I917,J917)</f>
+        <f t="shared" si="14"/>
         <v>'k</v>
       </c>
       <c r="D917" s="9" t="s">
@@ -26396,7 +26396,7 @@
         <v>670</v>
       </c>
       <c r="C918" s="8" t="str">
-        <f>CONCATENATE(E918,F918,G918,H918,I918,J918)</f>
+        <f t="shared" si="14"/>
         <v>'g</v>
       </c>
       <c r="D918" s="9" t="s">
@@ -26417,7 +26417,7 @@
         <v>670</v>
       </c>
       <c r="C919" s="8" t="str">
-        <f>CONCATENATE(E919,F919,G919,H919,I919,J919)</f>
+        <f t="shared" si="14"/>
         <v>'x</v>
       </c>
       <c r="D919" s="9" t="s">
@@ -26438,7 +26438,7 @@
         <v>670</v>
       </c>
       <c r="C920" s="8" t="str">
-        <f>CONCATENATE(E920,F920,G920,H920,I920,J920)</f>
+        <f t="shared" si="14"/>
         <v>'sh</v>
       </c>
       <c r="D920" s="9" t="s">
@@ -26462,7 +26462,7 @@
         <v>670</v>
       </c>
       <c r="C921" s="8" t="str">
-        <f>CONCATENATE(E921,F921,G921,H921,I921,J921)</f>
+        <f t="shared" si="14"/>
         <v>'z</v>
       </c>
       <c r="D921" s="9" t="s">
@@ -26483,7 +26483,7 @@
         <v>670</v>
       </c>
       <c r="C922" s="8" t="str">
-        <f>CONCATENATE(E922,F922,G922,H922,I922,J922)</f>
+        <f t="shared" si="14"/>
         <v>'ch</v>
       </c>
       <c r="D922" s="9" t="s">
@@ -26507,7 +26507,7 @@
         <v>670</v>
       </c>
       <c r="C923" s="8" t="str">
-        <f>CONCATENATE(E923,F923,G923,H923,I923,J923)</f>
+        <f t="shared" si="14"/>
         <v>'t</v>
       </c>
       <c r="D923" s="9" t="s">
@@ -26528,7 +26528,7 @@
         <v>670</v>
       </c>
       <c r="C924" s="8" t="str">
-        <f>CONCATENATE(E924,F924,G924,H924,I924,J924)</f>
+        <f t="shared" si="14"/>
         <v>'d</v>
       </c>
       <c r="D924" s="9" t="s">
@@ -26549,7 +26549,7 @@
         <v>670</v>
       </c>
       <c r="C925" s="8" t="str">
-        <f>CONCATENATE(E925,F925,G925,H925,I925,J925)</f>
+        <f t="shared" si="14"/>
         <v>'b</v>
       </c>
       <c r="D925" s="9" t="s">
@@ -26570,7 +26570,7 @@
         <v>670</v>
       </c>
       <c r="C926" s="8" t="str">
-        <f>CONCATENATE(E926,F926,G926,H926,I926,J926)</f>
+        <f t="shared" si="14"/>
         <v>'p</v>
       </c>
       <c r="D926" s="9" t="s">
@@ -26591,7 +26591,7 @@
         <v>670</v>
       </c>
       <c r="C927" s="8" t="str">
-        <f>CONCATENATE(E927,F927,G927,H927,I927,J927)</f>
+        <f t="shared" si="14"/>
         <v>why</v>
       </c>
       <c r="D927" s="9" t="s">
@@ -26615,7 +26615,7 @@
         <v>670</v>
       </c>
       <c r="C928" s="8" t="str">
-        <f>CONCATENATE(E928,F928,G928,H928,I928,J928)</f>
+        <f t="shared" si="14"/>
         <v>'tc</v>
       </c>
       <c r="D928" s="9" t="s">
@@ -26639,7 +26639,7 @@
         <v>670</v>
       </c>
       <c r="C929" s="8" t="str">
-        <f>CONCATENATE(E929,F929,G929,H929,I929,J929)</f>
+        <f t="shared" si="14"/>
         <v>wht</v>
       </c>
       <c r="D929" s="9" t="s">
@@ -26663,7 +26663,7 @@
         <v>670</v>
       </c>
       <c r="C930" s="8" t="str">
-        <f>CONCATENATE(E930,F930,G930,H930,I930,J930)</f>
+        <f t="shared" si="14"/>
         <v>whtk</v>
       </c>
       <c r="D930" s="9" t="s">
@@ -26690,7 +26690,7 @@
         <v>670</v>
       </c>
       <c r="C931" s="8" t="str">
-        <f>CONCATENATE(E931,F931,G931,H931,I931,J931)</f>
+        <f t="shared" si="14"/>
         <v>whtg</v>
       </c>
       <c r="D931" s="9" t="s">
@@ -26717,7 +26717,7 @@
         <v>670</v>
       </c>
       <c r="C932" s="8" t="str">
-        <f>CONCATENATE(E932,F932,G932,H932,I932,J932)</f>
+        <f t="shared" si="14"/>
         <v>whtd</v>
       </c>
       <c r="D932" s="9" t="s">
@@ -26744,7 +26744,7 @@
         <v>670</v>
       </c>
       <c r="C933" s="8" t="str">
-        <f>CONCATENATE(E933,F933,G933,H933,I933,J933)</f>
+        <f t="shared" si="14"/>
         <v>rr</v>
       </c>
       <c r="D933" s="9" t="s">
@@ -26765,7 +26765,7 @@
         <v>681</v>
       </c>
       <c r="C934" s="8" t="str">
-        <f>CONCATENATE(E934,F934,G934,H934,I934,J934)</f>
+        <f t="shared" si="14"/>
         <v>''-</v>
       </c>
       <c r="D934" s="9" t="s">
@@ -26789,7 +26789,7 @@
         <v>681</v>
       </c>
       <c r="C935" s="8" t="str">
-        <f>CONCATENATE(E935,F935,G935,H935,I935,J935)</f>
+        <f t="shared" si="14"/>
         <v>''/</v>
       </c>
       <c r="D935" s="9" t="s">
@@ -26813,7 +26813,7 @@
         <v>681</v>
       </c>
       <c r="C936" s="8" t="str">
-        <f>CONCATENATE(E936,F936,G936,H936,I936,J936)</f>
+        <f t="shared" si="14"/>
         <v>'']</v>
       </c>
       <c r="D936" s="9" t="s">
@@ -26837,7 +26837,7 @@
         <v>681</v>
       </c>
       <c r="C937" s="8" t="str">
-        <f>CONCATENATE(E937,F937,G937,H937,I937,J937)</f>
+        <f t="shared" si="14"/>
         <v>''[</v>
       </c>
       <c r="D937" s="9" t="s">
@@ -26861,7 +26861,7 @@
         <v>681</v>
       </c>
       <c r="C938" s="8" t="str">
-        <f>CONCATENATE(E938,F938,G938,H938,I938,J938)</f>
+        <f t="shared" si="14"/>
         <v>''(</v>
       </c>
       <c r="D938" s="9" t="s">
@@ -26885,7 +26885,7 @@
         <v>681</v>
       </c>
       <c r="C939" s="8" t="str">
-        <f>CONCATENATE(E939,F939,G939,H939,I939,J939)</f>
+        <f t="shared" si="14"/>
         <v>'')</v>
       </c>
       <c r="D939" s="9" t="s">
@@ -26909,7 +26909,7 @@
         <v>681</v>
       </c>
       <c r="C940" s="8" t="str">
-        <f>CONCATENATE(E940,F940,G940,H940,I940,J940)</f>
+        <f t="shared" si="14"/>
         <v>''k</v>
       </c>
       <c r="D940" s="9" t="s">
@@ -26933,7 +26933,7 @@
         <v>681</v>
       </c>
       <c r="C941" s="8" t="str">
-        <f>CONCATENATE(E941,F941,G941,H941,I941,J941)</f>
+        <f t="shared" si="14"/>
         <v>''l</v>
       </c>
       <c r="D941" s="9" t="s">
@@ -26957,7 +26957,7 @@
         <v>681</v>
       </c>
       <c r="C942" s="8" t="str">
-        <f>CONCATENATE(E942,F942,G942,H942,I942,J942)</f>
+        <f t="shared" si="14"/>
         <v>''j</v>
       </c>
       <c r="D942" s="9" t="s">
@@ -26981,7 +26981,7 @@
         <v>681</v>
       </c>
       <c r="C943" s="8" t="str">
-        <f>CONCATENATE(E943,F943,G943,H943,I943,J943)</f>
+        <f t="shared" si="14"/>
         <v>''h</v>
       </c>
       <c r="D943" s="9" t="s">
@@ -27005,7 +27005,7 @@
         <v>681</v>
       </c>
       <c r="C944" s="8" t="str">
-        <f>CONCATENATE(E944,F944,G944,H944,I944,J944)</f>
+        <f t="shared" si="14"/>
         <v>''"</v>
       </c>
       <c r="D944" s="9" t="s">

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9030" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="40" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12721" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12719" uniqueCount="1635">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -4993,10 +4993,6 @@
     <t>dq</t>
   </si>
   <si>
-    <t>dx</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>dc</t>
   </si>
   <si>
@@ -5354,6 +5350,13 @@
   <si>
     <t>kj</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7.和語</t>
   </si>
 </sst>
 </file>
@@ -5927,10 +5930,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1860"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A928" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D969"/>
+      <selection pane="bottomLeft" activeCell="V939" sqref="V939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -20238,16 +20241,16 @@
       </c>
       <c r="C635" s="8" t="str">
         <f>CONCATENATE(E635,F635,G635,H635,I635,J635,K635)</f>
-        <v>dx</v>
+        <v>tz</v>
       </c>
       <c r="D635" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E635" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="F635" s="5" t="s">
-        <v>1246</v>
+        <v>930</v>
+      </c>
+      <c r="F635" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -20259,16 +20262,16 @@
       </c>
       <c r="C636" s="8" t="str">
         <f>CONCATENATE(E636,F636,G636,H636,I636,J636,K636)</f>
-        <v>tz</v>
+        <v>tc</v>
       </c>
       <c r="D636" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E636" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="F636" s="4" t="s">
-        <v>952</v>
+      <c r="F636" s="5" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -20280,15 +20283,15 @@
       </c>
       <c r="C637" s="8" t="str">
         <f>CONCATENATE(E637,F637,G637,H637,I637,J637,K637)</f>
-        <v>tc</v>
+        <v>dc</v>
       </c>
       <c r="D637" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="F637" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="F637" s="4" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -20301,16 +20304,16 @@
       </c>
       <c r="C638" s="8" t="str">
         <f>CONCATENATE(E638,F638,G638,H638,I638,J638,K638)</f>
-        <v>dc</v>
+        <v>dz</v>
       </c>
       <c r="D638" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E638" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F638" s="4" t="s">
-        <v>1240</v>
+        <v>952</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -20322,16 +20325,16 @@
       </c>
       <c r="C639" s="8" t="str">
         <f>CONCATENATE(E639,F639,G639,H639,I639,J639,K639)</f>
-        <v>dz</v>
+        <v>nt</v>
       </c>
       <c r="D639" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F639" s="4" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -20343,16 +20346,19 @@
       </c>
       <c r="C640" s="8" t="str">
         <f>CONCATENATE(E640,F640,G640,H640,I640,J640,K640)</f>
-        <v>nt</v>
+        <v>njq</v>
       </c>
       <c r="D640" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E640" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="F640" s="4" t="s">
-        <v>930</v>
+      <c r="F640" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G640" s="4" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -20364,18 +20370,15 @@
       </c>
       <c r="C641" s="8" t="str">
         <f>CONCATENATE(E641,F641,G641,H641,I641,J641,K641)</f>
-        <v>njq</v>
+        <v>hq</v>
       </c>
       <c r="D641" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="F641" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G641" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F641" s="4" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -20388,13 +20391,13 @@
       </c>
       <c r="C642" s="8" t="str">
         <f>CONCATENATE(E642,F642,G642,H642,I642,J642,K642)</f>
-        <v>hq</v>
+        <v>bq</v>
       </c>
       <c r="D642" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>1248</v>
+        <v>956</v>
       </c>
       <c r="F642" s="4" t="s">
         <v>1243</v>
@@ -20409,15 +20412,15 @@
       </c>
       <c r="C643" s="8" t="str">
         <f>CONCATENATE(E643,F643,G643,H643,I643,J643,K643)</f>
-        <v>bq</v>
+        <v>pq</v>
       </c>
       <c r="D643" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="F643" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="F643" s="5" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -20430,16 +20433,16 @@
       </c>
       <c r="C644" s="8" t="str">
         <f>CONCATENATE(E644,F644,G644,H644,I644,J644,K644)</f>
-        <v>pq</v>
+        <v>ht</v>
       </c>
       <c r="D644" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="F644" s="5" t="s">
-        <v>1243</v>
+        <v>1248</v>
+      </c>
+      <c r="F644" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -20451,13 +20454,13 @@
       </c>
       <c r="C645" s="8" t="str">
         <f>CONCATENATE(E645,F645,G645,H645,I645,J645,K645)</f>
-        <v>ht</v>
+        <v>bt</v>
       </c>
       <c r="D645" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E645" s="4" t="s">
-        <v>1248</v>
+        <v>956</v>
       </c>
       <c r="F645" s="4" t="s">
         <v>930</v>
@@ -20472,13 +20475,13 @@
       </c>
       <c r="C646" s="8" t="str">
         <f>CONCATENATE(E646,F646,G646,H646,I646,J646,K646)</f>
-        <v>bt</v>
+        <v>pt</v>
       </c>
       <c r="D646" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E646" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F646" s="4" t="s">
         <v>930</v>
@@ -20493,16 +20496,16 @@
       </c>
       <c r="C647" s="8" t="str">
         <f>CONCATENATE(E647,F647,G647,H647,I647,J647,K647)</f>
-        <v>pt</v>
+        <v>hs</v>
       </c>
       <c r="D647" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E647" s="4" t="s">
-        <v>955</v>
+        <v>1248</v>
       </c>
       <c r="F647" s="4" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -20514,15 +20517,18 @@
       </c>
       <c r="C648" s="8" t="str">
         <f>CONCATENATE(E648,F648,G648,H648,I648,J648,K648)</f>
-        <v>hs</v>
+        <v>bjs</v>
       </c>
       <c r="D648" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>1248</v>
+        <v>956</v>
       </c>
       <c r="F648" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G648" s="4" t="s">
         <v>951</v>
       </c>
     </row>
@@ -20535,19 +20541,19 @@
       </c>
       <c r="C649" s="8" t="str">
         <f>CONCATENATE(E649,F649,G649,H649,I649,J649,K649)</f>
-        <v>bjs</v>
+        <v>hjq</v>
       </c>
       <c r="D649" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E649" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="F649" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F649" s="5" t="s">
         <v>1242</v>
       </c>
       <c r="G649" s="4" t="s">
-        <v>951</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -20559,15 +20565,15 @@
       </c>
       <c r="C650" s="8" t="str">
         <f>CONCATENATE(E650,F650,G650,H650,I650,J650,K650)</f>
-        <v>hjq</v>
+        <v>bjq</v>
       </c>
       <c r="D650" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E650" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F650" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="F650" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="G650" s="4" t="s">
@@ -20583,19 +20589,16 @@
       </c>
       <c r="C651" s="8" t="str">
         <f>CONCATENATE(E651,F651,G651,H651,I651,J651,K651)</f>
-        <v>bjq</v>
+        <v>fk</v>
       </c>
       <c r="D651" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E651" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="F651" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G651" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
+      </c>
+      <c r="F651" s="5" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -20607,16 +20610,16 @@
       </c>
       <c r="C652" s="8" t="str">
         <f>CONCATENATE(E652,F652,G652,H652,I652,J652,K652)</f>
-        <v>fk</v>
+        <v>fs</v>
       </c>
       <c r="D652" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E652" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="F652" s="5" t="s">
-        <v>949</v>
+      <c r="F652" s="4" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -20628,13 +20631,13 @@
       </c>
       <c r="C653" s="8" t="str">
         <f>CONCATENATE(E653,F653,G653,H653,I653,J653,K653)</f>
-        <v>fs</v>
+        <v>bs</v>
       </c>
       <c r="D653" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>1241</v>
+        <v>956</v>
       </c>
       <c r="F653" s="4" t="s">
         <v>951</v>
@@ -20649,16 +20652,16 @@
       </c>
       <c r="C654" s="8" t="str">
         <f>CONCATENATE(E654,F654,G654,H654,I654,J654,K654)</f>
-        <v>bs</v>
+        <v>hx</v>
       </c>
       <c r="D654" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>956</v>
+        <v>1248</v>
       </c>
       <c r="F654" s="4" t="s">
-        <v>951</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -20670,15 +20673,15 @@
       </c>
       <c r="C655" s="8" t="str">
         <f>CONCATENATE(E655,F655,G655,H655,I655,J655,K655)</f>
-        <v>hx</v>
+        <v>bx</v>
       </c>
       <c r="D655" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F655" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F655" s="5" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -20691,16 +20694,19 @@
       </c>
       <c r="C656" s="8" t="str">
         <f>CONCATENATE(E656,F656,G656,H656,I656,J656,K656)</f>
-        <v>bx</v>
+        <v>bjz</v>
       </c>
       <c r="D656" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E656" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="F656" s="5" t="s">
-        <v>1246</v>
+      <c r="F656" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G656" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -20712,19 +20718,16 @@
       </c>
       <c r="C657" s="8" t="str">
         <f>CONCATENATE(E657,F657,G657,H657,I657,J657,K657)</f>
-        <v>bjz</v>
+        <v>hc</v>
       </c>
       <c r="D657" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="F657" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G657" s="4" t="s">
-        <v>952</v>
+        <v>1248</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -20736,15 +20739,15 @@
       </c>
       <c r="C658" s="8" t="str">
         <f>CONCATENATE(E658,F658,G658,H658,I658,J658,K658)</f>
-        <v>hc</v>
+        <v>bc</v>
       </c>
       <c r="D658" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E658" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F658" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="F658" s="4" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -20757,13 +20760,13 @@
       </c>
       <c r="C659" s="8" t="str">
         <f>CONCATENATE(E659,F659,G659,H659,I659,J659,K659)</f>
-        <v>bc</v>
+        <v>pc</v>
       </c>
       <c r="D659" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E659" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F659" s="4" t="s">
         <v>1240</v>
@@ -20778,16 +20781,16 @@
       </c>
       <c r="C660" s="8" t="str">
         <f>CONCATENATE(E660,F660,G660,H660,I660,J660,K660)</f>
-        <v>pc</v>
+        <v>bz</v>
       </c>
       <c r="D660" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F660" s="4" t="s">
-        <v>1240</v>
+        <v>952</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -20799,16 +20802,16 @@
       </c>
       <c r="C661" s="8" t="str">
         <f>CONCATENATE(E661,F661,G661,H661,I661,J661,K661)</f>
-        <v>bz</v>
+        <v>mq</v>
       </c>
       <c r="D661" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="F661" s="4" t="s">
-        <v>952</v>
+        <v>957</v>
+      </c>
+      <c r="F661" s="5" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -20820,16 +20823,16 @@
       </c>
       <c r="C662" s="8" t="str">
         <f>CONCATENATE(E662,F662,G662,H662,I662,J662,K662)</f>
-        <v>mq</v>
+        <v>mt</v>
       </c>
       <c r="D662" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E662" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="F662" s="5" t="s">
-        <v>1243</v>
+      <c r="F662" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -20841,16 +20844,16 @@
       </c>
       <c r="C663" s="8" t="str">
         <f>CONCATENATE(E663,F663,G663,H663,I663,J663,K663)</f>
-        <v>mt</v>
+        <v>ms</v>
       </c>
       <c r="D663" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E663" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F663" s="4" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -20862,16 +20865,19 @@
       </c>
       <c r="C664" s="8" t="str">
         <f>CONCATENATE(E664,F664,G664,H664,I664,J664,K664)</f>
-        <v>ms</v>
+        <v>mjq</v>
       </c>
       <c r="D664" s="9" t="s">
-        <v>560</v>
+        <v>1083</v>
       </c>
       <c r="E664" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F664" s="4" t="s">
-        <v>951</v>
+        <v>1242</v>
+      </c>
+      <c r="G664" s="4" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -20883,10 +20889,10 @@
       </c>
       <c r="C665" s="8" t="str">
         <f>CONCATENATE(E665,F665,G665,H665,I665,J665,K665)</f>
-        <v>mjq</v>
+        <v>mjz</v>
       </c>
       <c r="D665" s="9" t="s">
-        <v>1083</v>
+        <v>562</v>
       </c>
       <c r="E665" s="4" t="s">
         <v>957</v>
@@ -20895,7 +20901,7 @@
         <v>1242</v>
       </c>
       <c r="G665" s="4" t="s">
-        <v>1243</v>
+        <v>952</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -20907,19 +20913,16 @@
       </c>
       <c r="C666" s="8" t="str">
         <f>CONCATENATE(E666,F666,G666,H666,I666,J666,K666)</f>
-        <v>mjz</v>
+        <v>mc</v>
       </c>
       <c r="D666" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E666" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F666" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G666" s="4" t="s">
-        <v>952</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -20931,16 +20934,16 @@
       </c>
       <c r="C667" s="8" t="str">
         <f>CONCATENATE(E667,F667,G667,H667,I667,J667,K667)</f>
-        <v>mc</v>
+        <v>mz</v>
       </c>
       <c r="D667" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E667" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F667" s="4" t="s">
-        <v>1240</v>
+        <v>952</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -20952,16 +20955,16 @@
       </c>
       <c r="C668" s="8" t="str">
         <f>CONCATENATE(E668,F668,G668,H668,I668,J668,K668)</f>
-        <v>mz</v>
+        <v>yq</v>
       </c>
       <c r="D668" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E668" s="4" t="s">
-        <v>957</v>
+        <v>1247</v>
       </c>
       <c r="F668" s="4" t="s">
-        <v>952</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -20973,16 +20976,16 @@
       </c>
       <c r="C669" s="8" t="str">
         <f>CONCATENATE(E669,F669,G669,H669,I669,J669,K669)</f>
-        <v>yq</v>
+        <v>yc</v>
       </c>
       <c r="D669" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E669" s="4" t="s">
         <v>1247</v>
       </c>
       <c r="F669" s="4" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -20994,16 +20997,16 @@
       </c>
       <c r="C670" s="8" t="str">
         <f>CONCATENATE(E670,F670,G670,H670,I670,J670,K670)</f>
-        <v>yc</v>
+        <v>rq</v>
       </c>
       <c r="D670" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>1247</v>
+        <v>958</v>
       </c>
       <c r="F670" s="4" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -21015,16 +21018,16 @@
       </c>
       <c r="C671" s="8" t="str">
         <f>CONCATENATE(E671,F671,G671,H671,I671,J671,K671)</f>
-        <v>rq</v>
+        <v>rt</v>
       </c>
       <c r="D671" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E671" s="4" t="s">
         <v>958</v>
       </c>
       <c r="F671" s="4" t="s">
-        <v>1243</v>
+        <v>930</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -21036,19 +21039,19 @@
       </c>
       <c r="C672" s="8" t="str">
         <f>CONCATENATE(E672,F672,G672,H672,I672,J672,K672)</f>
-        <v>rt</v>
+        <v>lx</v>
       </c>
       <c r="D672" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
       </c>
       <c r="F672" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="673" spans="1:9">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10">
       <c r="A673" s="6" t="s">
         <v>242</v>
       </c>
@@ -21057,19 +21060,19 @@
       </c>
       <c r="C673" s="8" t="str">
         <f>CONCATENATE(E673,F673,G673,H673,I673,J673,K673)</f>
-        <v>lx</v>
+        <v>lk</v>
       </c>
       <c r="D673" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E673" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="F673" s="4" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="674" spans="1:9">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10">
       <c r="A674" s="6" t="s">
         <v>242</v>
       </c>
@@ -21078,19 +21081,19 @@
       </c>
       <c r="C674" s="8" t="str">
         <f>CONCATENATE(E674,F674,G674,H674,I674,J674,K674)</f>
-        <v>lk</v>
+        <v>ls</v>
       </c>
       <c r="D674" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E674" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="F674" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="675" spans="1:9">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10">
       <c r="A675" s="6" t="s">
         <v>242</v>
       </c>
@@ -21099,19 +21102,19 @@
       </c>
       <c r="C675" s="8" t="str">
         <f>CONCATENATE(E675,F675,G675,H675,I675,J675,K675)</f>
-        <v>ls</v>
+        <v>lq</v>
       </c>
       <c r="D675" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E675" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="F675" s="4" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="676" spans="1:9">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10">
       <c r="A676" s="6" t="s">
         <v>242</v>
       </c>
@@ -21120,19 +21123,19 @@
       </c>
       <c r="C676" s="8" t="str">
         <f>CONCATENATE(E676,F676,G676,H676,I676,J676,K676)</f>
-        <v>lq</v>
+        <v>lc</v>
       </c>
       <c r="D676" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E676" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="F676" s="4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="677" spans="1:9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
       <c r="A677" s="6" t="s">
         <v>242</v>
       </c>
@@ -21141,19 +21144,19 @@
       </c>
       <c r="C677" s="8" t="str">
         <f>CONCATENATE(E677,F677,G677,H677,I677,J677,K677)</f>
-        <v>lc</v>
+        <v>rx</v>
       </c>
       <c r="D677" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E677" s="4" t="s">
-        <v>1245</v>
+        <v>958</v>
       </c>
       <c r="F677" s="4" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10">
       <c r="A678" s="6" t="s">
         <v>242</v>
       </c>
@@ -21162,19 +21165,19 @@
       </c>
       <c r="C678" s="8" t="str">
         <f>CONCATENATE(E678,F678,G678,H678,I678,J678,K678)</f>
-        <v>rx</v>
+        <v>lz</v>
       </c>
       <c r="D678" s="9" t="s">
-        <v>574</v>
+        <v>997</v>
       </c>
       <c r="E678" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
       </c>
       <c r="F678" s="4" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="679" spans="1:9">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10">
       <c r="A679" s="6" t="s">
         <v>242</v>
       </c>
@@ -21183,19 +21186,19 @@
       </c>
       <c r="C679" s="8" t="str">
         <f>CONCATENATE(E679,F679,G679,H679,I679,J679,K679)</f>
-        <v>lz</v>
+        <v>rc</v>
       </c>
       <c r="D679" s="9" t="s">
-        <v>997</v>
+        <v>576</v>
       </c>
       <c r="E679" s="4" t="s">
-        <v>1245</v>
+        <v>958</v>
       </c>
       <c r="F679" s="4" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="680" spans="1:9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10">
       <c r="A680" s="6" t="s">
         <v>242</v>
       </c>
@@ -21204,40 +21207,43 @@
       </c>
       <c r="C680" s="8" t="str">
         <f>CONCATENATE(E680,F680,G680,H680,I680,J680,K680)</f>
-        <v>rc</v>
+        <v>wq</v>
       </c>
       <c r="D680" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E680" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F680" s="4" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="681" spans="1:9">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10">
       <c r="A681" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>474</v>
+        <v>578</v>
       </c>
       <c r="C681" s="8" t="str">
         <f>CONCATENATE(E681,F681,G681,H681,I681,J681,K681)</f>
-        <v>wq</v>
+        <v>vpk</v>
       </c>
       <c r="D681" s="9" t="s">
-        <v>577</v>
+        <v>666</v>
       </c>
       <c r="E681" s="4" t="s">
-        <v>959</v>
+        <v>1244</v>
       </c>
       <c r="F681" s="4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="682" spans="1:9">
+        <v>940</v>
+      </c>
+      <c r="G681" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10">
       <c r="A682" s="6" t="s">
         <v>242</v>
       </c>
@@ -21246,10 +21252,10 @@
       </c>
       <c r="C682" s="8" t="str">
         <f>CONCATENATE(E682,F682,G682,H682,I682,J682,K682)</f>
-        <v>vpk</v>
+        <v>vpkg</v>
       </c>
       <c r="D682" s="9" t="s">
-        <v>666</v>
+        <v>1120</v>
       </c>
       <c r="E682" s="4" t="s">
         <v>1244</v>
@@ -21260,8 +21266,11 @@
       <c r="G682" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="683" spans="1:9">
+      <c r="H682" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10">
       <c r="A683" s="6" t="s">
         <v>242</v>
       </c>
@@ -21270,10 +21279,10 @@
       </c>
       <c r="C683" s="8" t="str">
         <f>CONCATENATE(E683,F683,G683,H683,I683,J683,K683)</f>
-        <v>vpkg</v>
+        <v>vpkkr</v>
       </c>
       <c r="D683" s="9" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="E683" s="4" t="s">
         <v>1244</v>
@@ -21285,10 +21294,13 @@
         <v>949</v>
       </c>
       <c r="H683" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="684" spans="1:9">
+        <v>949</v>
+      </c>
+      <c r="I683" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10">
       <c r="A684" s="6" t="s">
         <v>242</v>
       </c>
@@ -21297,10 +21309,10 @@
       </c>
       <c r="C684" s="8" t="str">
         <f>CONCATENATE(E684,F684,G684,H684,I684,J684,K684)</f>
-        <v>vpkkr</v>
+        <v>vpkd</v>
       </c>
       <c r="D684" s="9" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E684" s="4" t="s">
         <v>1244</v>
@@ -21312,13 +21324,10 @@
         <v>949</v>
       </c>
       <c r="H684" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I684" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="685" spans="1:9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10">
       <c r="A685" s="6" t="s">
         <v>242</v>
       </c>
@@ -21327,10 +21336,10 @@
       </c>
       <c r="C685" s="8" t="str">
         <f>CONCATENATE(E685,F685,G685,H685,I685,J685,K685)</f>
-        <v>vpkd</v>
+        <v>vpkn</v>
       </c>
       <c r="D685" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E685" s="4" t="s">
         <v>1244</v>
@@ -21342,10 +21351,10 @@
         <v>949</v>
       </c>
       <c r="H685" s="4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="686" spans="1:9">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10">
       <c r="A686" s="6" t="s">
         <v>242</v>
       </c>
@@ -21354,10 +21363,10 @@
       </c>
       <c r="C686" s="8" t="str">
         <f>CONCATENATE(E686,F686,G686,H686,I686,J686,K686)</f>
-        <v>vpkn</v>
+        <v>vpkh</v>
       </c>
       <c r="D686" s="9" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E686" s="4" t="s">
         <v>1244</v>
@@ -21369,10 +21378,10 @@
         <v>949</v>
       </c>
       <c r="H686" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="687" spans="1:9">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10">
       <c r="A687" s="6" t="s">
         <v>242</v>
       </c>
@@ -21381,10 +21390,10 @@
       </c>
       <c r="C687" s="8" t="str">
         <f>CONCATENATE(E687,F687,G687,H687,I687,J687,K687)</f>
-        <v>vpkh</v>
+        <v>vpkmd</v>
       </c>
       <c r="D687" s="9" t="s">
-        <v>1110</v>
+        <v>1474</v>
       </c>
       <c r="E687" s="4" t="s">
         <v>1244</v>
@@ -21396,10 +21405,13 @@
         <v>949</v>
       </c>
       <c r="H687" s="4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9">
+        <v>936</v>
+      </c>
+      <c r="I687" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
       <c r="A688" s="6" t="s">
         <v>242</v>
       </c>
@@ -21408,10 +21420,10 @@
       </c>
       <c r="C688" s="8" t="str">
         <f>CONCATENATE(E688,F688,G688,H688,I688,J688,K688)</f>
-        <v>vpkmd</v>
+        <v>vpkmdh</v>
       </c>
       <c r="D688" s="9" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E688" s="4" t="s">
         <v>1244</v>
@@ -21428,6 +21440,9 @@
       <c r="I688" s="4" t="s">
         <v>938</v>
       </c>
+      <c r="J688" s="4" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="689" spans="1:10">
       <c r="A689" s="6" t="s">
@@ -21438,10 +21453,10 @@
       </c>
       <c r="C689" s="8" t="str">
         <f>CONCATENATE(E689,F689,G689,H689,I689,J689,K689)</f>
-        <v>vpkmdh</v>
+        <v>vpcr</v>
       </c>
       <c r="D689" s="9" t="s">
-        <v>1475</v>
+        <v>1113</v>
       </c>
       <c r="E689" s="4" t="s">
         <v>1244</v>
@@ -21450,16 +21465,10 @@
         <v>940</v>
       </c>
       <c r="G689" s="4" t="s">
-        <v>949</v>
+        <v>1240</v>
       </c>
       <c r="H689" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I689" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J689" s="4" t="s">
-        <v>1260</v>
+        <v>958</v>
       </c>
     </row>
     <row r="690" spans="1:10">
@@ -21471,10 +21480,10 @@
       </c>
       <c r="C690" s="8" t="str">
         <f>CONCATENATE(E690,F690,G690,H690,I690,J690,K690)</f>
-        <v>vpcr</v>
+        <v>vpcrg</v>
       </c>
       <c r="D690" s="9" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="E690" s="4" t="s">
         <v>1244</v>
@@ -21488,6 +21497,9 @@
       <c r="H690" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="I690" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="691" spans="1:10">
       <c r="A691" s="6" t="s">
@@ -21498,10 +21510,10 @@
       </c>
       <c r="C691" s="8" t="str">
         <f>CONCATENATE(E691,F691,G691,H691,I691,J691,K691)</f>
-        <v>vpcrg</v>
+        <v>vpcrkr</v>
       </c>
       <c r="D691" s="9" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E691" s="4" t="s">
         <v>1244</v>
@@ -21516,7 +21528,10 @@
         <v>958</v>
       </c>
       <c r="I691" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="J691" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="692" spans="1:10">
@@ -21528,10 +21543,10 @@
       </c>
       <c r="C692" s="8" t="str">
         <f>CONCATENATE(E692,F692,G692,H692,I692,J692,K692)</f>
-        <v>vpcrkr</v>
+        <v>vpcrd</v>
       </c>
       <c r="D692" s="9" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E692" s="4" t="s">
         <v>1244</v>
@@ -21546,10 +21561,7 @@
         <v>958</v>
       </c>
       <c r="I692" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J692" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="693" spans="1:10">
@@ -21561,10 +21573,10 @@
       </c>
       <c r="C693" s="8" t="str">
         <f>CONCATENATE(E693,F693,G693,H693,I693,J693,K693)</f>
-        <v>vpcrd</v>
+        <v>vpcrn</v>
       </c>
       <c r="D693" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E693" s="4" t="s">
         <v>1244</v>
@@ -21579,7 +21591,7 @@
         <v>958</v>
       </c>
       <c r="I693" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="694" spans="1:10">
@@ -21591,10 +21603,10 @@
       </c>
       <c r="C694" s="8" t="str">
         <f>CONCATENATE(E694,F694,G694,H694,I694,J694,K694)</f>
-        <v>vpcrn</v>
+        <v>vpcrh</v>
       </c>
       <c r="D694" s="9" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E694" s="4" t="s">
         <v>1244</v>
@@ -21609,7 +21621,7 @@
         <v>958</v>
       </c>
       <c r="I694" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="695" spans="1:10">
@@ -21621,10 +21633,10 @@
       </c>
       <c r="C695" s="8" t="str">
         <f>CONCATENATE(E695,F695,G695,H695,I695,J695,K695)</f>
-        <v>vpcrh</v>
+        <v>vpt</v>
       </c>
       <c r="D695" s="9" t="s">
-        <v>1115</v>
+        <v>1177</v>
       </c>
       <c r="E695" s="4" t="s">
         <v>1244</v>
@@ -21633,13 +21645,7 @@
         <v>940</v>
       </c>
       <c r="G695" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H695" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I695" s="4" t="s">
-        <v>1248</v>
+        <v>930</v>
       </c>
     </row>
     <row r="696" spans="1:10">
@@ -21651,10 +21657,10 @@
       </c>
       <c r="C696" s="8" t="str">
         <f>CONCATENATE(E696,F696,G696,H696,I696,J696,K696)</f>
-        <v>vpt</v>
+        <v>vptg</v>
       </c>
       <c r="D696" s="9" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E696" s="4" t="s">
         <v>1244</v>
@@ -21665,6 +21671,9 @@
       <c r="G696" s="4" t="s">
         <v>930</v>
       </c>
+      <c r="H696" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="697" spans="1:10">
       <c r="A697" s="6" t="s">
@@ -21675,10 +21684,10 @@
       </c>
       <c r="C697" s="8" t="str">
         <f>CONCATENATE(E697,F697,G697,H697,I697,J697,K697)</f>
-        <v>vptg</v>
+        <v>vptkr</v>
       </c>
       <c r="D697" s="9" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E697" s="4" t="s">
         <v>1244</v>
@@ -21690,7 +21699,10 @@
         <v>930</v>
       </c>
       <c r="H697" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="I697" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="698" spans="1:10">
@@ -21702,10 +21714,10 @@
       </c>
       <c r="C698" s="8" t="str">
         <f>CONCATENATE(E698,F698,G698,H698,I698,J698,K698)</f>
-        <v>vptkr</v>
+        <v>vptt</v>
       </c>
       <c r="D698" s="9" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E698" s="4" t="s">
         <v>1244</v>
@@ -21717,10 +21729,7 @@
         <v>930</v>
       </c>
       <c r="H698" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I698" s="4" t="s">
-        <v>958</v>
+        <v>930</v>
       </c>
     </row>
     <row r="699" spans="1:10">
@@ -21732,10 +21741,10 @@
       </c>
       <c r="C699" s="8" t="str">
         <f>CONCATENATE(E699,F699,G699,H699,I699,J699,K699)</f>
-        <v>vptt</v>
+        <v>vptn</v>
       </c>
       <c r="D699" s="9" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E699" s="4" t="s">
         <v>1244</v>
@@ -21747,7 +21756,7 @@
         <v>930</v>
       </c>
       <c r="H699" s="4" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
     </row>
     <row r="700" spans="1:10">
@@ -21759,10 +21768,10 @@
       </c>
       <c r="C700" s="8" t="str">
         <f>CONCATENATE(E700,F700,G700,H700,I700,J700,K700)</f>
-        <v>vptn</v>
+        <v>vpth</v>
       </c>
       <c r="D700" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E700" s="4" t="s">
         <v>1244</v>
@@ -21774,7 +21783,7 @@
         <v>930</v>
       </c>
       <c r="H700" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="701" spans="1:10">
@@ -21786,10 +21795,10 @@
       </c>
       <c r="C701" s="8" t="str">
         <f>CONCATENATE(E701,F701,G701,H701,I701,J701,K701)</f>
-        <v>vpth</v>
+        <v>vpntw</v>
       </c>
       <c r="D701" s="9" t="s">
-        <v>1179</v>
+        <v>1202</v>
       </c>
       <c r="E701" s="4" t="s">
         <v>1244</v>
@@ -21798,10 +21807,13 @@
         <v>940</v>
       </c>
       <c r="G701" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="H701" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H701" s="4" t="s">
-        <v>1248</v>
+      <c r="I701" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="702" spans="1:10">
@@ -21813,10 +21825,10 @@
       </c>
       <c r="C702" s="8" t="str">
         <f>CONCATENATE(E702,F702,G702,H702,I702,J702,K702)</f>
-        <v>vpntw</v>
+        <v>vpn</v>
       </c>
       <c r="D702" s="9" t="s">
-        <v>1202</v>
+        <v>665</v>
       </c>
       <c r="E702" s="4" t="s">
         <v>1244</v>
@@ -21827,12 +21839,6 @@
       <c r="G702" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="H702" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="I702" s="4" t="s">
-        <v>959</v>
-      </c>
     </row>
     <row r="703" spans="1:10">
       <c r="A703" s="6" t="s">
@@ -21843,10 +21849,10 @@
       </c>
       <c r="C703" s="8" t="str">
         <f>CONCATENATE(E703,F703,G703,H703,I703,J703,K703)</f>
-        <v>vpn</v>
+        <v>vpr</v>
       </c>
       <c r="D703" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E703" s="4" t="s">
         <v>1244</v>
@@ -21855,7 +21861,7 @@
         <v>940</v>
       </c>
       <c r="G703" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="704" spans="1:10">
@@ -21867,10 +21873,10 @@
       </c>
       <c r="C704" s="8" t="str">
         <f>CONCATENATE(E704,F704,G704,H704,I704,J704,K704)</f>
-        <v>vpr</v>
+        <v>vprg</v>
       </c>
       <c r="D704" s="9" t="s">
-        <v>664</v>
+        <v>1119</v>
       </c>
       <c r="E704" s="4" t="s">
         <v>1244</v>
@@ -21881,6 +21887,9 @@
       <c r="G704" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="H704" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="705" spans="1:9">
       <c r="A705" s="6" t="s">
@@ -21891,10 +21900,10 @@
       </c>
       <c r="C705" s="8" t="str">
         <f>CONCATENATE(E705,F705,G705,H705,I705,J705,K705)</f>
-        <v>vprg</v>
+        <v>vprd</v>
       </c>
       <c r="D705" s="9" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E705" s="4" t="s">
         <v>1244</v>
@@ -21906,7 +21915,7 @@
         <v>958</v>
       </c>
       <c r="H705" s="4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="706" spans="1:9">
@@ -21918,10 +21927,10 @@
       </c>
       <c r="C706" s="8" t="str">
         <f>CONCATENATE(E706,F706,G706,H706,I706,J706,K706)</f>
-        <v>vprd</v>
+        <v>vprn</v>
       </c>
       <c r="D706" s="9" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E706" s="4" t="s">
         <v>1244</v>
@@ -21933,7 +21942,7 @@
         <v>958</v>
       </c>
       <c r="H706" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="707" spans="1:9">
@@ -21945,10 +21954,10 @@
       </c>
       <c r="C707" s="8" t="str">
         <f>CONCATENATE(E707,F707,G707,H707,I707,J707,K707)</f>
-        <v>vprn</v>
+        <v>vprh</v>
       </c>
       <c r="D707" s="9" t="s">
-        <v>1118</v>
+        <v>1203</v>
       </c>
       <c r="E707" s="4" t="s">
         <v>1244</v>
@@ -21960,7 +21969,7 @@
         <v>958</v>
       </c>
       <c r="H707" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="708" spans="1:9">
@@ -21972,10 +21981,10 @@
       </c>
       <c r="C708" s="8" t="str">
         <f>CONCATENATE(E708,F708,G708,H708,I708,J708,K708)</f>
-        <v>vprh</v>
+        <v>vprw</v>
       </c>
       <c r="D708" s="9" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E708" s="4" t="s">
         <v>1244</v>
@@ -21987,7 +21996,7 @@
         <v>958</v>
       </c>
       <c r="H708" s="4" t="s">
-        <v>1248</v>
+        <v>959</v>
       </c>
     </row>
     <row r="709" spans="1:9">
@@ -21999,22 +22008,19 @@
       </c>
       <c r="C709" s="8" t="str">
         <f>CONCATENATE(E709,F709,G709,H709,I709,J709,K709)</f>
-        <v>vprw</v>
+        <v>jkg</v>
       </c>
       <c r="D709" s="9" t="s">
-        <v>1204</v>
+        <v>605</v>
       </c>
       <c r="E709" s="4" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="F709" s="4" t="s">
-        <v>940</v>
+        <v>1257</v>
       </c>
       <c r="G709" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H709" s="4" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
     </row>
     <row r="710" spans="1:9">
@@ -22026,19 +22032,16 @@
       </c>
       <c r="C710" s="8" t="str">
         <f>CONCATENATE(E710,F710,G710,H710,I710,J710,K710)</f>
-        <v>jkg</v>
+        <v>jt</v>
       </c>
       <c r="D710" s="9" t="s">
-        <v>605</v>
+        <v>1486</v>
       </c>
       <c r="E710" s="4" t="s">
         <v>1255</v>
       </c>
       <c r="F710" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G710" s="4" t="s">
-        <v>934</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="711" spans="1:9">
@@ -22050,16 +22053,19 @@
       </c>
       <c r="C711" s="8" t="str">
         <f>CONCATENATE(E711,F711,G711,H711,I711,J711,K711)</f>
-        <v>jt</v>
+        <v>grr</v>
       </c>
       <c r="D711" s="9" t="s">
-        <v>1486</v>
+        <v>1294</v>
       </c>
       <c r="E711" s="4" t="s">
-        <v>1255</v>
+        <v>934</v>
       </c>
       <c r="F711" s="4" t="s">
-        <v>1256</v>
+        <v>958</v>
+      </c>
+      <c r="G711" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="712" spans="1:9">
@@ -22071,19 +22077,19 @@
       </c>
       <c r="C712" s="8" t="str">
         <f>CONCATENATE(E712,F712,G712,H712,I712,J712,K712)</f>
-        <v>grr</v>
+        <v>krt</v>
       </c>
       <c r="D712" s="9" t="s">
-        <v>1294</v>
+        <v>1161</v>
       </c>
       <c r="E712" s="4" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="F712" s="4" t="s">
         <v>958</v>
       </c>
       <c r="G712" s="4" t="s">
-        <v>958</v>
+        <v>930</v>
       </c>
     </row>
     <row r="713" spans="1:9">
@@ -22095,10 +22101,10 @@
       </c>
       <c r="C713" s="8" t="str">
         <f>CONCATENATE(E713,F713,G713,H713,I713,J713,K713)</f>
-        <v>krt</v>
+        <v>krn</v>
       </c>
       <c r="D713" s="9" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E713" s="4" t="s">
         <v>949</v>
@@ -22107,7 +22113,7 @@
         <v>958</v>
       </c>
       <c r="G713" s="4" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
     </row>
     <row r="714" spans="1:9">
@@ -22119,10 +22125,10 @@
       </c>
       <c r="C714" s="8" t="str">
         <f>CONCATENATE(E714,F714,G714,H714,I714,J714,K714)</f>
-        <v>krn</v>
+        <v>krr</v>
       </c>
       <c r="D714" s="9" t="s">
-        <v>1162</v>
+        <v>618</v>
       </c>
       <c r="E714" s="4" t="s">
         <v>949</v>
@@ -22131,7 +22137,7 @@
         <v>958</v>
       </c>
       <c r="G714" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="715" spans="1:9">
@@ -22143,19 +22149,22 @@
       </c>
       <c r="C715" s="8" t="str">
         <f>CONCATENATE(E715,F715,G715,H715,I715,J715,K715)</f>
-        <v>krr</v>
+        <v>cdsf</v>
       </c>
       <c r="D715" s="9" t="s">
-        <v>618</v>
+        <v>1163</v>
       </c>
       <c r="E715" s="4" t="s">
-        <v>949</v>
+        <v>1240</v>
       </c>
       <c r="F715" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G715" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
+      </c>
+      <c r="H715" s="4" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="716" spans="1:9">
@@ -22167,22 +22176,19 @@
       </c>
       <c r="C716" s="8" t="str">
         <f>CONCATENATE(E716,F716,G716,H716,I716,J716,K716)</f>
-        <v>cdsf</v>
+        <v>kpk</v>
       </c>
       <c r="D716" s="9" t="s">
-        <v>1163</v>
+        <v>611</v>
       </c>
       <c r="E716" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="F716" s="4" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="G716" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H716" s="4" t="s">
-        <v>1241</v>
+        <v>949</v>
       </c>
     </row>
     <row r="717" spans="1:9">
@@ -22194,10 +22200,10 @@
       </c>
       <c r="C717" s="8" t="str">
         <f>CONCATENATE(E717,F717,G717,H717,I717,J717,K717)</f>
-        <v>kpk</v>
+        <v>kpkg</v>
       </c>
       <c r="D717" s="9" t="s">
-        <v>611</v>
+        <v>1123</v>
       </c>
       <c r="E717" s="4" t="s">
         <v>949</v>
@@ -22208,6 +22214,9 @@
       <c r="G717" s="4" t="s">
         <v>949</v>
       </c>
+      <c r="H717" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="718" spans="1:9">
       <c r="A718" s="6" t="s">
@@ -22218,10 +22227,10 @@
       </c>
       <c r="C718" s="8" t="str">
         <f>CONCATENATE(E718,F718,G718,H718,I718,J718,K718)</f>
-        <v>kpkg</v>
+        <v>kpkkr</v>
       </c>
       <c r="D718" s="9" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E718" s="4" t="s">
         <v>949</v>
@@ -22233,7 +22242,10 @@
         <v>949</v>
       </c>
       <c r="H718" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="I718" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="719" spans="1:9">
@@ -22245,10 +22257,10 @@
       </c>
       <c r="C719" s="8" t="str">
         <f>CONCATENATE(E719,F719,G719,H719,I719,J719,K719)</f>
-        <v>kpkkr</v>
+        <v>kpkd</v>
       </c>
       <c r="D719" s="9" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E719" s="4" t="s">
         <v>949</v>
@@ -22260,10 +22272,7 @@
         <v>949</v>
       </c>
       <c r="H719" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I719" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="720" spans="1:9">
@@ -22275,10 +22284,10 @@
       </c>
       <c r="C720" s="8" t="str">
         <f>CONCATENATE(E720,F720,G720,H720,I720,J720,K720)</f>
-        <v>kpkd</v>
+        <v>kpkn</v>
       </c>
       <c r="D720" s="9" t="s">
-        <v>1125</v>
+        <v>613</v>
       </c>
       <c r="E720" s="4" t="s">
         <v>949</v>
@@ -22290,7 +22299,7 @@
         <v>949</v>
       </c>
       <c r="H720" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="721" spans="1:10">
@@ -22302,10 +22311,10 @@
       </c>
       <c r="C721" s="8" t="str">
         <f>CONCATENATE(E721,F721,G721,H721,I721,J721,K721)</f>
-        <v>kpkn</v>
+        <v>kpkh</v>
       </c>
       <c r="D721" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E721" s="4" t="s">
         <v>949</v>
@@ -22317,7 +22326,7 @@
         <v>949</v>
       </c>
       <c r="H721" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="722" spans="1:10">
@@ -22329,10 +22338,10 @@
       </c>
       <c r="C722" s="8" t="str">
         <f>CONCATENATE(E722,F722,G722,H722,I722,J722,K722)</f>
-        <v>kpkh</v>
+        <v>kpkmd</v>
       </c>
       <c r="D722" s="9" t="s">
-        <v>612</v>
+        <v>1476</v>
       </c>
       <c r="E722" s="4" t="s">
         <v>949</v>
@@ -22344,7 +22353,10 @@
         <v>949</v>
       </c>
       <c r="H722" s="4" t="s">
-        <v>1248</v>
+        <v>936</v>
+      </c>
+      <c r="I722" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="723" spans="1:10">
@@ -22356,10 +22368,10 @@
       </c>
       <c r="C723" s="8" t="str">
         <f>CONCATENATE(E723,F723,G723,H723,I723,J723,K723)</f>
-        <v>kpkmd</v>
+        <v>kpkmdh</v>
       </c>
       <c r="D723" s="9" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="E723" s="4" t="s">
         <v>949</v>
@@ -22376,6 +22388,9 @@
       <c r="I723" s="4" t="s">
         <v>938</v>
       </c>
+      <c r="J723" s="4" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="724" spans="1:10">
       <c r="A724" s="6" t="s">
@@ -22386,28 +22401,19 @@
       </c>
       <c r="C724" s="8" t="str">
         <f>CONCATENATE(E724,F724,G724,H724,I724,J724,K724)</f>
-        <v>kpkmdh</v>
+        <v>ghz</v>
       </c>
       <c r="D724" s="9" t="s">
-        <v>1477</v>
+        <v>601</v>
       </c>
       <c r="E724" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F724" s="4" t="s">
-        <v>940</v>
+        <v>1487</v>
       </c>
       <c r="G724" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="H724" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I724" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J724" s="4" t="s">
-        <v>1260</v>
+        <v>952</v>
       </c>
     </row>
     <row r="725" spans="1:10">
@@ -22419,19 +22425,22 @@
       </c>
       <c r="C725" s="8" t="str">
         <f>CONCATENATE(E725,F725,G725,H725,I725,J725,K725)</f>
-        <v>ghz</v>
+        <v>kpcr</v>
       </c>
       <c r="D725" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="E725" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F725" s="4" t="s">
-        <v>1487</v>
+        <v>940</v>
       </c>
       <c r="G725" s="4" t="s">
-        <v>952</v>
+        <v>1240</v>
+      </c>
+      <c r="H725" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="726" spans="1:10">
@@ -22443,10 +22452,10 @@
       </c>
       <c r="C726" s="8" t="str">
         <f>CONCATENATE(E726,F726,G726,H726,I726,J726,K726)</f>
-        <v>kpcr</v>
+        <v>kpcrg</v>
       </c>
       <c r="D726" s="9" t="s">
-        <v>608</v>
+        <v>1126</v>
       </c>
       <c r="E726" s="4" t="s">
         <v>949</v>
@@ -22460,6 +22469,9 @@
       <c r="H726" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="I726" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="727" spans="1:10">
       <c r="A727" s="6" t="s">
@@ -22470,10 +22482,10 @@
       </c>
       <c r="C727" s="8" t="str">
         <f>CONCATENATE(E727,F727,G727,H727,I727,J727,K727)</f>
-        <v>kpcrg</v>
+        <v>kpcrkr</v>
       </c>
       <c r="D727" s="9" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E727" s="4" t="s">
         <v>949</v>
@@ -22488,7 +22500,10 @@
         <v>958</v>
       </c>
       <c r="I727" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="J727" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="728" spans="1:10">
@@ -22500,10 +22515,10 @@
       </c>
       <c r="C728" s="8" t="str">
         <f>CONCATENATE(E728,F728,G728,H728,I728,J728,K728)</f>
-        <v>kpcrkr</v>
+        <v>kpcrd</v>
       </c>
       <c r="D728" s="9" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E728" s="4" t="s">
         <v>949</v>
@@ -22518,10 +22533,7 @@
         <v>958</v>
       </c>
       <c r="I728" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J728" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="729" spans="1:10">
@@ -22533,10 +22545,10 @@
       </c>
       <c r="C729" s="8" t="str">
         <f>CONCATENATE(E729,F729,G729,H729,I729,J729,K729)</f>
-        <v>kpcrd</v>
+        <v>kpcrn</v>
       </c>
       <c r="D729" s="9" t="s">
-        <v>1128</v>
+        <v>610</v>
       </c>
       <c r="E729" s="4" t="s">
         <v>949</v>
@@ -22551,7 +22563,7 @@
         <v>958</v>
       </c>
       <c r="I729" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="730" spans="1:10">
@@ -22563,10 +22575,10 @@
       </c>
       <c r="C730" s="8" t="str">
         <f>CONCATENATE(E730,F730,G730,H730,I730,J730,K730)</f>
-        <v>kpcrn</v>
+        <v>kpcrh</v>
       </c>
       <c r="D730" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E730" s="4" t="s">
         <v>949</v>
@@ -22581,7 +22593,7 @@
         <v>958</v>
       </c>
       <c r="I730" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="731" spans="1:10">
@@ -22593,25 +22605,19 @@
       </c>
       <c r="C731" s="8" t="str">
         <f>CONCATENATE(E731,F731,G731,H731,I731,J731,K731)</f>
-        <v>kpcrh</v>
+        <v>kht</v>
       </c>
       <c r="D731" s="9" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="E731" s="4" t="s">
         <v>949</v>
       </c>
       <c r="F731" s="4" t="s">
-        <v>940</v>
+        <v>1487</v>
       </c>
       <c r="G731" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H731" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I731" s="4" t="s">
-        <v>1248</v>
+        <v>930</v>
       </c>
     </row>
     <row r="732" spans="1:10">
@@ -22623,13 +22629,13 @@
       </c>
       <c r="C732" s="8" t="str">
         <f>CONCATENATE(E732,F732,G732,H732,I732,J732,K732)</f>
-        <v>kht</v>
+        <v>ght</v>
       </c>
       <c r="D732" s="9" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="E732" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F732" s="4" t="s">
         <v>1487</v>
@@ -22647,13 +22653,13 @@
       </c>
       <c r="C733" s="8" t="str">
         <f>CONCATENATE(E733,F733,G733,H733,I733,J733,K733)</f>
-        <v>ght</v>
+        <v>khtg</v>
       </c>
       <c r="D733" s="9" t="s">
-        <v>600</v>
+        <v>1297</v>
       </c>
       <c r="E733" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F733" s="4" t="s">
         <v>1487</v>
@@ -22661,6 +22667,9 @@
       <c r="G733" s="4" t="s">
         <v>930</v>
       </c>
+      <c r="H733" s="4" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="734" spans="1:10">
       <c r="A734" s="6" t="s">
@@ -22671,13 +22680,13 @@
       </c>
       <c r="C734" s="8" t="str">
         <f>CONCATENATE(E734,F734,G734,H734,I734,J734,K734)</f>
-        <v>khtg</v>
+        <v>ghtg</v>
       </c>
       <c r="D734" s="9" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E734" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F734" s="4" t="s">
         <v>1487</v>
@@ -22698,13 +22707,13 @@
       </c>
       <c r="C735" s="8" t="str">
         <f>CONCATENATE(E735,F735,G735,H735,I735,J735,K735)</f>
-        <v>ghtg</v>
+        <v>khtt</v>
       </c>
       <c r="D735" s="9" t="s">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="E735" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F735" s="4" t="s">
         <v>1487</v>
@@ -22713,7 +22722,7 @@
         <v>930</v>
       </c>
       <c r="H735" s="4" t="s">
-        <v>934</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="736" spans="1:10">
@@ -22725,10 +22734,10 @@
       </c>
       <c r="C736" s="8" t="str">
         <f>CONCATENATE(E736,F736,G736,H736,I736,J736,K736)</f>
-        <v>khtt</v>
+        <v>khtn</v>
       </c>
       <c r="D736" s="9" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="E736" s="4" t="s">
         <v>949</v>
@@ -22740,7 +22749,7 @@
         <v>930</v>
       </c>
       <c r="H736" s="4" t="s">
-        <v>1256</v>
+        <v>932</v>
       </c>
     </row>
     <row r="737" spans="1:10">
@@ -22752,10 +22761,10 @@
       </c>
       <c r="C737" s="8" t="str">
         <f>CONCATENATE(E737,F737,G737,H737,I737,J737,K737)</f>
-        <v>khtn</v>
+        <v>khtnh</v>
       </c>
       <c r="D737" s="9" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E737" s="4" t="s">
         <v>949</v>
@@ -22769,6 +22778,9 @@
       <c r="H737" s="4" t="s">
         <v>932</v>
       </c>
+      <c r="I737" s="4" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="738" spans="1:10">
       <c r="A738" s="6" t="s">
@@ -22779,10 +22791,10 @@
       </c>
       <c r="C738" s="8" t="str">
         <f>CONCATENATE(E738,F738,G738,H738,I738,J738,K738)</f>
-        <v>khtnh</v>
+        <v>khtb</v>
       </c>
       <c r="D738" s="9" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="E738" s="4" t="s">
         <v>949</v>
@@ -22794,10 +22806,7 @@
         <v>930</v>
       </c>
       <c r="H738" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="I738" s="4" t="s">
-        <v>1260</v>
+        <v>946</v>
       </c>
     </row>
     <row r="739" spans="1:10">
@@ -22809,10 +22818,10 @@
       </c>
       <c r="C739" s="8" t="str">
         <f>CONCATENATE(E739,F739,G739,H739,I739,J739,K739)</f>
-        <v>khtb</v>
+        <v>khth</v>
       </c>
       <c r="D739" s="9" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="E739" s="4" t="s">
         <v>949</v>
@@ -22824,7 +22833,7 @@
         <v>930</v>
       </c>
       <c r="H739" s="4" t="s">
-        <v>946</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="740" spans="1:10">
@@ -22836,13 +22845,13 @@
       </c>
       <c r="C740" s="8" t="str">
         <f>CONCATENATE(E740,F740,G740,H740,I740,J740,K740)</f>
-        <v>khth</v>
+        <v>ghth</v>
       </c>
       <c r="D740" s="9" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E740" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F740" s="4" t="s">
         <v>1487</v>
@@ -22863,13 +22872,13 @@
       </c>
       <c r="C741" s="8" t="str">
         <f>CONCATENATE(E741,F741,G741,H741,I741,J741,K741)</f>
-        <v>ghth</v>
+        <v>khtw</v>
       </c>
       <c r="D741" s="9" t="s">
-        <v>1300</v>
+        <v>1318</v>
       </c>
       <c r="E741" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F741" s="4" t="s">
         <v>1487</v>
@@ -22878,7 +22887,7 @@
         <v>930</v>
       </c>
       <c r="H741" s="4" t="s">
-        <v>1260</v>
+        <v>944</v>
       </c>
     </row>
     <row r="742" spans="1:10">
@@ -22890,22 +22899,19 @@
       </c>
       <c r="C742" s="8" t="str">
         <f>CONCATENATE(E742,F742,G742,H742,I742,J742,K742)</f>
-        <v>khtw</v>
+        <v>kpn</v>
       </c>
       <c r="D742" s="9" t="s">
-        <v>1318</v>
+        <v>614</v>
       </c>
       <c r="E742" s="4" t="s">
         <v>949</v>
       </c>
       <c r="F742" s="4" t="s">
-        <v>1487</v>
+        <v>940</v>
       </c>
       <c r="G742" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H742" s="4" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="743" spans="1:10">
@@ -22917,10 +22923,10 @@
       </c>
       <c r="C743" s="8" t="str">
         <f>CONCATENATE(E743,F743,G743,H743,I743,J743,K743)</f>
-        <v>kpn</v>
+        <v>kpr</v>
       </c>
       <c r="D743" s="9" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E743" s="4" t="s">
         <v>949</v>
@@ -22929,7 +22935,7 @@
         <v>940</v>
       </c>
       <c r="G743" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="744" spans="1:10">
@@ -22941,10 +22947,10 @@
       </c>
       <c r="C744" s="8" t="str">
         <f>CONCATENATE(E744,F744,G744,H744,I744,J744,K744)</f>
-        <v>kpr</v>
+        <v>kprg</v>
       </c>
       <c r="D744" s="9" t="s">
-        <v>617</v>
+        <v>1129</v>
       </c>
       <c r="E744" s="4" t="s">
         <v>949</v>
@@ -22955,6 +22961,9 @@
       <c r="G744" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="H744" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="745" spans="1:10">
       <c r="A745" s="6" t="s">
@@ -22965,10 +22974,10 @@
       </c>
       <c r="C745" s="8" t="str">
         <f>CONCATENATE(E745,F745,G745,H745,I745,J745,K745)</f>
-        <v>kprg</v>
+        <v>kprd</v>
       </c>
       <c r="D745" s="9" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E745" s="4" t="s">
         <v>949</v>
@@ -22980,7 +22989,7 @@
         <v>958</v>
       </c>
       <c r="H745" s="4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="746" spans="1:10">
@@ -22992,10 +23001,10 @@
       </c>
       <c r="C746" s="8" t="str">
         <f>CONCATENATE(E746,F746,G746,H746,I746,J746,K746)</f>
-        <v>kprd</v>
+        <v>kprdh</v>
       </c>
       <c r="D746" s="9" t="s">
-        <v>1131</v>
+        <v>1205</v>
       </c>
       <c r="E746" s="4" t="s">
         <v>949</v>
@@ -23009,6 +23018,9 @@
       <c r="H746" s="4" t="s">
         <v>953</v>
       </c>
+      <c r="I746" s="4" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="747" spans="1:10">
       <c r="A747" s="6" t="s">
@@ -23019,10 +23031,10 @@
       </c>
       <c r="C747" s="8" t="str">
         <f>CONCATENATE(E747,F747,G747,H747,I747,J747,K747)</f>
-        <v>kprdh</v>
+        <v>kprn</v>
       </c>
       <c r="D747" s="9" t="s">
-        <v>1205</v>
+        <v>1130</v>
       </c>
       <c r="E747" s="4" t="s">
         <v>949</v>
@@ -23034,10 +23046,7 @@
         <v>958</v>
       </c>
       <c r="H747" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I747" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
     </row>
     <row r="748" spans="1:10">
@@ -23049,10 +23058,10 @@
       </c>
       <c r="C748" s="8" t="str">
         <f>CONCATENATE(E748,F748,G748,H748,I748,J748,K748)</f>
-        <v>kprn</v>
+        <v>kprh</v>
       </c>
       <c r="D748" s="9" t="s">
-        <v>1130</v>
+        <v>1206</v>
       </c>
       <c r="E748" s="4" t="s">
         <v>949</v>
@@ -23064,7 +23073,7 @@
         <v>958</v>
       </c>
       <c r="H748" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="749" spans="1:10">
@@ -23076,10 +23085,10 @@
       </c>
       <c r="C749" s="8" t="str">
         <f>CONCATENATE(E749,F749,G749,H749,I749,J749,K749)</f>
-        <v>kprh</v>
+        <v>kprmdh</v>
       </c>
       <c r="D749" s="9" t="s">
-        <v>1206</v>
+        <v>1479</v>
       </c>
       <c r="E749" s="4" t="s">
         <v>949</v>
@@ -23091,7 +23100,13 @@
         <v>958</v>
       </c>
       <c r="H749" s="4" t="s">
-        <v>1248</v>
+        <v>936</v>
+      </c>
+      <c r="I749" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="J749" s="4" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="750" spans="1:10">
@@ -23103,10 +23118,10 @@
       </c>
       <c r="C750" s="8" t="str">
         <f>CONCATENATE(E750,F750,G750,H750,I750,J750,K750)</f>
-        <v>kprmdh</v>
+        <v>kprmd</v>
       </c>
       <c r="D750" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E750" s="4" t="s">
         <v>949</v>
@@ -23123,9 +23138,6 @@
       <c r="I750" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="J750" s="4" t="s">
-        <v>1260</v>
-      </c>
     </row>
     <row r="751" spans="1:10">
       <c r="A751" s="6" t="s">
@@ -23136,10 +23148,10 @@
       </c>
       <c r="C751" s="8" t="str">
         <f>CONCATENATE(E751,F751,G751,H751,I751,J751,K751)</f>
-        <v>kprmd</v>
+        <v>kprw</v>
       </c>
       <c r="D751" s="9" t="s">
-        <v>1478</v>
+        <v>1207</v>
       </c>
       <c r="E751" s="4" t="s">
         <v>949</v>
@@ -23151,10 +23163,7 @@
         <v>958</v>
       </c>
       <c r="H751" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I751" s="4" t="s">
-        <v>938</v>
+        <v>959</v>
       </c>
     </row>
     <row r="752" spans="1:10">
@@ -23166,23 +23175,20 @@
       </c>
       <c r="C752" s="8" t="str">
         <f>CONCATENATE(E752,F752,G752,H752,I752,J752,K752)</f>
-        <v>kprw</v>
+        <v>khr</v>
       </c>
       <c r="D752" s="9" t="s">
-        <v>1207</v>
+        <v>615</v>
       </c>
       <c r="E752" s="4" t="s">
         <v>949</v>
       </c>
       <c r="F752" s="4" t="s">
-        <v>940</v>
+        <v>1487</v>
       </c>
       <c r="G752" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H752" s="4" t="s">
-        <v>959</v>
-      </c>
     </row>
     <row r="753" spans="1:9">
       <c r="A753" s="6" t="s">
@@ -23193,13 +23199,13 @@
       </c>
       <c r="C753" s="8" t="str">
         <f>CONCATENATE(E753,F753,G753,H753,I753,J753,K753)</f>
-        <v>khr</v>
+        <v>ghr</v>
       </c>
       <c r="D753" s="9" t="s">
-        <v>615</v>
+        <v>1164</v>
       </c>
       <c r="E753" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F753" s="4" t="s">
         <v>1487</v>
@@ -23217,19 +23223,19 @@
       </c>
       <c r="C754" s="8" t="str">
         <f>CONCATENATE(E754,F754,G754,H754,I754,J754,K754)</f>
-        <v>ghr</v>
+        <v>srs</v>
       </c>
       <c r="D754" s="9" t="s">
-        <v>1164</v>
+        <v>1227</v>
       </c>
       <c r="E754" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F754" s="4" t="s">
-        <v>1487</v>
+        <v>958</v>
       </c>
       <c r="G754" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="755" spans="1:9">
@@ -23241,10 +23247,10 @@
       </c>
       <c r="C755" s="8" t="str">
         <f>CONCATENATE(E755,F755,G755,H755,I755,J755,K755)</f>
-        <v>srs</v>
+        <v>srsr</v>
       </c>
       <c r="D755" s="9" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E755" s="4" t="s">
         <v>951</v>
@@ -23255,6 +23261,9 @@
       <c r="G755" s="4" t="s">
         <v>951</v>
       </c>
+      <c r="H755" s="4" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="756" spans="1:9">
       <c r="A756" s="6" t="s">
@@ -23265,10 +23274,10 @@
       </c>
       <c r="C756" s="8" t="str">
         <f>CONCATENATE(E756,F756,G756,H756,I756,J756,K756)</f>
-        <v>srsr</v>
+        <v>srslb</v>
       </c>
       <c r="D756" s="9" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E756" s="4" t="s">
         <v>951</v>
@@ -23280,7 +23289,10 @@
         <v>951</v>
       </c>
       <c r="H756" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
+      </c>
+      <c r="I756" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="757" spans="1:9">
@@ -23292,10 +23304,10 @@
       </c>
       <c r="C757" s="8" t="str">
         <f>CONCATENATE(E757,F757,G757,H757,I757,J757,K757)</f>
-        <v>srslb</v>
+        <v>srm</v>
       </c>
       <c r="D757" s="9" t="s">
-        <v>1229</v>
+        <v>1165</v>
       </c>
       <c r="E757" s="4" t="s">
         <v>951</v>
@@ -23304,13 +23316,7 @@
         <v>958</v>
       </c>
       <c r="G757" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H757" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I757" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="758" spans="1:9">
@@ -23322,10 +23328,10 @@
       </c>
       <c r="C758" s="8" t="str">
         <f>CONCATENATE(E758,F758,G758,H758,I758,J758,K758)</f>
-        <v>srm</v>
+        <v>srl</v>
       </c>
       <c r="D758" s="9" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="E758" s="4" t="s">
         <v>951</v>
@@ -23334,7 +23340,7 @@
         <v>958</v>
       </c>
       <c r="G758" s="4" t="s">
-        <v>957</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="759" spans="1:9">
@@ -23346,10 +23352,10 @@
       </c>
       <c r="C759" s="8" t="str">
         <f>CONCATENATE(E759,F759,G759,H759,I759,J759,K759)</f>
-        <v>srl</v>
+        <v>srlt</v>
       </c>
       <c r="D759" s="9" t="s">
-        <v>1167</v>
+        <v>657</v>
       </c>
       <c r="E759" s="4" t="s">
         <v>951</v>
@@ -23360,6 +23366,9 @@
       <c r="G759" s="4" t="s">
         <v>1245</v>
       </c>
+      <c r="H759" s="4" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="760" spans="1:9">
       <c r="A760" s="6" t="s">
@@ -23370,10 +23379,10 @@
       </c>
       <c r="C760" s="8" t="str">
         <f>CONCATENATE(E760,F760,G760,H760,I760,J760,K760)</f>
-        <v>srlt</v>
+        <v>srll</v>
       </c>
       <c r="D760" s="9" t="s">
-        <v>657</v>
+        <v>1234</v>
       </c>
       <c r="E760" s="4" t="s">
         <v>951</v>
@@ -23385,7 +23394,7 @@
         <v>1245</v>
       </c>
       <c r="H760" s="4" t="s">
-        <v>930</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="761" spans="1:9">
@@ -23397,10 +23406,10 @@
       </c>
       <c r="C761" s="8" t="str">
         <f>CONCATENATE(E761,F761,G761,H761,I761,J761,K761)</f>
-        <v>srll</v>
+        <v>srlr</v>
       </c>
       <c r="D761" s="9" t="s">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="E761" s="4" t="s">
         <v>951</v>
@@ -23412,7 +23421,7 @@
         <v>1245</v>
       </c>
       <c r="H761" s="4" t="s">
-        <v>1245</v>
+        <v>958</v>
       </c>
     </row>
     <row r="762" spans="1:9">
@@ -23424,22 +23433,19 @@
       </c>
       <c r="C762" s="8" t="str">
         <f>CONCATENATE(E762,F762,G762,H762,I762,J762,K762)</f>
-        <v>srlr</v>
+        <v>sks</v>
       </c>
       <c r="D762" s="9" t="s">
-        <v>1166</v>
+        <v>652</v>
       </c>
       <c r="E762" s="4" t="s">
-        <v>951</v>
+        <v>1286</v>
       </c>
       <c r="F762" s="4" t="s">
-        <v>958</v>
+        <v>1257</v>
       </c>
       <c r="G762" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H762" s="4" t="s">
-        <v>958</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="763" spans="1:9">
@@ -23451,19 +23457,16 @@
       </c>
       <c r="C763" s="8" t="str">
         <f>CONCATENATE(E763,F763,G763,H763,I763,J763,K763)</f>
-        <v>sks</v>
+        <v>xt</v>
       </c>
       <c r="D763" s="9" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="E763" s="4" t="s">
-        <v>1286</v>
+        <v>1607</v>
       </c>
       <c r="F763" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G763" s="4" t="s">
-        <v>1286</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="764" spans="1:9">
@@ -23475,17 +23478,20 @@
       </c>
       <c r="C764" s="8" t="str">
         <f>CONCATENATE(E764,F764,G764,H764,I764,J764,K764)</f>
-        <v>xt</v>
+        <v>xtg</v>
       </c>
       <c r="D764" s="9" t="s">
-        <v>669</v>
+        <v>1169</v>
       </c>
       <c r="E764" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F764" s="4" t="s">
         <v>1497</v>
       </c>
+      <c r="G764" s="4" t="s">
+        <v>1498</v>
+      </c>
     </row>
     <row r="765" spans="1:9">
       <c r="A765" s="6" t="s">
@@ -23496,19 +23502,19 @@
       </c>
       <c r="C765" s="8" t="str">
         <f>CONCATENATE(E765,F765,G765,H765,I765,J765,K765)</f>
-        <v>xtg</v>
+        <v>xtr</v>
       </c>
       <c r="D765" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E765" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F765" s="4" t="s">
         <v>1497</v>
       </c>
       <c r="G765" s="4" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="766" spans="1:9">
@@ -23520,19 +23526,19 @@
       </c>
       <c r="C766" s="8" t="str">
         <f>CONCATENATE(E766,F766,G766,H766,I766,J766,K766)</f>
-        <v>xtr</v>
+        <v>xmv</v>
       </c>
       <c r="D766" s="9" t="s">
-        <v>1168</v>
+        <v>1288</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F766" s="4" t="s">
-        <v>1497</v>
+        <v>936</v>
       </c>
       <c r="G766" s="4" t="s">
-        <v>1499</v>
+        <v>948</v>
       </c>
     </row>
     <row r="767" spans="1:9">
@@ -23544,19 +23550,22 @@
       </c>
       <c r="C767" s="8" t="str">
         <f>CONCATENATE(E767,F767,G767,H767,I767,J767,K767)</f>
-        <v>xmv</v>
+        <v>xmxt</v>
       </c>
       <c r="D767" s="9" t="s">
-        <v>1288</v>
+        <v>1158</v>
       </c>
       <c r="E767" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F767" s="4" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="G767" s="4" t="s">
-        <v>948</v>
+        <v>1607</v>
+      </c>
+      <c r="H767" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="768" spans="1:9">
@@ -23568,23 +23577,26 @@
       </c>
       <c r="C768" s="8" t="str">
         <f>CONCATENATE(E768,F768,G768,H768,I768,J768,K768)</f>
-        <v>xmxt</v>
+        <v>xmxtk</v>
       </c>
       <c r="D768" s="9" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="E768" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F768" s="4" t="s">
         <v>957</v>
       </c>
       <c r="G768" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H768" s="4" t="s">
         <v>930</v>
       </c>
+      <c r="I768" s="4" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="769" spans="1:9">
       <c r="A769" s="6" t="s">
@@ -23595,25 +23607,25 @@
       </c>
       <c r="C769" s="8" t="str">
         <f>CONCATENATE(E769,F769,G769,H769,I769,J769,K769)</f>
-        <v>xmxtk</v>
+        <v>xmxtg</v>
       </c>
       <c r="D769" s="9" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E769" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F769" s="4" t="s">
         <v>957</v>
       </c>
       <c r="G769" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H769" s="4" t="s">
         <v>930</v>
       </c>
       <c r="I769" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="770" spans="1:9">
@@ -23625,25 +23637,25 @@
       </c>
       <c r="C770" s="8" t="str">
         <f>CONCATENATE(E770,F770,G770,H770,I770,J770,K770)</f>
-        <v>xmxtg</v>
+        <v>xmxtr</v>
       </c>
       <c r="D770" s="9" t="s">
-        <v>1174</v>
+        <v>1232</v>
       </c>
       <c r="E770" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F770" s="4" t="s">
         <v>957</v>
       </c>
       <c r="G770" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H770" s="4" t="s">
         <v>930</v>
       </c>
       <c r="I770" s="4" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="771" spans="1:9">
@@ -23655,25 +23667,22 @@
       </c>
       <c r="C771" s="8" t="str">
         <f>CONCATENATE(E771,F771,G771,H771,I771,J771,K771)</f>
-        <v>xmxtr</v>
+        <v>xmxx</v>
       </c>
       <c r="D771" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E771" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F771" s="4" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G771" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H771" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="I771" s="4" t="s">
-        <v>958</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="772" spans="1:9">
@@ -23685,22 +23694,22 @@
       </c>
       <c r="C772" s="8" t="str">
         <f>CONCATENATE(E772,F772,G772,H772,I772,J772,K772)</f>
-        <v>xmxx</v>
+        <v>xmxv</v>
       </c>
       <c r="D772" s="9" t="s">
-        <v>1230</v>
+        <v>1157</v>
       </c>
       <c r="E772" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F772" s="4" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="G772" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H772" s="4" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="773" spans="1:9">
@@ -23712,23 +23721,26 @@
       </c>
       <c r="C773" s="8" t="str">
         <f>CONCATENATE(E773,F773,G773,H773,I773,J773,K773)</f>
-        <v>xmxv</v>
+        <v>xmxvk</v>
       </c>
       <c r="D773" s="9" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="E773" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F773" s="4" t="s">
         <v>957</v>
       </c>
       <c r="G773" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H773" s="4" t="s">
         <v>1244</v>
       </c>
+      <c r="I773" s="4" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="774" spans="1:9">
       <c r="A774" s="6" t="s">
@@ -23739,25 +23751,19 @@
       </c>
       <c r="C774" s="8" t="str">
         <f>CONCATENATE(E774,F774,G774,H774,I774,J774,K774)</f>
-        <v>xmxvk</v>
+        <v>xms</v>
       </c>
       <c r="D774" s="9" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="E774" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F774" s="4" t="s">
         <v>957</v>
       </c>
       <c r="G774" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H774" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I774" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="775" spans="1:9">
@@ -23769,13 +23775,13 @@
       </c>
       <c r="C775" s="8" t="str">
         <f>CONCATENATE(E775,F775,G775,H775,I775,J775,K775)</f>
-        <v>xms</v>
+        <v>xmsk</v>
       </c>
       <c r="D775" s="9" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="E775" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F775" s="4" t="s">
         <v>957</v>
@@ -23783,6 +23789,9 @@
       <c r="G775" s="4" t="s">
         <v>951</v>
       </c>
+      <c r="H775" s="4" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="776" spans="1:9">
       <c r="A776" s="6" t="s">
@@ -23793,13 +23802,13 @@
       </c>
       <c r="C776" s="8" t="str">
         <f>CONCATENATE(E776,F776,G776,H776,I776,J776,K776)</f>
-        <v>xmsk</v>
+        <v>xmsg</v>
       </c>
       <c r="D776" s="9" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="E776" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F776" s="4" t="s">
         <v>957</v>
@@ -23808,7 +23817,7 @@
         <v>951</v>
       </c>
       <c r="H776" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="777" spans="1:9">
@@ -23820,13 +23829,13 @@
       </c>
       <c r="C777" s="8" t="str">
         <f>CONCATENATE(E777,F777,G777,H777,I777,J777,K777)</f>
-        <v>xmsg</v>
+        <v>xmst</v>
       </c>
       <c r="D777" s="9" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="E777" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F777" s="4" t="s">
         <v>957</v>
@@ -23835,7 +23844,7 @@
         <v>951</v>
       </c>
       <c r="H777" s="4" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
     </row>
     <row r="778" spans="1:9">
@@ -23847,13 +23856,13 @@
       </c>
       <c r="C778" s="8" t="str">
         <f>CONCATENATE(E778,F778,G778,H778,I778,J778,K778)</f>
-        <v>xmst</v>
+        <v>xmsd</v>
       </c>
       <c r="D778" s="9" t="s">
-        <v>1175</v>
+        <v>1208</v>
       </c>
       <c r="E778" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F778" s="4" t="s">
         <v>957</v>
@@ -23862,7 +23871,7 @@
         <v>951</v>
       </c>
       <c r="H778" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
     </row>
     <row r="779" spans="1:9">
@@ -23874,13 +23883,13 @@
       </c>
       <c r="C779" s="8" t="str">
         <f>CONCATENATE(E779,F779,G779,H779,I779,J779,K779)</f>
-        <v>xmsd</v>
+        <v>xmsdg</v>
       </c>
       <c r="D779" s="9" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E779" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F779" s="4" t="s">
         <v>957</v>
@@ -23891,6 +23900,9 @@
       <c r="H779" s="4" t="s">
         <v>953</v>
       </c>
+      <c r="I779" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="780" spans="1:9">
       <c r="A780" s="6" t="s">
@@ -23901,13 +23913,13 @@
       </c>
       <c r="C780" s="8" t="str">
         <f>CONCATENATE(E780,F780,G780,H780,I780,J780,K780)</f>
-        <v>xmsdg</v>
+        <v>xmsdk</v>
       </c>
       <c r="D780" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E780" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F780" s="4" t="s">
         <v>957</v>
@@ -23919,7 +23931,7 @@
         <v>953</v>
       </c>
       <c r="I780" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="781" spans="1:9">
@@ -23931,25 +23943,19 @@
       </c>
       <c r="C781" s="8" t="str">
         <f>CONCATENATE(E781,F781,G781,H781,I781,J781,K781)</f>
-        <v>xmsdk</v>
+        <v>srr</v>
       </c>
       <c r="D781" s="9" t="s">
-        <v>1209</v>
+        <v>1176</v>
       </c>
       <c r="E781" s="4" t="s">
-        <v>1608</v>
+        <v>951</v>
       </c>
       <c r="F781" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G781" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H781" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I781" s="4" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -23961,10 +23967,10 @@
       </c>
       <c r="C782" s="8" t="str">
         <f>CONCATENATE(E782,F782,G782,H782,I782,J782,K782)</f>
-        <v>srr</v>
+        <v>srlb</v>
       </c>
       <c r="D782" s="9" t="s">
-        <v>1176</v>
+        <v>1201</v>
       </c>
       <c r="E782" s="4" t="s">
         <v>951</v>
@@ -23973,7 +23979,10 @@
         <v>958</v>
       </c>
       <c r="G782" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
+      </c>
+      <c r="H782" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="783" spans="1:9">
@@ -23985,22 +23994,19 @@
       </c>
       <c r="C783" s="8" t="str">
         <f>CONCATENATE(E783,F783,G783,H783,I783,J783,K783)</f>
-        <v>srlb</v>
+        <v>spk</v>
       </c>
       <c r="D783" s="9" t="s">
-        <v>1201</v>
+        <v>647</v>
       </c>
       <c r="E783" s="4" t="s">
         <v>951</v>
       </c>
       <c r="F783" s="4" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G783" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H783" s="4" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="784" spans="1:9">
@@ -24012,10 +24018,10 @@
       </c>
       <c r="C784" s="8" t="str">
         <f>CONCATENATE(E784,F784,G784,H784,I784,J784,K784)</f>
-        <v>spk</v>
+        <v>spkg</v>
       </c>
       <c r="D784" s="9" t="s">
-        <v>647</v>
+        <v>1132</v>
       </c>
       <c r="E784" s="4" t="s">
         <v>951</v>
@@ -24026,6 +24032,9 @@
       <c r="G784" s="4" t="s">
         <v>949</v>
       </c>
+      <c r="H784" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="785" spans="1:10">
       <c r="A785" s="6" t="s">
@@ -24036,10 +24045,10 @@
       </c>
       <c r="C785" s="8" t="str">
         <f>CONCATENATE(E785,F785,G785,H785,I785,J785,K785)</f>
-        <v>spkg</v>
+        <v>spkkr</v>
       </c>
       <c r="D785" s="9" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E785" s="4" t="s">
         <v>951</v>
@@ -24051,7 +24060,10 @@
         <v>949</v>
       </c>
       <c r="H785" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="I785" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="786" spans="1:10">
@@ -24063,10 +24075,10 @@
       </c>
       <c r="C786" s="8" t="str">
         <f>CONCATENATE(E786,F786,G786,H786,I786,J786,K786)</f>
-        <v>spkkr</v>
+        <v>spkd</v>
       </c>
       <c r="D786" s="9" t="s">
-        <v>1133</v>
+        <v>728</v>
       </c>
       <c r="E786" s="4" t="s">
         <v>951</v>
@@ -24078,10 +24090,7 @@
         <v>949</v>
       </c>
       <c r="H786" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I786" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="787" spans="1:10">
@@ -24093,10 +24102,10 @@
       </c>
       <c r="C787" s="8" t="str">
         <f>CONCATENATE(E787,F787,G787,H787,I787,J787,K787)</f>
-        <v>spkd</v>
+        <v>spkn</v>
       </c>
       <c r="D787" s="9" t="s">
-        <v>728</v>
+        <v>649</v>
       </c>
       <c r="E787" s="4" t="s">
         <v>951</v>
@@ -24108,7 +24117,7 @@
         <v>949</v>
       </c>
       <c r="H787" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="788" spans="1:10">
@@ -24120,10 +24129,10 @@
       </c>
       <c r="C788" s="8" t="str">
         <f>CONCATENATE(E788,F788,G788,H788,I788,J788,K788)</f>
-        <v>spkn</v>
+        <v>spkh</v>
       </c>
       <c r="D788" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E788" s="4" t="s">
         <v>951</v>
@@ -24135,7 +24144,7 @@
         <v>949</v>
       </c>
       <c r="H788" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="789" spans="1:10">
@@ -24147,10 +24156,10 @@
       </c>
       <c r="C789" s="8" t="str">
         <f>CONCATENATE(E789,F789,G789,H789,I789,J789,K789)</f>
-        <v>spkh</v>
+        <v>spkmd</v>
       </c>
       <c r="D789" s="9" t="s">
-        <v>648</v>
+        <v>1480</v>
       </c>
       <c r="E789" s="4" t="s">
         <v>951</v>
@@ -24162,7 +24171,10 @@
         <v>949</v>
       </c>
       <c r="H789" s="4" t="s">
-        <v>1248</v>
+        <v>936</v>
+      </c>
+      <c r="I789" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="790" spans="1:10">
@@ -24174,10 +24186,10 @@
       </c>
       <c r="C790" s="8" t="str">
         <f>CONCATENATE(E790,F790,G790,H790,I790,J790,K790)</f>
-        <v>spkmd</v>
+        <v>spkmdh</v>
       </c>
       <c r="D790" s="9" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E790" s="4" t="s">
         <v>951</v>
@@ -24194,6 +24206,9 @@
       <c r="I790" s="4" t="s">
         <v>938</v>
       </c>
+      <c r="J790" s="4" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="791" spans="1:10">
       <c r="A791" s="6" t="s">
@@ -24204,10 +24219,10 @@
       </c>
       <c r="C791" s="8" t="str">
         <f>CONCATENATE(E791,F791,G791,H791,I791,J791,K791)</f>
-        <v>spkmdh</v>
+        <v>spxt</v>
       </c>
       <c r="D791" s="9" t="s">
-        <v>1481</v>
+        <v>1211</v>
       </c>
       <c r="E791" s="4" t="s">
         <v>951</v>
@@ -24216,16 +24231,10 @@
         <v>940</v>
       </c>
       <c r="G791" s="4" t="s">
-        <v>949</v>
+        <v>1246</v>
       </c>
       <c r="H791" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I791" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J791" s="4" t="s">
-        <v>1260</v>
+        <v>930</v>
       </c>
     </row>
     <row r="792" spans="1:10">
@@ -24237,10 +24246,10 @@
       </c>
       <c r="C792" s="8" t="str">
         <f>CONCATENATE(E792,F792,G792,H792,I792,J792,K792)</f>
-        <v>spxt</v>
+        <v>spcr</v>
       </c>
       <c r="D792" s="9" t="s">
-        <v>1211</v>
+        <v>644</v>
       </c>
       <c r="E792" s="4" t="s">
         <v>951</v>
@@ -24249,10 +24258,10 @@
         <v>940</v>
       </c>
       <c r="G792" s="4" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="H792" s="4" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
     </row>
     <row r="793" spans="1:10">
@@ -24264,10 +24273,10 @@
       </c>
       <c r="C793" s="8" t="str">
         <f>CONCATENATE(E793,F793,G793,H793,I793,J793,K793)</f>
-        <v>spcr</v>
+        <v>spcrg</v>
       </c>
       <c r="D793" s="9" t="s">
-        <v>644</v>
+        <v>1134</v>
       </c>
       <c r="E793" s="4" t="s">
         <v>951</v>
@@ -24281,6 +24290,9 @@
       <c r="H793" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="I793" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="794" spans="1:10">
       <c r="A794" s="6" t="s">
@@ -24291,10 +24303,10 @@
       </c>
       <c r="C794" s="8" t="str">
         <f>CONCATENATE(E794,F794,G794,H794,I794,J794,K794)</f>
-        <v>spcrg</v>
+        <v>spcrkr</v>
       </c>
       <c r="D794" s="9" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E794" s="4" t="s">
         <v>951</v>
@@ -24309,7 +24321,10 @@
         <v>958</v>
       </c>
       <c r="I794" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="J794" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="795" spans="1:10">
@@ -24321,10 +24336,10 @@
       </c>
       <c r="C795" s="8" t="str">
         <f>CONCATENATE(E795,F795,G795,H795,I795,J795,K795)</f>
-        <v>spcrkr</v>
+        <v>spcrd</v>
       </c>
       <c r="D795" s="9" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E795" s="4" t="s">
         <v>951</v>
@@ -24339,10 +24354,7 @@
         <v>958</v>
       </c>
       <c r="I795" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J795" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="796" spans="1:10">
@@ -24354,10 +24366,10 @@
       </c>
       <c r="C796" s="8" t="str">
         <f>CONCATENATE(E796,F796,G796,H796,I796,J796,K796)</f>
-        <v>spcrd</v>
+        <v>spcrn</v>
       </c>
       <c r="D796" s="9" t="s">
-        <v>1136</v>
+        <v>646</v>
       </c>
       <c r="E796" s="4" t="s">
         <v>951</v>
@@ -24372,7 +24384,7 @@
         <v>958</v>
       </c>
       <c r="I796" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="797" spans="1:10">
@@ -24384,10 +24396,10 @@
       </c>
       <c r="C797" s="8" t="str">
         <f>CONCATENATE(E797,F797,G797,H797,I797,J797,K797)</f>
-        <v>spcrn</v>
+        <v>spcrh</v>
       </c>
       <c r="D797" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E797" s="4" t="s">
         <v>951</v>
@@ -24402,7 +24414,7 @@
         <v>958</v>
       </c>
       <c r="I797" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="798" spans="1:10">
@@ -24414,10 +24426,10 @@
       </c>
       <c r="C798" s="8" t="str">
         <f>CONCATENATE(E798,F798,G798,H798,I798,J798,K798)</f>
-        <v>spcrh</v>
+        <v>spn</v>
       </c>
       <c r="D798" s="9" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="E798" s="4" t="s">
         <v>951</v>
@@ -24426,13 +24438,7 @@
         <v>940</v>
       </c>
       <c r="G798" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H798" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I798" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
     </row>
     <row r="799" spans="1:10">
@@ -24444,10 +24450,10 @@
       </c>
       <c r="C799" s="8" t="str">
         <f>CONCATENATE(E799,F799,G799,H799,I799,J799,K799)</f>
-        <v>spn</v>
+        <v>spr</v>
       </c>
       <c r="D799" s="9" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E799" s="4" t="s">
         <v>951</v>
@@ -24456,7 +24462,7 @@
         <v>940</v>
       </c>
       <c r="G799" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="800" spans="1:10">
@@ -24468,10 +24474,10 @@
       </c>
       <c r="C800" s="8" t="str">
         <f>CONCATENATE(E800,F800,G800,H800,I800,J800,K800)</f>
-        <v>spr</v>
+        <v>sprg</v>
       </c>
       <c r="D800" s="9" t="s">
-        <v>655</v>
+        <v>1137</v>
       </c>
       <c r="E800" s="4" t="s">
         <v>951</v>
@@ -24482,6 +24488,9 @@
       <c r="G800" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="H800" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="801" spans="1:10">
       <c r="A801" s="6" t="s">
@@ -24492,10 +24501,10 @@
       </c>
       <c r="C801" s="8" t="str">
         <f>CONCATENATE(E801,F801,G801,H801,I801,J801,K801)</f>
-        <v>sprg</v>
+        <v>sprd</v>
       </c>
       <c r="D801" s="9" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E801" s="4" t="s">
         <v>951</v>
@@ -24507,7 +24516,7 @@
         <v>958</v>
       </c>
       <c r="H801" s="4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="802" spans="1:10">
@@ -24519,10 +24528,10 @@
       </c>
       <c r="C802" s="8" t="str">
         <f>CONCATENATE(E802,F802,G802,H802,I802,J802,K802)</f>
-        <v>sprd</v>
+        <v>sprdh</v>
       </c>
       <c r="D802" s="9" t="s">
-        <v>1139</v>
+        <v>1212</v>
       </c>
       <c r="E802" s="4" t="s">
         <v>951</v>
@@ -24536,6 +24545,9 @@
       <c r="H802" s="4" t="s">
         <v>953</v>
       </c>
+      <c r="I802" s="4" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="803" spans="1:10">
       <c r="A803" s="6" t="s">
@@ -24546,10 +24558,10 @@
       </c>
       <c r="C803" s="8" t="str">
         <f>CONCATENATE(E803,F803,G803,H803,I803,J803,K803)</f>
-        <v>sprdh</v>
+        <v>sprn</v>
       </c>
       <c r="D803" s="9" t="s">
-        <v>1212</v>
+        <v>1138</v>
       </c>
       <c r="E803" s="4" t="s">
         <v>951</v>
@@ -24561,10 +24573,7 @@
         <v>958</v>
       </c>
       <c r="H803" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I803" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
     </row>
     <row r="804" spans="1:10">
@@ -24576,10 +24585,10 @@
       </c>
       <c r="C804" s="8" t="str">
         <f>CONCATENATE(E804,F804,G804,H804,I804,J804,K804)</f>
-        <v>sprn</v>
+        <v>sprh</v>
       </c>
       <c r="D804" s="9" t="s">
-        <v>1138</v>
+        <v>1213</v>
       </c>
       <c r="E804" s="4" t="s">
         <v>951</v>
@@ -24591,7 +24600,7 @@
         <v>958</v>
       </c>
       <c r="H804" s="4" t="s">
-        <v>954</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="805" spans="1:10">
@@ -24603,10 +24612,10 @@
       </c>
       <c r="C805" s="8" t="str">
         <f>CONCATENATE(E805,F805,G805,H805,I805,J805,K805)</f>
-        <v>sprh</v>
+        <v>sprmd</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1213</v>
+        <v>1482</v>
       </c>
       <c r="E805" s="4" t="s">
         <v>951</v>
@@ -24618,7 +24627,10 @@
         <v>958</v>
       </c>
       <c r="H805" s="4" t="s">
-        <v>1248</v>
+        <v>936</v>
+      </c>
+      <c r="I805" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="806" spans="1:10">
@@ -24630,10 +24642,10 @@
       </c>
       <c r="C806" s="8" t="str">
         <f>CONCATENATE(E806,F806,G806,H806,I806,J806,K806)</f>
-        <v>sprmd</v>
+        <v>sprmdh</v>
       </c>
       <c r="D806" s="9" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E806" s="4" t="s">
         <v>951</v>
@@ -24650,6 +24662,9 @@
       <c r="I806" s="4" t="s">
         <v>938</v>
       </c>
+      <c r="J806" s="4" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="807" spans="1:10">
       <c r="A807" s="6" t="s">
@@ -24660,10 +24675,10 @@
       </c>
       <c r="C807" s="8" t="str">
         <f>CONCATENATE(E807,F807,G807,H807,I807,J807,K807)</f>
-        <v>sprmdh</v>
+        <v>sprw</v>
       </c>
       <c r="D807" s="9" t="s">
-        <v>1483</v>
+        <v>1214</v>
       </c>
       <c r="E807" s="4" t="s">
         <v>951</v>
@@ -24675,13 +24690,7 @@
         <v>958</v>
       </c>
       <c r="H807" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I807" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J807" s="4" t="s">
-        <v>1260</v>
+        <v>959</v>
       </c>
     </row>
     <row r="808" spans="1:10">
@@ -24693,22 +24702,19 @@
       </c>
       <c r="C808" s="8" t="str">
         <f>CONCATENATE(E808,F808,G808,H808,I808,J808,K808)</f>
-        <v>sprw</v>
+        <v>drk</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1214</v>
+        <v>1159</v>
       </c>
       <c r="E808" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F808" s="4" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="G808" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H808" s="4" t="s">
-        <v>959</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="809" spans="1:10">
@@ -24720,19 +24726,19 @@
       </c>
       <c r="C809" s="8" t="str">
         <f>CONCATENATE(E809,F809,G809,H809,I809,J809,K809)</f>
-        <v>drk</v>
+        <v>drq</v>
       </c>
       <c r="D809" s="9" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E809" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F809" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
       <c r="G809" s="4" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="810" spans="1:10">
@@ -24744,19 +24750,19 @@
       </c>
       <c r="C810" s="8" t="str">
         <f>CONCATENATE(E810,F810,G810,H810,I810,J810,K810)</f>
-        <v>drq</v>
+        <v>dtt</v>
       </c>
       <c r="D810" s="9" t="s">
-        <v>1160</v>
+        <v>1329</v>
       </c>
       <c r="E810" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F810" s="4" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="G810" s="4" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="811" spans="1:10">
@@ -24768,19 +24774,19 @@
       </c>
       <c r="C811" s="8" t="str">
         <f>CONCATENATE(E811,F811,G811,H811,I811,J811,K811)</f>
-        <v>dtt</v>
+        <v>thm</v>
       </c>
       <c r="D811" s="9" t="s">
-        <v>1329</v>
+        <v>659</v>
       </c>
       <c r="E811" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F811" s="4" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="G811" s="4" t="s">
-        <v>1256</v>
+        <v>957</v>
       </c>
     </row>
     <row r="812" spans="1:10">
@@ -24792,19 +24798,19 @@
       </c>
       <c r="C812" s="8" t="str">
         <f>CONCATENATE(E812,F812,G812,H812,I812,J812,K812)</f>
-        <v>thm</v>
+        <v>trr</v>
       </c>
       <c r="D812" s="9" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E812" s="4" t="s">
         <v>930</v>
       </c>
       <c r="F812" s="4" t="s">
-        <v>1248</v>
+        <v>958</v>
       </c>
       <c r="G812" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="813" spans="1:10">
@@ -24816,19 +24822,19 @@
       </c>
       <c r="C813" s="8" t="str">
         <f>CONCATENATE(E813,F813,G813,H813,I813,J813,K813)</f>
-        <v>trr</v>
+        <v>dpl</v>
       </c>
       <c r="D813" s="9" t="s">
-        <v>662</v>
+        <v>591</v>
       </c>
       <c r="E813" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F813" s="4" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G813" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="814" spans="1:10">
@@ -24840,10 +24846,10 @@
       </c>
       <c r="C814" s="8" t="str">
         <f>CONCATENATE(E814,F814,G814,H814,I814,J814,K814)</f>
-        <v>dpl</v>
+        <v>dplg</v>
       </c>
       <c r="D814" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E814" s="4" t="s">
         <v>953</v>
@@ -24854,6 +24860,9 @@
       <c r="G814" s="4" t="s">
         <v>1245</v>
       </c>
+      <c r="H814" s="4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="815" spans="1:10">
       <c r="A815" s="6" t="s">
@@ -24864,10 +24873,10 @@
       </c>
       <c r="C815" s="8" t="str">
         <f>CONCATENATE(E815,F815,G815,H815,I815,J815,K815)</f>
-        <v>dplg</v>
+        <v>dplt</v>
       </c>
       <c r="D815" s="9" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E815" s="4" t="s">
         <v>953</v>
@@ -24879,7 +24888,7 @@
         <v>1245</v>
       </c>
       <c r="H815" s="4" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
     </row>
     <row r="816" spans="1:10">
@@ -24891,10 +24900,10 @@
       </c>
       <c r="C816" s="8" t="str">
         <f>CONCATENATE(E816,F816,G816,H816,I816,J816,K816)</f>
-        <v>dplt</v>
+        <v>dpln</v>
       </c>
       <c r="D816" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E816" s="4" t="s">
         <v>953</v>
@@ -24906,7 +24915,7 @@
         <v>1245</v>
       </c>
       <c r="H816" s="4" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
     </row>
     <row r="817" spans="1:10">
@@ -24918,10 +24927,10 @@
       </c>
       <c r="C817" s="8" t="str">
         <f>CONCATENATE(E817,F817,G817,H817,I817,J817,K817)</f>
-        <v>dpln</v>
+        <v>dplw</v>
       </c>
       <c r="D817" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E817" s="4" t="s">
         <v>953</v>
@@ -24933,7 +24942,7 @@
         <v>1245</v>
       </c>
       <c r="H817" s="4" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="818" spans="1:10">
@@ -24945,22 +24954,19 @@
       </c>
       <c r="C818" s="8" t="str">
         <f>CONCATENATE(E818,F818,G818,H818,I818,J818,K818)</f>
-        <v>dplw</v>
+        <v>drv</v>
       </c>
       <c r="D818" s="9" t="s">
-        <v>595</v>
+        <v>1215</v>
       </c>
       <c r="E818" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F818" s="4" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="G818" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H818" s="4" t="s">
-        <v>959</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="819" spans="1:10">
@@ -24972,10 +24978,10 @@
       </c>
       <c r="C819" s="8" t="str">
         <f>CONCATENATE(E819,F819,G819,H819,I819,J819,K819)</f>
-        <v>drv</v>
+        <v>drtt</v>
       </c>
       <c r="D819" s="9" t="s">
-        <v>1215</v>
+        <v>1328</v>
       </c>
       <c r="E819" s="4" t="s">
         <v>953</v>
@@ -24984,7 +24990,10 @@
         <v>958</v>
       </c>
       <c r="G819" s="4" t="s">
-        <v>1244</v>
+        <v>1256</v>
+      </c>
+      <c r="H819" s="4" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="820" spans="1:10">
@@ -24996,10 +25005,10 @@
       </c>
       <c r="C820" s="8" t="str">
         <f>CONCATENATE(E820,F820,G820,H820,I820,J820,K820)</f>
-        <v>drtt</v>
+        <v>drr</v>
       </c>
       <c r="D820" s="9" t="s">
-        <v>1328</v>
+        <v>1183</v>
       </c>
       <c r="E820" s="4" t="s">
         <v>953</v>
@@ -25008,10 +25017,7 @@
         <v>958</v>
       </c>
       <c r="G820" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H820" s="4" t="s">
-        <v>1256</v>
+        <v>958</v>
       </c>
     </row>
     <row r="821" spans="1:10">
@@ -25023,10 +25029,10 @@
       </c>
       <c r="C821" s="8" t="str">
         <f>CONCATENATE(E821,F821,G821,H821,I821,J821,K821)</f>
-        <v>drr</v>
+        <v>drlb</v>
       </c>
       <c r="D821" s="9" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E821" s="4" t="s">
         <v>953</v>
@@ -25035,7 +25041,10 @@
         <v>958</v>
       </c>
       <c r="G821" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
+      </c>
+      <c r="H821" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="822" spans="1:10">
@@ -25043,26 +25052,20 @@
         <v>242</v>
       </c>
       <c r="B822" s="6" t="s">
-        <v>578</v>
+        <v>1634</v>
       </c>
       <c r="C822" s="8" t="str">
         <f>CONCATENATE(E822,F822,G822,H822,I822,J822,K822)</f>
-        <v>drlb</v>
+        <v>dk</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1184</v>
+        <v>530</v>
       </c>
       <c r="E822" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="F822" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="G822" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H822" s="4" t="s">
-        <v>956</v>
+      <c r="F822" s="5" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="823" spans="1:10">
@@ -25278,7 +25281,7 @@
         <v>953</v>
       </c>
       <c r="F830" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G830" s="4" t="s">
         <v>930</v>
@@ -25302,7 +25305,7 @@
         <v>953</v>
       </c>
       <c r="F831" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G831" s="4" t="s">
         <v>930</v>
@@ -25329,7 +25332,7 @@
         <v>953</v>
       </c>
       <c r="F832" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G832" s="4" t="s">
         <v>930</v>
@@ -25356,7 +25359,7 @@
         <v>953</v>
       </c>
       <c r="F833" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G833" s="4" t="s">
         <v>1244</v>
@@ -25380,7 +25383,7 @@
         <v>953</v>
       </c>
       <c r="F834" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G834" s="4" t="s">
         <v>1244</v>
@@ -27255,7 +27258,7 @@
         <v>957</v>
       </c>
       <c r="F905" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G905" s="4" t="s">
         <v>930</v>
@@ -27279,7 +27282,7 @@
         <v>957</v>
       </c>
       <c r="F906" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G906" s="4" t="s">
         <v>930</v>
@@ -27306,7 +27309,7 @@
         <v>957</v>
       </c>
       <c r="F907" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G907" s="4" t="s">
         <v>930</v>
@@ -27333,7 +27336,7 @@
         <v>957</v>
       </c>
       <c r="F908" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G908" s="4" t="s">
         <v>938</v>
@@ -27357,7 +27360,7 @@
         <v>957</v>
       </c>
       <c r="F909" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G909" s="4" t="s">
         <v>1244</v>
@@ -27381,7 +27384,7 @@
         <v>957</v>
       </c>
       <c r="F910" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G910" s="4" t="s">
         <v>1244</v>
@@ -28037,7 +28040,7 @@
         <v>242</v>
       </c>
       <c r="B937" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C937" s="8" t="str">
         <f>CONCATENATE(E937,F937,G937,H937,I937,J937,K937)</f>
@@ -28061,7 +28064,7 @@
         <v>242</v>
       </c>
       <c r="B938" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C938" s="8" t="str">
         <f>CONCATENATE(E938,F938,G938,H938,I938,J938,K938)</f>
@@ -28082,7 +28085,7 @@
         <v>242</v>
       </c>
       <c r="B939" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C939" s="8" t="str">
         <f>CONCATENATE(E939,F939,G939,H939,I939,J939,K939)</f>
@@ -28103,7 +28106,7 @@
         <v>242</v>
       </c>
       <c r="B940" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C940" s="8" t="str">
         <f>CONCATENATE(E940,F940,G940,H940,I940,J940,K940)</f>
@@ -28124,7 +28127,7 @@
         <v>242</v>
       </c>
       <c r="B941" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C941" s="8" t="str">
         <f>CONCATENATE(E941,F941,G941,H941,I941,J941,K941)</f>
@@ -28148,7 +28151,7 @@
         <v>242</v>
       </c>
       <c r="B942" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C942" s="8" t="str">
         <f>CONCATENATE(E942,F942,G942,H942,I942,J942,K942)</f>
@@ -28169,7 +28172,7 @@
         <v>242</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C943" s="8" t="str">
         <f>CONCATENATE(E943,F943,G943,H943,I943,J943,K943)</f>
@@ -28193,7 +28196,7 @@
         <v>242</v>
       </c>
       <c r="B944" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C944" s="8" t="str">
         <f>CONCATENATE(E944,F944,G944,H944,I944,J944,K944)</f>
@@ -28214,7 +28217,7 @@
         <v>242</v>
       </c>
       <c r="B945" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C945" s="8" t="str">
         <f>CONCATENATE(E945,F945,G945,H945,I945,J945,K945)</f>
@@ -28235,7 +28238,7 @@
         <v>242</v>
       </c>
       <c r="B946" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C946" s="8" t="str">
         <f>CONCATENATE(E946,F946,G946,H946,I946,J946,K946)</f>
@@ -28256,7 +28259,7 @@
         <v>242</v>
       </c>
       <c r="B947" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C947" s="8" t="str">
         <f>CONCATENATE(E947,F947,G947,H947,I947,J947,K947)</f>
@@ -28277,7 +28280,7 @@
         <v>242</v>
       </c>
       <c r="B948" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C948" s="8" t="str">
         <f>CONCATENATE(E948,F948,G948,H948,I948,J948,K948)</f>
@@ -28301,7 +28304,7 @@
         <v>242</v>
       </c>
       <c r="B949" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C949" s="8" t="str">
         <f>CONCATENATE(E949,F949,G949,H949,I949,J949,K949)</f>
@@ -28325,7 +28328,7 @@
         <v>242</v>
       </c>
       <c r="B950" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C950" s="8" t="str">
         <f>CONCATENATE(E950,F950,G950,H950,I950,J950,K950)</f>
@@ -28349,7 +28352,7 @@
         <v>242</v>
       </c>
       <c r="B951" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C951" s="8" t="str">
         <f>CONCATENATE(E951,F951,G951,H951,I951,J951,K951)</f>
@@ -28376,7 +28379,7 @@
         <v>242</v>
       </c>
       <c r="B952" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C952" s="8" t="str">
         <f>CONCATENATE(E952,F952,G952,H952,I952,J952,K952)</f>
@@ -28403,7 +28406,7 @@
         <v>242</v>
       </c>
       <c r="B953" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C953" s="8" t="str">
         <f>CONCATENATE(E953,F953,G953,H953,I953,J953,K953)</f>
@@ -28430,7 +28433,7 @@
         <v>242</v>
       </c>
       <c r="B954" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C954" s="8" t="str">
         <f>CONCATENATE(E954,F954,G954,H954,I954,J954,K954)</f>
@@ -28451,7 +28454,7 @@
         <v>242</v>
       </c>
       <c r="B955" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C955" s="8" t="str">
         <f>CONCATENATE(E955,F955,G955,H955,I955,J955,K955)</f>
@@ -28472,7 +28475,7 @@
         <v>242</v>
       </c>
       <c r="B956" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C956" s="8" t="str">
         <f>CONCATENATE(E956,F956,G956,H956,I956,J956,K956)</f>
@@ -28493,7 +28496,7 @@
         <v>242</v>
       </c>
       <c r="B957" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C957" s="8" t="str">
         <f>CONCATENATE(E957,F957,G957,H957,I957,J957,K957)</f>
@@ -28517,7 +28520,7 @@
         <v>242</v>
       </c>
       <c r="B958" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C958" s="8" t="str">
         <f>CONCATENATE(E958,F958,G958,H958,I958,J958,K958)</f>
@@ -29058,7 +29061,7 @@
         <v>1272</v>
       </c>
       <c r="D28" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -29082,7 +29085,7 @@
         <v>1101</v>
       </c>
       <c r="D31" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -29135,8 +29138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -29147,9 +29150,9 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>475</v>
@@ -29178,9 +29181,9 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="17" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>484</v>
@@ -29201,9 +29204,9 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="13" customFormat="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="17" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>485</v>
@@ -29228,9 +29231,9 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="17" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>489</v>
@@ -29251,9 +29254,9 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="13" customFormat="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="17" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>490</v>
@@ -29274,9 +29277,9 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="13" customFormat="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="17" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>500</v>
@@ -29305,9 +29308,9 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="13" customFormat="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="17" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
@@ -29332,9 +29335,9 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="13" customFormat="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="17" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>507</v>
@@ -29359,9 +29362,9 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="13" customFormat="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="17" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>508</v>
@@ -29386,9 +29389,9 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="13" customFormat="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="17" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>522</v>
@@ -29417,9 +29420,9 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="13" customFormat="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="17" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>523</v>
@@ -29431,28 +29434,24 @@
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>1531</v>
-      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="22" t="s">
         <v>533</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="13" customFormat="1">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="17" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>527</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15"/>
@@ -29464,18 +29463,18 @@
         <v>528</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="13" customFormat="1">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="17" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>537</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="15"/>
@@ -29486,15 +29485,15 @@
       <c r="J13" s="22"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" s="13" customFormat="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>538</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="15"/>
@@ -29502,30 +29501,30 @@
         <v>548</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>551</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>554</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="13" customFormat="1">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>539</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
@@ -29535,24 +29534,24 @@
         <v>552</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>555</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="13" customFormat="1">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="17" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>540</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="15"/>
@@ -29564,18 +29563,18 @@
         <v>556</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="13" customFormat="1">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="17" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>546</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
@@ -29586,15 +29585,15 @@
       <c r="J17" s="22"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="17" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>547</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="15"/>
@@ -29605,15 +29604,15 @@
       <c r="J18" s="22"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="13" customFormat="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>558</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="15"/>
@@ -29624,15 +29623,15 @@
       <c r="J19" s="22"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" s="13" customFormat="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="17" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>1083</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
@@ -29644,18 +29643,18 @@
         <v>563</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="13" customFormat="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="17" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>565</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
@@ -29667,24 +29666,24 @@
         <v>566</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="13" customFormat="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="17" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>570</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="15"/>
@@ -29692,24 +29691,24 @@
         <v>574</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>576</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="13" customFormat="1">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="17" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>572</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="15"/>
@@ -29719,24 +29718,24 @@
         <v>569</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>573</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="13" customFormat="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="17" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>577</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
@@ -29747,85 +29746,85 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="13" customFormat="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="17" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>476</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>478</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>479</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>481</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>483</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="13" customFormat="1">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="17" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>486</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>488</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>493</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>495</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>499</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="13" customFormat="1">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="17" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>487</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="15"/>
@@ -29835,86 +29834,86 @@
         <v>496</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" s="13" customFormat="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="17" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>501</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>505</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>511</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>517</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>521</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="13" customFormat="1">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="17" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>502</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>506</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>512</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>518</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" s="13" customFormat="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="17" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>524</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -29922,30 +29921,30 @@
         <v>978</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>531</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>534</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="13" customFormat="1">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="17" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>525</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="18"/>
@@ -29953,22 +29952,22 @@
         <v>979</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="15"/>
       <c r="J31" s="16"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:11" s="13" customFormat="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="17" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>535</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="18"/>
@@ -29976,84 +29975,84 @@
         <v>536</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" s="13" customFormat="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="17" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>541</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>544</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>549</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>542</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>545</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>550</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>553</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>557</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="13" customFormat="1">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="17" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>543</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="15"/>
@@ -30064,21 +30063,21 @@
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>559</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>560</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="15"/>
@@ -30086,30 +30085,30 @@
         <v>562</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>564</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="13" customFormat="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="17" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>568</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>571</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="15"/>
@@ -30117,7 +30116,7 @@
         <v>997</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="15"/>

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tazuke-r\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{80011416-D1EF-9147-9345-A5E9019A15FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{04F52107-7874-454C-BD65-20FCE48805C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11610" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13295" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13295" uniqueCount="1642">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -5945,10 +5945,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1848"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B837" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
+      <selection pane="bottomLeft" activeCell="F854" sqref="F854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16796875" defaultRowHeight="11.25" x14ac:dyDescent="0.1"/>
@@ -25914,7 +25914,7 @@
       </c>
       <c r="C852" s="8" t="str">
         <f>CONCATENATE(E852,F852,G852,H852,I852,J852,K852)</f>
-        <v>drk</v>
+        <v>dhx</v>
       </c>
       <c r="D852" s="9" t="s">
         <v>1159</v>
@@ -25923,10 +25923,10 @@
         <v>953</v>
       </c>
       <c r="F852" s="4" t="s">
-        <v>958</v>
+        <v>1248</v>
       </c>
       <c r="G852" s="4" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.1">
@@ -25938,7 +25938,7 @@
       </c>
       <c r="C853" s="8" t="str">
         <f>CONCATENATE(E853,F853,G853,H853,I853,J853,K853)</f>
-        <v>drq</v>
+        <v>dhk</v>
       </c>
       <c r="D853" s="9" t="s">
         <v>1160</v>
@@ -25947,10 +25947,10 @@
         <v>953</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="G853" s="4" t="s">
-        <v>1264</v>
+        <v>949</v>
       </c>
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.1">

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24510" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="40" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="基本_old" sheetId="29" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$K$1872</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$K$1876</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">基本_old!$A$1:$K$1838</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13211" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13239" uniqueCount="1701">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -5580,6 +5580,38 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>しよう</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>しようと</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>しようか</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>しようかと</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -6193,12 +6225,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1872"/>
+  <dimension ref="A1:K1876"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E1011" sqref="E1011"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -25855,7 +25887,7 @@
         <v>951</v>
       </c>
       <c r="H839" s="4" t="s">
-        <v>1692</v>
+        <v>932</v>
       </c>
       <c r="I839" s="4" t="s">
         <v>949</v>
@@ -25870,16 +25902,19 @@
       </c>
       <c r="C840" s="8" t="str">
         <f>CONCATENATE(E840,F840,G840,H840,I840,J840,K840)</f>
-        <v>sr</v>
+        <v>xjv</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1176</v>
+        <v>1697</v>
       </c>
       <c r="E840" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="F840" s="4" t="s">
-        <v>958</v>
+        <v>1693</v>
+      </c>
+      <c r="G840" s="4" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="841" spans="1:9">
@@ -25891,22 +25926,22 @@
       </c>
       <c r="C841" s="8" t="str">
         <f>CONCATENATE(E841,F841,G841,H841,I841,J841,K841)</f>
-        <v>srnd</v>
+        <v>xjvk</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="E841" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="F841" s="4" t="s">
-        <v>958</v>
+        <v>1693</v>
       </c>
       <c r="G841" s="4" t="s">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="H841" s="4" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="842" spans="1:9">
@@ -25918,22 +25953,25 @@
       </c>
       <c r="C842" s="8" t="str">
         <f>CONCATENATE(E842,F842,G842,H842,I842,J842,K842)</f>
-        <v>srlb</v>
+        <v>xjvkt</v>
       </c>
       <c r="D842" s="9" t="s">
-        <v>1201</v>
+        <v>1700</v>
       </c>
       <c r="E842" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="F842" s="4" t="s">
-        <v>958</v>
+        <v>1693</v>
       </c>
       <c r="G842" s="4" t="s">
-        <v>1245</v>
+        <v>1694</v>
       </c>
       <c r="H842" s="4" t="s">
-        <v>956</v>
+        <v>1256</v>
+      </c>
+      <c r="I842" s="4" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="843" spans="1:9">
@@ -25945,19 +25983,22 @@
       </c>
       <c r="C843" s="8" t="str">
         <f>CONCATENATE(E843,F843,G843,H843,I843,J843,K843)</f>
-        <v>spk</v>
+        <v>xjvt</v>
       </c>
       <c r="D843" s="9" t="s">
-        <v>647</v>
+        <v>1698</v>
       </c>
       <c r="E843" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="F843" s="4" t="s">
-        <v>940</v>
+        <v>1693</v>
       </c>
       <c r="G843" s="4" t="s">
-        <v>949</v>
+        <v>1694</v>
+      </c>
+      <c r="H843" s="4" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="844" spans="1:9">
@@ -25969,22 +26010,16 @@
       </c>
       <c r="C844" s="8" t="str">
         <f>CONCATENATE(E844,F844,G844,H844,I844,J844,K844)</f>
-        <v>spkg</v>
+        <v>sr</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1132</v>
+        <v>1176</v>
       </c>
       <c r="E844" s="4" t="s">
         <v>951</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="G844" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="H844" s="4" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="845" spans="1:9">
@@ -25996,25 +26031,22 @@
       </c>
       <c r="C845" s="8" t="str">
         <f>CONCATENATE(E845,F845,G845,H845,I845,J845,K845)</f>
-        <v>spkkr</v>
+        <v>srnd</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1133</v>
+        <v>1689</v>
       </c>
       <c r="E845" s="4" t="s">
         <v>951</v>
       </c>
       <c r="F845" s="4" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="G845" s="4" t="s">
-        <v>949</v>
+        <v>1685</v>
       </c>
       <c r="H845" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I845" s="4" t="s">
-        <v>958</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="846" spans="1:9">
@@ -26026,22 +26058,22 @@
       </c>
       <c r="C846" s="8" t="str">
         <f>CONCATENATE(E846,F846,G846,H846,I846,J846,K846)</f>
-        <v>spkd</v>
+        <v>srlb</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>728</v>
+        <v>1201</v>
       </c>
       <c r="E846" s="4" t="s">
         <v>951</v>
       </c>
       <c r="F846" s="4" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="G846" s="4" t="s">
-        <v>949</v>
+        <v>1245</v>
       </c>
       <c r="H846" s="4" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="847" spans="1:9">
@@ -26053,10 +26085,10 @@
       </c>
       <c r="C847" s="8" t="str">
         <f>CONCATENATE(E847,F847,G847,H847,I847,J847,K847)</f>
-        <v>spkn</v>
+        <v>spk</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E847" s="4" t="s">
         <v>951</v>
@@ -26067,9 +26099,6 @@
       <c r="G847" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="H847" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="848" spans="1:9">
       <c r="A848" s="6" t="s">
@@ -26080,10 +26109,10 @@
       </c>
       <c r="C848" s="8" t="str">
         <f>CONCATENATE(E848,F848,G848,H848,I848,J848,K848)</f>
-        <v>spkh</v>
+        <v>spkg</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>648</v>
+        <v>1132</v>
       </c>
       <c r="E848" s="4" t="s">
         <v>951</v>
@@ -26095,7 +26124,7 @@
         <v>949</v>
       </c>
       <c r="H848" s="4" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="849" spans="1:10">
@@ -26107,10 +26136,10 @@
       </c>
       <c r="C849" s="8" t="str">
         <f>CONCATENATE(E849,F849,G849,H849,I849,J849,K849)</f>
-        <v>spkmd</v>
+        <v>spkkr</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>1456</v>
+        <v>1133</v>
       </c>
       <c r="E849" s="4" t="s">
         <v>951</v>
@@ -26122,10 +26151,10 @@
         <v>949</v>
       </c>
       <c r="H849" s="4" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="I849" s="4" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="850" spans="1:10">
@@ -26137,10 +26166,10 @@
       </c>
       <c r="C850" s="8" t="str">
         <f>CONCATENATE(E850,F850,G850,H850,I850,J850,K850)</f>
-        <v>spkmdh</v>
+        <v>spkd</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1457</v>
+        <v>728</v>
       </c>
       <c r="E850" s="4" t="s">
         <v>951</v>
@@ -26152,13 +26181,7 @@
         <v>949</v>
       </c>
       <c r="H850" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I850" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J850" s="4" t="s">
-        <v>1259</v>
+        <v>953</v>
       </c>
     </row>
     <row r="851" spans="1:10">
@@ -26170,19 +26193,22 @@
       </c>
       <c r="C851" s="8" t="str">
         <f>CONCATENATE(E851,F851,G851,H851,I851,J851,K851)</f>
-        <v>sxd</v>
+        <v>spkn</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1211</v>
+        <v>649</v>
       </c>
       <c r="E851" s="4" t="s">
-        <v>1647</v>
+        <v>951</v>
       </c>
       <c r="F851" s="4" t="s">
-        <v>1263</v>
+        <v>940</v>
       </c>
       <c r="G851" s="4" t="s">
-        <v>1648</v>
+        <v>949</v>
+      </c>
+      <c r="H851" s="4" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="852" spans="1:10">
@@ -26194,10 +26220,10 @@
       </c>
       <c r="C852" s="8" t="str">
         <f>CONCATENATE(E852,F852,G852,H852,I852,J852,K852)</f>
-        <v>spcr</v>
+        <v>spkh</v>
       </c>
       <c r="D852" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E852" s="4" t="s">
         <v>951</v>
@@ -26206,10 +26232,10 @@
         <v>940</v>
       </c>
       <c r="G852" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H852" s="4" t="s">
-        <v>958</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="853" spans="1:10">
@@ -26221,10 +26247,10 @@
       </c>
       <c r="C853" s="8" t="str">
         <f>CONCATENATE(E853,F853,G853,H853,I853,J853,K853)</f>
-        <v>spcrg</v>
+        <v>spkmd</v>
       </c>
       <c r="D853" s="9" t="s">
-        <v>1134</v>
+        <v>1456</v>
       </c>
       <c r="E853" s="4" t="s">
         <v>951</v>
@@ -26233,13 +26259,13 @@
         <v>940</v>
       </c>
       <c r="G853" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H853" s="4" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="I853" s="4" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="854" spans="1:10">
@@ -26251,10 +26277,10 @@
       </c>
       <c r="C854" s="8" t="str">
         <f>CONCATENATE(E854,F854,G854,H854,I854,J854,K854)</f>
-        <v>spcrkr</v>
+        <v>spkmdh</v>
       </c>
       <c r="D854" s="9" t="s">
-        <v>1135</v>
+        <v>1457</v>
       </c>
       <c r="E854" s="4" t="s">
         <v>951</v>
@@ -26263,16 +26289,16 @@
         <v>940</v>
       </c>
       <c r="G854" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H854" s="4" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="I854" s="4" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="J854" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="855" spans="1:10">
@@ -26284,25 +26310,19 @@
       </c>
       <c r="C855" s="8" t="str">
         <f>CONCATENATE(E855,F855,G855,H855,I855,J855,K855)</f>
-        <v>spcrd</v>
+        <v>sxd</v>
       </c>
       <c r="D855" s="9" t="s">
-        <v>1136</v>
+        <v>1211</v>
       </c>
       <c r="E855" s="4" t="s">
-        <v>951</v>
+        <v>1647</v>
       </c>
       <c r="F855" s="4" t="s">
-        <v>940</v>
+        <v>1263</v>
       </c>
       <c r="G855" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H855" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I855" s="4" t="s">
-        <v>953</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="856" spans="1:10">
@@ -26314,10 +26334,10 @@
       </c>
       <c r="C856" s="8" t="str">
         <f>CONCATENATE(E856,F856,G856,H856,I856,J856,K856)</f>
-        <v>spcrn</v>
+        <v>spcr</v>
       </c>
       <c r="D856" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E856" s="4" t="s">
         <v>951</v>
@@ -26331,9 +26351,6 @@
       <c r="H856" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="I856" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="857" spans="1:10">
       <c r="A857" s="6" t="s">
@@ -26344,10 +26361,10 @@
       </c>
       <c r="C857" s="8" t="str">
         <f>CONCATENATE(E857,F857,G857,H857,I857,J857,K857)</f>
-        <v>spcrh</v>
+        <v>spcrg</v>
       </c>
       <c r="D857" s="9" t="s">
-        <v>645</v>
+        <v>1134</v>
       </c>
       <c r="E857" s="4" t="s">
         <v>951</v>
@@ -26362,7 +26379,7 @@
         <v>958</v>
       </c>
       <c r="I857" s="4" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="858" spans="1:10">
@@ -26374,10 +26391,10 @@
       </c>
       <c r="C858" s="8" t="str">
         <f>CONCATENATE(E858,F858,G858,H858,I858,J858,K858)</f>
-        <v>spn</v>
+        <v>spcrkr</v>
       </c>
       <c r="D858" s="9" t="s">
-        <v>650</v>
+        <v>1135</v>
       </c>
       <c r="E858" s="4" t="s">
         <v>951</v>
@@ -26386,7 +26403,16 @@
         <v>940</v>
       </c>
       <c r="G858" s="4" t="s">
-        <v>954</v>
+        <v>1240</v>
+      </c>
+      <c r="H858" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="I858" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="J858" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="859" spans="1:10">
@@ -26398,10 +26424,10 @@
       </c>
       <c r="C859" s="8" t="str">
         <f>CONCATENATE(E859,F859,G859,H859,I859,J859,K859)</f>
-        <v>spr</v>
+        <v>spcrd</v>
       </c>
       <c r="D859" s="9" t="s">
-        <v>655</v>
+        <v>1136</v>
       </c>
       <c r="E859" s="4" t="s">
         <v>951</v>
@@ -26410,7 +26436,13 @@
         <v>940</v>
       </c>
       <c r="G859" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H859" s="4" t="s">
         <v>958</v>
+      </c>
+      <c r="I859" s="4" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="860" spans="1:10">
@@ -26422,10 +26454,10 @@
       </c>
       <c r="C860" s="8" t="str">
         <f>CONCATENATE(E860,F860,G860,H860,I860,J860,K860)</f>
-        <v>sprg</v>
+        <v>spcrn</v>
       </c>
       <c r="D860" s="9" t="s">
-        <v>1137</v>
+        <v>646</v>
       </c>
       <c r="E860" s="4" t="s">
         <v>951</v>
@@ -26434,10 +26466,13 @@
         <v>940</v>
       </c>
       <c r="G860" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H860" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H860" s="4" t="s">
-        <v>950</v>
+      <c r="I860" s="4" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="861" spans="1:10">
@@ -26449,10 +26484,10 @@
       </c>
       <c r="C861" s="8" t="str">
         <f>CONCATENATE(E861,F861,G861,H861,I861,J861,K861)</f>
-        <v>sprdk</v>
+        <v>spcrh</v>
       </c>
       <c r="D861" s="9" t="s">
-        <v>1674</v>
+        <v>645</v>
       </c>
       <c r="E861" s="4" t="s">
         <v>951</v>
@@ -26461,13 +26496,13 @@
         <v>940</v>
       </c>
       <c r="G861" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H861" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H861" s="4" t="s">
-        <v>953</v>
-      </c>
       <c r="I861" s="4" t="s">
-        <v>1671</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="862" spans="1:10">
@@ -26479,10 +26514,10 @@
       </c>
       <c r="C862" s="8" t="str">
         <f>CONCATENATE(E862,F862,G862,H862,I862,J862,K862)</f>
-        <v>sprd</v>
+        <v>spn</v>
       </c>
       <c r="D862" s="9" t="s">
-        <v>1139</v>
+        <v>650</v>
       </c>
       <c r="E862" s="4" t="s">
         <v>951</v>
@@ -26491,10 +26526,7 @@
         <v>940</v>
       </c>
       <c r="G862" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H862" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="863" spans="1:10">
@@ -26506,10 +26538,10 @@
       </c>
       <c r="C863" s="8" t="str">
         <f>CONCATENATE(E863,F863,G863,H863,I863,J863,K863)</f>
-        <v>sprdh</v>
+        <v>spr</v>
       </c>
       <c r="D863" s="9" t="s">
-        <v>1212</v>
+        <v>655</v>
       </c>
       <c r="E863" s="4" t="s">
         <v>951</v>
@@ -26520,12 +26552,6 @@
       <c r="G863" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H863" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I863" s="4" t="s">
-        <v>1248</v>
-      </c>
     </row>
     <row r="864" spans="1:10">
       <c r="A864" s="6" t="s">
@@ -26536,10 +26562,10 @@
       </c>
       <c r="C864" s="8" t="str">
         <f>CONCATENATE(E864,F864,G864,H864,I864,J864,K864)</f>
-        <v>sprn</v>
+        <v>sprg</v>
       </c>
       <c r="D864" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E864" s="4" t="s">
         <v>951</v>
@@ -26551,7 +26577,7 @@
         <v>958</v>
       </c>
       <c r="H864" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="865" spans="1:10">
@@ -26563,10 +26589,10 @@
       </c>
       <c r="C865" s="8" t="str">
         <f>CONCATENATE(E865,F865,G865,H865,I865,J865,K865)</f>
-        <v>sprh</v>
+        <v>sprdk</v>
       </c>
       <c r="D865" s="9" t="s">
-        <v>1213</v>
+        <v>1674</v>
       </c>
       <c r="E865" s="4" t="s">
         <v>951</v>
@@ -26578,7 +26604,10 @@
         <v>958</v>
       </c>
       <c r="H865" s="4" t="s">
-        <v>1248</v>
+        <v>953</v>
+      </c>
+      <c r="I865" s="4" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="866" spans="1:10">
@@ -26590,10 +26619,10 @@
       </c>
       <c r="C866" s="8" t="str">
         <f>CONCATENATE(E866,F866,G866,H866,I866,J866,K866)</f>
-        <v>sprmd</v>
+        <v>sprd</v>
       </c>
       <c r="D866" s="9" t="s">
-        <v>1458</v>
+        <v>1139</v>
       </c>
       <c r="E866" s="4" t="s">
         <v>951</v>
@@ -26605,10 +26634,7 @@
         <v>958</v>
       </c>
       <c r="H866" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I866" s="4" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="867" spans="1:10">
@@ -26620,10 +26646,10 @@
       </c>
       <c r="C867" s="8" t="str">
         <f>CONCATENATE(E867,F867,G867,H867,I867,J867,K867)</f>
-        <v>sprmdh</v>
+        <v>sprdh</v>
       </c>
       <c r="D867" s="9" t="s">
-        <v>1459</v>
+        <v>1212</v>
       </c>
       <c r="E867" s="4" t="s">
         <v>951</v>
@@ -26635,13 +26661,10 @@
         <v>958</v>
       </c>
       <c r="H867" s="4" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="I867" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J867" s="4" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="868" spans="1:10">
@@ -26653,10 +26676,10 @@
       </c>
       <c r="C868" s="8" t="str">
         <f>CONCATENATE(E868,F868,G868,H868,I868,J868,K868)</f>
-        <v>sprw</v>
+        <v>sprn</v>
       </c>
       <c r="D868" s="9" t="s">
-        <v>1214</v>
+        <v>1138</v>
       </c>
       <c r="E868" s="4" t="s">
         <v>951</v>
@@ -26668,7 +26691,7 @@
         <v>958</v>
       </c>
       <c r="H868" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="869" spans="1:10">
@@ -26680,19 +26703,22 @@
       </c>
       <c r="C869" s="8" t="str">
         <f>CONCATENATE(E869,F869,G869,H869,I869,J869,K869)</f>
-        <v>dhx</v>
+        <v>sprh</v>
       </c>
       <c r="D869" s="9" t="s">
-        <v>1159</v>
+        <v>1213</v>
       </c>
       <c r="E869" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F869" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G869" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="H869" s="4" t="s">
         <v>1248</v>
-      </c>
-      <c r="G869" s="4" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="870" spans="1:10">
@@ -26704,19 +26730,25 @@
       </c>
       <c r="C870" s="8" t="str">
         <f>CONCATENATE(E870,F870,G870,H870,I870,J870,K870)</f>
-        <v>dhk</v>
+        <v>sprmd</v>
       </c>
       <c r="D870" s="9" t="s">
-        <v>1160</v>
+        <v>1458</v>
       </c>
       <c r="E870" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F870" s="4" t="s">
-        <v>1248</v>
+        <v>940</v>
       </c>
       <c r="G870" s="4" t="s">
-        <v>949</v>
+        <v>958</v>
+      </c>
+      <c r="H870" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="I870" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="871" spans="1:10">
@@ -26728,19 +26760,28 @@
       </c>
       <c r="C871" s="8" t="str">
         <f>CONCATENATE(E871,F871,G871,H871,I871,J871,K871)</f>
-        <v>dtt</v>
+        <v>sprmdh</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1309</v>
+        <v>1459</v>
       </c>
       <c r="E871" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F871" s="4" t="s">
-        <v>1255</v>
+        <v>940</v>
       </c>
       <c r="G871" s="4" t="s">
-        <v>1255</v>
+        <v>958</v>
+      </c>
+      <c r="H871" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="I871" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="J871" s="4" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="872" spans="1:10">
@@ -26752,19 +26793,22 @@
       </c>
       <c r="C872" s="8" t="str">
         <f>CONCATENATE(E872,F872,G872,H872,I872,J872,K872)</f>
-        <v>thm</v>
+        <v>sprw</v>
       </c>
       <c r="D872" s="9" t="s">
-        <v>659</v>
+        <v>1214</v>
       </c>
       <c r="E872" s="4" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="F872" s="4" t="s">
-        <v>1248</v>
+        <v>940</v>
       </c>
       <c r="G872" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
+      </c>
+      <c r="H872" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="873" spans="1:10">
@@ -26776,19 +26820,19 @@
       </c>
       <c r="C873" s="8" t="str">
         <f>CONCATENATE(E873,F873,G873,H873,I873,J873,K873)</f>
-        <v>trr</v>
+        <v>dhx</v>
       </c>
       <c r="D873" s="9" t="s">
-        <v>662</v>
+        <v>1159</v>
       </c>
       <c r="E873" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F873" s="4" t="s">
-        <v>958</v>
+        <v>1248</v>
       </c>
       <c r="G873" s="4" t="s">
-        <v>958</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="874" spans="1:10">
@@ -26800,19 +26844,19 @@
       </c>
       <c r="C874" s="8" t="str">
         <f>CONCATENATE(E874,F874,G874,H874,I874,J874,K874)</f>
-        <v>dpl</v>
+        <v>dhk</v>
       </c>
       <c r="D874" s="9" t="s">
-        <v>591</v>
+        <v>1160</v>
       </c>
       <c r="E874" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F874" s="4" t="s">
-        <v>940</v>
+        <v>1248</v>
       </c>
       <c r="G874" s="4" t="s">
-        <v>1245</v>
+        <v>949</v>
       </c>
     </row>
     <row r="875" spans="1:10">
@@ -26824,22 +26868,19 @@
       </c>
       <c r="C875" s="8" t="str">
         <f>CONCATENATE(E875,F875,G875,H875,I875,J875,K875)</f>
-        <v>dplg</v>
+        <v>dtt</v>
       </c>
       <c r="D875" s="9" t="s">
-        <v>592</v>
+        <v>1309</v>
       </c>
       <c r="E875" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F875" s="4" t="s">
-        <v>940</v>
+        <v>1255</v>
       </c>
       <c r="G875" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H875" s="4" t="s">
-        <v>950</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="876" spans="1:10">
@@ -26851,22 +26892,19 @@
       </c>
       <c r="C876" s="8" t="str">
         <f>CONCATENATE(E876,F876,G876,H876,I876,J876,K876)</f>
-        <v>dplt</v>
+        <v>thm</v>
       </c>
       <c r="D876" s="9" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="E876" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F876" s="4" t="s">
-        <v>940</v>
+        <v>1248</v>
       </c>
       <c r="G876" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H876" s="4" t="s">
-        <v>930</v>
+        <v>957</v>
       </c>
     </row>
     <row r="877" spans="1:10">
@@ -26878,22 +26916,19 @@
       </c>
       <c r="C877" s="8" t="str">
         <f>CONCATENATE(E877,F877,G877,H877,I877,J877,K877)</f>
-        <v>dpln</v>
+        <v>trr</v>
       </c>
       <c r="D877" s="9" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="E877" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F877" s="4" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="G877" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H877" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="878" spans="1:10">
@@ -26905,10 +26940,10 @@
       </c>
       <c r="C878" s="8" t="str">
         <f>CONCATENATE(E878,F878,G878,H878,I878,J878,K878)</f>
-        <v>dplw</v>
+        <v>dpl</v>
       </c>
       <c r="D878" s="9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E878" s="4" t="s">
         <v>953</v>
@@ -26919,9 +26954,6 @@
       <c r="G878" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="H878" s="4" t="s">
-        <v>959</v>
-      </c>
     </row>
     <row r="879" spans="1:10">
       <c r="A879" s="6" t="s">
@@ -26932,19 +26964,22 @@
       </c>
       <c r="C879" s="8" t="str">
         <f>CONCATENATE(E879,F879,G879,H879,I879,J879,K879)</f>
-        <v>drv</v>
+        <v>dplg</v>
       </c>
       <c r="D879" s="9" t="s">
-        <v>1215</v>
+        <v>592</v>
       </c>
       <c r="E879" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F879" s="4" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G879" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
+      </c>
+      <c r="H879" s="4" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="880" spans="1:10">
@@ -26956,22 +26991,22 @@
       </c>
       <c r="C880" s="8" t="str">
         <f>CONCATENATE(E880,F880,G880,H880,I880,J880,K880)</f>
-        <v>drtt</v>
+        <v>dplt</v>
       </c>
       <c r="D880" s="9" t="s">
-        <v>1308</v>
+        <v>594</v>
       </c>
       <c r="E880" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F880" s="4" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G880" s="4" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="H880" s="4" t="s">
-        <v>1255</v>
+        <v>930</v>
       </c>
     </row>
     <row r="881" spans="1:10">
@@ -26983,16 +27018,22 @@
       </c>
       <c r="C881" s="8" t="str">
         <f>CONCATENATE(E881,F881,G881,H881,I881,J881,K881)</f>
-        <v>dr</v>
+        <v>dpln</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>1183</v>
+        <v>593</v>
       </c>
       <c r="E881" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F881" s="4" t="s">
-        <v>958</v>
+        <v>940</v>
+      </c>
+      <c r="G881" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H881" s="4" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="882" spans="1:10">
@@ -27004,22 +27045,22 @@
       </c>
       <c r="C882" s="8" t="str">
         <f>CONCATENATE(E882,F882,G882,H882,I882,J882,K882)</f>
-        <v>drlb</v>
+        <v>dplw</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>1184</v>
+        <v>595</v>
       </c>
       <c r="E882" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F882" s="4" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G882" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="H882" s="4" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="883" spans="1:10">
@@ -27027,20 +27068,23 @@
         <v>242</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>1588</v>
+        <v>578</v>
       </c>
       <c r="C883" s="8" t="str">
         <f>CONCATENATE(E883,F883,G883,H883,I883,J883,K883)</f>
-        <v>dk</v>
+        <v>drv</v>
       </c>
       <c r="D883" s="9" t="s">
-        <v>530</v>
+        <v>1215</v>
       </c>
       <c r="E883" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="F883" s="5" t="s">
-        <v>1256</v>
+      <c r="F883" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="G883" s="4" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="884" spans="1:10">
@@ -27052,19 +27096,22 @@
       </c>
       <c r="C884" s="8" t="str">
         <f>CONCATENATE(E884,F884,G884,H884,I884,J884,K884)</f>
-        <v>dkn</v>
+        <v>drtt</v>
       </c>
       <c r="D884" s="9" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="E884" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F884" s="4" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="G884" s="4" t="s">
-        <v>932</v>
+        <v>1255</v>
+      </c>
+      <c r="H884" s="4" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="885" spans="1:10">
@@ -27076,22 +27123,16 @@
       </c>
       <c r="C885" s="8" t="str">
         <f>CONCATENATE(E885,F885,G885,H885,I885,J885,K885)</f>
-        <v>dknf</v>
+        <v>dr</v>
       </c>
       <c r="D885" s="9" t="s">
-        <v>1299</v>
+        <v>1183</v>
       </c>
       <c r="E885" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F885" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="G885" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="H885" s="4" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
     </row>
     <row r="886" spans="1:10">
@@ -27103,28 +27144,22 @@
       </c>
       <c r="C886" s="8" t="str">
         <f>CONCATENATE(E886,F886,G886,H886,I886,J886,K886)</f>
-        <v>dknktt</v>
+        <v>drlb</v>
       </c>
       <c r="D886" s="9" t="s">
-        <v>1306</v>
+        <v>1184</v>
       </c>
       <c r="E886" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F886" s="4" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="G886" s="4" t="s">
-        <v>932</v>
+        <v>1245</v>
       </c>
       <c r="H886" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I886" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J886" s="4" t="s">
-        <v>1255</v>
+        <v>956</v>
       </c>
     </row>
     <row r="887" spans="1:10">
@@ -27132,26 +27167,20 @@
         <v>242</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>578</v>
+        <v>1588</v>
       </c>
       <c r="C887" s="8" t="str">
         <f>CONCATENATE(E887,F887,G887,H887,I887,J887,K887)</f>
-        <v>dkms</v>
+        <v>dk</v>
       </c>
       <c r="D887" s="9" t="s">
-        <v>1307</v>
+        <v>530</v>
       </c>
       <c r="E887" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="F887" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="G887" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="H887" s="4" t="s">
-        <v>1284</v>
+      <c r="F887" s="5" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="888" spans="1:10">
@@ -27163,10 +27192,10 @@
       </c>
       <c r="C888" s="8" t="str">
         <f>CONCATENATE(E888,F888,G888,H888,I888,J888,K888)</f>
-        <v>dkmsn</v>
+        <v>dkn</v>
       </c>
       <c r="D888" s="9" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="E888" s="4" t="s">
         <v>953</v>
@@ -27175,12 +27204,6 @@
         <v>949</v>
       </c>
       <c r="G888" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="H888" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="I888" s="4" t="s">
         <v>932</v>
       </c>
     </row>
@@ -27193,10 +27216,10 @@
       </c>
       <c r="C889" s="8" t="str">
         <f>CONCATENATE(E889,F889,G889,H889,I889,J889,K889)</f>
-        <v>dkr</v>
+        <v>dknf</v>
       </c>
       <c r="D889" s="9" t="s">
-        <v>1185</v>
+        <v>1299</v>
       </c>
       <c r="E889" s="4" t="s">
         <v>953</v>
@@ -27205,7 +27228,10 @@
         <v>949</v>
       </c>
       <c r="G889" s="4" t="s">
-        <v>958</v>
+        <v>932</v>
+      </c>
+      <c r="H889" s="4" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="890" spans="1:10">
@@ -27217,10 +27243,10 @@
       </c>
       <c r="C890" s="8" t="str">
         <f>CONCATENATE(E890,F890,G890,H890,I890,J890,K890)</f>
-        <v>dklb</v>
+        <v>dknktt</v>
       </c>
       <c r="D890" s="9" t="s">
-        <v>1216</v>
+        <v>1306</v>
       </c>
       <c r="E890" s="4" t="s">
         <v>953</v>
@@ -27229,10 +27255,16 @@
         <v>949</v>
       </c>
       <c r="G890" s="4" t="s">
-        <v>1245</v>
+        <v>932</v>
       </c>
       <c r="H890" s="4" t="s">
-        <v>956</v>
+        <v>1256</v>
+      </c>
+      <c r="I890" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J890" s="4" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="891" spans="1:10">
@@ -27244,19 +27276,22 @@
       </c>
       <c r="C891" s="8" t="str">
         <f>CONCATENATE(E891,F891,G891,H891,I891,J891,K891)</f>
-        <v>dxt</v>
+        <v>dkms</v>
       </c>
       <c r="D891" s="9" t="s">
-        <v>1187</v>
+        <v>1307</v>
       </c>
       <c r="E891" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F891" s="4" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="G891" s="4" t="s">
-        <v>930</v>
+        <v>936</v>
+      </c>
+      <c r="H891" s="4" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="892" spans="1:10">
@@ -27268,22 +27303,25 @@
       </c>
       <c r="C892" s="8" t="str">
         <f>CONCATENATE(E892,F892,G892,H892,I892,J892,K892)</f>
-        <v>dxtg</v>
+        <v>dkmsn</v>
       </c>
       <c r="D892" s="9" t="s">
-        <v>1217</v>
+        <v>1283</v>
       </c>
       <c r="E892" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F892" s="4" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="G892" s="4" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="H892" s="4" t="s">
-        <v>950</v>
+        <v>1284</v>
+      </c>
+      <c r="I892" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="893" spans="1:10">
@@ -27295,21 +27333,18 @@
       </c>
       <c r="C893" s="8" t="str">
         <f>CONCATENATE(E893,F893,G893,H893,I893,J893,K893)</f>
-        <v>dxtr</v>
+        <v>dkr</v>
       </c>
       <c r="D893" s="9" t="s">
-        <v>1218</v>
+        <v>1185</v>
       </c>
       <c r="E893" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F893" s="4" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="G893" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H893" s="4" t="s">
         <v>958</v>
       </c>
     </row>
@@ -27322,19 +27357,22 @@
       </c>
       <c r="C894" s="8" t="str">
         <f>CONCATENATE(E894,F894,G894,H894,I894,J894,K894)</f>
-        <v>dxd</v>
+        <v>dklb</v>
       </c>
       <c r="D894" s="9" t="s">
-        <v>1646</v>
+        <v>1216</v>
       </c>
       <c r="E894" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F894" s="4" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="G894" s="4" t="s">
-        <v>1645</v>
+        <v>1245</v>
+      </c>
+      <c r="H894" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="895" spans="1:10">
@@ -27346,10 +27384,10 @@
       </c>
       <c r="C895" s="8" t="str">
         <f>CONCATENATE(E895,F895,G895,H895,I895,J895,K895)</f>
-        <v>dxv</v>
+        <v>dxt</v>
       </c>
       <c r="D895" s="9" t="s">
-        <v>599</v>
+        <v>1187</v>
       </c>
       <c r="E895" s="4" t="s">
         <v>953</v>
@@ -27358,7 +27396,7 @@
         <v>1263</v>
       </c>
       <c r="G895" s="4" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
     </row>
     <row r="896" spans="1:10">
@@ -27370,10 +27408,10 @@
       </c>
       <c r="C896" s="8" t="str">
         <f>CONCATENATE(E896,F896,G896,H896,I896,J896,K896)</f>
-        <v>dxvk</v>
+        <v>dxtg</v>
       </c>
       <c r="D896" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E896" s="4" t="s">
         <v>953</v>
@@ -27382,13 +27420,13 @@
         <v>1263</v>
       </c>
       <c r="G896" s="4" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
       <c r="H896" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="897" spans="1:9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8">
       <c r="A897" s="6" t="s">
         <v>242</v>
       </c>
@@ -27397,19 +27435,25 @@
       </c>
       <c r="C897" s="8" t="str">
         <f>CONCATENATE(E897,F897,G897,H897,I897,J897,K897)</f>
-        <v>ds</v>
+        <v>dxtr</v>
       </c>
       <c r="D897" s="9" t="s">
-        <v>596</v>
+        <v>1218</v>
       </c>
       <c r="E897" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F897" s="4" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="898" spans="1:9">
+        <v>1263</v>
+      </c>
+      <c r="G897" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H897" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8">
       <c r="A898" s="6" t="s">
         <v>242</v>
       </c>
@@ -27418,22 +27462,22 @@
       </c>
       <c r="C898" s="8" t="str">
         <f>CONCATENATE(E898,F898,G898,H898,I898,J898,K898)</f>
-        <v>dsk</v>
+        <v>dxd</v>
       </c>
       <c r="D898" s="9" t="s">
-        <v>1188</v>
+        <v>1646</v>
       </c>
       <c r="E898" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F898" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="G898" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="899" spans="1:9">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8">
       <c r="A899" s="6" t="s">
         <v>242</v>
       </c>
@@ -27442,22 +27486,22 @@
       </c>
       <c r="C899" s="8" t="str">
         <f>CONCATENATE(E899,F899,G899,H899,I899,J899,K899)</f>
-        <v>dsg</v>
+        <v>dxv</v>
       </c>
       <c r="D899" s="9" t="s">
-        <v>1186</v>
+        <v>599</v>
       </c>
       <c r="E899" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F899" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="G899" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="900" spans="1:9">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8">
       <c r="A900" s="6" t="s">
         <v>242</v>
       </c>
@@ -27466,22 +27510,25 @@
       </c>
       <c r="C900" s="8" t="str">
         <f>CONCATENATE(E900,F900,G900,H900,I900,J900,K900)</f>
-        <v>dst</v>
+        <v>dxvk</v>
       </c>
       <c r="D900" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E900" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F900" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="G900" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="901" spans="1:9">
+        <v>1244</v>
+      </c>
+      <c r="H900" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8">
       <c r="A901" s="6" t="s">
         <v>242</v>
       </c>
@@ -27490,10 +27537,10 @@
       </c>
       <c r="C901" s="8" t="str">
         <f>CONCATENATE(E901,F901,G901,H901,I901,J901,K901)</f>
-        <v>dsnd</v>
+        <v>ds</v>
       </c>
       <c r="D901" s="9" t="s">
-        <v>1680</v>
+        <v>596</v>
       </c>
       <c r="E901" s="4" t="s">
         <v>953</v>
@@ -27501,14 +27548,8 @@
       <c r="F901" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="G901" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="H901" s="4" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="902" spans="1:9">
+    </row>
+    <row r="902" spans="1:8">
       <c r="A902" s="6" t="s">
         <v>242</v>
       </c>
@@ -27517,22 +27558,22 @@
       </c>
       <c r="C902" s="8" t="str">
         <f>CONCATENATE(E902,F902,G902,H902,I902,J902,K902)</f>
-        <v>dhh</v>
+        <v>dsk</v>
       </c>
       <c r="D902" s="9" t="s">
-        <v>582</v>
+        <v>1188</v>
       </c>
       <c r="E902" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F902" s="4" t="s">
-        <v>1248</v>
+        <v>951</v>
       </c>
       <c r="G902" s="4" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="903" spans="1:9">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8">
       <c r="A903" s="6" t="s">
         <v>242</v>
       </c>
@@ -27541,22 +27582,22 @@
       </c>
       <c r="C903" s="8" t="str">
         <f>CONCATENATE(E903,F903,G903,H903,I903,J903,K903)</f>
-        <v>dhm</v>
+        <v>dsg</v>
       </c>
       <c r="D903" s="9" t="s">
-        <v>1288</v>
+        <v>1186</v>
       </c>
       <c r="E903" s="4" t="s">
         <v>953</v>
       </c>
       <c r="F903" s="4" t="s">
-        <v>1248</v>
+        <v>951</v>
       </c>
       <c r="G903" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="904" spans="1:9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8">
       <c r="A904" s="6" t="s">
         <v>242</v>
       </c>
@@ -27565,22 +27606,22 @@
       </c>
       <c r="C904" s="8" t="str">
         <f>CONCATENATE(E904,F904,G904,H904,I904,J904,K904)</f>
-        <v>tjw</v>
+        <v>dst</v>
       </c>
       <c r="D904" s="9" t="s">
-        <v>661</v>
+        <v>1220</v>
       </c>
       <c r="E904" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F904" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="G904" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="F904" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G904" s="4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="905" spans="1:9">
+    </row>
+    <row r="905" spans="1:8">
       <c r="A905" s="6" t="s">
         <v>242</v>
       </c>
@@ -27589,22 +27630,25 @@
       </c>
       <c r="C905" s="8" t="str">
         <f>CONCATENATE(E905,F905,G905,H905,I905,J905,K905)</f>
-        <v>thr</v>
+        <v>dsnd</v>
       </c>
       <c r="D905" s="9" t="s">
-        <v>1189</v>
+        <v>1680</v>
       </c>
       <c r="E905" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F905" s="4" t="s">
-        <v>1259</v>
+        <v>951</v>
       </c>
       <c r="G905" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="906" spans="1:9">
+        <v>1678</v>
+      </c>
+      <c r="H905" s="4" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8">
       <c r="A906" s="6" t="s">
         <v>242</v>
       </c>
@@ -27613,19 +27657,22 @@
       </c>
       <c r="C906" s="8" t="str">
         <f>CONCATENATE(E906,F906,G906,H906,I906,J906,K906)</f>
-        <v>tk</v>
+        <v>dhh</v>
       </c>
       <c r="D906" s="9" t="s">
-        <v>1190</v>
+        <v>582</v>
       </c>
       <c r="E906" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F906" s="4" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="907" spans="1:9">
+        <v>1248</v>
+      </c>
+      <c r="G906" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8">
       <c r="A907" s="6" t="s">
         <v>242</v>
       </c>
@@ -27634,22 +27681,22 @@
       </c>
       <c r="C907" s="8" t="str">
         <f>CONCATENATE(E907,F907,G907,H907,I907,J907,K907)</f>
-        <v>tpk</v>
+        <v>dhm</v>
       </c>
       <c r="D907" s="9" t="s">
-        <v>1221</v>
+        <v>1288</v>
       </c>
       <c r="E907" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F907" s="4" t="s">
-        <v>940</v>
+        <v>1248</v>
       </c>
       <c r="G907" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="908" spans="1:9">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8">
       <c r="A908" s="6" t="s">
         <v>242</v>
       </c>
@@ -27658,22 +27705,22 @@
       </c>
       <c r="C908" s="8" t="str">
         <f>CONCATENATE(E908,F908,G908,H908,I908,J908,K908)</f>
-        <v>dpk</v>
+        <v>tjw</v>
       </c>
       <c r="D908" s="9" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="E908" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F908" s="4" t="s">
-        <v>940</v>
+        <v>1242</v>
       </c>
       <c r="G908" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="909" spans="1:9">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8">
       <c r="A909" s="6" t="s">
         <v>242</v>
       </c>
@@ -27682,25 +27729,22 @@
       </c>
       <c r="C909" s="8" t="str">
         <f>CONCATENATE(E909,F909,G909,H909,I909,J909,K909)</f>
-        <v>dpkg</v>
+        <v>thr</v>
       </c>
       <c r="D909" s="9" t="s">
-        <v>1141</v>
+        <v>1189</v>
       </c>
       <c r="E909" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F909" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="G909" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="H909" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="910" spans="1:9">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8">
       <c r="A910" s="6" t="s">
         <v>242</v>
       </c>
@@ -27709,28 +27753,19 @@
       </c>
       <c r="C910" s="8" t="str">
         <f>CONCATENATE(E910,F910,G910,H910,I910,J910,K910)</f>
-        <v>dpkkr</v>
+        <v>tk</v>
       </c>
       <c r="D910" s="9" t="s">
-        <v>1142</v>
+        <v>1190</v>
       </c>
       <c r="E910" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F910" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="G910" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="H910" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I910" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="911" spans="1:9">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8">
       <c r="A911" s="6" t="s">
         <v>242</v>
       </c>
@@ -27739,13 +27774,13 @@
       </c>
       <c r="C911" s="8" t="str">
         <f>CONCATENATE(E911,F911,G911,H911,I911,J911,K911)</f>
-        <v>dpkd</v>
+        <v>tpk</v>
       </c>
       <c r="D911" s="9" t="s">
-        <v>1143</v>
+        <v>1221</v>
       </c>
       <c r="E911" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F911" s="4" t="s">
         <v>940</v>
@@ -27753,11 +27788,8 @@
       <c r="G911" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="H911" s="4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="912" spans="1:9">
+    </row>
+    <row r="912" spans="1:8">
       <c r="A912" s="6" t="s">
         <v>242</v>
       </c>
@@ -27766,10 +27798,10 @@
       </c>
       <c r="C912" s="8" t="str">
         <f>CONCATENATE(E912,F912,G912,H912,I912,J912,K912)</f>
-        <v>dpkn</v>
+        <v>dpk</v>
       </c>
       <c r="D912" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E912" s="4" t="s">
         <v>953</v>
@@ -27780,9 +27812,6 @@
       <c r="G912" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="H912" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="913" spans="1:10">
       <c r="A913" s="6" t="s">
@@ -27793,10 +27822,10 @@
       </c>
       <c r="C913" s="8" t="str">
         <f>CONCATENATE(E913,F913,G913,H913,I913,J913,K913)</f>
-        <v>dpkh</v>
+        <v>dpkg</v>
       </c>
       <c r="D913" s="9" t="s">
-        <v>589</v>
+        <v>1141</v>
       </c>
       <c r="E913" s="4" t="s">
         <v>953</v>
@@ -27808,7 +27837,7 @@
         <v>949</v>
       </c>
       <c r="H913" s="4" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="914" spans="1:10">
@@ -27820,10 +27849,10 @@
       </c>
       <c r="C914" s="8" t="str">
         <f>CONCATENATE(E914,F914,G914,H914,I914,J914,K914)</f>
-        <v>dpkmd</v>
+        <v>dpkkr</v>
       </c>
       <c r="D914" s="9" t="s">
-        <v>1460</v>
+        <v>1142</v>
       </c>
       <c r="E914" s="4" t="s">
         <v>953</v>
@@ -27835,10 +27864,10 @@
         <v>949</v>
       </c>
       <c r="H914" s="4" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="I914" s="4" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="915" spans="1:10">
@@ -27850,10 +27879,10 @@
       </c>
       <c r="C915" s="8" t="str">
         <f>CONCATENATE(E915,F915,G915,H915,I915,J915,K915)</f>
-        <v>dpkmdm</v>
+        <v>dpkd</v>
       </c>
       <c r="D915" s="9" t="s">
-        <v>1461</v>
+        <v>1143</v>
       </c>
       <c r="E915" s="4" t="s">
         <v>953</v>
@@ -27865,13 +27894,7 @@
         <v>949</v>
       </c>
       <c r="H915" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I915" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J915" s="4" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
     </row>
     <row r="916" spans="1:10">
@@ -27883,13 +27906,13 @@
       </c>
       <c r="C916" s="8" t="str">
         <f>CONCATENATE(E916,F916,G916,H916,I916,J916,K916)</f>
-        <v>tpkr</v>
+        <v>dpkn</v>
       </c>
       <c r="D916" s="9" t="s">
-        <v>1192</v>
+        <v>590</v>
       </c>
       <c r="E916" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F916" s="4" t="s">
         <v>940</v>
@@ -27898,7 +27921,7 @@
         <v>949</v>
       </c>
       <c r="H916" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="917" spans="1:10">
@@ -27910,10 +27933,10 @@
       </c>
       <c r="C917" s="8" t="str">
         <f>CONCATENATE(E917,F917,G917,H917,I917,J917,K917)</f>
-        <v>dpkr</v>
+        <v>dpkh</v>
       </c>
       <c r="D917" s="9" t="s">
-        <v>1193</v>
+        <v>589</v>
       </c>
       <c r="E917" s="4" t="s">
         <v>953</v>
@@ -27925,7 +27948,7 @@
         <v>949</v>
       </c>
       <c r="H917" s="4" t="s">
-        <v>958</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="918" spans="1:10">
@@ -27937,13 +27960,13 @@
       </c>
       <c r="C918" s="8" t="str">
         <f>CONCATENATE(E918,F918,G918,H918,I918,J918,K918)</f>
-        <v>tpkrg</v>
+        <v>dpkmd</v>
       </c>
       <c r="D918" s="9" t="s">
-        <v>1191</v>
+        <v>1460</v>
       </c>
       <c r="E918" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="F918" s="4" t="s">
         <v>940</v>
@@ -27952,10 +27975,10 @@
         <v>949</v>
       </c>
       <c r="H918" s="4" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="I918" s="4" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="919" spans="1:10">
@@ -27967,10 +27990,10 @@
       </c>
       <c r="C919" s="8" t="str">
         <f>CONCATENATE(E919,F919,G919,H919,I919,J919,K919)</f>
-        <v>dpkrk</v>
+        <v>dpkmdm</v>
       </c>
       <c r="D919" s="9" t="s">
-        <v>1194</v>
+        <v>1461</v>
       </c>
       <c r="E919" s="4" t="s">
         <v>953</v>
@@ -27982,10 +28005,13 @@
         <v>949</v>
       </c>
       <c r="H919" s="4" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="I919" s="4" t="s">
-        <v>949</v>
+        <v>938</v>
+      </c>
+      <c r="J919" s="4" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="920" spans="1:10">
@@ -27997,19 +28023,19 @@
       </c>
       <c r="C920" s="8" t="str">
         <f>CONCATENATE(E920,F920,G920,H920,I920,J920,K920)</f>
-        <v>dpcr</v>
+        <v>tpkr</v>
       </c>
       <c r="D920" s="9" t="s">
-        <v>579</v>
+        <v>1192</v>
       </c>
       <c r="E920" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F920" s="4" t="s">
         <v>940</v>
       </c>
       <c r="G920" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H920" s="4" t="s">
         <v>958</v>
@@ -28024,10 +28050,10 @@
       </c>
       <c r="C921" s="8" t="str">
         <f>CONCATENATE(E921,F921,G921,H921,I921,J921,K921)</f>
-        <v>dpcrg</v>
+        <v>dpkr</v>
       </c>
       <c r="D921" s="9" t="s">
-        <v>1144</v>
+        <v>1193</v>
       </c>
       <c r="E921" s="4" t="s">
         <v>953</v>
@@ -28036,14 +28062,11 @@
         <v>940</v>
       </c>
       <c r="G921" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H921" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="I921" s="4" t="s">
-        <v>950</v>
-      </c>
     </row>
     <row r="922" spans="1:10">
       <c r="A922" s="6" t="s">
@@ -28054,28 +28077,25 @@
       </c>
       <c r="C922" s="8" t="str">
         <f>CONCATENATE(E922,F922,G922,H922,I922,J922,K922)</f>
-        <v>dpcrkr</v>
+        <v>tpkrg</v>
       </c>
       <c r="D922" s="9" t="s">
-        <v>1145</v>
+        <v>1191</v>
       </c>
       <c r="E922" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F922" s="4" t="s">
         <v>940</v>
       </c>
       <c r="G922" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H922" s="4" t="s">
         <v>958</v>
       </c>
       <c r="I922" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J922" s="4" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="923" spans="1:10">
@@ -28087,10 +28107,10 @@
       </c>
       <c r="C923" s="8" t="str">
         <f>CONCATENATE(E923,F923,G923,H923,I923,J923,K923)</f>
-        <v>dpcrd</v>
+        <v>dpkrk</v>
       </c>
       <c r="D923" s="9" t="s">
-        <v>1146</v>
+        <v>1194</v>
       </c>
       <c r="E923" s="4" t="s">
         <v>953</v>
@@ -28099,13 +28119,13 @@
         <v>940</v>
       </c>
       <c r="G923" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="H923" s="4" t="s">
         <v>958</v>
       </c>
       <c r="I923" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="924" spans="1:10">
@@ -28117,10 +28137,10 @@
       </c>
       <c r="C924" s="8" t="str">
         <f>CONCATENATE(E924,F924,G924,H924,I924,J924,K924)</f>
-        <v>dpcrn</v>
+        <v>dpcr</v>
       </c>
       <c r="D924" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E924" s="4" t="s">
         <v>953</v>
@@ -28134,9 +28154,6 @@
       <c r="H924" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="I924" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="925" spans="1:10">
       <c r="A925" s="6" t="s">
@@ -28147,10 +28164,10 @@
       </c>
       <c r="C925" s="8" t="str">
         <f>CONCATENATE(E925,F925,G925,H925,I925,J925,K925)</f>
-        <v>dpcrh</v>
+        <v>dpcrg</v>
       </c>
       <c r="D925" s="9" t="s">
-        <v>580</v>
+        <v>1144</v>
       </c>
       <c r="E925" s="4" t="s">
         <v>953</v>
@@ -28165,7 +28182,7 @@
         <v>958</v>
       </c>
       <c r="I925" s="4" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="926" spans="1:10">
@@ -28177,10 +28194,10 @@
       </c>
       <c r="C926" s="8" t="str">
         <f>CONCATENATE(E926,F926,G926,H926,I926,J926,K926)</f>
-        <v>dpt</v>
+        <v>dpcrkr</v>
       </c>
       <c r="D926" s="9" t="s">
-        <v>587</v>
+        <v>1145</v>
       </c>
       <c r="E926" s="4" t="s">
         <v>953</v>
@@ -28189,7 +28206,16 @@
         <v>940</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>930</v>
+        <v>1240</v>
+      </c>
+      <c r="H926" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="I926" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="J926" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="927" spans="1:10">
@@ -28201,10 +28227,10 @@
       </c>
       <c r="C927" s="8" t="str">
         <f>CONCATENATE(E927,F927,G927,H927,I927,J927,K927)</f>
-        <v>dptg</v>
+        <v>dpcrd</v>
       </c>
       <c r="D927" s="9" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="E927" s="4" t="s">
         <v>953</v>
@@ -28213,10 +28239,13 @@
         <v>940</v>
       </c>
       <c r="G927" s="4" t="s">
-        <v>930</v>
+        <v>1240</v>
       </c>
       <c r="H927" s="4" t="s">
-        <v>950</v>
+        <v>958</v>
+      </c>
+      <c r="I927" s="4" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="928" spans="1:10">
@@ -28228,10 +28257,10 @@
       </c>
       <c r="C928" s="8" t="str">
         <f>CONCATENATE(E928,F928,G928,H928,I928,J928,K928)</f>
-        <v>dptkr</v>
+        <v>dpcrn</v>
       </c>
       <c r="D928" s="9" t="s">
-        <v>1195</v>
+        <v>581</v>
       </c>
       <c r="E928" s="4" t="s">
         <v>953</v>
@@ -28240,13 +28269,13 @@
         <v>940</v>
       </c>
       <c r="G928" s="4" t="s">
-        <v>930</v>
+        <v>1240</v>
       </c>
       <c r="H928" s="4" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="I928" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="929" spans="1:9">
@@ -28258,10 +28287,10 @@
       </c>
       <c r="C929" s="8" t="str">
         <f>CONCATENATE(E929,F929,G929,H929,I929,J929,K929)</f>
-        <v>dptt</v>
+        <v>dpcrh</v>
       </c>
       <c r="D929" s="9" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E929" s="4" t="s">
         <v>953</v>
@@ -28270,10 +28299,13 @@
         <v>940</v>
       </c>
       <c r="G929" s="4" t="s">
-        <v>930</v>
+        <v>1240</v>
       </c>
       <c r="H929" s="4" t="s">
-        <v>930</v>
+        <v>958</v>
+      </c>
+      <c r="I929" s="4" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="930" spans="1:9">
@@ -28285,10 +28317,10 @@
       </c>
       <c r="C930" s="8" t="str">
         <f>CONCATENATE(E930,F930,G930,H930,I930,J930,K930)</f>
-        <v>dptn</v>
+        <v>dpt</v>
       </c>
       <c r="D930" s="9" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E930" s="4" t="s">
         <v>953</v>
@@ -28299,9 +28331,6 @@
       <c r="G930" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H930" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="931" spans="1:9">
       <c r="A931" s="6" t="s">
@@ -28312,10 +28341,10 @@
       </c>
       <c r="C931" s="8" t="str">
         <f>CONCATENATE(E931,F931,G931,H931,I931,J931,K931)</f>
-        <v>dptw</v>
+        <v>dptg</v>
       </c>
       <c r="D931" s="9" t="s">
-        <v>1222</v>
+        <v>1140</v>
       </c>
       <c r="E931" s="4" t="s">
         <v>953</v>
@@ -28327,7 +28356,7 @@
         <v>930</v>
       </c>
       <c r="H931" s="4" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="932" spans="1:9">
@@ -28339,25 +28368,25 @@
       </c>
       <c r="C932" s="8" t="str">
         <f>CONCATENATE(E932,F932,G932,H932,I932,J932,K932)</f>
-        <v>thnrj</v>
+        <v>dptkr</v>
       </c>
       <c r="D932" s="9" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E932" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F932" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G932" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="F932" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G932" s="4" t="s">
-        <v>954</v>
-      </c>
       <c r="H932" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="I932" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="I932" s="4" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="933" spans="1:9">
@@ -28369,22 +28398,22 @@
       </c>
       <c r="C933" s="8" t="str">
         <f>CONCATENATE(E933,F933,G933,H933,I933,J933,K933)</f>
-        <v>thnr</v>
+        <v>dptt</v>
       </c>
       <c r="D933" s="9" t="s">
-        <v>1196</v>
+        <v>598</v>
       </c>
       <c r="E933" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F933" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G933" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="F933" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G933" s="4" t="s">
-        <v>954</v>
-      </c>
       <c r="H933" s="4" t="s">
-        <v>958</v>
+        <v>930</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -28396,25 +28425,22 @@
       </c>
       <c r="C934" s="8" t="str">
         <f>CONCATENATE(E934,F934,G934,H934,I934,J934,K934)</f>
-        <v>thnlb</v>
+        <v>dptn</v>
       </c>
       <c r="D934" s="9" t="s">
-        <v>1197</v>
+        <v>597</v>
       </c>
       <c r="E934" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F934" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G934" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="F934" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G934" s="4" t="s">
+      <c r="H934" s="4" t="s">
         <v>954</v>
-      </c>
-      <c r="H934" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I934" s="4" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -28426,10 +28452,10 @@
       </c>
       <c r="C935" s="8" t="str">
         <f>CONCATENATE(E935,F935,G935,H935,I935,J935,K935)</f>
-        <v>dpn</v>
+        <v>dptw</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>586</v>
+        <v>1222</v>
       </c>
       <c r="E935" s="4" t="s">
         <v>953</v>
@@ -28438,7 +28464,10 @@
         <v>940</v>
       </c>
       <c r="G935" s="4" t="s">
-        <v>954</v>
+        <v>930</v>
+      </c>
+      <c r="H935" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="936" spans="1:9">
@@ -28450,10 +28479,10 @@
       </c>
       <c r="C936" s="8" t="str">
         <f>CONCATENATE(E936,F936,G936,H936,I936,J936,K936)</f>
-        <v>thh</v>
+        <v>thnrj</v>
       </c>
       <c r="D936" s="9" t="s">
-        <v>658</v>
+        <v>1198</v>
       </c>
       <c r="E936" s="4" t="s">
         <v>930</v>
@@ -28462,7 +28491,13 @@
         <v>1259</v>
       </c>
       <c r="G936" s="4" t="s">
-        <v>1259</v>
+        <v>954</v>
+      </c>
+      <c r="H936" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="I936" s="4" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="937" spans="1:9">
@@ -28474,18 +28509,21 @@
       </c>
       <c r="C937" s="8" t="str">
         <f>CONCATENATE(E937,F937,G937,H937,I937,J937,K937)</f>
-        <v>dpr</v>
+        <v>thnr</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>583</v>
+        <v>1196</v>
       </c>
       <c r="E937" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F937" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="G937" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="H937" s="4" t="s">
         <v>958</v>
       </c>
     </row>
@@ -28498,22 +28536,25 @@
       </c>
       <c r="C938" s="8" t="str">
         <f>CONCATENATE(E938,F938,G938,H938,I938,J938,K938)</f>
-        <v>dprg</v>
+        <v>thnlb</v>
       </c>
       <c r="D938" s="9" t="s">
-        <v>584</v>
+        <v>1197</v>
       </c>
       <c r="E938" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F938" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="G938" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H938" s="4" t="s">
-        <v>950</v>
+        <v>1245</v>
+      </c>
+      <c r="I938" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="939" spans="1:9">
@@ -28525,10 +28566,10 @@
       </c>
       <c r="C939" s="8" t="str">
         <f>CONCATENATE(E939,F939,G939,H939,I939,J939,K939)</f>
-        <v>dprdk</v>
+        <v>dpn</v>
       </c>
       <c r="D939" s="9" t="s">
-        <v>1675</v>
+        <v>586</v>
       </c>
       <c r="E939" s="4" t="s">
         <v>953</v>
@@ -28537,13 +28578,7 @@
         <v>940</v>
       </c>
       <c r="G939" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H939" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I939" s="4" t="s">
-        <v>1671</v>
+        <v>954</v>
       </c>
     </row>
     <row r="940" spans="1:9">
@@ -28555,22 +28590,19 @@
       </c>
       <c r="C940" s="8" t="str">
         <f>CONCATENATE(E940,F940,G940,H940,I940,J940,K940)</f>
-        <v>dprd</v>
+        <v>thh</v>
       </c>
       <c r="D940" s="9" t="s">
-        <v>1147</v>
+        <v>658</v>
       </c>
       <c r="E940" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F940" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="G940" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H940" s="4" t="s">
-        <v>953</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="941" spans="1:9">
@@ -28582,10 +28614,10 @@
       </c>
       <c r="C941" s="8" t="str">
         <f>CONCATENATE(E941,F941,G941,H941,I941,J941,K941)</f>
-        <v>dprn</v>
+        <v>dpr</v>
       </c>
       <c r="D941" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E941" s="4" t="s">
         <v>953</v>
@@ -28596,9 +28628,6 @@
       <c r="G941" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H941" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="942" spans="1:9">
       <c r="A942" s="6" t="s">
@@ -28609,10 +28638,10 @@
       </c>
       <c r="C942" s="8" t="str">
         <f>CONCATENATE(E942,F942,G942,H942,I942,J942,K942)</f>
-        <v>dprw</v>
+        <v>dprg</v>
       </c>
       <c r="D942" s="9" t="s">
-        <v>1223</v>
+        <v>584</v>
       </c>
       <c r="E942" s="4" t="s">
         <v>953</v>
@@ -28624,7 +28653,7 @@
         <v>958</v>
       </c>
       <c r="H942" s="4" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="943" spans="1:9">
@@ -28636,22 +28665,25 @@
       </c>
       <c r="C943" s="8" t="str">
         <f>CONCATENATE(E943,F943,G943,H943,I943,J943,K943)</f>
-        <v>nktt</v>
+        <v>dprdk</v>
       </c>
       <c r="D943" s="9" t="s">
-        <v>1305</v>
+        <v>1675</v>
       </c>
       <c r="E943" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F943" s="4" t="s">
-        <v>1256</v>
+        <v>940</v>
       </c>
       <c r="G943" s="4" t="s">
-        <v>1255</v>
+        <v>958</v>
       </c>
       <c r="H943" s="4" t="s">
-        <v>1255</v>
+        <v>953</v>
+      </c>
+      <c r="I943" s="4" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="944" spans="1:9">
@@ -28663,22 +28695,22 @@
       </c>
       <c r="C944" s="8" t="str">
         <f>CONCATENATE(E944,F944,G944,H944,I944,J944,K944)</f>
-        <v>nrgr</v>
+        <v>dprd</v>
       </c>
       <c r="D944" s="9" t="s">
-        <v>1199</v>
+        <v>1147</v>
       </c>
       <c r="E944" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F944" s="4" t="s">
-        <v>1258</v>
+        <v>940</v>
       </c>
       <c r="G944" s="4" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="H944" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="945" spans="1:10">
@@ -28690,16 +28722,22 @@
       </c>
       <c r="C945" s="8" t="str">
         <f>CONCATENATE(E945,F945,G945,H945,I945,J945,K945)</f>
-        <v>nq</v>
+        <v>dprn</v>
       </c>
       <c r="D945" s="9" t="s">
-        <v>1304</v>
+        <v>585</v>
       </c>
       <c r="E945" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F945" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G945" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="H945" s="4" t="s">
         <v>954</v>
-      </c>
-      <c r="F945" s="4" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="946" spans="1:10">
@@ -28711,22 +28749,22 @@
       </c>
       <c r="C946" s="8" t="str">
         <f>CONCATENATE(E946,F946,G946,H946,I946,J946,K946)</f>
-        <v>nklb</v>
+        <v>dprw</v>
       </c>
       <c r="D946" s="9" t="s">
-        <v>1099</v>
+        <v>1223</v>
       </c>
       <c r="E946" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F946" s="4" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="G946" s="4" t="s">
-        <v>1245</v>
+        <v>958</v>
       </c>
       <c r="H946" s="4" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="947" spans="1:10">
@@ -28738,19 +28776,22 @@
       </c>
       <c r="C947" s="8" t="str">
         <f>CONCATENATE(E947,F947,G947,H947,I947,J947,K947)</f>
-        <v>nrn</v>
+        <v>nktt</v>
       </c>
       <c r="D947" s="9" t="s">
-        <v>1444</v>
+        <v>1305</v>
       </c>
       <c r="E947" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F947" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G947" s="4" t="s">
-        <v>954</v>
+        <v>1255</v>
+      </c>
+      <c r="H947" s="4" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="948" spans="1:10">
@@ -28762,10 +28803,10 @@
       </c>
       <c r="C948" s="8" t="str">
         <f>CONCATENATE(E948,F948,G948,H948,I948,J948,K948)</f>
-        <v>nrnd</v>
+        <v>nrgr</v>
       </c>
       <c r="D948" s="9" t="s">
-        <v>1443</v>
+        <v>1199</v>
       </c>
       <c r="E948" s="4" t="s">
         <v>954</v>
@@ -28774,10 +28815,10 @@
         <v>1258</v>
       </c>
       <c r="G948" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H948" s="4" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="949" spans="1:10">
@@ -28789,25 +28830,16 @@
       </c>
       <c r="C949" s="8" t="str">
         <f>CONCATENATE(E949,F949,G949,H949,I949,J949,K949)</f>
-        <v>nrnds</v>
+        <v>nq</v>
       </c>
       <c r="D949" s="9" t="s">
-        <v>1666</v>
+        <v>1304</v>
       </c>
       <c r="E949" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F949" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G949" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="H949" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="I949" s="4" t="s">
-        <v>1667</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="950" spans="1:10">
@@ -28819,28 +28851,22 @@
       </c>
       <c r="C950" s="8" t="str">
         <f>CONCATENATE(E950,F950,G950,H950,I950,J950,K950)</f>
-        <v>nrndsg</v>
+        <v>nklb</v>
       </c>
       <c r="D950" s="9" t="s">
-        <v>1669</v>
+        <v>1099</v>
       </c>
       <c r="E950" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F950" s="4" t="s">
-        <v>1258</v>
+        <v>949</v>
       </c>
       <c r="G950" s="4" t="s">
-        <v>954</v>
+        <v>1245</v>
       </c>
       <c r="H950" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="I950" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J950" s="4" t="s">
-        <v>1668</v>
+        <v>956</v>
       </c>
     </row>
     <row r="951" spans="1:10">
@@ -28852,10 +28878,10 @@
       </c>
       <c r="C951" s="8" t="str">
         <f>CONCATENATE(E951,F951,G951,H951,I951,J951,K951)</f>
-        <v>nrnn</v>
+        <v>nrn</v>
       </c>
       <c r="D951" s="9" t="s">
-        <v>1200</v>
+        <v>1444</v>
       </c>
       <c r="E951" s="4" t="s">
         <v>954</v>
@@ -28866,9 +28892,6 @@
       <c r="G951" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="H951" s="4" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="952" spans="1:10">
       <c r="A952" s="6" t="s">
@@ -28879,19 +28902,22 @@
       </c>
       <c r="C952" s="8" t="str">
         <f>CONCATENATE(E952,F952,G952,H952,I952,J952,K952)</f>
-        <v>nrb</v>
+        <v>nrnd</v>
       </c>
       <c r="D952" s="9" t="s">
-        <v>642</v>
+        <v>1443</v>
       </c>
       <c r="E952" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F952" s="4" t="s">
-        <v>958</v>
+        <v>1258</v>
       </c>
       <c r="G952" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
+      </c>
+      <c r="H952" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="953" spans="1:10">
@@ -28903,19 +28929,25 @@
       </c>
       <c r="C953" s="8" t="str">
         <f>CONCATENATE(E953,F953,G953,H953,I953,J953,K953)</f>
-        <v>nrj</v>
+        <v>nrnds</v>
       </c>
       <c r="D953" s="9" t="s">
-        <v>714</v>
+        <v>1666</v>
       </c>
       <c r="E953" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F953" s="4" t="s">
-        <v>958</v>
+        <v>1258</v>
       </c>
       <c r="G953" s="4" t="s">
-        <v>1242</v>
+        <v>954</v>
+      </c>
+      <c r="H953" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="I953" s="4" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="954" spans="1:10">
@@ -28927,16 +28959,28 @@
       </c>
       <c r="C954" s="8" t="str">
         <f>CONCATENATE(E954,F954,G954,H954,I954,J954,K954)</f>
-        <v>nr</v>
+        <v>nrndsg</v>
       </c>
       <c r="D954" s="9" t="s">
-        <v>1104</v>
+        <v>1669</v>
       </c>
       <c r="E954" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F954" s="4" t="s">
-        <v>958</v>
+        <v>1258</v>
+      </c>
+      <c r="G954" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="H954" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="I954" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J954" s="4" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="955" spans="1:10">
@@ -28948,19 +28992,22 @@
       </c>
       <c r="C955" s="8" t="str">
         <f>CONCATENATE(E955,F955,G955,H955,I955,J955,K955)</f>
-        <v>nrl</v>
+        <v>nrnn</v>
       </c>
       <c r="D955" s="9" t="s">
-        <v>1105</v>
+        <v>1200</v>
       </c>
       <c r="E955" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F955" s="4" t="s">
-        <v>958</v>
+        <v>1258</v>
       </c>
       <c r="G955" s="4" t="s">
-        <v>1245</v>
+        <v>954</v>
+      </c>
+      <c r="H955" s="4" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="956" spans="1:10">
@@ -28972,10 +29019,10 @@
       </c>
       <c r="C956" s="8" t="str">
         <f>CONCATENATE(E956,F956,G956,H956,I956,J956,K956)</f>
-        <v>nrlb</v>
+        <v>nrb</v>
       </c>
       <c r="D956" s="9" t="s">
-        <v>1103</v>
+        <v>642</v>
       </c>
       <c r="E956" s="4" t="s">
         <v>954</v>
@@ -28984,9 +29031,6 @@
         <v>958</v>
       </c>
       <c r="G956" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H956" s="4" t="s">
         <v>956</v>
       </c>
     </row>
@@ -28999,25 +29043,19 @@
       </c>
       <c r="C957" s="8" t="str">
         <f>CONCATENATE(E957,F957,G957,H957,I957,J957,K957)</f>
-        <v>njtjt</v>
+        <v>nrj</v>
       </c>
       <c r="D957" s="9" t="s">
-        <v>1252</v>
+        <v>714</v>
       </c>
       <c r="E957" s="4" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="F957" s="4" t="s">
-        <v>1254</v>
+        <v>958</v>
       </c>
       <c r="G957" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H957" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I957" s="4" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="958" spans="1:10">
@@ -29029,22 +29067,16 @@
       </c>
       <c r="C958" s="8" t="str">
         <f>CONCATENATE(E958,F958,G958,H958,I958,J958,K958)</f>
-        <v>njtk</v>
+        <v>nr</v>
       </c>
       <c r="D958" s="9" t="s">
-        <v>1253</v>
+        <v>1104</v>
       </c>
       <c r="E958" s="4" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="F958" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G958" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H958" s="4" t="s">
-        <v>1256</v>
+        <v>958</v>
       </c>
     </row>
     <row r="959" spans="1:10">
@@ -29056,19 +29088,19 @@
       </c>
       <c r="C959" s="8" t="str">
         <f>CONCATENATE(E959,F959,G959,H959,I959,J959,K959)</f>
-        <v>njh</v>
+        <v>nrl</v>
       </c>
       <c r="D959" s="9" t="s">
-        <v>637</v>
+        <v>1105</v>
       </c>
       <c r="E959" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F959" s="4" t="s">
-        <v>1254</v>
+        <v>958</v>
       </c>
       <c r="G959" s="4" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="960" spans="1:10">
@@ -29080,25 +29112,25 @@
       </c>
       <c r="C960" s="8" t="str">
         <f>CONCATENATE(E960,F960,G960,H960,I960,J960,K960)</f>
-        <v>njrj</v>
+        <v>nrlb</v>
       </c>
       <c r="D960" s="9" t="s">
-        <v>1150</v>
+        <v>1103</v>
       </c>
       <c r="E960" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F960" s="4" t="s">
-        <v>1242</v>
+        <v>958</v>
       </c>
       <c r="G960" s="4" t="s">
-        <v>958</v>
+        <v>1245</v>
       </c>
       <c r="H960" s="4" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="961" spans="1:8">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9">
       <c r="A961" s="6" t="s">
         <v>242</v>
       </c>
@@ -29107,25 +29139,28 @@
       </c>
       <c r="C961" s="8" t="str">
         <f>CONCATENATE(E961,F961,G961,H961,I961,J961,K961)</f>
-        <v>njrr</v>
+        <v>njtjt</v>
       </c>
       <c r="D961" s="9" t="s">
-        <v>1148</v>
+        <v>1252</v>
       </c>
       <c r="E961" s="4" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="F961" s="4" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="G961" s="4" t="s">
-        <v>958</v>
+        <v>1255</v>
       </c>
       <c r="H961" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="962" spans="1:8">
+        <v>1254</v>
+      </c>
+      <c r="I961" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9">
       <c r="A962" s="6" t="s">
         <v>242</v>
       </c>
@@ -29134,25 +29169,25 @@
       </c>
       <c r="C962" s="8" t="str">
         <f>CONCATENATE(E962,F962,G962,H962,I962,J962,K962)</f>
-        <v>njlb</v>
+        <v>njtk</v>
       </c>
       <c r="D962" s="9" t="s">
-        <v>1149</v>
+        <v>1253</v>
       </c>
       <c r="E962" s="4" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="F962" s="4" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="G962" s="4" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="H962" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="963" spans="1:8">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9">
       <c r="A963" s="6" t="s">
         <v>242</v>
       </c>
@@ -29161,22 +29196,22 @@
       </c>
       <c r="C963" s="8" t="str">
         <f>CONCATENATE(E963,F963,G963,H963,I963,J963,K963)</f>
-        <v>nhd</v>
+        <v>njh</v>
       </c>
       <c r="D963" s="9" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E963" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F963" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G963" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="G963" s="4" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="964" spans="1:8">
+    </row>
+    <row r="964" spans="1:9">
       <c r="A964" s="6" t="s">
         <v>242</v>
       </c>
@@ -29185,22 +29220,25 @@
       </c>
       <c r="C964" s="8" t="str">
         <f>CONCATENATE(E964,F964,G964,H964,I964,J964,K964)</f>
-        <v>nhh</v>
+        <v>njrj</v>
       </c>
       <c r="D964" s="9" t="s">
-        <v>1286</v>
+        <v>1150</v>
       </c>
       <c r="E964" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F964" s="4" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="G964" s="4" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="965" spans="1:8">
+        <v>958</v>
+      </c>
+      <c r="H964" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9">
       <c r="A965" s="6" t="s">
         <v>242</v>
       </c>
@@ -29209,22 +29247,25 @@
       </c>
       <c r="C965" s="8" t="str">
         <f>CONCATENATE(E965,F965,G965,H965,I965,J965,K965)</f>
-        <v>nhv</v>
+        <v>njrr</v>
       </c>
       <c r="D965" s="9" t="s">
-        <v>639</v>
+        <v>1148</v>
       </c>
       <c r="E965" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F965" s="4" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="G965" s="4" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="966" spans="1:8">
+        <v>958</v>
+      </c>
+      <c r="H965" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9">
       <c r="A966" s="6" t="s">
         <v>242</v>
       </c>
@@ -29233,25 +29274,25 @@
       </c>
       <c r="C966" s="8" t="str">
         <f>CONCATENATE(E966,F966,G966,H966,I966,J966,K966)</f>
-        <v>nhvn</v>
+        <v>njlb</v>
       </c>
       <c r="D966" s="9" t="s">
-        <v>641</v>
+        <v>1149</v>
       </c>
       <c r="E966" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F966" s="4" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="G966" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H966" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="967" spans="1:8">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9">
       <c r="A967" s="6" t="s">
         <v>242</v>
       </c>
@@ -29260,25 +29301,22 @@
       </c>
       <c r="C967" s="8" t="str">
         <f>CONCATENATE(E967,F967,G967,H967,I967,J967,K967)</f>
-        <v>nhvh</v>
+        <v>nhd</v>
       </c>
       <c r="D967" s="9" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E967" s="4" t="s">
         <v>954</v>
       </c>
       <c r="F967" s="4" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="G967" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H967" s="4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="968" spans="1:8">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9">
       <c r="A968" s="6" t="s">
         <v>242</v>
       </c>
@@ -29287,19 +29325,22 @@
       </c>
       <c r="C968" s="8" t="str">
         <f>CONCATENATE(E968,F968,G968,H968,I968,J968,K968)</f>
-        <v>hz</v>
+        <v>nhh</v>
       </c>
       <c r="D968" s="9" t="s">
-        <v>604</v>
+        <v>1286</v>
       </c>
       <c r="E968" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
       <c r="F968" s="4" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="969" spans="1:8">
+        <v>1259</v>
+      </c>
+      <c r="G968" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9">
       <c r="A969" s="6" t="s">
         <v>242</v>
       </c>
@@ -29308,22 +29349,22 @@
       </c>
       <c r="C969" s="8" t="str">
         <f>CONCATENATE(E969,F969,G969,H969,I969,J969,K969)</f>
-        <v>hjt</v>
+        <v>nhv</v>
       </c>
       <c r="D969" s="9" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="E969" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="F969" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="F969" s="4" t="s">
-        <v>1242</v>
-      </c>
       <c r="G969" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="970" spans="1:8">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9">
       <c r="A970" s="6" t="s">
         <v>242</v>
       </c>
@@ -29332,22 +29373,25 @@
       </c>
       <c r="C970" s="8" t="str">
         <f>CONCATENATE(E970,F970,G970,H970,I970,J970,K970)</f>
-        <v>hhd</v>
+        <v>nhvn</v>
       </c>
       <c r="D970" s="9" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="E970" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
       <c r="F970" s="4" t="s">
         <v>1248</v>
       </c>
       <c r="G970" s="4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="971" spans="1:8">
+        <v>1244</v>
+      </c>
+      <c r="H970" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9">
       <c r="A971" s="6" t="s">
         <v>242</v>
       </c>
@@ -29356,22 +29400,25 @@
       </c>
       <c r="C971" s="8" t="str">
         <f>CONCATENATE(E971,F971,G971,H971,I971,J971,K971)</f>
-        <v>mxt</v>
+        <v>nhvh</v>
       </c>
       <c r="D971" s="9" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="E971" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F971" s="4" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="G971" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="972" spans="1:8">
+        <v>1244</v>
+      </c>
+      <c r="H971" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9">
       <c r="A972" s="6" t="s">
         <v>242</v>
       </c>
@@ -29380,25 +29427,19 @@
       </c>
       <c r="C972" s="8" t="str">
         <f>CONCATENATE(E972,F972,G972,H972,I972,J972,K972)</f>
-        <v>mxtg</v>
+        <v>hz</v>
       </c>
       <c r="D972" s="9" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="E972" s="4" t="s">
-        <v>957</v>
+        <v>1248</v>
       </c>
       <c r="F972" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G972" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H972" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="973" spans="1:8">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9">
       <c r="A973" s="6" t="s">
         <v>242</v>
       </c>
@@ -29407,25 +29448,22 @@
       </c>
       <c r="C973" s="8" t="str">
         <f>CONCATENATE(E973,F973,G973,H973,I973,J973,K973)</f>
-        <v>mxtr</v>
+        <v>hjt</v>
       </c>
       <c r="D973" s="9" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="E973" s="4" t="s">
-        <v>957</v>
+        <v>1248</v>
       </c>
       <c r="F973" s="4" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="G973" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H973" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="974" spans="1:8">
+    </row>
+    <row r="974" spans="1:9">
       <c r="A974" s="6" t="s">
         <v>242</v>
       </c>
@@ -29434,22 +29472,22 @@
       </c>
       <c r="C974" s="8" t="str">
         <f>CONCATENATE(E974,F974,G974,H974,I974,J974,K974)</f>
-        <v>mxd</v>
+        <v>hhd</v>
       </c>
       <c r="D974" s="9" t="s">
-        <v>1231</v>
+        <v>602</v>
       </c>
       <c r="E974" s="4" t="s">
-        <v>957</v>
+        <v>1248</v>
       </c>
       <c r="F974" s="4" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="G974" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="975" spans="1:8">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9">
       <c r="A975" s="6" t="s">
         <v>242</v>
       </c>
@@ -29458,10 +29496,10 @@
       </c>
       <c r="C975" s="8" t="str">
         <f>CONCATENATE(E975,F975,G975,H975,I975,J975,K975)</f>
-        <v>mxv</v>
+        <v>mxt</v>
       </c>
       <c r="D975" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E975" s="4" t="s">
         <v>957</v>
@@ -29470,10 +29508,10 @@
         <v>1263</v>
       </c>
       <c r="G975" s="4" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="976" spans="1:8">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9">
       <c r="A976" s="6" t="s">
         <v>242</v>
       </c>
@@ -29482,10 +29520,10 @@
       </c>
       <c r="C976" s="8" t="str">
         <f>CONCATENATE(E976,F976,G976,H976,I976,J976,K976)</f>
-        <v>mxvk</v>
+        <v>mxtg</v>
       </c>
       <c r="D976" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E976" s="4" t="s">
         <v>957</v>
@@ -29494,10 +29532,10 @@
         <v>1263</v>
       </c>
       <c r="G976" s="4" t="s">
-        <v>1244</v>
+        <v>930</v>
       </c>
       <c r="H976" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -29509,16 +29547,22 @@
       </c>
       <c r="C977" s="8" t="str">
         <f>CONCATENATE(E977,F977,G977,H977,I977,J977,K977)</f>
-        <v>ms</v>
+        <v>mxtr</v>
       </c>
       <c r="D977" s="9" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E977" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F977" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
+      </c>
+      <c r="G977" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H977" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -29530,19 +29574,19 @@
       </c>
       <c r="C978" s="8" t="str">
         <f>CONCATENATE(E978,F978,G978,H978,I978,J978,K978)</f>
-        <v>mrz</v>
+        <v>mxd</v>
       </c>
       <c r="D978" s="9" t="s">
-        <v>623</v>
+        <v>1231</v>
       </c>
       <c r="E978" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F978" s="4" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="G978" s="4" t="s">
-        <v>1449</v>
+        <v>938</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -29554,19 +29598,19 @@
       </c>
       <c r="C979" s="8" t="str">
         <f>CONCATENATE(E979,F979,G979,H979,I979,J979,K979)</f>
-        <v>msk</v>
+        <v>mxv</v>
       </c>
       <c r="D979" s="9" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E979" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F979" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="G979" s="4" t="s">
-        <v>949</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -29578,19 +29622,22 @@
       </c>
       <c r="C980" s="8" t="str">
         <f>CONCATENATE(E980,F980,G980,H980,I980,J980,K980)</f>
-        <v>msg</v>
+        <v>mxvk</v>
       </c>
       <c r="D980" s="9" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E980" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F980" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="G980" s="4" t="s">
-        <v>950</v>
+        <v>1244</v>
+      </c>
+      <c r="H980" s="4" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -29602,10 +29649,10 @@
       </c>
       <c r="C981" s="8" t="str">
         <f>CONCATENATE(E981,F981,G981,H981,I981,J981,K981)</f>
-        <v>mst</v>
+        <v>ms</v>
       </c>
       <c r="D981" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E981" s="4" t="s">
         <v>957</v>
@@ -29613,9 +29660,6 @@
       <c r="F981" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="G981" s="4" t="s">
-        <v>930</v>
-      </c>
     </row>
     <row r="982" spans="1:8">
       <c r="A982" s="6" t="s">
@@ -29626,22 +29670,19 @@
       </c>
       <c r="C982" s="8" t="str">
         <f>CONCATENATE(E982,F982,G982,H982,I982,J982,K982)</f>
-        <v>msnd</v>
+        <v>mrz</v>
       </c>
       <c r="D982" s="9" t="s">
-        <v>1688</v>
+        <v>623</v>
       </c>
       <c r="E982" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F982" s="4" t="s">
-        <v>951</v>
+        <v>1258</v>
       </c>
       <c r="G982" s="4" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H982" s="4" t="s">
-        <v>1686</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -29653,10 +29694,10 @@
       </c>
       <c r="C983" s="8" t="str">
         <f>CONCATENATE(E983,F983,G983,H983,I983,J983,K983)</f>
-        <v>msn</v>
+        <v>msk</v>
       </c>
       <c r="D983" s="9" t="s">
-        <v>1100</v>
+        <v>628</v>
       </c>
       <c r="E983" s="4" t="s">
         <v>957</v>
@@ -29665,7 +29706,7 @@
         <v>951</v>
       </c>
       <c r="G983" s="4" t="s">
-        <v>1692</v>
+        <v>949</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -29677,19 +29718,19 @@
       </c>
       <c r="C984" s="8" t="str">
         <f>CONCATENATE(E984,F984,G984,H984,I984,J984,K984)</f>
-        <v>mrt</v>
+        <v>msg</v>
       </c>
       <c r="D984" s="9" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E984" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F984" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G984" s="4" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -29701,19 +29742,19 @@
       </c>
       <c r="C985" s="8" t="str">
         <f>CONCATENATE(E985,F985,G985,H985,I985,J985,K985)</f>
-        <v>mrd</v>
+        <v>mst</v>
       </c>
       <c r="D985" s="9" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E985" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F985" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G985" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -29725,19 +29766,22 @@
       </c>
       <c r="C986" s="8" t="str">
         <f>CONCATENATE(E986,F986,G986,H986,I986,J986,K986)</f>
-        <v>mhd</v>
+        <v>msnd</v>
       </c>
       <c r="D986" s="9" t="s">
-        <v>621</v>
+        <v>1688</v>
       </c>
       <c r="E986" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F986" s="4" t="s">
-        <v>1259</v>
+        <v>951</v>
       </c>
       <c r="G986" s="4" t="s">
-        <v>938</v>
+        <v>1685</v>
+      </c>
+      <c r="H986" s="4" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -29749,16 +29793,19 @@
       </c>
       <c r="C987" s="8" t="str">
         <f>CONCATENATE(E987,F987,G987,H987,I987,J987,K987)</f>
-        <v>mr</v>
+        <v>msn</v>
       </c>
       <c r="D987" s="9" t="s">
-        <v>1281</v>
+        <v>1100</v>
       </c>
       <c r="E987" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F987" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
+      </c>
+      <c r="G987" s="4" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -29770,19 +29817,19 @@
       </c>
       <c r="C988" s="8" t="str">
         <f>CONCATENATE(E988,F988,G988,H988,I988,J988,K988)</f>
-        <v>mhs</v>
+        <v>mrt</v>
       </c>
       <c r="D988" s="9" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E988" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F988" s="4" t="s">
-        <v>1259</v>
+        <v>958</v>
       </c>
       <c r="G988" s="4" t="s">
-        <v>1284</v>
+        <v>930</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -29794,19 +29841,19 @@
       </c>
       <c r="C989" s="8" t="str">
         <f>CONCATENATE(E989,F989,G989,H989,I989,J989,K989)</f>
-        <v>mhn</v>
+        <v>mrd</v>
       </c>
       <c r="D989" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E989" s="4" t="s">
         <v>957</v>
       </c>
       <c r="F989" s="4" t="s">
-        <v>1259</v>
+        <v>958</v>
       </c>
       <c r="G989" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -29818,16 +29865,19 @@
       </c>
       <c r="C990" s="8" t="str">
         <f>CONCATENATE(E990,F990,G990,H990,I990,J990,K990)</f>
-        <v>jr</v>
+        <v>mhd</v>
       </c>
       <c r="D990" s="9" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="E990" s="4" t="s">
-        <v>1254</v>
+        <v>957</v>
       </c>
       <c r="F990" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
+      </c>
+      <c r="G990" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -29839,23 +29889,17 @@
       </c>
       <c r="C991" s="8" t="str">
         <f>CONCATENATE(E991,F991,G991,H991,I991,J991,K991)</f>
-        <v>jrnd</v>
+        <v>mr</v>
       </c>
       <c r="D991" s="9" t="s">
-        <v>1690</v>
+        <v>1281</v>
       </c>
       <c r="E991" s="4" t="s">
-        <v>1254</v>
+        <v>957</v>
       </c>
       <c r="F991" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="G991" s="4" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H991" s="4" t="s">
-        <v>1686</v>
-      </c>
     </row>
     <row r="992" spans="1:8">
       <c r="A992" s="6" t="s">
@@ -29866,22 +29910,19 @@
       </c>
       <c r="C992" s="8" t="str">
         <f>CONCATENATE(E992,F992,G992,H992,I992,J992,K992)</f>
-        <v>jrlb</v>
+        <v>mhs</v>
       </c>
       <c r="D992" s="9" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="E992" s="4" t="s">
-        <v>1254</v>
+        <v>957</v>
       </c>
       <c r="F992" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
       <c r="G992" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H992" s="4" t="s">
-        <v>956</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -29893,19 +29934,19 @@
       </c>
       <c r="C993" s="8" t="str">
         <f>CONCATENATE(E993,F993,G993,H993,I993,J993,K993)</f>
-        <v>jhr</v>
+        <v>mhn</v>
       </c>
       <c r="D993" s="9" t="s">
-        <v>697</v>
+        <v>630</v>
       </c>
       <c r="E993" s="4" t="s">
-        <v>1254</v>
+        <v>957</v>
       </c>
       <c r="F993" s="4" t="s">
         <v>1259</v>
       </c>
       <c r="G993" s="4" t="s">
-        <v>1258</v>
+        <v>954</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -29917,19 +29958,16 @@
       </c>
       <c r="C994" s="8" t="str">
         <f>CONCATENATE(E994,F994,G994,H994,I994,J994,K994)</f>
-        <v>rsj</v>
+        <v>jr</v>
       </c>
       <c r="D994" s="9" t="s">
-        <v>908</v>
+        <v>606</v>
       </c>
       <c r="E994" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F994" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="F994" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="G994" s="4" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -29941,16 +29979,22 @@
       </c>
       <c r="C995" s="8" t="str">
         <f>CONCATENATE(E995,F995,G995,H995,I995,J995,K995)</f>
-        <v>lb</v>
+        <v>jrnd</v>
       </c>
       <c r="D995" s="9" t="s">
-        <v>619</v>
+        <v>1690</v>
       </c>
       <c r="E995" s="4" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="F995" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
+      </c>
+      <c r="G995" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H995" s="4" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -29962,17 +30006,23 @@
       </c>
       <c r="C996" s="8" t="str">
         <f>CONCATENATE(E996,F996,G996,H996,I996,J996,K996)</f>
-        <v>lr</v>
+        <v>jrlb</v>
       </c>
       <c r="D996" s="9" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E996" s="4" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="F996" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="G996" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H996" s="4" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="997" spans="1:8">
       <c r="A997" s="6" t="s">
@@ -29983,19 +30033,19 @@
       </c>
       <c r="C997" s="8" t="str">
         <f>CONCATENATE(E997,F997,G997,H997,I997,J997,K997)</f>
-        <v>wts</v>
+        <v>jhr</v>
       </c>
       <c r="D997" s="9" t="s">
-        <v>1151</v>
+        <v>697</v>
       </c>
       <c r="E997" s="4" t="s">
-        <v>959</v>
+        <v>1254</v>
       </c>
       <c r="F997" s="4" t="s">
-        <v>930</v>
+        <v>1259</v>
       </c>
       <c r="G997" s="4" t="s">
-        <v>951</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -30007,22 +30057,19 @@
       </c>
       <c r="C998" s="8" t="str">
         <f>CONCATENATE(E998,F998,G998,H998,I998,J998,K998)</f>
-        <v>wtsg</v>
+        <v>rsj</v>
       </c>
       <c r="D998" s="9" t="s">
-        <v>1152</v>
+        <v>908</v>
       </c>
       <c r="E998" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F998" s="4" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="G998" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H998" s="4" t="s">
-        <v>950</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -30034,22 +30081,16 @@
       </c>
       <c r="C999" s="8" t="str">
         <f>CONCATENATE(E999,F999,G999,H999,I999,J999,K999)</f>
-        <v>wtst</v>
+        <v>lb</v>
       </c>
       <c r="D999" s="9" t="s">
-        <v>667</v>
+        <v>619</v>
       </c>
       <c r="E999" s="4" t="s">
-        <v>959</v>
+        <v>1245</v>
       </c>
       <c r="F999" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="G999" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H999" s="4" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -30061,22 +30102,16 @@
       </c>
       <c r="C1000" s="8" t="str">
         <f>CONCATENATE(E1000,F1000,G1000,H1000,I1000,J1000,K1000)</f>
-        <v>wtsn</v>
+        <v>lr</v>
       </c>
       <c r="D1000" s="9" t="s">
-        <v>1154</v>
+        <v>620</v>
       </c>
       <c r="E1000" s="4" t="s">
-        <v>959</v>
+        <v>1245</v>
       </c>
       <c r="F1000" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="G1000" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H1000" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -30088,10 +30123,10 @@
       </c>
       <c r="C1001" s="8" t="str">
         <f>CONCATENATE(E1001,F1001,G1001,H1001,I1001,J1001,K1001)</f>
-        <v>wtsb</v>
+        <v>wts</v>
       </c>
       <c r="D1001" s="9" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E1001" s="4" t="s">
         <v>959</v>
@@ -30102,9 +30137,6 @@
       <c r="G1001" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="H1001" s="4" t="s">
-        <v>956</v>
-      </c>
     </row>
     <row r="1002" spans="1:8">
       <c r="A1002" s="6" t="s">
@@ -30115,10 +30147,10 @@
       </c>
       <c r="C1002" s="8" t="str">
         <f>CONCATENATE(E1002,F1002,G1002,H1002,I1002,J1002,K1002)</f>
-        <v>wtsh</v>
+        <v>wtsg</v>
       </c>
       <c r="D1002" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E1002" s="4" t="s">
         <v>959</v>
@@ -30130,7 +30162,7 @@
         <v>951</v>
       </c>
       <c r="H1002" s="4" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -30142,10 +30174,10 @@
       </c>
       <c r="C1003" s="8" t="str">
         <f>CONCATENATE(E1003,F1003,G1003,H1003,I1003,J1003,K1003)</f>
-        <v>wtsm</v>
+        <v>wtst</v>
       </c>
       <c r="D1003" s="9" t="s">
-        <v>1282</v>
+        <v>667</v>
       </c>
       <c r="E1003" s="4" t="s">
         <v>959</v>
@@ -30157,7 +30189,7 @@
         <v>951</v>
       </c>
       <c r="H1003" s="4" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -30169,10 +30201,10 @@
       </c>
       <c r="C1004" s="8" t="str">
         <f>CONCATENATE(E1004,F1004,G1004,H1004,I1004,J1004,K1004)</f>
-        <v>wtsw</v>
+        <v>wtsn</v>
       </c>
       <c r="D1004" s="9" t="s">
-        <v>668</v>
+        <v>1154</v>
       </c>
       <c r="E1004" s="4" t="s">
         <v>959</v>
@@ -30184,7 +30216,7 @@
         <v>951</v>
       </c>
       <c r="H1004" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -30192,23 +30224,26 @@
         <v>242</v>
       </c>
       <c r="B1005" s="6" t="s">
-        <v>1562</v>
+        <v>578</v>
       </c>
       <c r="C1005" s="8" t="str">
         <f>CONCATENATE(E1005,F1005,G1005,H1005,I1005,J1005,K1005)</f>
-        <v>thx</v>
+        <v>wtsb</v>
       </c>
       <c r="D1005" s="9" t="s">
-        <v>660</v>
+        <v>1155</v>
       </c>
       <c r="E1005" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="F1005" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="F1005" s="4" t="s">
-        <v>1248</v>
-      </c>
       <c r="G1005" s="4" t="s">
-        <v>1246</v>
+        <v>951</v>
+      </c>
+      <c r="H1005" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -30216,20 +30251,26 @@
         <v>242</v>
       </c>
       <c r="B1006" s="6" t="s">
-        <v>1562</v>
+        <v>578</v>
       </c>
       <c r="C1006" s="8" t="str">
         <f>CONCATENATE(E1006,F1006,G1006,H1006,I1006,J1006,K1006)</f>
-        <v>'k</v>
+        <v>wtsh</v>
       </c>
       <c r="D1006" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="E1006" s="5" t="s">
-        <v>1249</v>
+        <v>1153</v>
+      </c>
+      <c r="E1006" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="F1006" s="4" t="s">
-        <v>949</v>
+        <v>930</v>
+      </c>
+      <c r="G1006" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H1006" s="4" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -30237,20 +30278,26 @@
         <v>242</v>
       </c>
       <c r="B1007" s="6" t="s">
-        <v>1562</v>
+        <v>578</v>
       </c>
       <c r="C1007" s="8" t="str">
         <f>CONCATENATE(E1007,F1007,G1007,H1007,I1007,J1007,K1007)</f>
-        <v>'g</v>
+        <v>wtsm</v>
       </c>
       <c r="D1007" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E1007" s="5" t="s">
-        <v>1249</v>
+        <v>1282</v>
+      </c>
+      <c r="E1007" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="F1007" s="4" t="s">
-        <v>950</v>
+        <v>930</v>
+      </c>
+      <c r="G1007" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H1007" s="4" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -30258,20 +30305,26 @@
         <v>242</v>
       </c>
       <c r="B1008" s="6" t="s">
-        <v>1562</v>
+        <v>578</v>
       </c>
       <c r="C1008" s="8" t="str">
         <f>CONCATENATE(E1008,F1008,G1008,H1008,I1008,J1008,K1008)</f>
-        <v>'x</v>
+        <v>wtsw</v>
       </c>
       <c r="D1008" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E1008" s="5" t="s">
-        <v>1249</v>
+        <v>668</v>
+      </c>
+      <c r="E1008" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="F1008" s="4" t="s">
-        <v>1246</v>
+        <v>930</v>
+      </c>
+      <c r="G1008" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H1008" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -30283,19 +30336,19 @@
       </c>
       <c r="C1009" s="8" t="str">
         <f>CONCATENATE(E1009,F1009,G1009,H1009,I1009,J1009,K1009)</f>
-        <v>'sh</v>
+        <v>thx</v>
       </c>
       <c r="D1009" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1009" s="5" t="s">
-        <v>1249</v>
+        <v>660</v>
+      </c>
+      <c r="E1009" s="4" t="s">
+        <v>930</v>
       </c>
       <c r="F1009" s="4" t="s">
-        <v>951</v>
+        <v>1248</v>
       </c>
       <c r="G1009" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -30307,16 +30360,16 @@
       </c>
       <c r="C1010" s="8" t="str">
         <f>CONCATENATE(E1010,F1010,G1010,H1010,I1010,J1010,K1010)</f>
-        <v>'z</v>
+        <v>'k</v>
       </c>
       <c r="D1010" s="9" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E1010" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="F1010" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -30328,19 +30381,16 @@
       </c>
       <c r="C1011" s="8" t="str">
         <f>CONCATENATE(E1011,F1011,G1011,H1011,I1011,J1011,K1011)</f>
-        <v>'ch</v>
+        <v>'g</v>
       </c>
       <c r="D1011" s="9" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E1011" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="F1011" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G1011" s="4" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -30352,16 +30402,16 @@
       </c>
       <c r="C1012" s="8" t="str">
         <f>CONCATENATE(E1012,F1012,G1012,H1012,I1012,J1012,K1012)</f>
-        <v>'t</v>
+        <v>'x</v>
       </c>
       <c r="D1012" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E1012" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="F1012" s="4" t="s">
-        <v>930</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -30373,16 +30423,19 @@
       </c>
       <c r="C1013" s="8" t="str">
         <f>CONCATENATE(E1013,F1013,G1013,H1013,I1013,J1013,K1013)</f>
-        <v>'d</v>
+        <v>'sh</v>
       </c>
       <c r="D1013" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E1013" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="F1013" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
+      </c>
+      <c r="G1013" s="4" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -30394,16 +30447,16 @@
       </c>
       <c r="C1014" s="8" t="str">
         <f>CONCATENATE(E1014,F1014,G1014,H1014,I1014,J1014,K1014)</f>
-        <v>'b</v>
+        <v>'z</v>
       </c>
       <c r="D1014" s="9" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="E1014" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="F1014" s="4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -30415,16 +30468,19 @@
       </c>
       <c r="C1015" s="8" t="str">
         <f>CONCATENATE(E1015,F1015,G1015,H1015,I1015,J1015,K1015)</f>
-        <v>'p</v>
+        <v>'ch</v>
       </c>
       <c r="D1015" s="9" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E1015" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="F1015" s="4" t="s">
-        <v>955</v>
+        <v>1240</v>
+      </c>
+      <c r="G1015" s="4" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -30436,19 +30492,16 @@
       </c>
       <c r="C1016" s="8" t="str">
         <f>CONCATENATE(E1016,F1016,G1016,H1016,I1016,J1016,K1016)</f>
-        <v>why</v>
+        <v>'t</v>
       </c>
       <c r="D1016" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E1016" s="4" t="s">
-        <v>959</v>
+        <v>678</v>
+      </c>
+      <c r="E1016" s="5" t="s">
+        <v>1249</v>
       </c>
       <c r="F1016" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G1016" s="4" t="s">
-        <v>1247</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -30460,19 +30513,16 @@
       </c>
       <c r="C1017" s="8" t="str">
         <f>CONCATENATE(E1017,F1017,G1017,H1017,I1017,J1017,K1017)</f>
-        <v>'tc</v>
+        <v>'d</v>
       </c>
       <c r="D1017" s="9" t="s">
-        <v>1108</v>
+        <v>673</v>
       </c>
       <c r="E1017" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="F1017" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G1017" s="5" t="s">
-        <v>1265</v>
+      <c r="F1017" s="4" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -30484,19 +30534,16 @@
       </c>
       <c r="C1018" s="8" t="str">
         <f>CONCATENATE(E1018,F1018,G1018,H1018,I1018,J1018,K1018)</f>
-        <v>wht</v>
+        <v>'b</v>
       </c>
       <c r="D1018" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E1018" s="4" t="s">
-        <v>959</v>
+        <v>671</v>
+      </c>
+      <c r="E1018" s="5" t="s">
+        <v>1249</v>
       </c>
       <c r="F1018" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G1018" s="4" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -30508,22 +30555,16 @@
       </c>
       <c r="C1019" s="8" t="str">
         <f>CONCATENATE(E1019,F1019,G1019,H1019,I1019,J1019,K1019)</f>
-        <v>whtk</v>
+        <v>'p</v>
       </c>
       <c r="D1019" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E1019" s="4" t="s">
-        <v>959</v>
+        <v>676</v>
+      </c>
+      <c r="E1019" s="5" t="s">
+        <v>1249</v>
       </c>
       <c r="F1019" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G1019" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H1019" s="4" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -30535,10 +30576,10 @@
       </c>
       <c r="C1020" s="8" t="str">
         <f>CONCATENATE(E1020,F1020,G1020,H1020,I1020,J1020,K1020)</f>
-        <v>whtg</v>
+        <v>why</v>
       </c>
       <c r="D1020" s="9" t="s">
-        <v>1225</v>
+        <v>1107</v>
       </c>
       <c r="E1020" s="4" t="s">
         <v>959</v>
@@ -30547,10 +30588,7 @@
         <v>1248</v>
       </c>
       <c r="G1020" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H1020" s="4" t="s">
-        <v>950</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -30562,22 +30600,19 @@
       </c>
       <c r="C1021" s="8" t="str">
         <f>CONCATENATE(E1021,F1021,G1021,H1021,I1021,J1021,K1021)</f>
-        <v>whtd</v>
+        <v>'tc</v>
       </c>
       <c r="D1021" s="9" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E1021" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="F1021" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G1021" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H1021" s="4" t="s">
-        <v>953</v>
+        <v>1108</v>
+      </c>
+      <c r="E1021" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1021" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G1021" s="5" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -30589,16 +30624,19 @@
       </c>
       <c r="C1022" s="8" t="str">
         <f>CONCATENATE(E1022,F1022,G1022,H1022,I1022,J1022,K1022)</f>
-        <v>dy</v>
+        <v>wht</v>
       </c>
       <c r="D1022" s="9" t="s">
-        <v>536</v>
+        <v>1106</v>
       </c>
       <c r="E1022" s="4" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="F1022" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
+      </c>
+      <c r="G1022" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -30610,16 +30648,22 @@
       </c>
       <c r="C1023" s="8" t="str">
         <f>CONCATENATE(E1023,F1023,G1023,H1023,I1023,J1023,K1023)</f>
-        <v>vw</v>
+        <v>whtk</v>
       </c>
       <c r="D1023" s="9" t="s">
-        <v>462</v>
+        <v>1224</v>
       </c>
       <c r="E1023" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F1023" s="5" t="s">
-        <v>944</v>
+        <v>959</v>
+      </c>
+      <c r="F1023" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G1023" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H1023" s="4" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -30631,19 +30675,25 @@
       </c>
       <c r="C1024" s="8" t="str">
         <f>CONCATENATE(E1024,F1024,G1024,H1024,I1024,J1024,K1024)</f>
-        <v>fw</v>
+        <v>whtg</v>
       </c>
       <c r="D1024" s="9" t="s">
-        <v>390</v>
+        <v>1225</v>
       </c>
       <c r="E1024" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F1024" s="5" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:7">
+        <v>959</v>
+      </c>
+      <c r="F1024" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G1024" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H1024" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8">
       <c r="A1025" s="6" t="s">
         <v>242</v>
       </c>
@@ -30652,22 +30702,25 @@
       </c>
       <c r="C1025" s="8" t="str">
         <f>CONCATENATE(E1025,F1025,G1025,H1025,I1025,J1025,K1025)</f>
-        <v>'ng</v>
+        <v>whtd</v>
       </c>
       <c r="D1025" s="9" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E1025" s="5" t="s">
-        <v>1249</v>
+        <v>1226</v>
+      </c>
+      <c r="E1025" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="F1025" s="4" t="s">
-        <v>932</v>
+        <v>1248</v>
       </c>
       <c r="G1025" s="4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:7">
+        <v>930</v>
+      </c>
+      <c r="H1025" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8">
       <c r="A1026" s="6" t="s">
         <v>242</v>
       </c>
@@ -30676,115 +30729,106 @@
       </c>
       <c r="C1026" s="8" t="str">
         <f>CONCATENATE(E1026,F1026,G1026,H1026,I1026,J1026,K1026)</f>
-        <v>rr</v>
+        <v>dy</v>
       </c>
       <c r="D1026" s="9" t="s">
-        <v>7</v>
+        <v>536</v>
       </c>
       <c r="E1026" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="F1026" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:7">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8">
       <c r="A1027" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B1027" s="6" t="s">
-        <v>681</v>
+        <v>1562</v>
       </c>
       <c r="C1027" s="8" t="str">
         <f>CONCATENATE(E1027,F1027,G1027,H1027,I1027,J1027,K1027)</f>
-        <v>''-</v>
+        <v>vw</v>
       </c>
       <c r="D1027" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="E1027" s="5" t="s">
-        <v>1249</v>
+        <v>462</v>
+      </c>
+      <c r="E1027" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="F1027" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G1027" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:7">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8">
       <c r="A1028" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B1028" s="6" t="s">
-        <v>681</v>
+        <v>1562</v>
       </c>
       <c r="C1028" s="8" t="str">
         <f>CONCATENATE(E1028,F1028,G1028,H1028,I1028,J1028,K1028)</f>
-        <v>''/</v>
+        <v>fw</v>
       </c>
       <c r="D1028" s="9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E1028" s="5" t="s">
-        <v>1249</v>
+        <v>390</v>
+      </c>
+      <c r="E1028" s="4" t="s">
+        <v>1241</v>
       </c>
       <c r="F1028" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G1028" s="4" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:7">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8">
       <c r="A1029" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B1029" s="6" t="s">
-        <v>681</v>
+        <v>1562</v>
       </c>
       <c r="C1029" s="8" t="str">
         <f>CONCATENATE(E1029,F1029,G1029,H1029,I1029,J1029,K1029)</f>
-        <v>'']</v>
+        <v>'ng</v>
       </c>
       <c r="D1029" s="9" t="s">
-        <v>686</v>
+        <v>1310</v>
       </c>
       <c r="E1029" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="F1029" s="5" t="s">
-        <v>1249</v>
+      <c r="F1029" s="4" t="s">
+        <v>932</v>
       </c>
       <c r="G1029" s="4" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:7">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8">
       <c r="A1030" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B1030" s="6" t="s">
-        <v>681</v>
+        <v>1562</v>
       </c>
       <c r="C1030" s="8" t="str">
         <f>CONCATENATE(E1030,F1030,G1030,H1030,I1030,J1030,K1030)</f>
-        <v>''[</v>
+        <v>rr</v>
       </c>
       <c r="D1030" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="E1030" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F1030" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G1030" s="4" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="E1030" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="F1030" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8">
       <c r="A1031" s="6" t="s">
         <v>242</v>
       </c>
@@ -30793,10 +30837,10 @@
       </c>
       <c r="C1031" s="8" t="str">
         <f>CONCATENATE(E1031,F1031,G1031,H1031,I1031,J1031,K1031)</f>
-        <v>''(</v>
+        <v>''-</v>
       </c>
       <c r="D1031" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E1031" s="5" t="s">
         <v>1249</v>
@@ -30805,10 +30849,10 @@
         <v>1249</v>
       </c>
       <c r="G1031" s="4" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8">
       <c r="A1032" s="6" t="s">
         <v>242</v>
       </c>
@@ -30817,10 +30861,10 @@
       </c>
       <c r="C1032" s="8" t="str">
         <f>CONCATENATE(E1032,F1032,G1032,H1032,I1032,J1032,K1032)</f>
-        <v>'')</v>
+        <v>''/</v>
       </c>
       <c r="D1032" s="9" t="s">
-        <v>684</v>
+        <v>1233</v>
       </c>
       <c r="E1032" s="5" t="s">
         <v>1249</v>
@@ -30829,10 +30873,10 @@
         <v>1249</v>
       </c>
       <c r="G1032" s="4" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:7">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8">
       <c r="A1033" s="6" t="s">
         <v>242</v>
       </c>
@@ -30841,10 +30885,10 @@
       </c>
       <c r="C1033" s="8" t="str">
         <f>CONCATENATE(E1033,F1033,G1033,H1033,I1033,J1033,K1033)</f>
-        <v>''k</v>
+        <v>'']</v>
       </c>
       <c r="D1033" s="9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E1033" s="5" t="s">
         <v>1249</v>
@@ -30853,10 +30897,10 @@
         <v>1249</v>
       </c>
       <c r="G1033" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:7">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8">
       <c r="A1034" s="6" t="s">
         <v>242</v>
       </c>
@@ -30865,10 +30909,10 @@
       </c>
       <c r="C1034" s="8" t="str">
         <f>CONCATENATE(E1034,F1034,G1034,H1034,I1034,J1034,K1034)</f>
-        <v>''l</v>
+        <v>''[</v>
       </c>
       <c r="D1034" s="9" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E1034" s="5" t="s">
         <v>1249</v>
@@ -30877,10 +30921,10 @@
         <v>1249</v>
       </c>
       <c r="G1034" s="4" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:7">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8">
       <c r="A1035" s="6" t="s">
         <v>242</v>
       </c>
@@ -30889,10 +30933,10 @@
       </c>
       <c r="C1035" s="8" t="str">
         <f>CONCATENATE(E1035,F1035,G1035,H1035,I1035,J1035,K1035)</f>
-        <v>''j</v>
+        <v>''(</v>
       </c>
       <c r="D1035" s="9" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E1035" s="5" t="s">
         <v>1249</v>
@@ -30901,10 +30945,10 @@
         <v>1249</v>
       </c>
       <c r="G1035" s="4" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:7">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8">
       <c r="A1036" s="6" t="s">
         <v>242</v>
       </c>
@@ -30913,10 +30957,10 @@
       </c>
       <c r="C1036" s="8" t="str">
         <f>CONCATENATE(E1036,F1036,G1036,H1036,I1036,J1036,K1036)</f>
-        <v>''h</v>
+        <v>'')</v>
       </c>
       <c r="D1036" s="9" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E1036" s="5" t="s">
         <v>1249</v>
@@ -30925,10 +30969,10 @@
         <v>1249</v>
       </c>
       <c r="G1036" s="4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:7">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8">
       <c r="A1037" s="6" t="s">
         <v>242</v>
       </c>
@@ -30937,10 +30981,10 @@
       </c>
       <c r="C1037" s="8" t="str">
         <f>CONCATENATE(E1037,F1037,G1037,H1037,I1037,J1037,K1037)</f>
-        <v>''"</v>
+        <v>''k</v>
       </c>
       <c r="D1037" s="9" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E1037" s="5" t="s">
         <v>1249</v>
@@ -30949,14 +30993,104 @@
         <v>1249</v>
       </c>
       <c r="G1037" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8">
+      <c r="A1038" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1038" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1038" s="8" t="str">
+        <f>CONCATENATE(E1038,F1038,G1038,H1038,I1038,J1038,K1038)</f>
+        <v>''l</v>
+      </c>
+      <c r="D1038" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E1038" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1038" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G1038" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8">
+      <c r="A1039" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1039" s="8" t="str">
+        <f>CONCATENATE(E1039,F1039,G1039,H1039,I1039,J1039,K1039)</f>
+        <v>''j</v>
+      </c>
+      <c r="D1039" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1039" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1039" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G1039" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8">
+      <c r="A1040" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1040" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1040" s="8" t="str">
+        <f>CONCATENATE(E1040,F1040,G1040,H1040,I1040,J1040,K1040)</f>
+        <v>''h</v>
+      </c>
+      <c r="D1040" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1040" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1040" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G1040" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7">
+      <c r="A1041" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1041" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1041" s="8" t="str">
+        <f>CONCATENATE(E1041,F1041,G1041,H1041,I1041,J1041,K1041)</f>
+        <v>''"</v>
+      </c>
+      <c r="D1041" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1041" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1041" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G1041" s="4" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="1824" spans="5:5">
-      <c r="E1824" s="5"/>
-    </row>
-    <row r="1826" spans="5:5">
-      <c r="E1826" s="5"/>
     </row>
     <row r="1828" spans="5:5">
       <c r="E1828" s="5"/>
@@ -30979,16 +31113,14 @@
     <row r="1840" spans="5:5">
       <c r="E1840" s="5"/>
     </row>
-    <row r="1842" spans="5:6">
+    <row r="1842" spans="5:5">
       <c r="E1842" s="5"/>
     </row>
-    <row r="1854" spans="5:6">
-      <c r="E1854" s="5"/>
-      <c r="F1854" s="5"/>
-    </row>
-    <row r="1856" spans="5:6">
-      <c r="E1856" s="5"/>
-      <c r="F1856" s="5"/>
+    <row r="1844" spans="5:5">
+      <c r="E1844" s="5"/>
+    </row>
+    <row r="1846" spans="5:5">
+      <c r="E1846" s="5"/>
     </row>
     <row r="1858" spans="5:6">
       <c r="E1858" s="5"/>
@@ -31022,35 +31154,43 @@
       <c r="E1872" s="5"/>
       <c r="F1872" s="5"/>
     </row>
+    <row r="1874" spans="5:6">
+      <c r="E1874" s="5"/>
+      <c r="F1874" s="5"/>
+    </row>
+    <row r="1876" spans="5:6">
+      <c r="E1876" s="5"/>
+      <c r="F1876" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1872">
-    <sortState ref="A2:K1872">
-      <sortCondition ref="B1:B1872"/>
+  <autoFilter ref="A1:K1876">
+    <sortState ref="A2:K1876">
+      <sortCondition ref="B1:B1876"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="D985 C952:C1048576 C942:C949 C1:C939">
-    <cfRule type="expression" dxfId="8" priority="58">
+  <conditionalFormatting sqref="D989 C956:C1048576 C946:C953 C1:C943">
+    <cfRule type="expression" dxfId="8" priority="60">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C951">
-    <cfRule type="expression" dxfId="7" priority="15">
+  <conditionalFormatting sqref="C955">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C950">
-    <cfRule type="expression" dxfId="6" priority="14">
+  <conditionalFormatting sqref="C954">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C941">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="C945">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C940">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="C944">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(INDIRECT(ADDRESS(0,0,4,0),0)&lt;&gt;"",COUNTIF($C:$C,INDIRECT(ADDRESS(0,0,4,0),0))&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EARCT-rsch.xlsx
+++ b/EARCT-rsch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54150" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="56400" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="40" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="基本_old" sheetId="29" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$Q$1101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基本!$A$1:$Q$1103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">基本_old!$A$1:$K$1838</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15883" uniqueCount="3637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15900" uniqueCount="3648">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -11723,6 +11723,50 @@
   </si>
   <si>
     <t>h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ざん</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ザン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ｻﾞﾝ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>できず</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>デキズ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ﾃﾞｷｽﾞ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>できずに</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>デキズニ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ﾃﾞｷｽﾞﾆ</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -12323,12 +12367,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1936"/>
+  <dimension ref="A1:Q1938"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1051" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1053" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D1101"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -27498,13 +27542,13 @@
         <v>zn</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>341</v>
+        <v>3637</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>1931</v>
+        <v>3638</v>
       </c>
       <c r="F403" s="4" t="s">
-        <v>2786</v>
+        <v>3639</v>
       </c>
       <c r="G403" s="4" t="s">
         <v>952</v>
@@ -47157,16 +47201,16 @@
       </c>
       <c r="C921" s="8" t="str">
         <f>CONCATENATE(G921,H921,I921,J921,K921,L921,M921)</f>
-        <v>dkn</v>
+        <v>dkz</v>
       </c>
       <c r="D921" s="9" t="s">
-        <v>1303</v>
+        <v>3640</v>
       </c>
       <c r="E921" s="4" t="s">
-        <v>2381</v>
+        <v>3641</v>
       </c>
       <c r="F921" s="4" t="s">
-        <v>3236</v>
+        <v>3642</v>
       </c>
       <c r="G921" s="4" t="s">
         <v>953</v>
@@ -47175,7 +47219,7 @@
         <v>949</v>
       </c>
       <c r="I921" s="4" t="s">
-        <v>932</v>
+        <v>3643</v>
       </c>
       <c r="J921" s="4"/>
       <c r="K921" s="4"/>
@@ -47195,16 +47239,16 @@
       </c>
       <c r="C922" s="8" t="str">
         <f>CONCATENATE(G922,H922,I922,J922,K922,L922,M922)</f>
-        <v>dknf</v>
+        <v>dkzn</v>
       </c>
       <c r="D922" s="9" t="s">
-        <v>1299</v>
+        <v>3645</v>
       </c>
       <c r="E922" s="4" t="s">
-        <v>2382</v>
+        <v>3646</v>
       </c>
       <c r="F922" s="4" t="s">
-        <v>3237</v>
+        <v>3647</v>
       </c>
       <c r="G922" s="4" t="s">
         <v>953</v>
@@ -47213,10 +47257,10 @@
         <v>949</v>
       </c>
       <c r="I922" s="4" t="s">
-        <v>932</v>
+        <v>3643</v>
       </c>
       <c r="J922" s="4" t="s">
-        <v>942</v>
+        <v>3644</v>
       </c>
       <c r="K922" s="4"/>
       <c r="L922" s="4"/>
@@ -47235,16 +47279,16 @@
       </c>
       <c r="C923" s="8" t="str">
         <f>CONCATENATE(G923,H923,I923,J923,K923,L923,M923)</f>
-        <v>dknktt</v>
+        <v>dkn</v>
       </c>
       <c r="D923" s="9" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E923" s="4" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F923" s="4" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="G923" s="4" t="s">
         <v>953</v>
@@ -47255,15 +47299,9 @@
       <c r="I923" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="J923" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K923" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="L923" s="4" t="s">
-        <v>1255</v>
-      </c>
+      <c r="J923" s="4"/>
+      <c r="K923" s="4"/>
+      <c r="L923" s="4"/>
       <c r="M923" s="4"/>
       <c r="N923" s="4"/>
       <c r="O923" s="4"/>
@@ -47279,16 +47317,16 @@
       </c>
       <c r="C924" s="8" t="str">
         <f>CONCATENATE(G924,H924,I924,J924,K924,L924,M924)</f>
-        <v>dkms</v>
+        <v>dknf</v>
       </c>
       <c r="D924" s="9" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="E924" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F924" s="4" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="G924" s="4" t="s">
         <v>953</v>
@@ -47297,10 +47335,10 @@
         <v>949</v>
       </c>
       <c r="I924" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="J924" s="4" t="s">
-        <v>1284</v>
+        <v>942</v>
       </c>
       <c r="K924" s="4"/>
       <c r="L924" s="4"/>
@@ -47319,16 +47357,16 @@
       </c>
       <c r="C925" s="8" t="str">
         <f>CONCATENATE(G925,H925,I925,J925,K925,L925,M925)</f>
-        <v>dkmsd</v>
+        <v>dknktt</v>
       </c>
       <c r="D925" s="9" t="s">
-        <v>1283</v>
+        <v>1306</v>
       </c>
       <c r="E925" s="4" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F925" s="4" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="G925" s="4" t="s">
         <v>953</v>
@@ -47337,15 +47375,17 @@
         <v>949</v>
       </c>
       <c r="I925" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="J925" s="4" t="s">
-        <v>1284</v>
+        <v>1256</v>
       </c>
       <c r="K925" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="L925" s="4"/>
+        <v>1255</v>
+      </c>
+      <c r="L925" s="4" t="s">
+        <v>1255</v>
+      </c>
       <c r="M925" s="4"/>
       <c r="N925" s="4"/>
       <c r="O925" s="4"/>
@@ -47361,16 +47401,16 @@
       </c>
       <c r="C926" s="8" t="str">
         <f>CONCATENATE(G926,H926,I926,J926,K926,L926,M926)</f>
-        <v>dkmsdk</v>
+        <v>dkms</v>
       </c>
       <c r="D926" s="9" t="s">
-        <v>3602</v>
+        <v>1307</v>
       </c>
       <c r="E926" s="4" t="s">
-        <v>3603</v>
+        <v>2384</v>
       </c>
       <c r="F926" s="4" t="s">
-        <v>3604</v>
+        <v>3239</v>
       </c>
       <c r="G926" s="4" t="s">
         <v>953</v>
@@ -47384,12 +47424,8 @@
       <c r="J926" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="K926" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="L926" s="4" t="s">
-        <v>3598</v>
-      </c>
+      <c r="K926" s="4"/>
+      <c r="L926" s="4"/>
       <c r="M926" s="4"/>
       <c r="N926" s="4"/>
       <c r="O926" s="4"/>
@@ -47405,16 +47441,16 @@
       </c>
       <c r="C927" s="8" t="str">
         <f>CONCATENATE(G927,H927,I927,J927,K927,L927,M927)</f>
-        <v>dkmsdg</v>
+        <v>dkmsd</v>
       </c>
       <c r="D927" s="9" t="s">
-        <v>3605</v>
+        <v>1283</v>
       </c>
       <c r="E927" s="4" t="s">
-        <v>3606</v>
+        <v>2385</v>
       </c>
       <c r="F927" s="4" t="s">
-        <v>3607</v>
+        <v>3240</v>
       </c>
       <c r="G927" s="4" t="s">
         <v>953</v>
@@ -47431,9 +47467,7 @@
       <c r="K927" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="L927" s="4" t="s">
-        <v>3608</v>
-      </c>
+      <c r="L927" s="4"/>
       <c r="M927" s="4"/>
       <c r="N927" s="4"/>
       <c r="O927" s="4"/>
@@ -47449,16 +47483,16 @@
       </c>
       <c r="C928" s="8" t="str">
         <f>CONCATENATE(G928,H928,I928,J928,K928,L928,M928)</f>
-        <v>dkr</v>
+        <v>dkmsdk</v>
       </c>
       <c r="D928" s="9" t="s">
-        <v>1185</v>
+        <v>3602</v>
       </c>
       <c r="E928" s="4" t="s">
-        <v>2386</v>
+        <v>3603</v>
       </c>
       <c r="F928" s="4" t="s">
-        <v>3241</v>
+        <v>3604</v>
       </c>
       <c r="G928" s="4" t="s">
         <v>953</v>
@@ -47467,11 +47501,17 @@
         <v>949</v>
       </c>
       <c r="I928" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="J928" s="4"/>
-      <c r="K928" s="4"/>
-      <c r="L928" s="4"/>
+        <v>936</v>
+      </c>
+      <c r="J928" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K928" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="L928" s="4" t="s">
+        <v>3598</v>
+      </c>
       <c r="M928" s="4"/>
       <c r="N928" s="4"/>
       <c r="O928" s="4"/>
@@ -47487,16 +47527,16 @@
       </c>
       <c r="C929" s="8" t="str">
         <f>CONCATENATE(G929,H929,I929,J929,K929,L929,M929)</f>
-        <v>dklb</v>
+        <v>dkmsdg</v>
       </c>
       <c r="D929" s="9" t="s">
-        <v>1216</v>
+        <v>3605</v>
       </c>
       <c r="E929" s="4" t="s">
-        <v>2387</v>
+        <v>3606</v>
       </c>
       <c r="F929" s="4" t="s">
-        <v>3242</v>
+        <v>3607</v>
       </c>
       <c r="G929" s="4" t="s">
         <v>953</v>
@@ -47505,13 +47545,17 @@
         <v>949</v>
       </c>
       <c r="I929" s="4" t="s">
-        <v>1245</v>
+        <v>936</v>
       </c>
       <c r="J929" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="K929" s="4"/>
-      <c r="L929" s="4"/>
+        <v>1284</v>
+      </c>
+      <c r="K929" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="L929" s="4" t="s">
+        <v>3608</v>
+      </c>
       <c r="M929" s="4"/>
       <c r="N929" s="4"/>
       <c r="O929" s="4"/>
@@ -47527,25 +47571,25 @@
       </c>
       <c r="C930" s="8" t="str">
         <f>CONCATENATE(G930,H930,I930,J930,K930,L930,M930)</f>
-        <v>dxt</v>
+        <v>dkr</v>
       </c>
       <c r="D930" s="9" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E930" s="4" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F930" s="4" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="G930" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H930" s="4" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="I930" s="4" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="J930" s="4"/>
       <c r="K930" s="4"/>
@@ -47565,28 +47609,28 @@
       </c>
       <c r="C931" s="8" t="str">
         <f>CONCATENATE(G931,H931,I931,J931,K931,L931,M931)</f>
-        <v>dxtg</v>
+        <v>dklb</v>
       </c>
       <c r="D931" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E931" s="4" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="F931" s="4" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="G931" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H931" s="4" t="s">
-        <v>1263</v>
+        <v>949</v>
       </c>
       <c r="I931" s="4" t="s">
-        <v>930</v>
+        <v>1245</v>
       </c>
       <c r="J931" s="4" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="K931" s="4"/>
       <c r="L931" s="4"/>
@@ -47605,16 +47649,16 @@
       </c>
       <c r="C932" s="8" t="str">
         <f>CONCATENATE(G932,H932,I932,J932,K932,L932,M932)</f>
-        <v>dxtnd</v>
+        <v>dxt</v>
       </c>
       <c r="D932" s="9" t="s">
-        <v>3620</v>
+        <v>1187</v>
       </c>
       <c r="E932" s="4" t="s">
-        <v>3621</v>
+        <v>2388</v>
       </c>
       <c r="F932" s="4" t="s">
-        <v>3622</v>
+        <v>3243</v>
       </c>
       <c r="G932" s="4" t="s">
         <v>953</v>
@@ -47625,12 +47669,8 @@
       <c r="I932" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="J932" s="4" t="s">
-        <v>3619</v>
-      </c>
-      <c r="K932" s="4" t="s">
-        <v>3614</v>
-      </c>
+      <c r="J932" s="4"/>
+      <c r="K932" s="4"/>
       <c r="L932" s="4"/>
       <c r="M932" s="4"/>
       <c r="N932" s="4"/>
@@ -47647,16 +47687,16 @@
       </c>
       <c r="C933" s="8" t="str">
         <f>CONCATENATE(G933,H933,I933,J933,K933,L933,M933)</f>
-        <v>dxtr</v>
+        <v>dxtg</v>
       </c>
       <c r="D933" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E933" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="F933" s="4" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="G933" s="4" t="s">
         <v>953</v>
@@ -47668,7 +47708,7 @@
         <v>930</v>
       </c>
       <c r="J933" s="4" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="K933" s="4"/>
       <c r="L933" s="4"/>
@@ -47687,16 +47727,16 @@
       </c>
       <c r="C934" s="8" t="str">
         <f>CONCATENATE(G934,H934,I934,J934,K934,L934,M934)</f>
-        <v>dxtl</v>
+        <v>dxtnd</v>
       </c>
       <c r="D934" s="9" t="s">
-        <v>1642</v>
+        <v>3620</v>
       </c>
       <c r="E934" s="4" t="s">
-        <v>2391</v>
+        <v>3621</v>
       </c>
       <c r="F934" s="4" t="s">
-        <v>3246</v>
+        <v>3622</v>
       </c>
       <c r="G934" s="4" t="s">
         <v>953</v>
@@ -47705,12 +47745,14 @@
         <v>1263</v>
       </c>
       <c r="I934" s="4" t="s">
-        <v>1255</v>
+        <v>930</v>
       </c>
       <c r="J934" s="4" t="s">
-        <v>3480</v>
-      </c>
-      <c r="K934" s="4"/>
+        <v>3619</v>
+      </c>
+      <c r="K934" s="4" t="s">
+        <v>3614</v>
+      </c>
       <c r="L934" s="4"/>
       <c r="M934" s="4"/>
       <c r="N934" s="4"/>
@@ -47727,16 +47769,16 @@
       </c>
       <c r="C935" s="8" t="str">
         <f>CONCATENATE(G935,H935,I935,J935,K935,L935,M935)</f>
-        <v>dxv</v>
+        <v>dxtr</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>599</v>
+        <v>1218</v>
       </c>
       <c r="E935" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="F935" s="4" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="G935" s="4" t="s">
         <v>953</v>
@@ -47745,9 +47787,11 @@
         <v>1263</v>
       </c>
       <c r="I935" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J935" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="J935" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="K935" s="4"/>
       <c r="L935" s="4"/>
       <c r="M935" s="4"/>
@@ -47765,16 +47809,16 @@
       </c>
       <c r="C936" s="8" t="str">
         <f>CONCATENATE(G936,H936,I936,J936,K936,L936,M936)</f>
-        <v>dxvk</v>
+        <v>dxtl</v>
       </c>
       <c r="D936" s="9" t="s">
-        <v>1219</v>
+        <v>1642</v>
       </c>
       <c r="E936" s="4" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F936" s="4" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="G936" s="4" t="s">
         <v>953</v>
@@ -47783,10 +47827,10 @@
         <v>1263</v>
       </c>
       <c r="I936" s="4" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="J936" s="4" t="s">
-        <v>949</v>
+        <v>3480</v>
       </c>
       <c r="K936" s="4"/>
       <c r="L936" s="4"/>
@@ -47805,24 +47849,26 @@
       </c>
       <c r="C937" s="8" t="str">
         <f>CONCATENATE(G937,H937,I937,J937,K937,L937,M937)</f>
-        <v>ds</v>
+        <v>dxv</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E937" s="4" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="F937" s="4" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="G937" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H937" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I937" s="4"/>
+        <v>1263</v>
+      </c>
+      <c r="I937" s="4" t="s">
+        <v>1244</v>
+      </c>
       <c r="J937" s="4"/>
       <c r="K937" s="4"/>
       <c r="L937" s="4"/>
@@ -47841,27 +47887,29 @@
       </c>
       <c r="C938" s="8" t="str">
         <f>CONCATENATE(G938,H938,I938,J938,K938,L938,M938)</f>
-        <v>dsk</v>
+        <v>dxvk</v>
       </c>
       <c r="D938" s="9" t="s">
-        <v>1188</v>
+        <v>1219</v>
       </c>
       <c r="E938" s="4" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="F938" s="4" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="G938" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H938" s="4" t="s">
-        <v>951</v>
+        <v>1263</v>
       </c>
       <c r="I938" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J938" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="J938" s="4"/>
       <c r="K938" s="4"/>
       <c r="L938" s="4"/>
       <c r="M938" s="4"/>
@@ -47879,16 +47927,16 @@
       </c>
       <c r="C939" s="8" t="str">
         <f>CONCATENATE(G939,H939,I939,J939,K939,L939,M939)</f>
-        <v>dsg</v>
+        <v>ds</v>
       </c>
       <c r="D939" s="9" t="s">
-        <v>1186</v>
+        <v>596</v>
       </c>
       <c r="E939" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F939" s="4" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="G939" s="4" t="s">
         <v>953</v>
@@ -47896,9 +47944,7 @@
       <c r="H939" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="I939" s="4" t="s">
-        <v>950</v>
-      </c>
+      <c r="I939" s="4"/>
       <c r="J939" s="4"/>
       <c r="K939" s="4"/>
       <c r="L939" s="4"/>
@@ -47917,16 +47963,16 @@
       </c>
       <c r="C940" s="8" t="str">
         <f>CONCATENATE(G940,H940,I940,J940,K940,L940,M940)</f>
-        <v>dst</v>
+        <v>dsk</v>
       </c>
       <c r="D940" s="9" t="s">
-        <v>1220</v>
+        <v>1188</v>
       </c>
       <c r="E940" s="4" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="F940" s="4" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="G940" s="4" t="s">
         <v>953</v>
@@ -47935,7 +47981,7 @@
         <v>951</v>
       </c>
       <c r="I940" s="4" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="J940" s="4"/>
       <c r="K940" s="4"/>
@@ -47955,16 +48001,16 @@
       </c>
       <c r="C941" s="8" t="str">
         <f>CONCATENATE(G941,H941,I941,J941,K941,L941,M941)</f>
-        <v>dsnd</v>
+        <v>dsg</v>
       </c>
       <c r="D941" s="9" t="s">
-        <v>1675</v>
+        <v>1186</v>
       </c>
       <c r="E941" s="4" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="F941" s="4" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="G941" s="4" t="s">
         <v>953</v>
@@ -47973,11 +48019,9 @@
         <v>951</v>
       </c>
       <c r="I941" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="J941" s="4" t="s">
-        <v>1674</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="J941" s="4"/>
       <c r="K941" s="4"/>
       <c r="L941" s="4"/>
       <c r="M941" s="4"/>
@@ -47995,25 +48039,25 @@
       </c>
       <c r="C942" s="8" t="str">
         <f>CONCATENATE(G942,H942,I942,J942,K942,L942,M942)</f>
-        <v>tjh</v>
+        <v>dst</v>
       </c>
       <c r="D942" s="9" t="s">
-        <v>3457</v>
+        <v>1220</v>
       </c>
       <c r="E942" s="4" t="s">
-        <v>3460</v>
+        <v>2397</v>
       </c>
       <c r="F942" s="4" t="s">
-        <v>3461</v>
+        <v>3252</v>
       </c>
       <c r="G942" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H942" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="I942" s="4" t="s">
         <v>930</v>
-      </c>
-      <c r="H942" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I942" s="4" t="s">
-        <v>1259</v>
       </c>
       <c r="J942" s="4"/>
       <c r="K942" s="4"/>
@@ -48033,27 +48077,29 @@
       </c>
       <c r="C943" s="8" t="str">
         <f>CONCATENATE(G943,H943,I943,J943,K943,L943,M943)</f>
-        <v>djh</v>
+        <v>dsnd</v>
       </c>
       <c r="D943" s="9" t="s">
-        <v>582</v>
+        <v>1675</v>
       </c>
       <c r="E943" s="4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="F943" s="4" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="G943" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H943" s="4" t="s">
-        <v>3458</v>
+        <v>951</v>
       </c>
       <c r="I943" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J943" s="4"/>
+        <v>1673</v>
+      </c>
+      <c r="J943" s="4" t="s">
+        <v>1674</v>
+      </c>
       <c r="K943" s="4"/>
       <c r="L943" s="4"/>
       <c r="M943" s="4"/>
@@ -48071,25 +48117,25 @@
       </c>
       <c r="C944" s="8" t="str">
         <f>CONCATENATE(G944,H944,I944,J944,K944,L944,M944)</f>
-        <v>dhm</v>
+        <v>tjh</v>
       </c>
       <c r="D944" s="9" t="s">
-        <v>1288</v>
+        <v>3457</v>
       </c>
       <c r="E944" s="4" t="s">
-        <v>2400</v>
+        <v>3460</v>
       </c>
       <c r="F944" s="4" t="s">
-        <v>3255</v>
+        <v>3461</v>
       </c>
       <c r="G944" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="H944" s="4" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="I944" s="4" t="s">
-        <v>936</v>
+        <v>1259</v>
       </c>
       <c r="J944" s="4"/>
       <c r="K944" s="4"/>
@@ -48109,32 +48155,28 @@
       </c>
       <c r="C945" s="8" t="str">
         <f>CONCATENATE(G945,H945,I945,J945,K945,L945,M945)</f>
-        <v>thvrj</v>
+        <v>djh</v>
       </c>
       <c r="D945" s="9" t="s">
-        <v>3583</v>
+        <v>582</v>
       </c>
       <c r="E945" s="4" t="s">
-        <v>3584</v>
+        <v>2399</v>
       </c>
       <c r="F945" s="4" t="s">
-        <v>3587</v>
+        <v>3254</v>
       </c>
       <c r="G945" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="H945" s="4" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I945" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="I945" s="4" t="s">
-        <v>3588</v>
-      </c>
-      <c r="J945" s="4" t="s">
-        <v>3546</v>
-      </c>
-      <c r="K945" s="4" t="s">
-        <v>3553</v>
-      </c>
+      <c r="J945" s="4"/>
+      <c r="K945" s="4"/>
       <c r="L945" s="4"/>
       <c r="M945" s="4"/>
       <c r="N945" s="4"/>
@@ -48151,29 +48193,27 @@
       </c>
       <c r="C946" s="8" t="str">
         <f>CONCATENATE(G946,H946,I946,J946,K946,L946,M946)</f>
-        <v>thvr</v>
+        <v>dhm</v>
       </c>
       <c r="D946" s="9" t="s">
-        <v>3582</v>
+        <v>1288</v>
       </c>
       <c r="E946" s="4" t="s">
-        <v>3585</v>
+        <v>2400</v>
       </c>
       <c r="F946" s="4" t="s">
-        <v>3586</v>
+        <v>3255</v>
       </c>
       <c r="G946" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="H946" s="4" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="I946" s="4" t="s">
-        <v>3588</v>
-      </c>
-      <c r="J946" s="4" t="s">
-        <v>3546</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="J946" s="4"/>
       <c r="K946" s="4"/>
       <c r="L946" s="4"/>
       <c r="M946" s="4"/>
@@ -48191,28 +48231,32 @@
       </c>
       <c r="C947" s="8" t="str">
         <f>CONCATENATE(G947,H947,I947,J947,K947,L947,M947)</f>
-        <v>tjw</v>
+        <v>thvrj</v>
       </c>
       <c r="D947" s="9" t="s">
-        <v>661</v>
+        <v>3583</v>
       </c>
       <c r="E947" s="4" t="s">
-        <v>2401</v>
+        <v>3584</v>
       </c>
       <c r="F947" s="4" t="s">
-        <v>3256</v>
+        <v>3587</v>
       </c>
       <c r="G947" s="4" t="s">
         <v>930</v>
       </c>
       <c r="H947" s="4" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="I947" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="J947" s="4"/>
-      <c r="K947" s="4"/>
+        <v>3588</v>
+      </c>
+      <c r="J947" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="K947" s="4" t="s">
+        <v>3553</v>
+      </c>
       <c r="L947" s="4"/>
       <c r="M947" s="4"/>
       <c r="N947" s="4"/>
@@ -48229,28 +48273,28 @@
       </c>
       <c r="C948" s="8" t="str">
         <f>CONCATENATE(G948,H948,I948,J948,K948,L948,M948)</f>
-        <v>tjhb</v>
+        <v>thvr</v>
       </c>
       <c r="D948" s="9" t="s">
-        <v>3454</v>
+        <v>3582</v>
       </c>
       <c r="E948" s="4" t="s">
-        <v>3455</v>
+        <v>3585</v>
       </c>
       <c r="F948" s="4" t="s">
-        <v>3456</v>
+        <v>3586</v>
       </c>
       <c r="G948" s="4" t="s">
         <v>930</v>
       </c>
       <c r="H948" s="4" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="I948" s="4" t="s">
-        <v>3452</v>
+        <v>3588</v>
       </c>
       <c r="J948" s="4" t="s">
-        <v>3453</v>
+        <v>3546</v>
       </c>
       <c r="K948" s="4"/>
       <c r="L948" s="4"/>
@@ -48269,25 +48313,25 @@
       </c>
       <c r="C949" s="8" t="str">
         <f>CONCATENATE(G949,H949,I949,J949,K949,L949,M949)</f>
-        <v>thr</v>
+        <v>tjw</v>
       </c>
       <c r="D949" s="9" t="s">
-        <v>1189</v>
+        <v>661</v>
       </c>
       <c r="E949" s="4" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="F949" s="4" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="G949" s="4" t="s">
         <v>930</v>
       </c>
       <c r="H949" s="4" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="I949" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J949" s="4"/>
       <c r="K949" s="4"/>
@@ -48307,25 +48351,29 @@
       </c>
       <c r="C950" s="8" t="str">
         <f>CONCATENATE(G950,H950,I950,J950,K950,L950,M950)</f>
-        <v>tk</v>
+        <v>tjhb</v>
       </c>
       <c r="D950" s="9" t="s">
-        <v>1190</v>
+        <v>3454</v>
       </c>
       <c r="E950" s="4" t="s">
-        <v>2403</v>
+        <v>3455</v>
       </c>
       <c r="F950" s="4" t="s">
-        <v>3258</v>
+        <v>3456</v>
       </c>
       <c r="G950" s="4" t="s">
         <v>930</v>
       </c>
       <c r="H950" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I950" s="4"/>
-      <c r="J950" s="4"/>
+        <v>1242</v>
+      </c>
+      <c r="I950" s="4" t="s">
+        <v>3452</v>
+      </c>
+      <c r="J950" s="4" t="s">
+        <v>3453</v>
+      </c>
       <c r="K950" s="4"/>
       <c r="L950" s="4"/>
       <c r="M950" s="4"/>
@@ -48343,25 +48391,25 @@
       </c>
       <c r="C951" s="8" t="str">
         <f>CONCATENATE(G951,H951,I951,J951,K951,L951,M951)</f>
-        <v>tkn</v>
+        <v>thr</v>
       </c>
       <c r="D951" s="9" t="s">
-        <v>3626</v>
+        <v>1189</v>
       </c>
       <c r="E951" s="4" t="s">
-        <v>3628</v>
+        <v>2402</v>
       </c>
       <c r="F951" s="4" t="s">
-        <v>3629</v>
+        <v>3257</v>
       </c>
       <c r="G951" s="4" t="s">
         <v>930</v>
       </c>
       <c r="H951" s="4" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="I951" s="4" t="s">
-        <v>3635</v>
+        <v>958</v>
       </c>
       <c r="J951" s="4"/>
       <c r="K951" s="4"/>
@@ -48381,16 +48429,16 @@
       </c>
       <c r="C952" s="8" t="str">
         <f>CONCATENATE(G952,H952,I952,J952,K952,L952,M952)</f>
-        <v>tknh</v>
+        <v>tk</v>
       </c>
       <c r="D952" s="9" t="s">
-        <v>3627</v>
+        <v>1190</v>
       </c>
       <c r="E952" s="4" t="s">
-        <v>3630</v>
+        <v>2403</v>
       </c>
       <c r="F952" s="4" t="s">
-        <v>3631</v>
+        <v>3258</v>
       </c>
       <c r="G952" s="4" t="s">
         <v>930</v>
@@ -48398,12 +48446,8 @@
       <c r="H952" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="I952" s="4" t="s">
-        <v>3635</v>
-      </c>
-      <c r="J952" s="4" t="s">
-        <v>3636</v>
-      </c>
+      <c r="I952" s="4"/>
+      <c r="J952" s="4"/>
       <c r="K952" s="4"/>
       <c r="L952" s="4"/>
       <c r="M952" s="4"/>
@@ -48421,16 +48465,16 @@
       </c>
       <c r="C953" s="8" t="str">
         <f>CONCATENATE(G953,H953,I953,J953,K953,L953,M953)</f>
-        <v>tkh</v>
+        <v>tkn</v>
       </c>
       <c r="D953" s="9" t="s">
-        <v>3634</v>
+        <v>3626</v>
       </c>
       <c r="E953" s="4" t="s">
-        <v>3632</v>
+        <v>3628</v>
       </c>
       <c r="F953" s="4" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
       <c r="G953" s="4" t="s">
         <v>930</v>
@@ -48439,7 +48483,7 @@
         <v>1256</v>
       </c>
       <c r="I953" s="4" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="J953" s="4"/>
       <c r="K953" s="4"/>
@@ -48459,27 +48503,29 @@
       </c>
       <c r="C954" s="8" t="str">
         <f>CONCATENATE(G954,H954,I954,J954,K954,L954,M954)</f>
-        <v>thk</v>
+        <v>tknh</v>
       </c>
       <c r="D954" s="9" t="s">
-        <v>1221</v>
+        <v>3627</v>
       </c>
       <c r="E954" s="4" t="s">
-        <v>2404</v>
+        <v>3630</v>
       </c>
       <c r="F954" s="4" t="s">
-        <v>3259</v>
+        <v>3631</v>
       </c>
       <c r="G954" s="4" t="s">
         <v>930</v>
       </c>
       <c r="H954" s="4" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I954" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J954" s="4"/>
+        <v>3635</v>
+      </c>
+      <c r="J954" s="4" t="s">
+        <v>3636</v>
+      </c>
       <c r="K954" s="4"/>
       <c r="L954" s="4"/>
       <c r="M954" s="4"/>
@@ -48497,25 +48543,25 @@
       </c>
       <c r="C955" s="8" t="str">
         <f>CONCATENATE(G955,H955,I955,J955,K955,L955,M955)</f>
-        <v>dpk</v>
+        <v>tkh</v>
       </c>
       <c r="D955" s="9" t="s">
-        <v>588</v>
+        <v>3634</v>
       </c>
       <c r="E955" s="4" t="s">
-        <v>2405</v>
+        <v>3632</v>
       </c>
       <c r="F955" s="4" t="s">
-        <v>3260</v>
+        <v>3633</v>
       </c>
       <c r="G955" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="H955" s="4" t="s">
-        <v>940</v>
+        <v>1256</v>
       </c>
       <c r="I955" s="4" t="s">
-        <v>949</v>
+        <v>3636</v>
       </c>
       <c r="J955" s="4"/>
       <c r="K955" s="4"/>
@@ -48535,29 +48581,27 @@
       </c>
       <c r="C956" s="8" t="str">
         <f>CONCATENATE(G956,H956,I956,J956,K956,L956,M956)</f>
-        <v>dpkg</v>
+        <v>thk</v>
       </c>
       <c r="D956" s="9" t="s">
-        <v>1141</v>
+        <v>1221</v>
       </c>
       <c r="E956" s="4" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="F956" s="4" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="G956" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="H956" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="I956" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="J956" s="4" t="s">
-        <v>950</v>
-      </c>
+      <c r="J956" s="4"/>
       <c r="K956" s="4"/>
       <c r="L956" s="4"/>
       <c r="M956" s="4"/>
@@ -48575,16 +48619,16 @@
       </c>
       <c r="C957" s="8" t="str">
         <f>CONCATENATE(G957,H957,I957,J957,K957,L957,M957)</f>
-        <v>dpkd</v>
+        <v>dpk</v>
       </c>
       <c r="D957" s="9" t="s">
-        <v>1143</v>
+        <v>588</v>
       </c>
       <c r="E957" s="4" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="F957" s="4" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="G957" s="4" t="s">
         <v>953</v>
@@ -48595,9 +48639,7 @@
       <c r="I957" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="J957" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="J957" s="4"/>
       <c r="K957" s="4"/>
       <c r="L957" s="4"/>
       <c r="M957" s="4"/>
@@ -48615,16 +48657,16 @@
       </c>
       <c r="C958" s="8" t="str">
         <f>CONCATENATE(G958,H958,I958,J958,K958,L958,M958)</f>
-        <v>dpkn</v>
+        <v>dpkg</v>
       </c>
       <c r="D958" s="9" t="s">
-        <v>590</v>
+        <v>1141</v>
       </c>
       <c r="E958" s="4" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="F958" s="4" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="G958" s="4" t="s">
         <v>953</v>
@@ -48636,7 +48678,7 @@
         <v>949</v>
       </c>
       <c r="J958" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="K958" s="4"/>
       <c r="L958" s="4"/>
@@ -48655,16 +48697,16 @@
       </c>
       <c r="C959" s="8" t="str">
         <f>CONCATENATE(G959,H959,I959,J959,K959,L959,M959)</f>
-        <v>dpks</v>
+        <v>dpkd</v>
       </c>
       <c r="D959" s="9" t="s">
-        <v>3510</v>
+        <v>1143</v>
       </c>
       <c r="E959" s="4" t="s">
-        <v>3511</v>
+        <v>2407</v>
       </c>
       <c r="F959" s="4" t="s">
-        <v>3512</v>
+        <v>3262</v>
       </c>
       <c r="G959" s="4" t="s">
         <v>953</v>
@@ -48676,7 +48718,7 @@
         <v>949</v>
       </c>
       <c r="J959" s="4" t="s">
-        <v>3506</v>
+        <v>953</v>
       </c>
       <c r="K959" s="4"/>
       <c r="L959" s="4"/>
@@ -48695,16 +48737,16 @@
       </c>
       <c r="C960" s="8" t="str">
         <f>CONCATENATE(G960,H960,I960,J960,K960,L960,M960)</f>
-        <v>dpkh</v>
+        <v>dpkn</v>
       </c>
       <c r="D960" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E960" s="4" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="F960" s="4" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="G960" s="4" t="s">
         <v>953</v>
@@ -48716,7 +48758,7 @@
         <v>949</v>
       </c>
       <c r="J960" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
       <c r="K960" s="4"/>
       <c r="L960" s="4"/>
@@ -48735,16 +48777,16 @@
       </c>
       <c r="C961" s="8" t="str">
         <f>CONCATENATE(G961,H961,I961,J961,K961,L961,M961)</f>
-        <v>dpkmd</v>
+        <v>dpks</v>
       </c>
       <c r="D961" s="9" t="s">
-        <v>1460</v>
+        <v>3510</v>
       </c>
       <c r="E961" s="4" t="s">
-        <v>2410</v>
+        <v>3511</v>
       </c>
       <c r="F961" s="4" t="s">
-        <v>3265</v>
+        <v>3512</v>
       </c>
       <c r="G961" s="4" t="s">
         <v>953</v>
@@ -48756,11 +48798,9 @@
         <v>949</v>
       </c>
       <c r="J961" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="K961" s="4" t="s">
-        <v>938</v>
-      </c>
+        <v>3506</v>
+      </c>
+      <c r="K961" s="4"/>
       <c r="L961" s="4"/>
       <c r="M961" s="4"/>
       <c r="N961" s="4"/>
@@ -48777,16 +48817,16 @@
       </c>
       <c r="C962" s="8" t="str">
         <f>CONCATENATE(G962,H962,I962,J962,K962,L962,M962)</f>
-        <v>dpkmdm</v>
+        <v>dpkh</v>
       </c>
       <c r="D962" s="9" t="s">
-        <v>1461</v>
+        <v>589</v>
       </c>
       <c r="E962" s="4" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="F962" s="4" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
       <c r="G962" s="4" t="s">
         <v>953</v>
@@ -48798,14 +48838,10 @@
         <v>949</v>
       </c>
       <c r="J962" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="K962" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="L962" s="4" t="s">
-        <v>936</v>
-      </c>
+        <v>1248</v>
+      </c>
+      <c r="K962" s="4"/>
+      <c r="L962" s="4"/>
       <c r="M962" s="4"/>
       <c r="N962" s="4"/>
       <c r="O962" s="4"/>
@@ -48821,30 +48857,32 @@
       </c>
       <c r="C963" s="8" t="str">
         <f>CONCATENATE(G963,H963,I963,J963,K963,L963,M963)</f>
-        <v>thkr</v>
+        <v>dpkmd</v>
       </c>
       <c r="D963" s="9" t="s">
-        <v>1192</v>
+        <v>1460</v>
       </c>
       <c r="E963" s="4" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="F963" s="4" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="G963" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="H963" s="4" t="s">
-        <v>1259</v>
+        <v>940</v>
       </c>
       <c r="I963" s="4" t="s">
         <v>949</v>
       </c>
       <c r="J963" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="K963" s="4"/>
+        <v>936</v>
+      </c>
+      <c r="K963" s="4" t="s">
+        <v>938</v>
+      </c>
       <c r="L963" s="4"/>
       <c r="M963" s="4"/>
       <c r="N963" s="4"/>
@@ -48861,31 +48899,35 @@
       </c>
       <c r="C964" s="8" t="str">
         <f>CONCATENATE(G964,H964,I964,J964,K964,L964,M964)</f>
-        <v>dhkr</v>
+        <v>dpkmdm</v>
       </c>
       <c r="D964" s="9" t="s">
-        <v>1193</v>
+        <v>1461</v>
       </c>
       <c r="E964" s="4" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="F964" s="4" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="G964" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H964" s="4" t="s">
-        <v>1259</v>
+        <v>940</v>
       </c>
       <c r="I964" s="4" t="s">
         <v>949</v>
       </c>
       <c r="J964" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="K964" s="4"/>
-      <c r="L964" s="4"/>
+        <v>936</v>
+      </c>
+      <c r="K964" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="L964" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="M964" s="4"/>
       <c r="N964" s="4"/>
       <c r="O964" s="4"/>
@@ -48901,16 +48943,16 @@
       </c>
       <c r="C965" s="8" t="str">
         <f>CONCATENATE(G965,H965,I965,J965,K965,L965,M965)</f>
-        <v>thkrg</v>
+        <v>thkr</v>
       </c>
       <c r="D965" s="9" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E965" s="4" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="F965" s="4" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="G965" s="4" t="s">
         <v>930</v>
@@ -48924,9 +48966,7 @@
       <c r="J965" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K965" s="4" t="s">
-        <v>950</v>
-      </c>
+      <c r="K965" s="4"/>
       <c r="L965" s="4"/>
       <c r="M965" s="4"/>
       <c r="N965" s="4"/>
@@ -48943,16 +48983,16 @@
       </c>
       <c r="C966" s="8" t="str">
         <f>CONCATENATE(G966,H966,I966,J966,K966,L966,M966)</f>
-        <v>dhkrk</v>
+        <v>dhkr</v>
       </c>
       <c r="D966" s="9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E966" s="4" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="F966" s="4" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="G966" s="4" t="s">
         <v>953</v>
@@ -48966,9 +49006,7 @@
       <c r="J966" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K966" s="4" t="s">
-        <v>949</v>
-      </c>
+      <c r="K966" s="4"/>
       <c r="L966" s="4"/>
       <c r="M966" s="4"/>
       <c r="N966" s="4"/>
@@ -48985,30 +49023,32 @@
       </c>
       <c r="C967" s="8" t="str">
         <f>CONCATENATE(G967,H967,I967,J967,K967,L967,M967)</f>
-        <v>dpcr</v>
+        <v>thkrg</v>
       </c>
       <c r="D967" s="9" t="s">
-        <v>579</v>
+        <v>1191</v>
       </c>
       <c r="E967" s="4" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="F967" s="4" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="G967" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="H967" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="I967" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="J967" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K967" s="4"/>
+      <c r="K967" s="4" t="s">
+        <v>950</v>
+      </c>
       <c r="L967" s="4"/>
       <c r="M967" s="4"/>
       <c r="N967" s="4"/>
@@ -49025,31 +49065,31 @@
       </c>
       <c r="C968" s="8" t="str">
         <f>CONCATENATE(G968,H968,I968,J968,K968,L968,M968)</f>
-        <v>dpcrg</v>
+        <v>dhkrk</v>
       </c>
       <c r="D968" s="9" t="s">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="E968" s="4" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="F968" s="4" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="G968" s="4" t="s">
         <v>953</v>
       </c>
       <c r="H968" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="I968" s="4" t="s">
-        <v>1240</v>
+        <v>949</v>
       </c>
       <c r="J968" s="4" t="s">
         <v>958</v>
       </c>
       <c r="K968" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L968" s="4"/>
       <c r="M968" s="4"/>
@@ -49067,16 +49107,16 @@
       </c>
       <c r="C969" s="8" t="str">
         <f>CONCATENATE(G969,H969,I969,J969,K969,L969,M969)</f>
-        <v>dpcrd</v>
+        <v>dpcr</v>
       </c>
       <c r="D969" s="9" t="s">
-        <v>1146</v>
+        <v>579</v>
       </c>
       <c r="E969" s="4" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="F969" s="4" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="G969" s="4" t="s">
         <v>953</v>
@@ -49090,9 +49130,7 @@
       <c r="J969" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K969" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="K969" s="4"/>
       <c r="L969" s="4"/>
       <c r="M969" s="4"/>
       <c r="N969" s="4"/>
@@ -49109,16 +49147,16 @@
       </c>
       <c r="C970" s="8" t="str">
         <f>CONCATENATE(G970,H970,I970,J970,K970,L970,M970)</f>
-        <v>dpcrn</v>
+        <v>dpcrg</v>
       </c>
       <c r="D970" s="9" t="s">
-        <v>581</v>
+        <v>1144</v>
       </c>
       <c r="E970" s="4" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="F970" s="4" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="G970" s="4" t="s">
         <v>953</v>
@@ -49133,7 +49171,7 @@
         <v>958</v>
       </c>
       <c r="K970" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="L970" s="4"/>
       <c r="M970" s="4"/>
@@ -49151,16 +49189,16 @@
       </c>
       <c r="C971" s="8" t="str">
         <f>CONCATENATE(G971,H971,I971,J971,K971,L971,M971)</f>
-        <v>dpcrs</v>
+        <v>dpcrd</v>
       </c>
       <c r="D971" s="9" t="s">
-        <v>3507</v>
+        <v>1146</v>
       </c>
       <c r="E971" s="4" t="s">
-        <v>3508</v>
+        <v>2418</v>
       </c>
       <c r="F971" s="4" t="s">
-        <v>3509</v>
+        <v>3273</v>
       </c>
       <c r="G971" s="4" t="s">
         <v>953</v>
@@ -49175,7 +49213,7 @@
         <v>958</v>
       </c>
       <c r="K971" s="4" t="s">
-        <v>3506</v>
+        <v>953</v>
       </c>
       <c r="L971" s="4"/>
       <c r="M971" s="4"/>
@@ -49193,16 +49231,16 @@
       </c>
       <c r="C972" s="8" t="str">
         <f>CONCATENATE(G972,H972,I972,J972,K972,L972,M972)</f>
-        <v>dpcrh</v>
+        <v>dpcrn</v>
       </c>
       <c r="D972" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E972" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F972" s="4" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="G972" s="4" t="s">
         <v>953</v>
@@ -49217,7 +49255,7 @@
         <v>958</v>
       </c>
       <c r="K972" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
       <c r="L972" s="4"/>
       <c r="M972" s="4"/>
@@ -49235,16 +49273,16 @@
       </c>
       <c r="C973" s="8" t="str">
         <f>CONCATENATE(G973,H973,I973,J973,K973,L973,M973)</f>
-        <v>dpnt</v>
+        <v>dpcrs</v>
       </c>
       <c r="D973" s="9" t="s">
-        <v>587</v>
+        <v>3507</v>
       </c>
       <c r="E973" s="4" t="s">
-        <v>2421</v>
+        <v>3508</v>
       </c>
       <c r="F973" s="4" t="s">
-        <v>3276</v>
+        <v>3509</v>
       </c>
       <c r="G973" s="4" t="s">
         <v>953</v>
@@ -49253,12 +49291,14 @@
         <v>940</v>
       </c>
       <c r="I973" s="4" t="s">
-        <v>3399</v>
+        <v>1240</v>
       </c>
       <c r="J973" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="K973" s="4"/>
+        <v>958</v>
+      </c>
+      <c r="K973" s="4" t="s">
+        <v>3506</v>
+      </c>
       <c r="L973" s="4"/>
       <c r="M973" s="4"/>
       <c r="N973" s="4"/>
@@ -49275,16 +49315,16 @@
       </c>
       <c r="C974" s="8" t="str">
         <f>CONCATENATE(G974,H974,I974,J974,K974,L974,M974)</f>
-        <v>dpntg</v>
+        <v>dpcrh</v>
       </c>
       <c r="D974" s="9" t="s">
-        <v>1140</v>
+        <v>580</v>
       </c>
       <c r="E974" s="4" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="F974" s="4" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="G974" s="4" t="s">
         <v>953</v>
@@ -49293,13 +49333,13 @@
         <v>940</v>
       </c>
       <c r="I974" s="4" t="s">
-        <v>3399</v>
+        <v>1240</v>
       </c>
       <c r="J974" s="4" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="K974" s="4" t="s">
-        <v>950</v>
+        <v>1248</v>
       </c>
       <c r="L974" s="4"/>
       <c r="M974" s="4"/>
@@ -49317,16 +49357,16 @@
       </c>
       <c r="C975" s="8" t="str">
         <f>CONCATENATE(G975,H975,I975,J975,K975,L975,M975)</f>
-        <v>dpntt</v>
+        <v>dpnt</v>
       </c>
       <c r="D975" s="9" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E975" s="4" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="F975" s="4" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="G975" s="4" t="s">
         <v>953</v>
@@ -49340,9 +49380,7 @@
       <c r="J975" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="K975" s="4" t="s">
-        <v>930</v>
-      </c>
+      <c r="K975" s="4"/>
       <c r="L975" s="4"/>
       <c r="M975" s="4"/>
       <c r="N975" s="4"/>
@@ -49359,16 +49397,16 @@
       </c>
       <c r="C976" s="8" t="str">
         <f>CONCATENATE(G976,H976,I976,J976,K976,L976,M976)</f>
-        <v>dpntn</v>
+        <v>dpntg</v>
       </c>
       <c r="D976" s="9" t="s">
-        <v>597</v>
+        <v>1140</v>
       </c>
       <c r="E976" s="4" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="F976" s="4" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="G976" s="4" t="s">
         <v>953</v>
@@ -49377,13 +49415,13 @@
         <v>940</v>
       </c>
       <c r="I976" s="4" t="s">
-        <v>932</v>
+        <v>3399</v>
       </c>
       <c r="J976" s="4" t="s">
         <v>930</v>
       </c>
       <c r="K976" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="L976" s="4"/>
       <c r="M976" s="4"/>
@@ -49401,16 +49439,16 @@
       </c>
       <c r="C977" s="8" t="str">
         <f>CONCATENATE(G977,H977,I977,J977,K977,L977,M977)</f>
-        <v>dpnts</v>
+        <v>dpntt</v>
       </c>
       <c r="D977" s="9" t="s">
-        <v>3513</v>
+        <v>598</v>
       </c>
       <c r="E977" s="4" t="s">
-        <v>3515</v>
+        <v>2423</v>
       </c>
       <c r="F977" s="4" t="s">
-        <v>3514</v>
+        <v>3278</v>
       </c>
       <c r="G977" s="4" t="s">
         <v>953</v>
@@ -49425,7 +49463,7 @@
         <v>930</v>
       </c>
       <c r="K977" s="4" t="s">
-        <v>3506</v>
+        <v>930</v>
       </c>
       <c r="L977" s="4"/>
       <c r="M977" s="4"/>
@@ -49443,16 +49481,16 @@
       </c>
       <c r="C978" s="8" t="str">
         <f>CONCATENATE(G978,H978,I978,J978,K978,L978,M978)</f>
-        <v>dpntw</v>
+        <v>dpntn</v>
       </c>
       <c r="D978" s="9" t="s">
-        <v>1222</v>
+        <v>597</v>
       </c>
       <c r="E978" s="4" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="F978" s="4" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="G978" s="4" t="s">
         <v>953</v>
@@ -49461,13 +49499,13 @@
         <v>940</v>
       </c>
       <c r="I978" s="4" t="s">
-        <v>3399</v>
+        <v>932</v>
       </c>
       <c r="J978" s="4" t="s">
         <v>930</v>
       </c>
       <c r="K978" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="L978" s="4"/>
       <c r="M978" s="4"/>
@@ -49485,31 +49523,31 @@
       </c>
       <c r="C979" s="8" t="str">
         <f>CONCATENATE(G979,H979,I979,J979,K979,L979,M979)</f>
-        <v>thntt</v>
+        <v>dpnts</v>
       </c>
       <c r="D979" s="9" t="s">
-        <v>3573</v>
+        <v>3513</v>
       </c>
       <c r="E979" s="4" t="s">
-        <v>3574</v>
+        <v>3515</v>
       </c>
       <c r="F979" s="4" t="s">
-        <v>3575</v>
+        <v>3514</v>
       </c>
       <c r="G979" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H979" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="I979" s="4" t="s">
+        <v>3399</v>
+      </c>
+      <c r="J979" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H979" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I979" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="J979" s="4" t="s">
-        <v>3536</v>
-      </c>
       <c r="K979" s="4" t="s">
-        <v>3536</v>
+        <v>3506</v>
       </c>
       <c r="L979" s="4"/>
       <c r="M979" s="4"/>
@@ -49527,31 +49565,31 @@
       </c>
       <c r="C980" s="8" t="str">
         <f>CONCATENATE(G980,H980,I980,J980,K980,L980,M980)</f>
-        <v>thnrj</v>
+        <v>dpntw</v>
       </c>
       <c r="D980" s="9" t="s">
-        <v>1198</v>
+        <v>1222</v>
       </c>
       <c r="E980" s="4" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="F980" s="4" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="G980" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H980" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="I980" s="4" t="s">
+        <v>3399</v>
+      </c>
+      <c r="J980" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H980" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I980" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="J980" s="4" t="s">
-        <v>958</v>
-      </c>
       <c r="K980" s="4" t="s">
-        <v>1242</v>
+        <v>959</v>
       </c>
       <c r="L980" s="4"/>
       <c r="M980" s="4"/>
@@ -49569,16 +49607,16 @@
       </c>
       <c r="C981" s="8" t="str">
         <f>CONCATENATE(G981,H981,I981,J981,K981,L981,M981)</f>
-        <v>thnr</v>
+        <v>thntt</v>
       </c>
       <c r="D981" s="9" t="s">
-        <v>1196</v>
+        <v>3573</v>
       </c>
       <c r="E981" s="4" t="s">
-        <v>2427</v>
+        <v>3574</v>
       </c>
       <c r="F981" s="4" t="s">
-        <v>3282</v>
+        <v>3575</v>
       </c>
       <c r="G981" s="4" t="s">
         <v>930</v>
@@ -49590,9 +49628,11 @@
         <v>954</v>
       </c>
       <c r="J981" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="K981" s="4"/>
+        <v>3536</v>
+      </c>
+      <c r="K981" s="4" t="s">
+        <v>3536</v>
+      </c>
       <c r="L981" s="4"/>
       <c r="M981" s="4"/>
       <c r="N981" s="4"/>
@@ -49609,16 +49649,16 @@
       </c>
       <c r="C982" s="8" t="str">
         <f>CONCATENATE(G982,H982,I982,J982,K982,L982,M982)</f>
-        <v>thnlb</v>
+        <v>thnrj</v>
       </c>
       <c r="D982" s="9" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E982" s="4" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="F982" s="4" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="G982" s="4" t="s">
         <v>930</v>
@@ -49630,10 +49670,10 @@
         <v>954</v>
       </c>
       <c r="J982" s="4" t="s">
-        <v>1245</v>
+        <v>958</v>
       </c>
       <c r="K982" s="4" t="s">
-        <v>956</v>
+        <v>1242</v>
       </c>
       <c r="L982" s="4"/>
       <c r="M982" s="4"/>
@@ -49651,27 +49691,29 @@
       </c>
       <c r="C983" s="8" t="str">
         <f>CONCATENATE(G983,H983,I983,J983,K983,L983,M983)</f>
-        <v>dpn</v>
+        <v>thnr</v>
       </c>
       <c r="D983" s="9" t="s">
-        <v>586</v>
+        <v>1196</v>
       </c>
       <c r="E983" s="4" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="F983" s="4" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="G983" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="H983" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="I983" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="J983" s="4"/>
+      <c r="J983" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="K983" s="4"/>
       <c r="L983" s="4"/>
       <c r="M983" s="4"/>
@@ -49689,16 +49731,16 @@
       </c>
       <c r="C984" s="8" t="str">
         <f>CONCATENATE(G984,H984,I984,J984,K984,L984,M984)</f>
-        <v>thh</v>
+        <v>thnlb</v>
       </c>
       <c r="D984" s="9" t="s">
-        <v>658</v>
+        <v>1197</v>
       </c>
       <c r="E984" s="4" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F984" s="4" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
       <c r="G984" s="4" t="s">
         <v>930</v>
@@ -49707,10 +49749,14 @@
         <v>1259</v>
       </c>
       <c r="I984" s="4" t="s">
-        <v>3459</v>
-      </c>
-      <c r="J984" s="4"/>
-      <c r="K984" s="4"/>
+        <v>954</v>
+      </c>
+      <c r="J984" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K984" s="4" t="s">
+        <v>956</v>
+      </c>
       <c r="L984" s="4"/>
       <c r="M984" s="4"/>
       <c r="N984" s="4"/>
@@ -49727,16 +49773,16 @@
       </c>
       <c r="C985" s="8" t="str">
         <f>CONCATENATE(G985,H985,I985,J985,K985,L985,M985)</f>
-        <v>dpr</v>
+        <v>dpn</v>
       </c>
       <c r="D985" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E985" s="4" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="F985" s="4" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="G985" s="4" t="s">
         <v>953</v>
@@ -49745,7 +49791,7 @@
         <v>940</v>
       </c>
       <c r="I985" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="J985" s="4"/>
       <c r="K985" s="4"/>
@@ -49765,29 +49811,27 @@
       </c>
       <c r="C986" s="8" t="str">
         <f>CONCATENATE(G986,H986,I986,J986,K986,L986,M986)</f>
-        <v>dprg</v>
+        <v>thh</v>
       </c>
       <c r="D986" s="9" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="E986" s="4" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="F986" s="4" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="G986" s="4" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="H986" s="4" t="s">
-        <v>940</v>
+        <v>1259</v>
       </c>
       <c r="I986" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="J986" s="4" t="s">
-        <v>950</v>
-      </c>
+        <v>3459</v>
+      </c>
+      <c r="J986" s="4"/>
       <c r="K986" s="4"/>
       <c r="L986" s="4"/>
       <c r="M986" s="4"/>
@@ -49805,16 +49849,16 @@
       </c>
       <c r="C987" s="8" t="str">
         <f>CONCATENATE(G987,H987,I987,J987,K987,L987,M987)</f>
-        <v>dprdk</v>
+        <v>dpr</v>
       </c>
       <c r="D987" s="9" t="s">
-        <v>1670</v>
+        <v>583</v>
       </c>
       <c r="E987" s="4" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="F987" s="4" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="G987" s="4" t="s">
         <v>953</v>
@@ -49825,12 +49869,8 @@
       <c r="I987" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="J987" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="K987" s="4" t="s">
-        <v>1666</v>
-      </c>
+      <c r="J987" s="4"/>
+      <c r="K987" s="4"/>
       <c r="L987" s="4"/>
       <c r="M987" s="4"/>
       <c r="N987" s="4"/>
@@ -49847,16 +49887,16 @@
       </c>
       <c r="C988" s="8" t="str">
         <f>CONCATENATE(G988,H988,I988,J988,K988,L988,M988)</f>
-        <v>dprd</v>
+        <v>dprg</v>
       </c>
       <c r="D988" s="9" t="s">
-        <v>1147</v>
+        <v>584</v>
       </c>
       <c r="E988" s="4" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="F988" s="4" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="G988" s="4" t="s">
         <v>953</v>
@@ -49868,7 +49908,7 @@
         <v>958</v>
       </c>
       <c r="J988" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K988" s="4"/>
       <c r="L988" s="4"/>
@@ -49887,16 +49927,16 @@
       </c>
       <c r="C989" s="8" t="str">
         <f>CONCATENATE(G989,H989,I989,J989,K989,L989,M989)</f>
-        <v>dprn</v>
+        <v>dprdk</v>
       </c>
       <c r="D989" s="9" t="s">
-        <v>585</v>
+        <v>1670</v>
       </c>
       <c r="E989" s="4" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="F989" s="4" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="G989" s="4" t="s">
         <v>953</v>
@@ -49908,9 +49948,11 @@
         <v>958</v>
       </c>
       <c r="J989" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="K989" s="4"/>
+        <v>953</v>
+      </c>
+      <c r="K989" s="4" t="s">
+        <v>1666</v>
+      </c>
       <c r="L989" s="4"/>
       <c r="M989" s="4"/>
       <c r="N989" s="4"/>
@@ -49927,16 +49969,16 @@
       </c>
       <c r="C990" s="8" t="str">
         <f>CONCATENATE(G990,H990,I990,J990,K990,L990,M990)</f>
-        <v>dprw</v>
+        <v>dprd</v>
       </c>
       <c r="D990" s="9" t="s">
-        <v>1223</v>
+        <v>1147</v>
       </c>
       <c r="E990" s="4" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="F990" s="4" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="G990" s="4" t="s">
         <v>953</v>
@@ -49948,7 +49990,7 @@
         <v>958</v>
       </c>
       <c r="J990" s="4" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="K990" s="4"/>
       <c r="L990" s="4"/>
@@ -49967,28 +50009,28 @@
       </c>
       <c r="C991" s="8" t="str">
         <f>CONCATENATE(G991,H991,I991,J991,K991,L991,M991)</f>
-        <v>nktt</v>
+        <v>dprn</v>
       </c>
       <c r="D991" s="9" t="s">
-        <v>1305</v>
+        <v>585</v>
       </c>
       <c r="E991" s="4" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="F991" s="4" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="G991" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H991" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="I991" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="J991" s="4" t="s">
         <v>954</v>
-      </c>
-      <c r="H991" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I991" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J991" s="4" t="s">
-        <v>1255</v>
       </c>
       <c r="K991" s="4"/>
       <c r="L991" s="4"/>
@@ -50007,28 +50049,28 @@
       </c>
       <c r="C992" s="8" t="str">
         <f>CONCATENATE(G992,H992,I992,J992,K992,L992,M992)</f>
-        <v>nhgr</v>
+        <v>dprw</v>
       </c>
       <c r="D992" s="9" t="s">
-        <v>1199</v>
+        <v>1223</v>
       </c>
       <c r="E992" s="4" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="F992" s="4" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="G992" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H992" s="4" t="s">
-        <v>1259</v>
+        <v>940</v>
       </c>
       <c r="I992" s="4" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="J992" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="K992" s="4"/>
       <c r="L992" s="4"/>
@@ -50047,25 +50089,29 @@
       </c>
       <c r="C993" s="8" t="str">
         <f>CONCATENATE(G993,H993,I993,J993,K993,L993,M993)</f>
-        <v>nq</v>
+        <v>nktt</v>
       </c>
       <c r="D993" s="9" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E993" s="4" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="F993" s="4" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="G993" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H993" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
+        <v>1256</v>
+      </c>
+      <c r="I993" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J993" s="4" t="s">
+        <v>1255</v>
+      </c>
       <c r="K993" s="4"/>
       <c r="L993" s="4"/>
       <c r="M993" s="4"/>
@@ -50083,28 +50129,28 @@
       </c>
       <c r="C994" s="8" t="str">
         <f>CONCATENATE(G994,H994,I994,J994,K994,L994,M994)</f>
-        <v>nklb</v>
+        <v>nhgr</v>
       </c>
       <c r="D994" s="9" t="s">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="E994" s="4" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="F994" s="4" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="G994" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H994" s="4" t="s">
-        <v>949</v>
+        <v>1259</v>
       </c>
       <c r="I994" s="4" t="s">
-        <v>1245</v>
+        <v>950</v>
       </c>
       <c r="J994" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="K994" s="4"/>
       <c r="L994" s="4"/>
@@ -50123,26 +50169,24 @@
       </c>
       <c r="C995" s="8" t="str">
         <f>CONCATENATE(G995,H995,I995,J995,K995,L995,M995)</f>
-        <v>nrn</v>
+        <v>nq</v>
       </c>
       <c r="D995" s="9" t="s">
-        <v>1444</v>
+        <v>1304</v>
       </c>
       <c r="E995" s="4" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="F995" s="4" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="G995" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H995" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="I995" s="4" t="s">
-        <v>954</v>
-      </c>
+        <v>1264</v>
+      </c>
+      <c r="I995" s="4"/>
       <c r="J995" s="4"/>
       <c r="K995" s="4"/>
       <c r="L995" s="4"/>
@@ -50161,28 +50205,28 @@
       </c>
       <c r="C996" s="8" t="str">
         <f>CONCATENATE(G996,H996,I996,J996,K996,L996,M996)</f>
-        <v>nhnd</v>
+        <v>nklb</v>
       </c>
       <c r="D996" s="9" t="s">
-        <v>1443</v>
+        <v>1099</v>
       </c>
       <c r="E996" s="4" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="F996" s="4" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="G996" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H996" s="4" t="s">
-        <v>1259</v>
+        <v>949</v>
       </c>
       <c r="I996" s="4" t="s">
-        <v>954</v>
+        <v>1245</v>
       </c>
       <c r="J996" s="4" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="K996" s="4"/>
       <c r="L996" s="4"/>
@@ -50201,32 +50245,28 @@
       </c>
       <c r="C997" s="8" t="str">
         <f>CONCATENATE(G997,H997,I997,J997,K997,L997,M997)</f>
-        <v>nhnds</v>
+        <v>nrn</v>
       </c>
       <c r="D997" s="9" t="s">
-        <v>1661</v>
+        <v>1444</v>
       </c>
       <c r="E997" s="4" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="F997" s="4" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="G997" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H997" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I997" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="J997" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="K997" s="4" t="s">
-        <v>1662</v>
-      </c>
+      <c r="J997" s="4"/>
+      <c r="K997" s="4"/>
       <c r="L997" s="4"/>
       <c r="M997" s="4"/>
       <c r="N997" s="4"/>
@@ -50243,16 +50283,16 @@
       </c>
       <c r="C998" s="8" t="str">
         <f>CONCATENATE(G998,H998,I998,J998,K998,L998,M998)</f>
-        <v>nhndsg</v>
+        <v>nhnd</v>
       </c>
       <c r="D998" s="9" t="s">
-        <v>1664</v>
+        <v>1443</v>
       </c>
       <c r="E998" s="4" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="F998" s="4" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="G998" s="4" t="s">
         <v>954</v>
@@ -50266,12 +50306,8 @@
       <c r="J998" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="K998" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="L998" s="4" t="s">
-        <v>1663</v>
-      </c>
+      <c r="K998" s="4"/>
+      <c r="L998" s="4"/>
       <c r="M998" s="4"/>
       <c r="N998" s="4"/>
       <c r="O998" s="4"/>
@@ -50287,16 +50323,16 @@
       </c>
       <c r="C999" s="8" t="str">
         <f>CONCATENATE(G999,H999,I999,J999,K999,L999,M999)</f>
-        <v>nhnn</v>
+        <v>nhnds</v>
       </c>
       <c r="D999" s="9" t="s">
-        <v>1200</v>
+        <v>1661</v>
       </c>
       <c r="E999" s="4" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="F999" s="4" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="G999" s="4" t="s">
         <v>954</v>
@@ -50308,9 +50344,11 @@
         <v>954</v>
       </c>
       <c r="J999" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="K999" s="4"/>
+        <v>938</v>
+      </c>
+      <c r="K999" s="4" t="s">
+        <v>1662</v>
+      </c>
       <c r="L999" s="4"/>
       <c r="M999" s="4"/>
       <c r="N999" s="4"/>
@@ -50327,29 +50365,35 @@
       </c>
       <c r="C1000" s="8" t="str">
         <f>CONCATENATE(G1000,H1000,I1000,J1000,K1000,L1000,M1000)</f>
-        <v>nrb</v>
+        <v>nhndsg</v>
       </c>
       <c r="D1000" s="9" t="s">
-        <v>642</v>
+        <v>1664</v>
       </c>
       <c r="E1000" s="4" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="F1000" s="4" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="G1000" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1000" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
       <c r="I1000" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
+        <v>954</v>
+      </c>
+      <c r="J1000" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="K1000" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L1000" s="4" t="s">
+        <v>1663</v>
+      </c>
       <c r="M1000" s="4"/>
       <c r="N1000" s="4"/>
       <c r="O1000" s="4"/>
@@ -50365,27 +50409,29 @@
       </c>
       <c r="C1001" s="8" t="str">
         <f>CONCATENATE(G1001,H1001,I1001,J1001,K1001,L1001,M1001)</f>
-        <v>nrj</v>
+        <v>nhnn</v>
       </c>
       <c r="D1001" s="9" t="s">
-        <v>714</v>
+        <v>1200</v>
       </c>
       <c r="E1001" s="4" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="F1001" s="4" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="G1001" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1001" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
       <c r="I1001" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J1001" s="4"/>
+        <v>954</v>
+      </c>
+      <c r="J1001" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="K1001" s="4"/>
       <c r="L1001" s="4"/>
       <c r="M1001" s="4"/>
@@ -50403,16 +50449,16 @@
       </c>
       <c r="C1002" s="8" t="str">
         <f>CONCATENATE(G1002,H1002,I1002,J1002,K1002,L1002,M1002)</f>
-        <v>nrr</v>
+        <v>nrb</v>
       </c>
       <c r="D1002" s="9" t="s">
-        <v>1104</v>
+        <v>642</v>
       </c>
       <c r="E1002" s="4" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="F1002" s="4" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="G1002" s="4" t="s">
         <v>954</v>
@@ -50421,7 +50467,7 @@
         <v>958</v>
       </c>
       <c r="I1002" s="4" t="s">
-        <v>3546</v>
+        <v>956</v>
       </c>
       <c r="J1002" s="4"/>
       <c r="K1002" s="4"/>
@@ -50441,16 +50487,16 @@
       </c>
       <c r="C1003" s="8" t="str">
         <f>CONCATENATE(G1003,H1003,I1003,J1003,K1003,L1003,M1003)</f>
-        <v>nrl</v>
+        <v>nrj</v>
       </c>
       <c r="D1003" s="9" t="s">
-        <v>1105</v>
+        <v>714</v>
       </c>
       <c r="E1003" s="4" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="F1003" s="4" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="G1003" s="4" t="s">
         <v>954</v>
@@ -50459,7 +50505,7 @@
         <v>958</v>
       </c>
       <c r="I1003" s="4" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="J1003" s="4"/>
       <c r="K1003" s="4"/>
@@ -50479,16 +50525,16 @@
       </c>
       <c r="C1004" s="8" t="str">
         <f>CONCATENATE(G1004,H1004,I1004,J1004,K1004,L1004,M1004)</f>
-        <v>nrlb</v>
+        <v>nrr</v>
       </c>
       <c r="D1004" s="9" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E1004" s="4" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="F1004" s="4" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="G1004" s="4" t="s">
         <v>954</v>
@@ -50497,11 +50543,9 @@
         <v>958</v>
       </c>
       <c r="I1004" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J1004" s="4" t="s">
-        <v>956</v>
-      </c>
+        <v>3546</v>
+      </c>
+      <c r="J1004" s="4"/>
       <c r="K1004" s="4"/>
       <c r="L1004" s="4"/>
       <c r="M1004" s="4"/>
@@ -50519,32 +50563,28 @@
       </c>
       <c r="C1005" s="8" t="str">
         <f>CONCATENATE(G1005,H1005,I1005,J1005,K1005,L1005,M1005)</f>
-        <v>njtjt</v>
+        <v>nrl</v>
       </c>
       <c r="D1005" s="9" t="s">
-        <v>1252</v>
+        <v>1105</v>
       </c>
       <c r="E1005" s="4" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="F1005" s="4" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="G1005" s="4" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="H1005" s="4" t="s">
-        <v>1254</v>
+        <v>958</v>
       </c>
       <c r="I1005" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J1005" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K1005" s="4" t="s">
-        <v>1255</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="J1005" s="4"/>
+      <c r="K1005" s="4"/>
       <c r="L1005" s="4"/>
       <c r="M1005" s="4"/>
       <c r="N1005" s="4"/>
@@ -50561,35 +50601,31 @@
       </c>
       <c r="C1006" s="8" t="str">
         <f>CONCATENATE(G1006,H1006,I1006,J1006,K1006,L1006,M1006)</f>
-        <v>njtjth</v>
+        <v>nrlb</v>
       </c>
       <c r="D1006" s="9" t="s">
-        <v>3465</v>
+        <v>1103</v>
       </c>
       <c r="E1006" s="4" t="s">
-        <v>3466</v>
+        <v>2450</v>
       </c>
       <c r="F1006" s="4" t="s">
-        <v>3467</v>
+        <v>3305</v>
       </c>
       <c r="G1006" s="4" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="H1006" s="4" t="s">
-        <v>1254</v>
+        <v>958</v>
       </c>
       <c r="I1006" s="4" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="J1006" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K1006" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="L1006" s="4" t="s">
-        <v>3459</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="K1006" s="4"/>
+      <c r="L1006" s="4"/>
       <c r="M1006" s="4"/>
       <c r="N1006" s="4"/>
       <c r="O1006" s="4"/>
@@ -50605,16 +50641,16 @@
       </c>
       <c r="C1007" s="8" t="str">
         <f>CONCATENATE(G1007,H1007,I1007,J1007,K1007,L1007,M1007)</f>
-        <v>njtk</v>
+        <v>njtjt</v>
       </c>
       <c r="D1007" s="9" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E1007" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="F1007" s="4" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="G1007" s="4" t="s">
         <v>932</v>
@@ -50626,9 +50662,11 @@
         <v>1255</v>
       </c>
       <c r="J1007" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K1007" s="4"/>
+        <v>1254</v>
+      </c>
+      <c r="K1007" s="4" t="s">
+        <v>1255</v>
+      </c>
       <c r="L1007" s="4"/>
       <c r="M1007" s="4"/>
       <c r="N1007" s="4"/>
@@ -50645,33 +50683,35 @@
       </c>
       <c r="C1008" s="8" t="str">
         <f>CONCATENATE(G1008,H1008,I1008,J1008,K1008,L1008,M1008)</f>
-        <v>njntt</v>
+        <v>njtjth</v>
       </c>
       <c r="D1008" s="9" t="s">
-        <v>3570</v>
+        <v>3465</v>
       </c>
       <c r="E1008" s="4" t="s">
-        <v>3571</v>
+        <v>3466</v>
       </c>
       <c r="F1008" s="4" t="s">
-        <v>3572</v>
+        <v>3467</v>
       </c>
       <c r="G1008" s="4" t="s">
-        <v>3560</v>
+        <v>932</v>
       </c>
       <c r="H1008" s="4" t="s">
-        <v>3553</v>
+        <v>1254</v>
       </c>
       <c r="I1008" s="4" t="s">
-        <v>932</v>
+        <v>1255</v>
       </c>
       <c r="J1008" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K1008" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="K1008" s="4" t="s">
-        <v>3536</v>
-      </c>
-      <c r="L1008" s="4"/>
+      <c r="L1008" s="4" t="s">
+        <v>3459</v>
+      </c>
       <c r="M1008" s="4"/>
       <c r="N1008" s="4"/>
       <c r="O1008" s="4"/>
@@ -50687,32 +50727,30 @@
       </c>
       <c r="C1009" s="8" t="str">
         <f>CONCATENATE(G1009,H1009,I1009,J1009,K1009,L1009,M1009)</f>
-        <v>njnrj</v>
+        <v>njtk</v>
       </c>
       <c r="D1009" s="9" t="s">
-        <v>3564</v>
+        <v>1253</v>
       </c>
       <c r="E1009" s="4" t="s">
-        <v>3565</v>
+        <v>2452</v>
       </c>
       <c r="F1009" s="4" t="s">
-        <v>3566</v>
+        <v>3307</v>
       </c>
       <c r="G1009" s="4" t="s">
-        <v>3560</v>
+        <v>932</v>
       </c>
       <c r="H1009" s="4" t="s">
-        <v>3553</v>
+        <v>1254</v>
       </c>
       <c r="I1009" s="4" t="s">
-        <v>932</v>
+        <v>1255</v>
       </c>
       <c r="J1009" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K1009" s="4" t="s">
-        <v>3553</v>
-      </c>
+        <v>1256</v>
+      </c>
+      <c r="K1009" s="4"/>
       <c r="L1009" s="4"/>
       <c r="M1009" s="4"/>
       <c r="N1009" s="4"/>
@@ -50729,16 +50767,16 @@
       </c>
       <c r="C1010" s="8" t="str">
         <f>CONCATENATE(G1010,H1010,I1010,J1010,K1010,L1010,M1010)</f>
-        <v>njnr</v>
+        <v>njntt</v>
       </c>
       <c r="D1010" s="9" t="s">
-        <v>3557</v>
+        <v>3570</v>
       </c>
       <c r="E1010" s="4" t="s">
-        <v>3558</v>
+        <v>3571</v>
       </c>
       <c r="F1010" s="4" t="s">
-        <v>3559</v>
+        <v>3572</v>
       </c>
       <c r="G1010" s="4" t="s">
         <v>3560</v>
@@ -50750,9 +50788,11 @@
         <v>932</v>
       </c>
       <c r="J1010" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K1010" s="4"/>
+        <v>1255</v>
+      </c>
+      <c r="K1010" s="4" t="s">
+        <v>3536</v>
+      </c>
       <c r="L1010" s="4"/>
       <c r="M1010" s="4"/>
       <c r="N1010" s="4"/>
@@ -50769,16 +50809,16 @@
       </c>
       <c r="C1011" s="8" t="str">
         <f>CONCATENATE(G1011,H1011,I1011,J1011,K1011,L1011,M1011)</f>
-        <v>njnrlb</v>
+        <v>njnrj</v>
       </c>
       <c r="D1011" s="9" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="E1011" s="4" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="F1011" s="4" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="G1011" s="4" t="s">
         <v>3560</v>
@@ -50793,11 +50833,9 @@
         <v>1258</v>
       </c>
       <c r="K1011" s="4" t="s">
-        <v>3528</v>
-      </c>
-      <c r="L1011" s="4" t="s">
-        <v>3529</v>
-      </c>
+        <v>3553</v>
+      </c>
+      <c r="L1011" s="4"/>
       <c r="M1011" s="4"/>
       <c r="N1011" s="4"/>
       <c r="O1011" s="4"/>
@@ -50813,27 +50851,29 @@
       </c>
       <c r="C1012" s="8" t="str">
         <f>CONCATENATE(G1012,H1012,I1012,J1012,K1012,L1012,M1012)</f>
-        <v>njh</v>
+        <v>njnr</v>
       </c>
       <c r="D1012" s="9" t="s">
-        <v>637</v>
+        <v>3557</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>2453</v>
+        <v>3558</v>
       </c>
       <c r="F1012" s="4" t="s">
-        <v>3308</v>
+        <v>3559</v>
       </c>
       <c r="G1012" s="4" t="s">
-        <v>954</v>
+        <v>3560</v>
       </c>
       <c r="H1012" s="4" t="s">
-        <v>1254</v>
+        <v>3553</v>
       </c>
       <c r="I1012" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J1012" s="4"/>
+        <v>932</v>
+      </c>
+      <c r="J1012" s="4" t="s">
+        <v>1258</v>
+      </c>
       <c r="K1012" s="4"/>
       <c r="L1012" s="4"/>
       <c r="M1012" s="4"/>
@@ -50851,31 +50891,35 @@
       </c>
       <c r="C1013" s="8" t="str">
         <f>CONCATENATE(G1013,H1013,I1013,J1013,K1013,L1013,M1013)</f>
-        <v>njtt</v>
+        <v>njnrlb</v>
       </c>
       <c r="D1013" s="9" t="s">
-        <v>3392</v>
+        <v>3561</v>
       </c>
       <c r="E1013" s="4" t="s">
-        <v>3393</v>
+        <v>3562</v>
       </c>
       <c r="F1013" s="4" t="s">
-        <v>3394</v>
+        <v>3563</v>
       </c>
       <c r="G1013" s="4" t="s">
-        <v>954</v>
+        <v>3560</v>
       </c>
       <c r="H1013" s="4" t="s">
-        <v>1242</v>
+        <v>3553</v>
       </c>
       <c r="I1013" s="4" t="s">
-        <v>1255</v>
+        <v>932</v>
       </c>
       <c r="J1013" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K1013" s="4"/>
-      <c r="L1013" s="4"/>
+        <v>1258</v>
+      </c>
+      <c r="K1013" s="4" t="s">
+        <v>3528</v>
+      </c>
+      <c r="L1013" s="4" t="s">
+        <v>3529</v>
+      </c>
       <c r="M1013" s="4"/>
       <c r="N1013" s="4"/>
       <c r="O1013" s="4"/>
@@ -50891,32 +50935,28 @@
       </c>
       <c r="C1014" s="8" t="str">
         <f>CONCATENATE(G1014,H1014,I1014,J1014,K1014,L1014,M1014)</f>
-        <v>njtth</v>
+        <v>njh</v>
       </c>
       <c r="D1014" s="9" t="s">
-        <v>3462</v>
+        <v>637</v>
       </c>
       <c r="E1014" s="4" t="s">
-        <v>3463</v>
+        <v>2453</v>
       </c>
       <c r="F1014" s="4" t="s">
-        <v>3464</v>
+        <v>3308</v>
       </c>
       <c r="G1014" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1014" s="4" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="I1014" s="4" t="s">
-        <v>3391</v>
-      </c>
-      <c r="J1014" s="4" t="s">
-        <v>3391</v>
-      </c>
-      <c r="K1014" s="4" t="s">
-        <v>3459</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="J1014" s="4"/>
+      <c r="K1014" s="4"/>
       <c r="L1014" s="4"/>
       <c r="M1014" s="4"/>
       <c r="N1014" s="4"/>
@@ -50933,16 +50973,16 @@
       </c>
       <c r="C1015" s="8" t="str">
         <f>CONCATENATE(G1015,H1015,I1015,J1015,K1015,L1015,M1015)</f>
-        <v>njrj</v>
+        <v>njtt</v>
       </c>
       <c r="D1015" s="9" t="s">
-        <v>1150</v>
+        <v>3392</v>
       </c>
       <c r="E1015" s="4" t="s">
-        <v>2454</v>
+        <v>3393</v>
       </c>
       <c r="F1015" s="4" t="s">
-        <v>3309</v>
+        <v>3394</v>
       </c>
       <c r="G1015" s="4" t="s">
         <v>954</v>
@@ -50951,10 +50991,10 @@
         <v>1242</v>
       </c>
       <c r="I1015" s="4" t="s">
-        <v>958</v>
+        <v>1255</v>
       </c>
       <c r="J1015" s="4" t="s">
-        <v>1242</v>
+        <v>1255</v>
       </c>
       <c r="K1015" s="4"/>
       <c r="L1015" s="4"/>
@@ -50973,16 +51013,16 @@
       </c>
       <c r="C1016" s="8" t="str">
         <f>CONCATENATE(G1016,H1016,I1016,J1016,K1016,L1016,M1016)</f>
-        <v>njr</v>
+        <v>njtth</v>
       </c>
       <c r="D1016" s="9" t="s">
-        <v>1148</v>
+        <v>3462</v>
       </c>
       <c r="E1016" s="4" t="s">
-        <v>2455</v>
+        <v>3463</v>
       </c>
       <c r="F1016" s="4" t="s">
-        <v>3310</v>
+        <v>3464</v>
       </c>
       <c r="G1016" s="4" t="s">
         <v>954</v>
@@ -50991,10 +51031,14 @@
         <v>1242</v>
       </c>
       <c r="I1016" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="J1016" s="4"/>
-      <c r="K1016" s="4"/>
+        <v>3391</v>
+      </c>
+      <c r="J1016" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="K1016" s="4" t="s">
+        <v>3459</v>
+      </c>
       <c r="L1016" s="4"/>
       <c r="M1016" s="4"/>
       <c r="N1016" s="4"/>
@@ -51011,16 +51055,16 @@
       </c>
       <c r="C1017" s="8" t="str">
         <f>CONCATENATE(G1017,H1017,I1017,J1017,K1017,L1017,M1017)</f>
-        <v>njrlb</v>
+        <v>njrj</v>
       </c>
       <c r="D1017" s="9" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E1017" s="4" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="F1017" s="4" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="G1017" s="4" t="s">
         <v>954</v>
@@ -51029,14 +51073,12 @@
         <v>1242</v>
       </c>
       <c r="I1017" s="4" t="s">
-        <v>3546</v>
+        <v>958</v>
       </c>
       <c r="J1017" s="4" t="s">
-        <v>3528</v>
-      </c>
-      <c r="K1017" s="4" t="s">
-        <v>3529</v>
-      </c>
+        <v>1242</v>
+      </c>
+      <c r="K1017" s="4"/>
       <c r="L1017" s="4"/>
       <c r="M1017" s="4"/>
       <c r="N1017" s="4"/>
@@ -51053,25 +51095,25 @@
       </c>
       <c r="C1018" s="8" t="str">
         <f>CONCATENATE(G1018,H1018,I1018,J1018,K1018,L1018,M1018)</f>
-        <v>nhd</v>
+        <v>njr</v>
       </c>
       <c r="D1018" s="9" t="s">
-        <v>643</v>
+        <v>1148</v>
       </c>
       <c r="E1018" s="4" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="F1018" s="4" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="G1018" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1018" s="4" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="I1018" s="4" t="s">
-        <v>1680</v>
+        <v>958</v>
       </c>
       <c r="J1018" s="4"/>
       <c r="K1018" s="4"/>
@@ -51091,28 +51133,32 @@
       </c>
       <c r="C1019" s="8" t="str">
         <f>CONCATENATE(G1019,H1019,I1019,J1019,K1019,L1019,M1019)</f>
-        <v>nhh</v>
+        <v>njrlb</v>
       </c>
       <c r="D1019" s="9" t="s">
-        <v>1286</v>
+        <v>1149</v>
       </c>
       <c r="E1019" s="4" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="F1019" s="4" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="G1019" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1019" s="4" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="I1019" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J1019" s="4"/>
-      <c r="K1019" s="4"/>
+        <v>3546</v>
+      </c>
+      <c r="J1019" s="4" t="s">
+        <v>3528</v>
+      </c>
+      <c r="K1019" s="4" t="s">
+        <v>3529</v>
+      </c>
       <c r="L1019" s="4"/>
       <c r="M1019" s="4"/>
       <c r="N1019" s="4"/>
@@ -51129,25 +51175,25 @@
       </c>
       <c r="C1020" s="8" t="str">
         <f>CONCATENATE(G1020,H1020,I1020,J1020,K1020,L1020,M1020)</f>
-        <v>nhv</v>
+        <v>nhd</v>
       </c>
       <c r="D1020" s="9" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E1020" s="4" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="F1020" s="4" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="G1020" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1020" s="4" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="I1020" s="4" t="s">
-        <v>1244</v>
+        <v>1680</v>
       </c>
       <c r="J1020" s="4"/>
       <c r="K1020" s="4"/>
@@ -51167,29 +51213,27 @@
       </c>
       <c r="C1021" s="8" t="str">
         <f>CONCATENATE(G1021,H1021,I1021,J1021,K1021,L1021,M1021)</f>
-        <v>nhvn</v>
+        <v>nhh</v>
       </c>
       <c r="D1021" s="9" t="s">
-        <v>641</v>
+        <v>1286</v>
       </c>
       <c r="E1021" s="4" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="F1021" s="4" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="G1021" s="4" t="s">
         <v>954</v>
       </c>
       <c r="H1021" s="4" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="I1021" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J1021" s="4" t="s">
-        <v>954</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="J1021" s="4"/>
       <c r="K1021" s="4"/>
       <c r="L1021" s="4"/>
       <c r="M1021" s="4"/>
@@ -51207,16 +51251,16 @@
       </c>
       <c r="C1022" s="8" t="str">
         <f>CONCATENATE(G1022,H1022,I1022,J1022,K1022,L1022,M1022)</f>
-        <v>nhvh</v>
+        <v>nhv</v>
       </c>
       <c r="D1022" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E1022" s="4" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="F1022" s="4" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="G1022" s="4" t="s">
         <v>954</v>
@@ -51227,9 +51271,7 @@
       <c r="I1022" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="J1022" s="4" t="s">
-        <v>1248</v>
-      </c>
+      <c r="J1022" s="4"/>
       <c r="K1022" s="4"/>
       <c r="L1022" s="4"/>
       <c r="M1022" s="4"/>
@@ -51247,25 +51289,29 @@
       </c>
       <c r="C1023" s="8" t="str">
         <f>CONCATENATE(G1023,H1023,I1023,J1023,K1023,L1023,M1023)</f>
-        <v>hz</v>
+        <v>nhvn</v>
       </c>
       <c r="D1023" s="9" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="E1023" s="4" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="F1023" s="4" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="G1023" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1023" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="H1023" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="I1023" s="4"/>
-      <c r="J1023" s="4"/>
+      <c r="I1023" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J1023" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="K1023" s="4"/>
       <c r="L1023" s="4"/>
       <c r="M1023" s="4"/>
@@ -51283,27 +51329,29 @@
       </c>
       <c r="C1024" s="8" t="str">
         <f>CONCATENATE(G1024,H1024,I1024,J1024,K1024,L1024,M1024)</f>
-        <v>hjt</v>
+        <v>nhvh</v>
       </c>
       <c r="D1024" s="9" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="E1024" s="4" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="F1024" s="4" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="G1024" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1024" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="H1024" s="4" t="s">
-        <v>1242</v>
-      </c>
       <c r="I1024" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J1024" s="4"/>
+        <v>1244</v>
+      </c>
+      <c r="J1024" s="4" t="s">
+        <v>1248</v>
+      </c>
       <c r="K1024" s="4"/>
       <c r="L1024" s="4"/>
       <c r="M1024" s="4"/>
@@ -51321,26 +51369,24 @@
       </c>
       <c r="C1025" s="8" t="str">
         <f>CONCATENATE(G1025,H1025,I1025,J1025,K1025,L1025,M1025)</f>
-        <v>hhd</v>
+        <v>hz</v>
       </c>
       <c r="D1025" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E1025" s="4" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="F1025" s="4" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="G1025" s="4" t="s">
         <v>1248</v>
       </c>
       <c r="H1025" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I1025" s="4" t="s">
-        <v>953</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="I1025" s="4"/>
       <c r="J1025" s="4"/>
       <c r="K1025" s="4"/>
       <c r="L1025" s="4"/>
@@ -51359,22 +51405,22 @@
       </c>
       <c r="C1026" s="8" t="str">
         <f>CONCATENATE(G1026,H1026,I1026,J1026,K1026,L1026,M1026)</f>
-        <v>mxt</v>
+        <v>hjt</v>
       </c>
       <c r="D1026" s="9" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="E1026" s="4" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="F1026" s="4" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="G1026" s="4" t="s">
-        <v>957</v>
+        <v>1248</v>
       </c>
       <c r="H1026" s="4" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="I1026" s="4" t="s">
         <v>930</v>
@@ -51397,29 +51443,27 @@
       </c>
       <c r="C1027" s="8" t="str">
         <f>CONCATENATE(G1027,H1027,I1027,J1027,K1027,L1027,M1027)</f>
-        <v>mxtg</v>
+        <v>hhd</v>
       </c>
       <c r="D1027" s="9" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="E1027" s="4" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="F1027" s="4" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="G1027" s="4" t="s">
-        <v>957</v>
+        <v>1248</v>
       </c>
       <c r="H1027" s="4" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="I1027" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J1027" s="4" t="s">
-        <v>950</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="J1027" s="4"/>
       <c r="K1027" s="4"/>
       <c r="L1027" s="4"/>
       <c r="M1027" s="4"/>
@@ -51437,16 +51481,16 @@
       </c>
       <c r="C1028" s="8" t="str">
         <f>CONCATENATE(G1028,H1028,I1028,J1028,K1028,L1028,M1028)</f>
-        <v>mxtnd</v>
+        <v>mxt</v>
       </c>
       <c r="D1028" s="9" t="s">
-        <v>3623</v>
+        <v>631</v>
       </c>
       <c r="E1028" s="4" t="s">
-        <v>3624</v>
+        <v>2465</v>
       </c>
       <c r="F1028" s="4" t="s">
-        <v>3625</v>
+        <v>3320</v>
       </c>
       <c r="G1028" s="4" t="s">
         <v>957</v>
@@ -51457,12 +51501,8 @@
       <c r="I1028" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="J1028" s="4" t="s">
-        <v>3619</v>
-      </c>
-      <c r="K1028" s="4" t="s">
-        <v>3614</v>
-      </c>
+      <c r="J1028" s="4"/>
+      <c r="K1028" s="4"/>
       <c r="L1028" s="4"/>
       <c r="M1028" s="4"/>
       <c r="N1028" s="4"/>
@@ -51479,16 +51519,16 @@
       </c>
       <c r="C1029" s="8" t="str">
         <f>CONCATENATE(G1029,H1029,I1029,J1029,K1029,L1029,M1029)</f>
-        <v>mxtr</v>
+        <v>mxtg</v>
       </c>
       <c r="D1029" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E1029" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="F1029" s="4" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="G1029" s="4" t="s">
         <v>957</v>
@@ -51500,7 +51540,7 @@
         <v>930</v>
       </c>
       <c r="J1029" s="4" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="K1029" s="4"/>
       <c r="L1029" s="4"/>
@@ -51519,16 +51559,16 @@
       </c>
       <c r="C1030" s="8" t="str">
         <f>CONCATENATE(G1030,H1030,I1030,J1030,K1030,L1030,M1030)</f>
-        <v>mxtl</v>
+        <v>mxtnd</v>
       </c>
       <c r="D1030" s="9" t="s">
-        <v>1231</v>
+        <v>3623</v>
       </c>
       <c r="E1030" s="4" t="s">
-        <v>2468</v>
+        <v>3624</v>
       </c>
       <c r="F1030" s="4" t="s">
-        <v>3323</v>
+        <v>3625</v>
       </c>
       <c r="G1030" s="4" t="s">
         <v>957</v>
@@ -51537,12 +51577,14 @@
         <v>1263</v>
       </c>
       <c r="I1030" s="4" t="s">
-        <v>1255</v>
+        <v>930</v>
       </c>
       <c r="J1030" s="4" t="s">
-        <v>3480</v>
-      </c>
-      <c r="K1030" s="4"/>
+        <v>3619</v>
+      </c>
+      <c r="K1030" s="4" t="s">
+        <v>3614</v>
+      </c>
       <c r="L1030" s="4"/>
       <c r="M1030" s="4"/>
       <c r="N1030" s="4"/>
@@ -51559,16 +51601,16 @@
       </c>
       <c r="C1031" s="8" t="str">
         <f>CONCATENATE(G1031,H1031,I1031,J1031,K1031,L1031,M1031)</f>
-        <v>mxtlh</v>
+        <v>mxtr</v>
       </c>
       <c r="D1031" s="9" t="s">
-        <v>3388</v>
+        <v>633</v>
       </c>
       <c r="E1031" s="4" t="s">
-        <v>3389</v>
+        <v>2467</v>
       </c>
       <c r="F1031" s="4" t="s">
-        <v>3390</v>
+        <v>3322</v>
       </c>
       <c r="G1031" s="4" t="s">
         <v>957</v>
@@ -51577,14 +51619,12 @@
         <v>1263</v>
       </c>
       <c r="I1031" s="4" t="s">
-        <v>1255</v>
+        <v>930</v>
       </c>
       <c r="J1031" s="4" t="s">
-        <v>1448</v>
-      </c>
-      <c r="K1031" s="4" t="s">
-        <v>3478</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="K1031" s="4"/>
       <c r="L1031" s="4"/>
       <c r="M1031" s="4"/>
       <c r="N1031" s="4"/>
@@ -51601,16 +51641,16 @@
       </c>
       <c r="C1032" s="8" t="str">
         <f>CONCATENATE(G1032,H1032,I1032,J1032,K1032,L1032,M1032)</f>
-        <v>mxv</v>
+        <v>mxtl</v>
       </c>
       <c r="D1032" s="9" t="s">
-        <v>634</v>
+        <v>1231</v>
       </c>
       <c r="E1032" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F1032" s="4" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="G1032" s="4" t="s">
         <v>957</v>
@@ -51619,9 +51659,11 @@
         <v>1263</v>
       </c>
       <c r="I1032" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J1032" s="4"/>
+        <v>1255</v>
+      </c>
+      <c r="J1032" s="4" t="s">
+        <v>3480</v>
+      </c>
       <c r="K1032" s="4"/>
       <c r="L1032" s="4"/>
       <c r="M1032" s="4"/>
@@ -51639,16 +51681,16 @@
       </c>
       <c r="C1033" s="8" t="str">
         <f>CONCATENATE(G1033,H1033,I1033,J1033,K1033,L1033,M1033)</f>
-        <v>mxvk</v>
+        <v>mxtlh</v>
       </c>
       <c r="D1033" s="9" t="s">
-        <v>635</v>
+        <v>3388</v>
       </c>
       <c r="E1033" s="4" t="s">
-        <v>2470</v>
+        <v>3389</v>
       </c>
       <c r="F1033" s="4" t="s">
-        <v>3325</v>
+        <v>3390</v>
       </c>
       <c r="G1033" s="4" t="s">
         <v>957</v>
@@ -51657,12 +51699,14 @@
         <v>1263</v>
       </c>
       <c r="I1033" s="4" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="J1033" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="K1033" s="4"/>
+        <v>1448</v>
+      </c>
+      <c r="K1033" s="4" t="s">
+        <v>3478</v>
+      </c>
       <c r="L1033" s="4"/>
       <c r="M1033" s="4"/>
       <c r="N1033" s="4"/>
@@ -51679,24 +51723,26 @@
       </c>
       <c r="C1034" s="8" t="str">
         <f>CONCATENATE(G1034,H1034,I1034,J1034,K1034,L1034,M1034)</f>
-        <v>ms</v>
+        <v>mxv</v>
       </c>
       <c r="D1034" s="9" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E1034" s="4" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F1034" s="4" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="G1034" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1034" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I1034" s="4"/>
+        <v>1263</v>
+      </c>
+      <c r="I1034" s="4" t="s">
+        <v>1244</v>
+      </c>
       <c r="J1034" s="4"/>
       <c r="K1034" s="4"/>
       <c r="L1034" s="4"/>
@@ -51715,27 +51761,29 @@
       </c>
       <c r="C1035" s="8" t="str">
         <f>CONCATENATE(G1035,H1035,I1035,J1035,K1035,L1035,M1035)</f>
-        <v>mhz</v>
+        <v>mxvk</v>
       </c>
       <c r="D1035" s="9" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="E1035" s="4" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F1035" s="4" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="G1035" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1035" s="4" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="I1035" s="4" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J1035" s="4"/>
+        <v>1244</v>
+      </c>
+      <c r="J1035" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="K1035" s="4"/>
       <c r="L1035" s="4"/>
       <c r="M1035" s="4"/>
@@ -51753,16 +51801,16 @@
       </c>
       <c r="C1036" s="8" t="str">
         <f>CONCATENATE(G1036,H1036,I1036,J1036,K1036,L1036,M1036)</f>
-        <v>msk</v>
+        <v>ms</v>
       </c>
       <c r="D1036" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E1036" s="4" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="F1036" s="4" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="G1036" s="4" t="s">
         <v>957</v>
@@ -51770,9 +51818,7 @@
       <c r="H1036" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="I1036" s="4" t="s">
-        <v>949</v>
-      </c>
+      <c r="I1036" s="4"/>
       <c r="J1036" s="4"/>
       <c r="K1036" s="4"/>
       <c r="L1036" s="4"/>
@@ -51791,25 +51837,25 @@
       </c>
       <c r="C1037" s="8" t="str">
         <f>CONCATENATE(G1037,H1037,I1037,J1037,K1037,L1037,M1037)</f>
-        <v>msg</v>
+        <v>mhz</v>
       </c>
       <c r="D1037" s="9" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E1037" s="4" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="F1037" s="4" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="G1037" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1037" s="4" t="s">
-        <v>951</v>
+        <v>1259</v>
       </c>
       <c r="I1037" s="4" t="s">
-        <v>950</v>
+        <v>1449</v>
       </c>
       <c r="J1037" s="4"/>
       <c r="K1037" s="4"/>
@@ -51829,16 +51875,16 @@
       </c>
       <c r="C1038" s="8" t="str">
         <f>CONCATENATE(G1038,H1038,I1038,J1038,K1038,L1038,M1038)</f>
-        <v>msdxvk</v>
+        <v>msk</v>
       </c>
       <c r="D1038" s="9" t="s">
-        <v>3594</v>
+        <v>628</v>
       </c>
       <c r="E1038" s="4" t="s">
-        <v>3595</v>
+        <v>2473</v>
       </c>
       <c r="F1038" s="4" t="s">
-        <v>3596</v>
+        <v>3328</v>
       </c>
       <c r="G1038" s="4" t="s">
         <v>957</v>
@@ -51847,17 +51893,11 @@
         <v>951</v>
       </c>
       <c r="I1038" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="J1038" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="K1038" s="4" t="s">
-        <v>3592</v>
-      </c>
-      <c r="L1038" s="4" t="s">
-        <v>3593</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="J1038" s="4"/>
+      <c r="K1038" s="4"/>
+      <c r="L1038" s="4"/>
       <c r="M1038" s="4"/>
       <c r="N1038" s="4"/>
       <c r="O1038" s="4"/>
@@ -51873,16 +51913,16 @@
       </c>
       <c r="C1039" s="8" t="str">
         <f>CONCATENATE(G1039,H1039,I1039,J1039,K1039,L1039,M1039)</f>
-        <v>mst</v>
+        <v>msg</v>
       </c>
       <c r="D1039" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E1039" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="F1039" s="4" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="G1039" s="4" t="s">
         <v>957</v>
@@ -51891,7 +51931,7 @@
         <v>951</v>
       </c>
       <c r="I1039" s="4" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="J1039" s="4"/>
       <c r="K1039" s="4"/>
@@ -51911,16 +51951,16 @@
       </c>
       <c r="C1040" s="8" t="str">
         <f>CONCATENATE(G1040,H1040,I1040,J1040,K1040,L1040,M1040)</f>
-        <v>msnd</v>
+        <v>msdxvk</v>
       </c>
       <c r="D1040" s="9" t="s">
-        <v>1682</v>
+        <v>3594</v>
       </c>
       <c r="E1040" s="4" t="s">
-        <v>2476</v>
+        <v>3595</v>
       </c>
       <c r="F1040" s="4" t="s">
-        <v>3331</v>
+        <v>3596</v>
       </c>
       <c r="G1040" s="4" t="s">
         <v>957</v>
@@ -51929,13 +51969,17 @@
         <v>951</v>
       </c>
       <c r="I1040" s="4" t="s">
-        <v>1679</v>
+        <v>938</v>
       </c>
       <c r="J1040" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K1040" s="4"/>
-      <c r="L1040" s="4"/>
+        <v>1263</v>
+      </c>
+      <c r="K1040" s="4" t="s">
+        <v>3592</v>
+      </c>
+      <c r="L1040" s="4" t="s">
+        <v>3593</v>
+      </c>
       <c r="M1040" s="4"/>
       <c r="N1040" s="4"/>
       <c r="O1040" s="4"/>
@@ -51951,16 +51995,16 @@
       </c>
       <c r="C1041" s="8" t="str">
         <f>CONCATENATE(G1041,H1041,I1041,J1041,K1041,L1041,M1041)</f>
-        <v>msd</v>
+        <v>mst</v>
       </c>
       <c r="D1041" s="9" t="s">
-        <v>1100</v>
+        <v>629</v>
       </c>
       <c r="E1041" s="4" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F1041" s="4" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="G1041" s="4" t="s">
         <v>957</v>
@@ -51969,7 +52013,7 @@
         <v>951</v>
       </c>
       <c r="I1041" s="4" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="J1041" s="4"/>
       <c r="K1041" s="4"/>
@@ -51989,16 +52033,16 @@
       </c>
       <c r="C1042" s="8" t="str">
         <f>CONCATENATE(G1042,H1042,I1042,J1042,K1042,L1042,M1042)</f>
-        <v>msdk</v>
+        <v>msnd</v>
       </c>
       <c r="D1042" s="9" t="s">
-        <v>3609</v>
+        <v>1682</v>
       </c>
       <c r="E1042" s="4" t="s">
-        <v>3610</v>
+        <v>2476</v>
       </c>
       <c r="F1042" s="4" t="s">
-        <v>3387</v>
+        <v>3331</v>
       </c>
       <c r="G1042" s="4" t="s">
         <v>957</v>
@@ -52007,10 +52051,10 @@
         <v>951</v>
       </c>
       <c r="I1042" s="4" t="s">
-        <v>938</v>
+        <v>1679</v>
       </c>
       <c r="J1042" s="4" t="s">
-        <v>3598</v>
+        <v>1680</v>
       </c>
       <c r="K1042" s="4"/>
       <c r="L1042" s="4"/>
@@ -52029,16 +52073,16 @@
       </c>
       <c r="C1043" s="8" t="str">
         <f>CONCATENATE(G1043,H1043,I1043,J1043,K1043,L1043,M1043)</f>
-        <v>msdg</v>
+        <v>msd</v>
       </c>
       <c r="D1043" s="9" t="s">
-        <v>3385</v>
+        <v>1100</v>
       </c>
       <c r="E1043" s="4" t="s">
-        <v>3386</v>
+        <v>2477</v>
       </c>
       <c r="F1043" s="4" t="s">
-        <v>3387</v>
+        <v>3332</v>
       </c>
       <c r="G1043" s="4" t="s">
         <v>957</v>
@@ -52049,9 +52093,7 @@
       <c r="I1043" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="J1043" s="4" t="s">
-        <v>3384</v>
-      </c>
+      <c r="J1043" s="4"/>
       <c r="K1043" s="4"/>
       <c r="L1043" s="4"/>
       <c r="M1043" s="4"/>
@@ -52069,27 +52111,29 @@
       </c>
       <c r="C1044" s="8" t="str">
         <f>CONCATENATE(G1044,H1044,I1044,J1044,K1044,L1044,M1044)</f>
-        <v>mht</v>
+        <v>msdk</v>
       </c>
       <c r="D1044" s="9" t="s">
-        <v>625</v>
+        <v>3609</v>
       </c>
       <c r="E1044" s="4" t="s">
-        <v>2478</v>
+        <v>3610</v>
       </c>
       <c r="F1044" s="4" t="s">
-        <v>3333</v>
+        <v>3387</v>
       </c>
       <c r="G1044" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1044" s="4" t="s">
-        <v>3478</v>
+        <v>951</v>
       </c>
       <c r="I1044" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J1044" s="4"/>
+        <v>938</v>
+      </c>
+      <c r="J1044" s="4" t="s">
+        <v>3598</v>
+      </c>
       <c r="K1044" s="4"/>
       <c r="L1044" s="4"/>
       <c r="M1044" s="4"/>
@@ -52107,25 +52151,29 @@
       </c>
       <c r="C1045" s="8" t="str">
         <f>CONCATENATE(G1045,H1045,I1045,J1045,K1045,L1045,M1045)</f>
-        <v>mx</v>
+        <v>msdg</v>
       </c>
       <c r="D1045" s="9" t="s">
-        <v>624</v>
+        <v>3385</v>
       </c>
       <c r="E1045" s="4" t="s">
-        <v>2479</v>
+        <v>3386</v>
       </c>
       <c r="F1045" s="4" t="s">
-        <v>3334</v>
+        <v>3387</v>
       </c>
       <c r="G1045" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1045" s="4" t="s">
-        <v>3479</v>
-      </c>
-      <c r="I1045" s="4"/>
-      <c r="J1045" s="4"/>
+        <v>951</v>
+      </c>
+      <c r="I1045" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="J1045" s="4" t="s">
+        <v>3384</v>
+      </c>
       <c r="K1045" s="4"/>
       <c r="L1045" s="4"/>
       <c r="M1045" s="4"/>
@@ -52143,25 +52191,25 @@
       </c>
       <c r="C1046" s="8" t="str">
         <f>CONCATENATE(G1046,H1046,I1046,J1046,K1046,L1046,M1046)</f>
-        <v>mhd</v>
+        <v>mht</v>
       </c>
       <c r="D1046" s="9" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E1046" s="4" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="F1046" s="4" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="G1046" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1046" s="4" t="s">
-        <v>1259</v>
+        <v>3478</v>
       </c>
       <c r="I1046" s="4" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="J1046" s="4"/>
       <c r="K1046" s="4"/>
@@ -52181,22 +52229,22 @@
       </c>
       <c r="C1047" s="8" t="str">
         <f>CONCATENATE(G1047,H1047,I1047,J1047,K1047,L1047,M1047)</f>
-        <v>mr</v>
+        <v>mx</v>
       </c>
       <c r="D1047" s="9" t="s">
-        <v>1281</v>
+        <v>624</v>
       </c>
       <c r="E1047" s="4" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F1047" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="G1047" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1047" s="4" t="s">
-        <v>958</v>
+        <v>3479</v>
       </c>
       <c r="I1047" s="4"/>
       <c r="J1047" s="4"/>
@@ -52217,16 +52265,16 @@
       </c>
       <c r="C1048" s="8" t="str">
         <f>CONCATENATE(G1048,H1048,I1048,J1048,K1048,L1048,M1048)</f>
-        <v>mhs</v>
+        <v>mhd</v>
       </c>
       <c r="D1048" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E1048" s="4" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="F1048" s="4" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="G1048" s="4" t="s">
         <v>957</v>
@@ -52235,7 +52283,7 @@
         <v>1259</v>
       </c>
       <c r="I1048" s="4" t="s">
-        <v>1284</v>
+        <v>938</v>
       </c>
       <c r="J1048" s="4"/>
       <c r="K1048" s="4"/>
@@ -52255,26 +52303,24 @@
       </c>
       <c r="C1049" s="8" t="str">
         <f>CONCATENATE(G1049,H1049,I1049,J1049,K1049,L1049,M1049)</f>
-        <v>mhn</v>
+        <v>mr</v>
       </c>
       <c r="D1049" s="9" t="s">
-        <v>630</v>
+        <v>1281</v>
       </c>
       <c r="E1049" s="4" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="F1049" s="4" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="G1049" s="4" t="s">
         <v>957</v>
       </c>
       <c r="H1049" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I1049" s="4" t="s">
-        <v>954</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="I1049" s="4"/>
       <c r="J1049" s="4"/>
       <c r="K1049" s="4"/>
       <c r="L1049" s="4"/>
@@ -52293,24 +52339,26 @@
       </c>
       <c r="C1050" s="8" t="str">
         <f>CONCATENATE(G1050,H1050,I1050,J1050,K1050,L1050,M1050)</f>
-        <v>jr</v>
+        <v>mhs</v>
       </c>
       <c r="D1050" s="9" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="E1050" s="4" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="F1050" s="4" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="G1050" s="4" t="s">
-        <v>1254</v>
+        <v>957</v>
       </c>
       <c r="H1050" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I1050" s="4"/>
+        <v>1259</v>
+      </c>
+      <c r="I1050" s="4" t="s">
+        <v>1284</v>
+      </c>
       <c r="J1050" s="4"/>
       <c r="K1050" s="4"/>
       <c r="L1050" s="4"/>
@@ -52329,29 +52377,27 @@
       </c>
       <c r="C1051" s="8" t="str">
         <f>CONCATENATE(G1051,H1051,I1051,J1051,K1051,L1051,M1051)</f>
-        <v>jrnd</v>
+        <v>mhn</v>
       </c>
       <c r="D1051" s="9" t="s">
-        <v>1684</v>
+        <v>630</v>
       </c>
       <c r="E1051" s="4" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="F1051" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="G1051" s="4" t="s">
-        <v>1254</v>
+        <v>957</v>
       </c>
       <c r="H1051" s="4" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
       <c r="I1051" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="J1051" s="4" t="s">
-        <v>1680</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="J1051" s="4"/>
       <c r="K1051" s="4"/>
       <c r="L1051" s="4"/>
       <c r="M1051" s="4"/>
@@ -52369,16 +52415,16 @@
       </c>
       <c r="C1052" s="8" t="str">
         <f>CONCATENATE(G1052,H1052,I1052,J1052,K1052,L1052,M1052)</f>
-        <v>jrlb</v>
+        <v>jr</v>
       </c>
       <c r="D1052" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E1052" s="4" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="F1052" s="4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="G1052" s="4" t="s">
         <v>1254</v>
@@ -52386,12 +52432,8 @@
       <c r="H1052" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="I1052" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J1052" s="4" t="s">
-        <v>956</v>
-      </c>
+      <c r="I1052" s="4"/>
+      <c r="J1052" s="4"/>
       <c r="K1052" s="4"/>
       <c r="L1052" s="4"/>
       <c r="M1052" s="4"/>
@@ -52409,27 +52451,29 @@
       </c>
       <c r="C1053" s="8" t="str">
         <f>CONCATENATE(G1053,H1053,I1053,J1053,K1053,L1053,M1053)</f>
-        <v>jhr</v>
+        <v>jrnd</v>
       </c>
       <c r="D1053" s="9" t="s">
-        <v>697</v>
+        <v>1684</v>
       </c>
       <c r="E1053" s="4" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="F1053" s="4" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="G1053" s="4" t="s">
         <v>1254</v>
       </c>
       <c r="H1053" s="4" t="s">
-        <v>1259</v>
+        <v>958</v>
       </c>
       <c r="I1053" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="J1053" s="4"/>
+        <v>1679</v>
+      </c>
+      <c r="J1053" s="4" t="s">
+        <v>1680</v>
+      </c>
       <c r="K1053" s="4"/>
       <c r="L1053" s="4"/>
       <c r="M1053" s="4"/>
@@ -52447,27 +52491,29 @@
       </c>
       <c r="C1054" s="8" t="str">
         <f>CONCATENATE(G1054,H1054,I1054,J1054,K1054,L1054,M1054)</f>
-        <v>rsj</v>
+        <v>jrlb</v>
       </c>
       <c r="D1054" s="9" t="s">
-        <v>908</v>
+        <v>607</v>
       </c>
       <c r="E1054" s="4" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="F1054" s="4" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="G1054" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H1054" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="H1054" s="4" t="s">
-        <v>951</v>
-      </c>
       <c r="I1054" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J1054" s="4"/>
+        <v>1245</v>
+      </c>
+      <c r="J1054" s="4" t="s">
+        <v>956</v>
+      </c>
       <c r="K1054" s="4"/>
       <c r="L1054" s="4"/>
       <c r="M1054" s="4"/>
@@ -52485,24 +52531,26 @@
       </c>
       <c r="C1055" s="8" t="str">
         <f>CONCATENATE(G1055,H1055,I1055,J1055,K1055,L1055,M1055)</f>
-        <v>lb</v>
+        <v>jhr</v>
       </c>
       <c r="D1055" s="9" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="E1055" s="4" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="F1055" s="4" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="G1055" s="4" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="H1055" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="I1055" s="4"/>
+        <v>1259</v>
+      </c>
+      <c r="I1055" s="4" t="s">
+        <v>1258</v>
+      </c>
       <c r="J1055" s="4"/>
       <c r="K1055" s="4"/>
       <c r="L1055" s="4"/>
@@ -52521,24 +52569,26 @@
       </c>
       <c r="C1056" s="8" t="str">
         <f>CONCATENATE(G1056,H1056,I1056,J1056,K1056,L1056,M1056)</f>
-        <v>lr</v>
+        <v>rsj</v>
       </c>
       <c r="D1056" s="9" t="s">
-        <v>620</v>
+        <v>908</v>
       </c>
       <c r="E1056" s="4" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="F1056" s="4" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="G1056" s="4" t="s">
-        <v>1245</v>
+        <v>958</v>
       </c>
       <c r="H1056" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I1056" s="4"/>
+        <v>951</v>
+      </c>
+      <c r="I1056" s="4" t="s">
+        <v>1242</v>
+      </c>
       <c r="J1056" s="4"/>
       <c r="K1056" s="4"/>
       <c r="L1056" s="4"/>
@@ -52557,26 +52607,24 @@
       </c>
       <c r="C1057" s="8" t="str">
         <f>CONCATENATE(G1057,H1057,I1057,J1057,K1057,L1057,M1057)</f>
-        <v>whk</v>
+        <v>lb</v>
       </c>
       <c r="D1057" s="9" t="s">
-        <v>3489</v>
+        <v>619</v>
       </c>
       <c r="E1057" s="4" t="s">
-        <v>3490</v>
+        <v>2489</v>
       </c>
       <c r="F1057" s="4" t="s">
-        <v>3491</v>
+        <v>3344</v>
       </c>
       <c r="G1057" s="4" t="s">
-        <v>3492</v>
+        <v>1245</v>
       </c>
       <c r="H1057" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I1057" s="4" t="s">
-        <v>949</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="I1057" s="4"/>
       <c r="J1057" s="4"/>
       <c r="K1057" s="4"/>
       <c r="L1057" s="4"/>
@@ -52595,26 +52643,24 @@
       </c>
       <c r="C1058" s="8" t="str">
         <f>CONCATENATE(G1058,H1058,I1058,J1058,K1058,L1058,M1058)</f>
-        <v>wts</v>
+        <v>lr</v>
       </c>
       <c r="D1058" s="9" t="s">
-        <v>1151</v>
+        <v>620</v>
       </c>
       <c r="E1058" s="4" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="F1058" s="4" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="G1058" s="4" t="s">
-        <v>959</v>
+        <v>1245</v>
       </c>
       <c r="H1058" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="I1058" s="4" t="s">
-        <v>951</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="I1058" s="4"/>
       <c r="J1058" s="4"/>
       <c r="K1058" s="4"/>
       <c r="L1058" s="4"/>
@@ -52633,29 +52679,27 @@
       </c>
       <c r="C1059" s="8" t="str">
         <f>CONCATENATE(G1059,H1059,I1059,J1059,K1059,L1059,M1059)</f>
-        <v>wtsg</v>
+        <v>whk</v>
       </c>
       <c r="D1059" s="9" t="s">
-        <v>1152</v>
+        <v>3489</v>
       </c>
       <c r="E1059" s="4" t="s">
-        <v>2492</v>
+        <v>3490</v>
       </c>
       <c r="F1059" s="4" t="s">
-        <v>3347</v>
+        <v>3491</v>
       </c>
       <c r="G1059" s="4" t="s">
-        <v>959</v>
+        <v>3492</v>
       </c>
       <c r="H1059" s="4" t="s">
-        <v>930</v>
+        <v>1248</v>
       </c>
       <c r="I1059" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="J1059" s="4" t="s">
-        <v>950</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="J1059" s="4"/>
       <c r="K1059" s="4"/>
       <c r="L1059" s="4"/>
       <c r="M1059" s="4"/>
@@ -52673,16 +52717,16 @@
       </c>
       <c r="C1060" s="8" t="str">
         <f>CONCATENATE(G1060,H1060,I1060,J1060,K1060,L1060,M1060)</f>
-        <v>wtst</v>
+        <v>wts</v>
       </c>
       <c r="D1060" s="9" t="s">
-        <v>667</v>
+        <v>1151</v>
       </c>
       <c r="E1060" s="4" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="F1060" s="4" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="G1060" s="4" t="s">
         <v>959</v>
@@ -52693,9 +52737,7 @@
       <c r="I1060" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="J1060" s="4" t="s">
-        <v>930</v>
-      </c>
+      <c r="J1060" s="4"/>
       <c r="K1060" s="4"/>
       <c r="L1060" s="4"/>
       <c r="M1060" s="4"/>
@@ -52713,16 +52755,16 @@
       </c>
       <c r="C1061" s="8" t="str">
         <f>CONCATENATE(G1061,H1061,I1061,J1061,K1061,L1061,M1061)</f>
-        <v>wtsn</v>
+        <v>wtsg</v>
       </c>
       <c r="D1061" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E1061" s="4" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="F1061" s="4" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="G1061" s="4" t="s">
         <v>959</v>
@@ -52734,7 +52776,7 @@
         <v>951</v>
       </c>
       <c r="J1061" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="K1061" s="4"/>
       <c r="L1061" s="4"/>
@@ -52753,16 +52795,16 @@
       </c>
       <c r="C1062" s="8" t="str">
         <f>CONCATENATE(G1062,H1062,I1062,J1062,K1062,L1062,M1062)</f>
-        <v>wtss</v>
+        <v>wtst</v>
       </c>
       <c r="D1062" s="9" t="s">
-        <v>1155</v>
+        <v>667</v>
       </c>
       <c r="E1062" s="4" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="F1062" s="4" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="G1062" s="4" t="s">
         <v>959</v>
@@ -52774,7 +52816,7 @@
         <v>951</v>
       </c>
       <c r="J1062" s="4" t="s">
-        <v>3506</v>
+        <v>930</v>
       </c>
       <c r="K1062" s="4"/>
       <c r="L1062" s="4"/>
@@ -52793,16 +52835,16 @@
       </c>
       <c r="C1063" s="8" t="str">
         <f>CONCATENATE(G1063,H1063,I1063,J1063,K1063,L1063,M1063)</f>
-        <v>wtsh</v>
+        <v>wtsn</v>
       </c>
       <c r="D1063" s="9" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E1063" s="4" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="F1063" s="4" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="G1063" s="4" t="s">
         <v>959</v>
@@ -52814,7 +52856,7 @@
         <v>951</v>
       </c>
       <c r="J1063" s="4" t="s">
-        <v>1248</v>
+        <v>954</v>
       </c>
       <c r="K1063" s="4"/>
       <c r="L1063" s="4"/>
@@ -52833,16 +52875,16 @@
       </c>
       <c r="C1064" s="8" t="str">
         <f>CONCATENATE(G1064,H1064,I1064,J1064,K1064,L1064,M1064)</f>
-        <v>wtsm</v>
+        <v>wtss</v>
       </c>
       <c r="D1064" s="9" t="s">
-        <v>1282</v>
+        <v>1155</v>
       </c>
       <c r="E1064" s="4" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="F1064" s="4" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="G1064" s="4" t="s">
         <v>959</v>
@@ -52854,7 +52896,7 @@
         <v>951</v>
       </c>
       <c r="J1064" s="4" t="s">
-        <v>936</v>
+        <v>3506</v>
       </c>
       <c r="K1064" s="4"/>
       <c r="L1064" s="4"/>
@@ -52873,16 +52915,16 @@
       </c>
       <c r="C1065" s="8" t="str">
         <f>CONCATENATE(G1065,H1065,I1065,J1065,K1065,L1065,M1065)</f>
-        <v>wtsw</v>
+        <v>wtsh</v>
       </c>
       <c r="D1065" s="9" t="s">
-        <v>668</v>
+        <v>1153</v>
       </c>
       <c r="E1065" s="4" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="F1065" s="4" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="G1065" s="4" t="s">
         <v>959</v>
@@ -52894,7 +52936,7 @@
         <v>951</v>
       </c>
       <c r="J1065" s="4" t="s">
-        <v>959</v>
+        <v>1248</v>
       </c>
       <c r="K1065" s="4"/>
       <c r="L1065" s="4"/>
@@ -52909,31 +52951,33 @@
         <v>242</v>
       </c>
       <c r="B1066" s="6" t="s">
-        <v>1559</v>
+        <v>578</v>
       </c>
       <c r="C1066" s="8" t="str">
         <f>CONCATENATE(G1066,H1066,I1066,J1066,K1066,L1066,M1066)</f>
-        <v>thx</v>
+        <v>wtsm</v>
       </c>
       <c r="D1066" s="9" t="s">
-        <v>660</v>
+        <v>1282</v>
       </c>
       <c r="E1066" s="4" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="F1066" s="4" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="G1066" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H1066" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="H1066" s="4" t="s">
-        <v>1248</v>
-      </c>
       <c r="I1066" s="4" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J1066" s="4"/>
+        <v>951</v>
+      </c>
+      <c r="J1066" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="K1066" s="4"/>
       <c r="L1066" s="4"/>
       <c r="M1066" s="4"/>
@@ -52944,32 +52988,36 @@
     </row>
     <row r="1067" spans="1:17">
       <c r="A1067" s="6" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="B1067" s="6" t="s">
-        <v>1559</v>
+        <v>578</v>
       </c>
       <c r="C1067" s="8" t="str">
         <f>CONCATENATE(G1067,H1067,I1067,J1067,K1067,L1067,M1067)</f>
-        <v>'f</v>
+        <v>wtsw</v>
       </c>
       <c r="D1067" s="9" t="s">
-        <v>3446</v>
+        <v>668</v>
       </c>
       <c r="E1067" s="4" t="s">
-        <v>3444</v>
+        <v>2498</v>
       </c>
       <c r="F1067" s="4" t="s">
-        <v>3445</v>
-      </c>
-      <c r="G1067" s="5" t="s">
-        <v>1249</v>
+        <v>3353</v>
+      </c>
+      <c r="G1067" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="H1067" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="I1067" s="4"/>
-      <c r="J1067" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="I1067" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="J1067" s="4" t="s">
+        <v>959</v>
+      </c>
       <c r="K1067" s="4"/>
       <c r="L1067" s="4"/>
       <c r="M1067" s="4"/>
@@ -52987,24 +53035,26 @@
       </c>
       <c r="C1068" s="8" t="str">
         <f>CONCATENATE(G1068,H1068,I1068,J1068,K1068,L1068,M1068)</f>
-        <v>'k</v>
+        <v>thx</v>
       </c>
       <c r="D1068" s="9" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="E1068" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="F1068" s="4" t="s">
-        <v>3355</v>
-      </c>
-      <c r="G1068" s="5" t="s">
-        <v>1249</v>
+        <v>3354</v>
+      </c>
+      <c r="G1068" s="4" t="s">
+        <v>930</v>
       </c>
       <c r="H1068" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I1068" s="4"/>
+        <v>1248</v>
+      </c>
+      <c r="I1068" s="4" t="s">
+        <v>1246</v>
+      </c>
       <c r="J1068" s="4"/>
       <c r="K1068" s="4"/>
       <c r="L1068" s="4"/>
@@ -53016,29 +53066,29 @@
     </row>
     <row r="1069" spans="1:17">
       <c r="A1069" s="6" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="B1069" s="6" t="s">
         <v>1559</v>
       </c>
       <c r="C1069" s="8" t="str">
         <f>CONCATENATE(G1069,H1069,I1069,J1069,K1069,L1069,M1069)</f>
-        <v>'g</v>
+        <v>'f</v>
       </c>
       <c r="D1069" s="9" t="s">
-        <v>674</v>
+        <v>3446</v>
       </c>
       <c r="E1069" s="4" t="s">
-        <v>2501</v>
+        <v>3444</v>
       </c>
       <c r="F1069" s="4" t="s">
-        <v>3356</v>
+        <v>3445</v>
       </c>
       <c r="G1069" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1069" s="4" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I1069" s="4"/>
       <c r="J1069" s="4"/>
@@ -53059,22 +53109,22 @@
       </c>
       <c r="C1070" s="8" t="str">
         <f>CONCATENATE(G1070,H1070,I1070,J1070,K1070,L1070,M1070)</f>
-        <v>'x</v>
+        <v>'k</v>
       </c>
       <c r="D1070" s="9" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E1070" s="4" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="F1070" s="4" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="G1070" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1070" s="4" t="s">
-        <v>1246</v>
+        <v>949</v>
       </c>
       <c r="I1070" s="4"/>
       <c r="J1070" s="4"/>
@@ -53095,26 +53145,24 @@
       </c>
       <c r="C1071" s="8" t="str">
         <f>CONCATENATE(G1071,H1071,I1071,J1071,K1071,L1071,M1071)</f>
-        <v>'sh</v>
+        <v>'g</v>
       </c>
       <c r="D1071" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E1071" s="4" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="F1071" s="4" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="G1071" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1071" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I1071" s="4" t="s">
-        <v>1248</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="I1071" s="4"/>
       <c r="J1071" s="4"/>
       <c r="K1071" s="4"/>
       <c r="L1071" s="4"/>
@@ -53133,22 +53181,22 @@
       </c>
       <c r="C1072" s="8" t="str">
         <f>CONCATENATE(G1072,H1072,I1072,J1072,K1072,L1072,M1072)</f>
-        <v>'z</v>
+        <v>'x</v>
       </c>
       <c r="D1072" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E1072" s="4" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="G1072" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1072" s="4" t="s">
-        <v>952</v>
+        <v>1246</v>
       </c>
       <c r="I1072" s="4"/>
       <c r="J1072" s="4"/>
@@ -53169,22 +53217,22 @@
       </c>
       <c r="C1073" s="8" t="str">
         <f>CONCATENATE(G1073,H1073,I1073,J1073,K1073,L1073,M1073)</f>
-        <v>'ch</v>
+        <v>'sh</v>
       </c>
       <c r="D1073" s="9" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E1073" s="4" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="F1073" s="4" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="G1073" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1073" s="4" t="s">
-        <v>1240</v>
+        <v>951</v>
       </c>
       <c r="I1073" s="4" t="s">
         <v>1248</v>
@@ -53207,22 +53255,22 @@
       </c>
       <c r="C1074" s="8" t="str">
         <f>CONCATENATE(G1074,H1074,I1074,J1074,K1074,L1074,M1074)</f>
-        <v>'t</v>
+        <v>'z</v>
       </c>
       <c r="D1074" s="9" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E1074" s="4" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="F1074" s="4" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="G1074" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1074" s="4" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="I1074" s="4"/>
       <c r="J1074" s="4"/>
@@ -53243,24 +53291,26 @@
       </c>
       <c r="C1075" s="8" t="str">
         <f>CONCATENATE(G1075,H1075,I1075,J1075,K1075,L1075,M1075)</f>
-        <v>'d</v>
+        <v>'ch</v>
       </c>
       <c r="D1075" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E1075" s="4" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="F1075" s="4" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="G1075" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1075" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="I1075" s="4"/>
+        <v>1240</v>
+      </c>
+      <c r="I1075" s="4" t="s">
+        <v>1248</v>
+      </c>
       <c r="J1075" s="4"/>
       <c r="K1075" s="4"/>
       <c r="L1075" s="4"/>
@@ -53279,22 +53329,22 @@
       </c>
       <c r="C1076" s="8" t="str">
         <f>CONCATENATE(G1076,H1076,I1076,J1076,K1076,L1076,M1076)</f>
-        <v>'b</v>
+        <v>'t</v>
       </c>
       <c r="D1076" s="9" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="E1076" s="4" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="F1076" s="4" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="G1076" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1076" s="4" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="I1076" s="4"/>
       <c r="J1076" s="4"/>
@@ -53315,22 +53365,22 @@
       </c>
       <c r="C1077" s="8" t="str">
         <f>CONCATENATE(G1077,H1077,I1077,J1077,K1077,L1077,M1077)</f>
-        <v>'p</v>
+        <v>'d</v>
       </c>
       <c r="D1077" s="9" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E1077" s="4" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="F1077" s="4" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="G1077" s="5" t="s">
         <v>1249</v>
       </c>
       <c r="H1077" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I1077" s="4"/>
       <c r="J1077" s="4"/>
@@ -53351,26 +53401,24 @@
       </c>
       <c r="C1078" s="8" t="str">
         <f>CONCATENATE(G1078,H1078,I1078,J1078,K1078,L1078,M1078)</f>
-        <v>why</v>
+        <v>'b</v>
       </c>
       <c r="D1078" s="9" t="s">
-        <v>1107</v>
+        <v>671</v>
       </c>
       <c r="E1078" s="4" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="F1078" s="4" t="s">
-        <v>3365</v>
-      </c>
-      <c r="G1078" s="4" t="s">
-        <v>959</v>
+        <v>3363</v>
+      </c>
+      <c r="G1078" s="5" t="s">
+        <v>1249</v>
       </c>
       <c r="H1078" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I1078" s="4" t="s">
-        <v>1247</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="I1078" s="4"/>
       <c r="J1078" s="4"/>
       <c r="K1078" s="4"/>
       <c r="L1078" s="4"/>
@@ -53389,26 +53437,24 @@
       </c>
       <c r="C1079" s="8" t="str">
         <f>CONCATENATE(G1079,H1079,I1079,J1079,K1079,L1079,M1079)</f>
-        <v>'tc</v>
+        <v>'p</v>
       </c>
       <c r="D1079" s="9" t="s">
-        <v>1108</v>
+        <v>676</v>
       </c>
       <c r="E1079" s="4" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="F1079" s="4" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="G1079" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="H1079" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I1079" s="5" t="s">
-        <v>1265</v>
-      </c>
+      <c r="H1079" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="I1079" s="4"/>
       <c r="J1079" s="4"/>
       <c r="K1079" s="4"/>
       <c r="L1079" s="4"/>
@@ -53427,16 +53473,16 @@
       </c>
       <c r="C1080" s="8" t="str">
         <f>CONCATENATE(G1080,H1080,I1080,J1080,K1080,L1080,M1080)</f>
-        <v>wht</v>
+        <v>why</v>
       </c>
       <c r="D1080" s="9" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E1080" s="4" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="F1080" s="4" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="G1080" s="4" t="s">
         <v>959</v>
@@ -53445,7 +53491,7 @@
         <v>1248</v>
       </c>
       <c r="I1080" s="4" t="s">
-        <v>930</v>
+        <v>1247</v>
       </c>
       <c r="J1080" s="4"/>
       <c r="K1080" s="4"/>
@@ -53465,29 +53511,27 @@
       </c>
       <c r="C1081" s="8" t="str">
         <f>CONCATENATE(G1081,H1081,I1081,J1081,K1081,L1081,M1081)</f>
-        <v>whtk</v>
+        <v>'tc</v>
       </c>
       <c r="D1081" s="9" t="s">
-        <v>1224</v>
+        <v>1108</v>
       </c>
       <c r="E1081" s="4" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="F1081" s="4" t="s">
-        <v>3368</v>
-      </c>
-      <c r="G1081" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="H1081" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I1081" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J1081" s="4" t="s">
-        <v>949</v>
-      </c>
+        <v>3366</v>
+      </c>
+      <c r="G1081" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1081" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I1081" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J1081" s="4"/>
       <c r="K1081" s="4"/>
       <c r="L1081" s="4"/>
       <c r="M1081" s="4"/>
@@ -53505,16 +53549,16 @@
       </c>
       <c r="C1082" s="8" t="str">
         <f>CONCATENATE(G1082,H1082,I1082,J1082,K1082,L1082,M1082)</f>
-        <v>whtg</v>
+        <v>wht</v>
       </c>
       <c r="D1082" s="9" t="s">
-        <v>1225</v>
+        <v>1106</v>
       </c>
       <c r="E1082" s="4" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="G1082" s="4" t="s">
         <v>959</v>
@@ -53525,9 +53569,7 @@
       <c r="I1082" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="J1082" s="4" t="s">
-        <v>950</v>
-      </c>
+      <c r="J1082" s="4"/>
       <c r="K1082" s="4"/>
       <c r="L1082" s="4"/>
       <c r="M1082" s="4"/>
@@ -53545,16 +53587,16 @@
       </c>
       <c r="C1083" s="8" t="str">
         <f>CONCATENATE(G1083,H1083,I1083,J1083,K1083,L1083,M1083)</f>
-        <v>whtd</v>
+        <v>whtk</v>
       </c>
       <c r="D1083" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E1083" s="4" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="F1083" s="4" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="G1083" s="4" t="s">
         <v>959</v>
@@ -53566,7 +53608,7 @@
         <v>930</v>
       </c>
       <c r="J1083" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="K1083" s="4"/>
       <c r="L1083" s="4"/>
@@ -53585,25 +53627,29 @@
       </c>
       <c r="C1084" s="8" t="str">
         <f>CONCATENATE(G1084,H1084,I1084,J1084,K1084,L1084,M1084)</f>
-        <v>dy</v>
+        <v>whtg</v>
       </c>
       <c r="D1084" s="9" t="s">
-        <v>536</v>
+        <v>1225</v>
       </c>
       <c r="E1084" s="4" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="F1084" s="4" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="G1084" s="4" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H1084" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I1084" s="4"/>
-      <c r="J1084" s="4"/>
+        <v>1248</v>
+      </c>
+      <c r="I1084" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="J1084" s="4" t="s">
+        <v>950</v>
+      </c>
       <c r="K1084" s="4"/>
       <c r="L1084" s="4"/>
       <c r="M1084" s="4"/>
@@ -53621,25 +53667,29 @@
       </c>
       <c r="C1085" s="8" t="str">
         <f>CONCATENATE(G1085,H1085,I1085,J1085,K1085,L1085,M1085)</f>
-        <v>vw</v>
+        <v>whtd</v>
       </c>
       <c r="D1085" s="9" t="s">
-        <v>462</v>
+        <v>1226</v>
       </c>
       <c r="E1085" s="4" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="F1085" s="4" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="G1085" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H1085" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="I1085" s="4"/>
-      <c r="J1085" s="4"/>
+        <v>959</v>
+      </c>
+      <c r="H1085" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I1085" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="J1085" s="4" t="s">
+        <v>953</v>
+      </c>
       <c r="K1085" s="4"/>
       <c r="L1085" s="4"/>
       <c r="M1085" s="4"/>
@@ -53657,22 +53707,22 @@
       </c>
       <c r="C1086" s="8" t="str">
         <f>CONCATENATE(G1086,H1086,I1086,J1086,K1086,L1086,M1086)</f>
-        <v>fw</v>
+        <v>dy</v>
       </c>
       <c r="D1086" s="9" t="s">
-        <v>390</v>
+        <v>536</v>
       </c>
       <c r="E1086" s="4" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="F1086" s="4" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="G1086" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H1086" s="5" t="s">
-        <v>944</v>
+        <v>953</v>
+      </c>
+      <c r="H1086" s="4" t="s">
+        <v>1247</v>
       </c>
       <c r="I1086" s="4"/>
       <c r="J1086" s="4"/>
@@ -53693,22 +53743,22 @@
       </c>
       <c r="C1087" s="8" t="str">
         <f>CONCATENATE(G1087,H1087,I1087,J1087,K1087,L1087,M1087)</f>
-        <v>mp</v>
+        <v>vw</v>
       </c>
       <c r="D1087" s="9" t="s">
-        <v>3447</v>
+        <v>462</v>
       </c>
       <c r="E1087" s="4" t="s">
-        <v>3448</v>
+        <v>2517</v>
       </c>
       <c r="F1087" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="G1087" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="H1087" s="4" t="s">
-        <v>940</v>
+        <v>3372</v>
+      </c>
+      <c r="G1087" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H1087" s="5" t="s">
+        <v>944</v>
       </c>
       <c r="I1087" s="4"/>
       <c r="J1087" s="4"/>
@@ -53729,26 +53779,24 @@
       </c>
       <c r="C1088" s="8" t="str">
         <f>CONCATENATE(G1088,H1088,I1088,J1088,K1088,L1088,M1088)</f>
-        <v>'ng</v>
+        <v>fw</v>
       </c>
       <c r="D1088" s="9" t="s">
-        <v>1310</v>
+        <v>390</v>
       </c>
       <c r="E1088" s="4" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="F1088" s="4" t="s">
-        <v>3374</v>
-      </c>
-      <c r="G1088" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H1088" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="I1088" s="4" t="s">
-        <v>934</v>
-      </c>
+        <v>3373</v>
+      </c>
+      <c r="G1088" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H1088" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="I1088" s="4"/>
       <c r="J1088" s="4"/>
       <c r="K1088" s="4"/>
       <c r="L1088" s="4"/>
@@ -53767,26 +53815,24 @@
       </c>
       <c r="C1089" s="8" t="str">
         <f>CONCATENATE(G1089,H1089,I1089,J1089,K1089,L1089,M1089)</f>
-        <v>'nd</v>
+        <v>mp</v>
       </c>
       <c r="D1089" s="9" t="s">
-        <v>3381</v>
+        <v>3447</v>
       </c>
       <c r="E1089" s="4" t="s">
-        <v>3382</v>
+        <v>3448</v>
       </c>
       <c r="F1089" s="4" t="s">
-        <v>3383</v>
+        <v>3449</v>
       </c>
       <c r="G1089" s="5" t="s">
-        <v>1249</v>
+        <v>936</v>
       </c>
       <c r="H1089" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="I1089" s="4" t="s">
-        <v>938</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="I1089" s="4"/>
       <c r="J1089" s="4"/>
       <c r="K1089" s="4"/>
       <c r="L1089" s="4"/>
@@ -53805,24 +53851,26 @@
       </c>
       <c r="C1090" s="8" t="str">
         <f>CONCATENATE(G1090,H1090,I1090,J1090,K1090,L1090,M1090)</f>
-        <v>rr</v>
+        <v>'ng</v>
       </c>
       <c r="D1090" s="9" t="s">
-        <v>7</v>
+        <v>1310</v>
       </c>
       <c r="E1090" s="4" t="s">
-        <v>7</v>
+        <v>2519</v>
       </c>
       <c r="F1090" s="4" t="s">
-        <v>2663</v>
-      </c>
-      <c r="G1090" s="4" t="s">
-        <v>958</v>
+        <v>3374</v>
+      </c>
+      <c r="G1090" s="5" t="s">
+        <v>1249</v>
       </c>
       <c r="H1090" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="I1090" s="4"/>
+        <v>932</v>
+      </c>
+      <c r="I1090" s="4" t="s">
+        <v>934</v>
+      </c>
       <c r="J1090" s="4"/>
       <c r="K1090" s="4"/>
       <c r="L1090" s="4"/>
@@ -53837,29 +53885,29 @@
         <v>242</v>
       </c>
       <c r="B1091" s="6" t="s">
-        <v>681</v>
+        <v>1559</v>
       </c>
       <c r="C1091" s="8" t="str">
         <f>CONCATENATE(G1091,H1091,I1091,J1091,K1091,L1091,M1091)</f>
-        <v>''-</v>
+        <v>'nd</v>
       </c>
       <c r="D1091" s="9" t="s">
-        <v>682</v>
+        <v>3381</v>
       </c>
       <c r="E1091" s="4" t="s">
-        <v>2520</v>
+        <v>3382</v>
       </c>
       <c r="F1091" s="4" t="s">
-        <v>6</v>
+        <v>3383</v>
       </c>
       <c r="G1091" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="H1091" s="5" t="s">
-        <v>1249</v>
+      <c r="H1091" s="4" t="s">
+        <v>932</v>
       </c>
       <c r="I1091" s="4" t="s">
-        <v>6</v>
+        <v>938</v>
       </c>
       <c r="J1091" s="4"/>
       <c r="K1091" s="4"/>
@@ -53875,30 +53923,28 @@
         <v>242</v>
       </c>
       <c r="B1092" s="6" t="s">
-        <v>681</v>
+        <v>1559</v>
       </c>
       <c r="C1092" s="8" t="str">
         <f>CONCATENATE(G1092,H1092,I1092,J1092,K1092,L1092,M1092)</f>
-        <v>''/</v>
+        <v>rr</v>
       </c>
       <c r="D1092" s="9" t="s">
-        <v>1233</v>
+        <v>7</v>
       </c>
       <c r="E1092" s="4" t="s">
-        <v>2521</v>
+        <v>7</v>
       </c>
       <c r="F1092" s="4" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G1092" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H1092" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I1092" s="4" t="s">
-        <v>1237</v>
-      </c>
+        <v>2663</v>
+      </c>
+      <c r="G1092" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="H1092" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="I1092" s="4"/>
       <c r="J1092" s="4"/>
       <c r="K1092" s="4"/>
       <c r="L1092" s="4"/>
@@ -53917,16 +53963,16 @@
       </c>
       <c r="C1093" s="8" t="str">
         <f>CONCATENATE(G1093,H1093,I1093,J1093,K1093,L1093,M1093)</f>
-        <v>'']</v>
+        <v>''-</v>
       </c>
       <c r="D1093" s="9" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E1093" s="4" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="F1093" s="4" t="s">
-        <v>2522</v>
+        <v>6</v>
       </c>
       <c r="G1093" s="5" t="s">
         <v>1249</v>
@@ -53935,7 +53981,7 @@
         <v>1249</v>
       </c>
       <c r="I1093" s="4" t="s">
-        <v>1239</v>
+        <v>6</v>
       </c>
       <c r="J1093" s="4"/>
       <c r="K1093" s="4"/>
@@ -53955,16 +54001,16 @@
       </c>
       <c r="C1094" s="8" t="str">
         <f>CONCATENATE(G1094,H1094,I1094,J1094,K1094,L1094,M1094)</f>
-        <v>''[</v>
+        <v>''/</v>
       </c>
       <c r="D1094" s="9" t="s">
-        <v>685</v>
+        <v>1233</v>
       </c>
       <c r="E1094" s="4" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="F1094" s="4" t="s">
-        <v>2523</v>
+        <v>1237</v>
       </c>
       <c r="G1094" s="5" t="s">
         <v>1249</v>
@@ -53973,7 +54019,7 @@
         <v>1249</v>
       </c>
       <c r="I1094" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J1094" s="4"/>
       <c r="K1094" s="4"/>
@@ -53993,16 +54039,16 @@
       </c>
       <c r="C1095" s="8" t="str">
         <f>CONCATENATE(G1095,H1095,I1095,J1095,K1095,L1095,M1095)</f>
-        <v>''(</v>
+        <v>'']</v>
       </c>
       <c r="D1095" s="9" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E1095" s="4" t="s">
-        <v>853</v>
+        <v>2522</v>
       </c>
       <c r="F1095" s="4" t="s">
-        <v>853</v>
+        <v>2522</v>
       </c>
       <c r="G1095" s="5" t="s">
         <v>1249</v>
@@ -54011,7 +54057,7 @@
         <v>1249</v>
       </c>
       <c r="I1095" s="4" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="J1095" s="4"/>
       <c r="K1095" s="4"/>
@@ -54031,16 +54077,16 @@
       </c>
       <c r="C1096" s="8" t="str">
         <f>CONCATENATE(G1096,H1096,I1096,J1096,K1096,L1096,M1096)</f>
-        <v>'')</v>
+        <v>''[</v>
       </c>
       <c r="D1096" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E1096" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="F1096" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="G1096" s="5" t="s">
         <v>1249</v>
@@ -54049,7 +54095,7 @@
         <v>1249</v>
       </c>
       <c r="I1096" s="4" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J1096" s="4"/>
       <c r="K1096" s="4"/>
@@ -54069,16 +54115,16 @@
       </c>
       <c r="C1097" s="8" t="str">
         <f>CONCATENATE(G1097,H1097,I1097,J1097,K1097,L1097,M1097)</f>
-        <v>''k</v>
+        <v>''(</v>
       </c>
       <c r="D1097" s="9" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E1097" s="4" t="s">
-        <v>2525</v>
+        <v>853</v>
       </c>
       <c r="F1097" s="4" t="s">
-        <v>2525</v>
+        <v>853</v>
       </c>
       <c r="G1097" s="5" t="s">
         <v>1249</v>
@@ -54087,7 +54133,7 @@
         <v>1249</v>
       </c>
       <c r="I1097" s="4" t="s">
-        <v>949</v>
+        <v>1235</v>
       </c>
       <c r="J1097" s="4"/>
       <c r="K1097" s="4"/>
@@ -54107,16 +54153,16 @@
       </c>
       <c r="C1098" s="8" t="str">
         <f>CONCATENATE(G1098,H1098,I1098,J1098,K1098,L1098,M1098)</f>
-        <v>''l</v>
+        <v>'')</v>
       </c>
       <c r="D1098" s="9" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E1098" s="4" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="F1098" s="4" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="G1098" s="5" t="s">
         <v>1249</v>
@@ -54125,7 +54171,7 @@
         <v>1249</v>
       </c>
       <c r="I1098" s="4" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="J1098" s="4"/>
       <c r="K1098" s="4"/>
@@ -54145,16 +54191,16 @@
       </c>
       <c r="C1099" s="8" t="str">
         <f>CONCATENATE(G1099,H1099,I1099,J1099,K1099,L1099,M1099)</f>
-        <v>''j</v>
+        <v>''k</v>
       </c>
       <c r="D1099" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E1099" s="4" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="F1099" s="4" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="G1099" s="5" t="s">
         <v>1249</v>
@@ -54163,7 +54209,7 @@
         <v>1249</v>
       </c>
       <c r="I1099" s="4" t="s">
-        <v>1242</v>
+        <v>949</v>
       </c>
       <c r="J1099" s="4"/>
       <c r="K1099" s="4"/>
@@ -54183,16 +54229,16 @@
       </c>
       <c r="C1100" s="8" t="str">
         <f>CONCATENATE(G1100,H1100,I1100,J1100,K1100,L1100,M1100)</f>
-        <v>''h</v>
+        <v>''l</v>
       </c>
       <c r="D1100" s="9" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E1100" s="4" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F1100" s="4" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="G1100" s="5" t="s">
         <v>1249</v>
@@ -54201,7 +54247,7 @@
         <v>1249</v>
       </c>
       <c r="I1100" s="4" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="J1100" s="4"/>
       <c r="K1100" s="4"/>
@@ -54221,16 +54267,16 @@
       </c>
       <c r="C1101" s="8" t="str">
         <f>CONCATENATE(G1101,H1101,I1101,J1101,K1101,L1101,M1101)</f>
-        <v>''"</v>
+        <v>''j</v>
       </c>
       <c r="D1101" s="9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E1101" s="4" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="F1101" s="4" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="G1101" s="5" t="s">
         <v>1249</v>
@@ -54239,7 +54285,7 @@
         <v>1249</v>
       </c>
       <c r="I1101" s="4" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="J1101" s="4"/>
       <c r="K1101" s="4"/>
@@ -54250,8 +54296,81 @@
       <c r="P1101" s="4"/>
       <c r="Q1101" s="4"/>
     </row>
-    <row r="1888" spans="7:7">
-      <c r="G1888" s="26"/>
+    <row r="1102" spans="1:17">
+      <c r="A1102" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1102" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1102" s="8" t="str">
+        <f>CONCATENATE(G1102,H1102,I1102,J1102,K1102,L1102,M1102)</f>
+        <v>''h</v>
+      </c>
+      <c r="D1102" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1102" s="4" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1102" s="4" t="s">
+        <v>2528</v>
+      </c>
+      <c r="G1102" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1102" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1102" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J1102" s="4"/>
+      <c r="K1102" s="4"/>
+      <c r="L1102" s="4"/>
+      <c r="M1102" s="4"/>
+      <c r="N1102" s="4"/>
+      <c r="O1102" s="4"/>
+      <c r="P1102" s="4"/>
+      <c r="Q1102" s="4"/>
+    </row>
+    <row r="1103" spans="1:17">
+      <c r="A1103" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1103" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1103" s="8" t="str">
+        <f>CONCATENATE(G1103,H1103,I1103,J1103,K1103,L1103,M1103)</f>
+        <v>''"</v>
+      </c>
+      <c r="D1103" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1103" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F1103" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G1103" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1103" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1103" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J1103" s="4"/>
+      <c r="K1103" s="4"/>
+      <c r="L1103" s="4"/>
+      <c r="M1103" s="4"/>
+      <c r="N1103" s="4"/>
+      <c r="O1103" s="4"/>
+      <c r="P1103" s="4"/>
+      <c r="Q1103" s="4"/>
     </row>
     <row r="1890" spans="7:7">
       <c r="G1890" s="26"/>
@@ -54280,9 +54399,8 @@
     <row r="1906" spans="7:8">
       <c r="G1906" s="26"/>
     </row>
-    <row r="1918" spans="7:8">
-      <c r="G1918" s="26"/>
-      <c r="H1918" s="26"/>
+    <row r="1908" spans="7:8">
+      <c r="G1908" s="26"/>
     </row>
     <row r="1920" spans="7:8">
       <c r="G1920" s="26"/>
@@ -54320,10 +54438,14 @@
       <c r="G1936" s="26"/>
       <c r="H1936" s="26"/>
     </row>
+    <row r="1938" spans="7:8">
+      <c r="G1938" s="26"/>
+      <c r="H1938" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q1101">
-    <sortState ref="A2:Q1101">
-      <sortCondition ref="B1:B1101"/>
+  <autoFilter ref="A1:Q1103">
+    <sortState ref="A2:Q1103">
+      <sortCondition ref="B1:B1103"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="7"/>
